--- a/data.xlsx
+++ b/data.xlsx
@@ -1,21 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustav Surface\Google Drive\DTU\02450 Introduktion til Machine Learning og Data Mining F20\02450Projects\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0164526F-63E1-4375-8936-5E56C0E4B95A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="18426" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2981" uniqueCount="718">
   <si>
     <t xml:space="preserve">ozone </t>
   </si>
@@ -2166,22 +2181,30 @@
   </si>
   <si>
     <t xml:space="preserve">3704 </t>
+  </si>
+  <si>
+    <t>month</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2189,28 +2212,39 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2500,19 +2534,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J331"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L331"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="12" max="12" width="10.29296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2543,8 +2577,11 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2575,8 +2612,13 @@
       <c r="J2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" t="str">
+        <f>TEXT(DATE(1976,1,J2),"mmm")</f>
+        <v>Jan</v>
+      </c>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -2607,8 +2649,13 @@
       <c r="J3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" t="str">
+        <f>TEXT(DATE(1976,1,J3),"mmm")</f>
+        <v>Jan</v>
+      </c>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2639,8 +2686,13 @@
       <c r="J4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" t="str">
+        <f>TEXT(DATE(1976,1,J4),"mmm")</f>
+        <v>Jan</v>
+      </c>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -2671,8 +2723,13 @@
       <c r="J5">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" t="str">
+        <f>TEXT(DATE(1976,1,J5),"mmm")</f>
+        <v>Jan</v>
+      </c>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -2703,8 +2760,13 @@
       <c r="J6">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" t="str">
+        <f>TEXT(DATE(1976,1,J6),"mmm")</f>
+        <v>Jan</v>
+      </c>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -2735,8 +2797,13 @@
       <c r="J7">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" t="str">
+        <f>TEXT(DATE(1976,1,J7),"mmm")</f>
+        <v>Jan</v>
+      </c>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -2767,8 +2834,13 @@
       <c r="J8">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" t="str">
+        <f>TEXT(DATE(1976,1,J8),"mmm")</f>
+        <v>Jan</v>
+      </c>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -2799,8 +2871,13 @@
       <c r="J9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" t="str">
+        <f>TEXT(DATE(1976,1,J9),"mmm")</f>
+        <v>Jan</v>
+      </c>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -2831,8 +2908,13 @@
       <c r="J10">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" t="str">
+        <f>TEXT(DATE(1976,1,J10),"mmm")</f>
+        <v>Jan</v>
+      </c>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -2863,8 +2945,13 @@
       <c r="J11">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" t="str">
+        <f>TEXT(DATE(1976,1,J11),"mmm")</f>
+        <v>Jan</v>
+      </c>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2895,8 +2982,13 @@
       <c r="J12">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12" t="str">
+        <f>TEXT(DATE(1976,1,J12),"mmm")</f>
+        <v>Jan</v>
+      </c>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -2927,8 +3019,13 @@
       <c r="J13">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" t="str">
+        <f>TEXT(DATE(1976,1,J13),"mmm")</f>
+        <v>Jan</v>
+      </c>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -2959,8 +3056,13 @@
       <c r="J14">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" t="str">
+        <f>TEXT(DATE(1976,1,J14),"mmm")</f>
+        <v>Jan</v>
+      </c>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -2991,8 +3093,13 @@
       <c r="J15">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15" t="str">
+        <f>TEXT(DATE(1976,1,J15),"mmm")</f>
+        <v>Jan</v>
+      </c>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -3023,8 +3130,13 @@
       <c r="J16">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16" t="str">
+        <f>TEXT(DATE(1976,1,J16),"mmm")</f>
+        <v>Jan</v>
+      </c>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>101</v>
       </c>
@@ -3055,8 +3167,13 @@
       <c r="J17">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17" t="str">
+        <f>TEXT(DATE(1976,1,J17),"mmm")</f>
+        <v>Jan</v>
+      </c>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -3087,8 +3204,13 @@
       <c r="J18">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18" t="str">
+        <f>TEXT(DATE(1976,1,J18),"mmm")</f>
+        <v>Jan</v>
+      </c>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -3119,8 +3241,13 @@
       <c r="J19">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19" t="str">
+        <f>TEXT(DATE(1976,1,J19),"mmm")</f>
+        <v>Jan</v>
+      </c>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -3151,8 +3278,13 @@
       <c r="J20">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20" t="str">
+        <f>TEXT(DATE(1976,1,J20),"mmm")</f>
+        <v>Jan</v>
+      </c>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -3183,8 +3315,13 @@
       <c r="J21">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21" t="str">
+        <f>TEXT(DATE(1976,1,J21),"mmm")</f>
+        <v>Jan</v>
+      </c>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3215,8 +3352,13 @@
       <c r="J22">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22" t="str">
+        <f>TEXT(DATE(1976,1,J22),"mmm")</f>
+        <v>Jan</v>
+      </c>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -3247,8 +3389,13 @@
       <c r="J23">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23" t="str">
+        <f>TEXT(DATE(1976,1,J23),"mmm")</f>
+        <v>Jan</v>
+      </c>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>101</v>
       </c>
@@ -3279,8 +3426,13 @@
       <c r="J24">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24" t="str">
+        <f>TEXT(DATE(1976,1,J24),"mmm")</f>
+        <v>Jan</v>
+      </c>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -3311,8 +3463,13 @@
       <c r="J25">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25" t="str">
+        <f>TEXT(DATE(1976,1,J25),"mmm")</f>
+        <v>Jan</v>
+      </c>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -3343,8 +3500,13 @@
       <c r="J26">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26" t="str">
+        <f>TEXT(DATE(1976,1,J26),"mmm")</f>
+        <v>Jan</v>
+      </c>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>141</v>
       </c>
@@ -3375,8 +3537,13 @@
       <c r="J27">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27" t="str">
+        <f>TEXT(DATE(1976,1,J27),"mmm")</f>
+        <v>Jan</v>
+      </c>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>145</v>
       </c>
@@ -3407,8 +3574,13 @@
       <c r="J28">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28" t="str">
+        <f>TEXT(DATE(1976,1,J28),"mmm")</f>
+        <v>Jan</v>
+      </c>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -3439,8 +3611,13 @@
       <c r="J29">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29" t="str">
+        <f>TEXT(DATE(1976,1,J29),"mmm")</f>
+        <v>Feb</v>
+      </c>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>154</v>
       </c>
@@ -3471,8 +3648,13 @@
       <c r="J30">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30" t="str">
+        <f>TEXT(DATE(1976,1,J30),"mmm")</f>
+        <v>Feb</v>
+      </c>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>101</v>
       </c>
@@ -3503,8 +3685,13 @@
       <c r="J31">
         <v>34</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31" t="str">
+        <f>TEXT(DATE(1976,1,J31),"mmm")</f>
+        <v>Feb</v>
+      </c>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>165</v>
       </c>
@@ -3535,8 +3722,13 @@
       <c r="J32">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32" t="str">
+        <f>TEXT(DATE(1976,1,J32),"mmm")</f>
+        <v>Feb</v>
+      </c>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -3567,8 +3759,13 @@
       <c r="J33">
         <v>36</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33" t="str">
+        <f>TEXT(DATE(1976,1,J33),"mmm")</f>
+        <v>Feb</v>
+      </c>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -3599,8 +3796,13 @@
       <c r="J34">
         <v>37</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34" t="str">
+        <f>TEXT(DATE(1976,1,J34),"mmm")</f>
+        <v>Feb</v>
+      </c>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>165</v>
       </c>
@@ -3631,8 +3833,13 @@
       <c r="J35">
         <v>38</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35" t="str">
+        <f>TEXT(DATE(1976,1,J35),"mmm")</f>
+        <v>Feb</v>
+      </c>
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -3663,8 +3870,13 @@
       <c r="J36">
         <v>39</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36" t="str">
+        <f>TEXT(DATE(1976,1,J36),"mmm")</f>
+        <v>Feb</v>
+      </c>
+      <c r="L36" s="1"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -3695,8 +3907,13 @@
       <c r="J37">
         <v>40</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37" t="str">
+        <f>TEXT(DATE(1976,1,J37),"mmm")</f>
+        <v>Feb</v>
+      </c>
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -3727,8 +3944,13 @@
       <c r="J38">
         <v>41</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38" t="str">
+        <f>TEXT(DATE(1976,1,J38),"mmm")</f>
+        <v>Feb</v>
+      </c>
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -3759,8 +3981,13 @@
       <c r="J39">
         <v>42</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39" t="str">
+        <f>TEXT(DATE(1976,1,J39),"mmm")</f>
+        <v>Feb</v>
+      </c>
+      <c r="L39" s="1"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>201</v>
       </c>
@@ -3791,8 +4018,13 @@
       <c r="J40">
         <v>43</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40" t="str">
+        <f>TEXT(DATE(1976,1,J40),"mmm")</f>
+        <v>Feb</v>
+      </c>
+      <c r="L40" s="1"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -3823,8 +4055,13 @@
       <c r="J41">
         <v>44</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41" t="str">
+        <f>TEXT(DATE(1976,1,J41),"mmm")</f>
+        <v>Feb</v>
+      </c>
+      <c r="L41" s="1"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -3855,8 +4092,13 @@
       <c r="J42">
         <v>45</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42" t="str">
+        <f>TEXT(DATE(1976,1,J42),"mmm")</f>
+        <v>Feb</v>
+      </c>
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -3887,8 +4129,13 @@
       <c r="J43">
         <v>46</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43" t="str">
+        <f>TEXT(DATE(1976,1,J43),"mmm")</f>
+        <v>Feb</v>
+      </c>
+      <c r="L43" s="1"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>60</v>
       </c>
@@ -3919,8 +4166,13 @@
       <c r="J44">
         <v>47</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44" t="str">
+        <f>TEXT(DATE(1976,1,J44),"mmm")</f>
+        <v>Feb</v>
+      </c>
+      <c r="L44" s="1"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>141</v>
       </c>
@@ -3951,8 +4203,13 @@
       <c r="J45">
         <v>48</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45" t="str">
+        <f>TEXT(DATE(1976,1,J45),"mmm")</f>
+        <v>Feb</v>
+      </c>
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>222</v>
       </c>
@@ -3983,8 +4240,13 @@
       <c r="J46">
         <v>49</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46" t="str">
+        <f>TEXT(DATE(1976,1,J46),"mmm")</f>
+        <v>Feb</v>
+      </c>
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>35</v>
       </c>
@@ -4015,8 +4277,13 @@
       <c r="J47">
         <v>51</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47" t="str">
+        <f>TEXT(DATE(1976,1,J47),"mmm")</f>
+        <v>Feb</v>
+      </c>
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -4047,8 +4314,13 @@
       <c r="J48">
         <v>52</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48" t="str">
+        <f>TEXT(DATE(1976,1,J48),"mmm")</f>
+        <v>Feb</v>
+      </c>
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -4079,8 +4351,13 @@
       <c r="J49">
         <v>53</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49" t="str">
+        <f>TEXT(DATE(1976,1,J49),"mmm")</f>
+        <v>Feb</v>
+      </c>
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -4111,8 +4388,13 @@
       <c r="J50">
         <v>54</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50" t="str">
+        <f>TEXT(DATE(1976,1,J50),"mmm")</f>
+        <v>Feb</v>
+      </c>
+      <c r="L50" s="1"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>35</v>
       </c>
@@ -4143,8 +4425,13 @@
       <c r="J51">
         <v>55</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="K51" t="str">
+        <f>TEXT(DATE(1976,1,J51),"mmm")</f>
+        <v>Feb</v>
+      </c>
+      <c r="L51" s="1"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
         <v>145</v>
       </c>
@@ -4175,8 +4462,13 @@
       <c r="J52">
         <v>56</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52" t="str">
+        <f>TEXT(DATE(1976,1,J52),"mmm")</f>
+        <v>Feb</v>
+      </c>
+      <c r="L52" s="1"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
         <v>240</v>
       </c>
@@ -4207,8 +4499,13 @@
       <c r="J53">
         <v>57</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="K53" t="str">
+        <f>TEXT(DATE(1976,1,J53),"mmm")</f>
+        <v>Feb</v>
+      </c>
+      <c r="L53" s="1"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
         <v>244</v>
       </c>
@@ -4239,8 +4536,13 @@
       <c r="J54">
         <v>58</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54" t="str">
+        <f>TEXT(DATE(1976,1,J54),"mmm")</f>
+        <v>Feb</v>
+      </c>
+      <c r="L54" s="1"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
         <v>250</v>
       </c>
@@ -4271,8 +4573,13 @@
       <c r="J55">
         <v>59</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="K55" t="str">
+        <f>TEXT(DATE(1976,1,J55),"mmm")</f>
+        <v>Feb</v>
+      </c>
+      <c r="L55" s="1"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -4303,8 +4610,13 @@
       <c r="J56">
         <v>60</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="K56" t="str">
+        <f>TEXT(DATE(1976,1,J56),"mmm")</f>
+        <v>Feb</v>
+      </c>
+      <c r="L56" s="1"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
         <v>165</v>
       </c>
@@ -4335,8 +4647,13 @@
       <c r="J57">
         <v>61</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="K57" t="str">
+        <f>TEXT(DATE(1976,1,J57),"mmm")</f>
+        <v>Mar</v>
+      </c>
+      <c r="L57" s="1"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -4367,8 +4684,13 @@
       <c r="J58">
         <v>62</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="K58" t="str">
+        <f>TEXT(DATE(1976,1,J58),"mmm")</f>
+        <v>Mar</v>
+      </c>
+      <c r="L58" s="1"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -4399,8 +4721,13 @@
       <c r="J59">
         <v>63</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="K59" t="str">
+        <f>TEXT(DATE(1976,1,J59),"mmm")</f>
+        <v>Mar</v>
+      </c>
+      <c r="L59" s="1"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
         <v>42</v>
       </c>
@@ -4431,8 +4758,13 @@
       <c r="J60">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="K60" t="str">
+        <f>TEXT(DATE(1976,1,J60),"mmm")</f>
+        <v>Mar</v>
+      </c>
+      <c r="L60" s="1"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
         <v>35</v>
       </c>
@@ -4463,8 +4795,13 @@
       <c r="J61">
         <v>66</v>
       </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="K61" t="str">
+        <f>TEXT(DATE(1976,1,J61),"mmm")</f>
+        <v>Mar</v>
+      </c>
+      <c r="L61" s="1"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -4495,8 +4832,13 @@
       <c r="J62">
         <v>67</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="K62" t="str">
+        <f>TEXT(DATE(1976,1,J62),"mmm")</f>
+        <v>Mar</v>
+      </c>
+      <c r="L62" s="1"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -4527,8 +4869,13 @@
       <c r="J63">
         <v>68</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="K63" t="str">
+        <f>TEXT(DATE(1976,1,J63),"mmm")</f>
+        <v>Mar</v>
+      </c>
+      <c r="L63" s="1"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
         <v>35</v>
       </c>
@@ -4559,8 +4906,13 @@
       <c r="J64">
         <v>69</v>
       </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="K64" t="str">
+        <f>TEXT(DATE(1976,1,J64),"mmm")</f>
+        <v>Mar</v>
+      </c>
+      <c r="L64" s="1"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -4591,8 +4943,13 @@
       <c r="J65">
         <v>70</v>
       </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="K65" t="str">
+        <f>TEXT(DATE(1976,1,J65),"mmm")</f>
+        <v>Mar</v>
+      </c>
+      <c r="L65" s="1"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A66" t="s">
         <v>165</v>
       </c>
@@ -4623,8 +4980,13 @@
       <c r="J66">
         <v>71</v>
       </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="K66" t="str">
+        <f>TEXT(DATE(1976,1,J66),"mmm")</f>
+        <v>Mar</v>
+      </c>
+      <c r="L66" s="1"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
         <v>201</v>
       </c>
@@ -4655,8 +5017,13 @@
       <c r="J67">
         <v>72</v>
       </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="K67" t="str">
+        <f>TEXT(DATE(1976,1,J67),"mmm")</f>
+        <v>Mar</v>
+      </c>
+      <c r="L67" s="1"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
         <v>154</v>
       </c>
@@ -4687,8 +5054,13 @@
       <c r="J68">
         <v>73</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="K68" t="str">
+        <f>TEXT(DATE(1976,1,J68),"mmm")</f>
+        <v>Mar</v>
+      </c>
+      <c r="L68" s="1"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
         <v>154</v>
       </c>
@@ -4719,8 +5091,13 @@
       <c r="J69">
         <v>74</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="K69" t="str">
+        <f>TEXT(DATE(1976,1,J69),"mmm")</f>
+        <v>Mar</v>
+      </c>
+      <c r="L69" s="1"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A70" t="s">
         <v>297</v>
       </c>
@@ -4751,8 +5128,13 @@
       <c r="J70">
         <v>75</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="K70" t="str">
+        <f>TEXT(DATE(1976,1,J70),"mmm")</f>
+        <v>Mar</v>
+      </c>
+      <c r="L70" s="1"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A71" t="s">
         <v>101</v>
       </c>
@@ -4783,8 +5165,13 @@
       <c r="J71">
         <v>76</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="K71" t="str">
+        <f>TEXT(DATE(1976,1,J71),"mmm")</f>
+        <v>Mar</v>
+      </c>
+      <c r="L71" s="1"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A72" t="s">
         <v>303</v>
       </c>
@@ -4815,8 +5202,13 @@
       <c r="J72">
         <v>77</v>
       </c>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="K72" t="str">
+        <f>TEXT(DATE(1976,1,J72),"mmm")</f>
+        <v>Mar</v>
+      </c>
+      <c r="L72" s="1"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A73" t="s">
         <v>222</v>
       </c>
@@ -4847,8 +5239,13 @@
       <c r="J73">
         <v>78</v>
       </c>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="K73" t="str">
+        <f>TEXT(DATE(1976,1,J73),"mmm")</f>
+        <v>Mar</v>
+      </c>
+      <c r="L73" s="1"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A74" t="s">
         <v>201</v>
       </c>
@@ -4879,8 +5276,13 @@
       <c r="J74">
         <v>79</v>
       </c>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="K74" t="str">
+        <f>TEXT(DATE(1976,1,J74),"mmm")</f>
+        <v>Mar</v>
+      </c>
+      <c r="L74" s="1"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A75" t="s">
         <v>145</v>
       </c>
@@ -4911,8 +5313,13 @@
       <c r="J75">
         <v>80</v>
       </c>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="K75" t="str">
+        <f>TEXT(DATE(1976,1,J75),"mmm")</f>
+        <v>Mar</v>
+      </c>
+      <c r="L75" s="1"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A76" t="s">
         <v>201</v>
       </c>
@@ -4943,8 +5350,13 @@
       <c r="J76">
         <v>81</v>
       </c>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="K76" t="str">
+        <f>TEXT(DATE(1976,1,J76),"mmm")</f>
+        <v>Mar</v>
+      </c>
+      <c r="L76" s="1"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A77" t="s">
         <v>101</v>
       </c>
@@ -4975,8 +5387,13 @@
       <c r="J77">
         <v>82</v>
       </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="K77" t="str">
+        <f>TEXT(DATE(1976,1,J77),"mmm")</f>
+        <v>Mar</v>
+      </c>
+      <c r="L77" s="1"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A78" t="s">
         <v>145</v>
       </c>
@@ -5007,8 +5424,13 @@
       <c r="J78">
         <v>83</v>
       </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="K78" t="str">
+        <f>TEXT(DATE(1976,1,J78),"mmm")</f>
+        <v>Mar</v>
+      </c>
+      <c r="L78" s="1"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A79" t="s">
         <v>322</v>
       </c>
@@ -5039,8 +5461,13 @@
       <c r="J79">
         <v>85</v>
       </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="K79" t="str">
+        <f>TEXT(DATE(1976,1,J79),"mmm")</f>
+        <v>Mar</v>
+      </c>
+      <c r="L79" s="1"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A80" t="s">
         <v>101</v>
       </c>
@@ -5071,8 +5498,13 @@
       <c r="J80">
         <v>86</v>
       </c>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="K80" t="str">
+        <f>TEXT(DATE(1976,1,J80),"mmm")</f>
+        <v>Mar</v>
+      </c>
+      <c r="L80" s="1"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A81" t="s">
         <v>141</v>
       </c>
@@ -5103,8 +5535,13 @@
       <c r="J81">
         <v>87</v>
       </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="K81" t="str">
+        <f>TEXT(DATE(1976,1,J81),"mmm")</f>
+        <v>Mar</v>
+      </c>
+      <c r="L81" s="1"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A82" t="s">
         <v>60</v>
       </c>
@@ -5135,8 +5572,13 @@
       <c r="J82">
         <v>88</v>
       </c>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="K82" t="str">
+        <f>TEXT(DATE(1976,1,J82),"mmm")</f>
+        <v>Mar</v>
+      </c>
+      <c r="L82" s="1"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A83" t="s">
         <v>101</v>
       </c>
@@ -5167,8 +5609,13 @@
       <c r="J83">
         <v>89</v>
       </c>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="K83" t="str">
+        <f>TEXT(DATE(1976,1,J83),"mmm")</f>
+        <v>Mar</v>
+      </c>
+      <c r="L83" s="1"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A84" t="s">
         <v>154</v>
       </c>
@@ -5199,8 +5646,13 @@
       <c r="J84">
         <v>90</v>
       </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="K84" t="str">
+        <f>TEXT(DATE(1976,1,J84),"mmm")</f>
+        <v>Mar</v>
+      </c>
+      <c r="L84" s="1"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A85" t="s">
         <v>154</v>
       </c>
@@ -5231,8 +5683,13 @@
       <c r="J85">
         <v>91</v>
       </c>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="K85" t="str">
+        <f>TEXT(DATE(1976,1,J85),"mmm")</f>
+        <v>Mar</v>
+      </c>
+      <c r="L85" s="1"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A86" t="s">
         <v>201</v>
       </c>
@@ -5263,8 +5720,13 @@
       <c r="J86">
         <v>92</v>
       </c>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="K86" t="str">
+        <f>TEXT(DATE(1976,1,J86),"mmm")</f>
+        <v>Apr</v>
+      </c>
+      <c r="L86" s="1"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A87" t="s">
         <v>101</v>
       </c>
@@ -5295,8 +5757,13 @@
       <c r="J87">
         <v>93</v>
       </c>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="K87" t="str">
+        <f>TEXT(DATE(1976,1,J87),"mmm")</f>
+        <v>Apr</v>
+      </c>
+      <c r="L87" s="1"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A88" t="s">
         <v>19</v>
       </c>
@@ -5327,8 +5794,13 @@
       <c r="J88">
         <v>94</v>
       </c>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="K88" t="str">
+        <f>TEXT(DATE(1976,1,J88),"mmm")</f>
+        <v>Apr</v>
+      </c>
+      <c r="L88" s="1"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A89" t="s">
         <v>42</v>
       </c>
@@ -5359,8 +5831,13 @@
       <c r="J89">
         <v>95</v>
       </c>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="K89" t="str">
+        <f>TEXT(DATE(1976,1,J89),"mmm")</f>
+        <v>Apr</v>
+      </c>
+      <c r="L89" s="1"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A90" t="s">
         <v>42</v>
       </c>
@@ -5391,8 +5868,13 @@
       <c r="J90">
         <v>96</v>
       </c>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="K90" t="str">
+        <f>TEXT(DATE(1976,1,J90),"mmm")</f>
+        <v>Apr</v>
+      </c>
+      <c r="L90" s="1"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A91" t="s">
         <v>101</v>
       </c>
@@ -5423,8 +5905,13 @@
       <c r="J91">
         <v>97</v>
       </c>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="K91" t="str">
+        <f>TEXT(DATE(1976,1,J91),"mmm")</f>
+        <v>Apr</v>
+      </c>
+      <c r="L91" s="1"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A92" t="s">
         <v>222</v>
       </c>
@@ -5455,8 +5942,13 @@
       <c r="J92">
         <v>98</v>
       </c>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="K92" t="str">
+        <f>TEXT(DATE(1976,1,J92),"mmm")</f>
+        <v>Apr</v>
+      </c>
+      <c r="L92" s="1"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A93" t="s">
         <v>19</v>
       </c>
@@ -5487,8 +5979,13 @@
       <c r="J93">
         <v>99</v>
       </c>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="K93" t="str">
+        <f>TEXT(DATE(1976,1,J93),"mmm")</f>
+        <v>Apr</v>
+      </c>
+      <c r="L93" s="1"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A94" t="s">
         <v>145</v>
       </c>
@@ -5519,8 +6016,13 @@
       <c r="J94">
         <v>100</v>
       </c>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="K94" t="str">
+        <f>TEXT(DATE(1976,1,J94),"mmm")</f>
+        <v>Apr</v>
+      </c>
+      <c r="L94" s="1"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A95" t="s">
         <v>145</v>
       </c>
@@ -5551,8 +6053,13 @@
       <c r="J95">
         <v>101</v>
       </c>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="K95" t="str">
+        <f>TEXT(DATE(1976,1,J95),"mmm")</f>
+        <v>Apr</v>
+      </c>
+      <c r="L95" s="1"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A96" t="s">
         <v>60</v>
       </c>
@@ -5583,8 +6090,13 @@
       <c r="J96">
         <v>102</v>
       </c>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="K96" t="str">
+        <f>TEXT(DATE(1976,1,J96),"mmm")</f>
+        <v>Apr</v>
+      </c>
+      <c r="L96" s="1"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A97" t="s">
         <v>19</v>
       </c>
@@ -5615,8 +6127,13 @@
       <c r="J97">
         <v>103</v>
       </c>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="K97" t="str">
+        <f>TEXT(DATE(1976,1,J97),"mmm")</f>
+        <v>Apr</v>
+      </c>
+      <c r="L97" s="1"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A98" t="s">
         <v>42</v>
       </c>
@@ -5647,8 +6164,13 @@
       <c r="J98">
         <v>104</v>
       </c>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="K98" t="str">
+        <f>TEXT(DATE(1976,1,J98),"mmm")</f>
+        <v>Apr</v>
+      </c>
+      <c r="L98" s="1"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A99" t="s">
         <v>60</v>
       </c>
@@ -5679,8 +6201,13 @@
       <c r="J99">
         <v>105</v>
       </c>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="K99" t="str">
+        <f>TEXT(DATE(1976,1,J99),"mmm")</f>
+        <v>Apr</v>
+      </c>
+      <c r="L99" s="1"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A100" t="s">
         <v>10</v>
       </c>
@@ -5711,8 +6238,13 @@
       <c r="J100">
         <v>106</v>
       </c>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="K100" t="str">
+        <f>TEXT(DATE(1976,1,J100),"mmm")</f>
+        <v>Apr</v>
+      </c>
+      <c r="L100" s="1"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A101" t="s">
         <v>42</v>
       </c>
@@ -5743,8 +6275,13 @@
       <c r="J101">
         <v>107</v>
       </c>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="K101" t="str">
+        <f>TEXT(DATE(1976,1,J101),"mmm")</f>
+        <v>Apr</v>
+      </c>
+      <c r="L101" s="1"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A102" t="s">
         <v>60</v>
       </c>
@@ -5775,8 +6312,13 @@
       <c r="J102">
         <v>108</v>
       </c>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="K102" t="str">
+        <f>TEXT(DATE(1976,1,J102),"mmm")</f>
+        <v>Apr</v>
+      </c>
+      <c r="L102" s="1"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A103" t="s">
         <v>141</v>
       </c>
@@ -5807,8 +6349,13 @@
       <c r="J103">
         <v>109</v>
       </c>
-    </row>
-    <row r="104" spans="1:10">
+      <c r="K103" t="str">
+        <f>TEXT(DATE(1976,1,J103),"mmm")</f>
+        <v>Apr</v>
+      </c>
+      <c r="L103" s="1"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A104" t="s">
         <v>240</v>
       </c>
@@ -5839,8 +6386,13 @@
       <c r="J104">
         <v>110</v>
       </c>
-    </row>
-    <row r="105" spans="1:10">
+      <c r="K104" t="str">
+        <f>TEXT(DATE(1976,1,J104),"mmm")</f>
+        <v>Apr</v>
+      </c>
+      <c r="L104" s="1"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A105" t="s">
         <v>368</v>
       </c>
@@ -5871,8 +6423,13 @@
       <c r="J105">
         <v>111</v>
       </c>
-    </row>
-    <row r="106" spans="1:10">
+      <c r="K105" t="str">
+        <f>TEXT(DATE(1976,1,J105),"mmm")</f>
+        <v>Apr</v>
+      </c>
+      <c r="L105" s="1"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A106" t="s">
         <v>250</v>
       </c>
@@ -5903,8 +6460,13 @@
       <c r="J106">
         <v>112</v>
       </c>
-    </row>
-    <row r="107" spans="1:10">
+      <c r="K106" t="str">
+        <f>TEXT(DATE(1976,1,J106),"mmm")</f>
+        <v>Apr</v>
+      </c>
+      <c r="L106" s="1"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A107" t="s">
         <v>60</v>
       </c>
@@ -5935,8 +6497,13 @@
       <c r="J107">
         <v>113</v>
       </c>
-    </row>
-    <row r="108" spans="1:10">
+      <c r="K107" t="str">
+        <f>TEXT(DATE(1976,1,J107),"mmm")</f>
+        <v>Apr</v>
+      </c>
+      <c r="L107" s="1"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A108" t="s">
         <v>145</v>
       </c>
@@ -5967,8 +6534,13 @@
       <c r="J108">
         <v>114</v>
       </c>
-    </row>
-    <row r="109" spans="1:10">
+      <c r="K108" t="str">
+        <f>TEXT(DATE(1976,1,J108),"mmm")</f>
+        <v>Apr</v>
+      </c>
+      <c r="L108" s="1"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A109" t="s">
         <v>380</v>
       </c>
@@ -5999,8 +6571,13 @@
       <c r="J109">
         <v>115</v>
       </c>
-    </row>
-    <row r="110" spans="1:10">
+      <c r="K109" t="str">
+        <f>TEXT(DATE(1976,1,J109),"mmm")</f>
+        <v>Apr</v>
+      </c>
+      <c r="L109" s="1"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A110" t="s">
         <v>383</v>
       </c>
@@ -6031,8 +6608,13 @@
       <c r="J110">
         <v>116</v>
       </c>
-    </row>
-    <row r="111" spans="1:10">
+      <c r="K110" t="str">
+        <f>TEXT(DATE(1976,1,J110),"mmm")</f>
+        <v>Apr</v>
+      </c>
+      <c r="L110" s="1"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A111" t="s">
         <v>154</v>
       </c>
@@ -6063,8 +6645,13 @@
       <c r="J111">
         <v>117</v>
       </c>
-    </row>
-    <row r="112" spans="1:10">
+      <c r="K111" t="str">
+        <f>TEXT(DATE(1976,1,J111),"mmm")</f>
+        <v>Apr</v>
+      </c>
+      <c r="L111" s="1"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A112" t="s">
         <v>35</v>
       </c>
@@ -6095,8 +6682,13 @@
       <c r="J112">
         <v>118</v>
       </c>
-    </row>
-    <row r="113" spans="1:10">
+      <c r="K112" t="str">
+        <f>TEXT(DATE(1976,1,J112),"mmm")</f>
+        <v>Apr</v>
+      </c>
+      <c r="L112" s="1"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A113" t="s">
         <v>101</v>
       </c>
@@ -6127,8 +6719,13 @@
       <c r="J113">
         <v>119</v>
       </c>
-    </row>
-    <row r="114" spans="1:10">
+      <c r="K113" t="str">
+        <f>TEXT(DATE(1976,1,J113),"mmm")</f>
+        <v>Apr</v>
+      </c>
+      <c r="L113" s="1"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A114" t="s">
         <v>380</v>
       </c>
@@ -6159,8 +6756,13 @@
       <c r="J114">
         <v>120</v>
       </c>
-    </row>
-    <row r="115" spans="1:10">
+      <c r="K114" t="str">
+        <f>TEXT(DATE(1976,1,J114),"mmm")</f>
+        <v>Apr</v>
+      </c>
+      <c r="L114" s="1"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A115" t="s">
         <v>393</v>
       </c>
@@ -6191,8 +6793,13 @@
       <c r="J115">
         <v>121</v>
       </c>
-    </row>
-    <row r="116" spans="1:10">
+      <c r="K115" t="str">
+        <f>TEXT(DATE(1976,1,J115),"mmm")</f>
+        <v>Apr</v>
+      </c>
+      <c r="L115" s="1"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A116" t="s">
         <v>398</v>
       </c>
@@ -6223,8 +6830,13 @@
       <c r="J116">
         <v>122</v>
       </c>
-    </row>
-    <row r="117" spans="1:10">
+      <c r="K116" t="str">
+        <f>TEXT(DATE(1976,1,J116),"mmm")</f>
+        <v>May</v>
+      </c>
+      <c r="L116" s="1"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A117" t="s">
         <v>297</v>
       </c>
@@ -6255,8 +6867,13 @@
       <c r="J117">
         <v>123</v>
       </c>
-    </row>
-    <row r="118" spans="1:10">
+      <c r="K117" t="str">
+        <f>TEXT(DATE(1976,1,J117),"mmm")</f>
+        <v>May</v>
+      </c>
+      <c r="L117" s="1"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A118" t="s">
         <v>141</v>
       </c>
@@ -6287,8 +6904,13 @@
       <c r="J118">
         <v>125</v>
       </c>
-    </row>
-    <row r="119" spans="1:10">
+      <c r="K118" t="str">
+        <f>TEXT(DATE(1976,1,J118),"mmm")</f>
+        <v>May</v>
+      </c>
+      <c r="L118" s="1"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A119" t="s">
         <v>165</v>
       </c>
@@ -6319,8 +6941,13 @@
       <c r="J119">
         <v>127</v>
       </c>
-    </row>
-    <row r="120" spans="1:10">
+      <c r="K119" t="str">
+        <f>TEXT(DATE(1976,1,J119),"mmm")</f>
+        <v>May</v>
+      </c>
+      <c r="L119" s="1"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A120" t="s">
         <v>154</v>
       </c>
@@ -6351,8 +6978,13 @@
       <c r="J120">
         <v>128</v>
       </c>
-    </row>
-    <row r="121" spans="1:10">
+      <c r="K120" t="str">
+        <f>TEXT(DATE(1976,1,J120),"mmm")</f>
+        <v>May</v>
+      </c>
+      <c r="L120" s="1"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A121" t="s">
         <v>297</v>
       </c>
@@ -6383,8 +7015,13 @@
       <c r="J121">
         <v>129</v>
       </c>
-    </row>
-    <row r="122" spans="1:10">
+      <c r="K121" t="str">
+        <f>TEXT(DATE(1976,1,J121),"mmm")</f>
+        <v>May</v>
+      </c>
+      <c r="L121" s="1"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A122" t="s">
         <v>368</v>
       </c>
@@ -6415,8 +7052,13 @@
       <c r="J122">
         <v>130</v>
       </c>
-    </row>
-    <row r="123" spans="1:10">
+      <c r="K122" t="str">
+        <f>TEXT(DATE(1976,1,J122),"mmm")</f>
+        <v>May</v>
+      </c>
+      <c r="L122" s="1"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A123" t="s">
         <v>410</v>
       </c>
@@ -6447,8 +7089,13 @@
       <c r="J123">
         <v>131</v>
       </c>
-    </row>
-    <row r="124" spans="1:10">
+      <c r="K123" t="str">
+        <f>TEXT(DATE(1976,1,J123),"mmm")</f>
+        <v>May</v>
+      </c>
+      <c r="L123" s="1"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A124" t="s">
         <v>413</v>
       </c>
@@ -6479,8 +7126,13 @@
       <c r="J124">
         <v>132</v>
       </c>
-    </row>
-    <row r="125" spans="1:10">
+      <c r="K124" t="str">
+        <f>TEXT(DATE(1976,1,J124),"mmm")</f>
+        <v>May</v>
+      </c>
+      <c r="L124" s="1"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A125" t="s">
         <v>417</v>
       </c>
@@ -6511,8 +7163,13 @@
       <c r="J125">
         <v>133</v>
       </c>
-    </row>
-    <row r="126" spans="1:10">
+      <c r="K125" t="str">
+        <f>TEXT(DATE(1976,1,J125),"mmm")</f>
+        <v>May</v>
+      </c>
+      <c r="L125" s="1"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A126" t="s">
         <v>423</v>
       </c>
@@ -6543,8 +7200,13 @@
       <c r="J126">
         <v>134</v>
       </c>
-    </row>
-    <row r="127" spans="1:10">
+      <c r="K126" t="str">
+        <f>TEXT(DATE(1976,1,J126),"mmm")</f>
+        <v>May</v>
+      </c>
+      <c r="L126" s="1"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A127" t="s">
         <v>428</v>
       </c>
@@ -6575,8 +7237,13 @@
       <c r="J127">
         <v>135</v>
       </c>
-    </row>
-    <row r="128" spans="1:10">
+      <c r="K127" t="str">
+        <f>TEXT(DATE(1976,1,J127),"mmm")</f>
+        <v>May</v>
+      </c>
+      <c r="L127" s="1"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A128" t="s">
         <v>383</v>
       </c>
@@ -6607,8 +7274,13 @@
       <c r="J128">
         <v>136</v>
       </c>
-    </row>
-    <row r="129" spans="1:10">
+      <c r="K128" t="str">
+        <f>TEXT(DATE(1976,1,J128),"mmm")</f>
+        <v>May</v>
+      </c>
+      <c r="L128" s="1"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A129" t="s">
         <v>303</v>
       </c>
@@ -6639,8 +7311,13 @@
       <c r="J129">
         <v>138</v>
       </c>
-    </row>
-    <row r="130" spans="1:10">
+      <c r="K129" t="str">
+        <f>TEXT(DATE(1976,1,J129),"mmm")</f>
+        <v>May</v>
+      </c>
+      <c r="L129" s="1"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A130" t="s">
         <v>297</v>
       </c>
@@ -6671,8 +7348,13 @@
       <c r="J130">
         <v>139</v>
       </c>
-    </row>
-    <row r="131" spans="1:10">
+      <c r="K130" t="str">
+        <f>TEXT(DATE(1976,1,J130),"mmm")</f>
+        <v>May</v>
+      </c>
+      <c r="L130" s="1"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A131" t="s">
         <v>154</v>
       </c>
@@ -6703,8 +7385,13 @@
       <c r="J131">
         <v>140</v>
       </c>
-    </row>
-    <row r="132" spans="1:10">
+      <c r="K131" t="str">
+        <f>TEXT(DATE(1976,1,J131),"mmm")</f>
+        <v>May</v>
+      </c>
+      <c r="L131" s="1"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A132" t="s">
         <v>101</v>
       </c>
@@ -6735,8 +7422,13 @@
       <c r="J132">
         <v>141</v>
       </c>
-    </row>
-    <row r="133" spans="1:10">
+      <c r="K132" t="str">
+        <f>TEXT(DATE(1976,1,J132),"mmm")</f>
+        <v>May</v>
+      </c>
+      <c r="L132" s="1"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A133" t="s">
         <v>297</v>
       </c>
@@ -6767,8 +7459,13 @@
       <c r="J133">
         <v>143</v>
       </c>
-    </row>
-    <row r="134" spans="1:10">
+      <c r="K133" t="str">
+        <f>TEXT(DATE(1976,1,J133),"mmm")</f>
+        <v>May</v>
+      </c>
+      <c r="L133" s="1"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A134" t="s">
         <v>201</v>
       </c>
@@ -6799,8 +7496,13 @@
       <c r="J134">
         <v>145</v>
       </c>
-    </row>
-    <row r="135" spans="1:10">
+      <c r="K134" t="str">
+        <f>TEXT(DATE(1976,1,J134),"mmm")</f>
+        <v>May</v>
+      </c>
+      <c r="L134" s="1"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A135" t="s">
         <v>101</v>
       </c>
@@ -6831,8 +7533,13 @@
       <c r="J135">
         <v>146</v>
       </c>
-    </row>
-    <row r="136" spans="1:10">
+      <c r="K135" t="str">
+        <f>TEXT(DATE(1976,1,J135),"mmm")</f>
+        <v>May</v>
+      </c>
+      <c r="L135" s="1"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A136" t="s">
         <v>398</v>
       </c>
@@ -6863,8 +7570,13 @@
       <c r="J136">
         <v>147</v>
       </c>
-    </row>
-    <row r="137" spans="1:10">
+      <c r="K136" t="str">
+        <f>TEXT(DATE(1976,1,J136),"mmm")</f>
+        <v>May</v>
+      </c>
+      <c r="L136" s="1"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A137" t="s">
         <v>410</v>
       </c>
@@ -6895,8 +7607,13 @@
       <c r="J137">
         <v>148</v>
       </c>
-    </row>
-    <row r="138" spans="1:10">
+      <c r="K137" t="str">
+        <f>TEXT(DATE(1976,1,J137),"mmm")</f>
+        <v>May</v>
+      </c>
+      <c r="L137" s="1"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A138" t="s">
         <v>19</v>
       </c>
@@ -6927,8 +7644,13 @@
       <c r="J138">
         <v>149</v>
       </c>
-    </row>
-    <row r="139" spans="1:10">
+      <c r="K138" t="str">
+        <f>TEXT(DATE(1976,1,J138),"mmm")</f>
+        <v>May</v>
+      </c>
+      <c r="L138" s="1"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A139" t="s">
         <v>19</v>
       </c>
@@ -6959,8 +7681,13 @@
       <c r="J139">
         <v>150</v>
       </c>
-    </row>
-    <row r="140" spans="1:10">
+      <c r="K139" t="str">
+        <f>TEXT(DATE(1976,1,J139),"mmm")</f>
+        <v>May</v>
+      </c>
+      <c r="L139" s="1"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A140" t="s">
         <v>141</v>
       </c>
@@ -6991,8 +7718,13 @@
       <c r="J140">
         <v>151</v>
       </c>
-    </row>
-    <row r="141" spans="1:10">
+      <c r="K140" t="str">
+        <f>TEXT(DATE(1976,1,J140),"mmm")</f>
+        <v>May</v>
+      </c>
+      <c r="L140" s="1"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A141" t="s">
         <v>154</v>
       </c>
@@ -7023,8 +7755,13 @@
       <c r="J141">
         <v>152</v>
       </c>
-    </row>
-    <row r="142" spans="1:10">
+      <c r="K141" t="str">
+        <f>TEXT(DATE(1976,1,J141),"mmm")</f>
+        <v>May</v>
+      </c>
+      <c r="L141" s="1"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A142" t="s">
         <v>380</v>
       </c>
@@ -7055,8 +7792,13 @@
       <c r="J142">
         <v>153</v>
       </c>
-    </row>
-    <row r="143" spans="1:10">
+      <c r="K142" t="str">
+        <f>TEXT(DATE(1976,1,J142),"mmm")</f>
+        <v>Jun</v>
+      </c>
+      <c r="L142" s="1"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A143" t="s">
         <v>250</v>
       </c>
@@ -7087,8 +7829,13 @@
       <c r="J143">
         <v>154</v>
       </c>
-    </row>
-    <row r="144" spans="1:10">
+      <c r="K143" t="str">
+        <f>TEXT(DATE(1976,1,J143),"mmm")</f>
+        <v>Jun</v>
+      </c>
+      <c r="L143" s="1"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A144" t="s">
         <v>380</v>
       </c>
@@ -7119,8 +7866,13 @@
       <c r="J144">
         <v>155</v>
       </c>
-    </row>
-    <row r="145" spans="1:10">
+      <c r="K144" t="str">
+        <f>TEXT(DATE(1976,1,J144),"mmm")</f>
+        <v>Jun</v>
+      </c>
+      <c r="L144" s="1"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A145" t="s">
         <v>297</v>
       </c>
@@ -7151,8 +7903,13 @@
       <c r="J145">
         <v>156</v>
       </c>
-    </row>
-    <row r="146" spans="1:10">
+      <c r="K145" t="str">
+        <f>TEXT(DATE(1976,1,J145),"mmm")</f>
+        <v>Jun</v>
+      </c>
+      <c r="L145" s="1"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A146" t="s">
         <v>322</v>
       </c>
@@ -7183,8 +7940,13 @@
       <c r="J146">
         <v>157</v>
       </c>
-    </row>
-    <row r="147" spans="1:10">
+      <c r="K146" t="str">
+        <f>TEXT(DATE(1976,1,J146),"mmm")</f>
+        <v>Jun</v>
+      </c>
+      <c r="L146" s="1"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A147" t="s">
         <v>145</v>
       </c>
@@ -7215,8 +7977,13 @@
       <c r="J147">
         <v>158</v>
       </c>
-    </row>
-    <row r="148" spans="1:10">
+      <c r="K147" t="str">
+        <f>TEXT(DATE(1976,1,J147),"mmm")</f>
+        <v>Jun</v>
+      </c>
+      <c r="L147" s="1"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A148" t="s">
         <v>101</v>
       </c>
@@ -7247,8 +8014,13 @@
       <c r="J148">
         <v>159</v>
       </c>
-    </row>
-    <row r="149" spans="1:10">
+      <c r="K148" t="str">
+        <f>TEXT(DATE(1976,1,J148),"mmm")</f>
+        <v>Jun</v>
+      </c>
+      <c r="L148" s="1"/>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A149" t="s">
         <v>60</v>
       </c>
@@ -7279,8 +8051,13 @@
       <c r="J149">
         <v>160</v>
       </c>
-    </row>
-    <row r="150" spans="1:10">
+      <c r="K149" t="str">
+        <f>TEXT(DATE(1976,1,J149),"mmm")</f>
+        <v>Jun</v>
+      </c>
+      <c r="L149" s="1"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A150" t="s">
         <v>19</v>
       </c>
@@ -7311,8 +8088,13 @@
       <c r="J150">
         <v>161</v>
       </c>
-    </row>
-    <row r="151" spans="1:10">
+      <c r="K150" t="str">
+        <f>TEXT(DATE(1976,1,J150),"mmm")</f>
+        <v>Jun</v>
+      </c>
+      <c r="L150" s="1"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A151" t="s">
         <v>165</v>
       </c>
@@ -7343,8 +8125,13 @@
       <c r="J151">
         <v>162</v>
       </c>
-    </row>
-    <row r="152" spans="1:10">
+      <c r="K151" t="str">
+        <f>TEXT(DATE(1976,1,J151),"mmm")</f>
+        <v>Jun</v>
+      </c>
+      <c r="L151" s="1"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A152" t="s">
         <v>154</v>
       </c>
@@ -7375,8 +8162,13 @@
       <c r="J152">
         <v>163</v>
       </c>
-    </row>
-    <row r="153" spans="1:10">
+      <c r="K152" t="str">
+        <f>TEXT(DATE(1976,1,J152),"mmm")</f>
+        <v>Jun</v>
+      </c>
+      <c r="L152" s="1"/>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A153" t="s">
         <v>368</v>
       </c>
@@ -7407,8 +8199,13 @@
       <c r="J153">
         <v>164</v>
       </c>
-    </row>
-    <row r="154" spans="1:10">
+      <c r="K153" t="str">
+        <f>TEXT(DATE(1976,1,J153),"mmm")</f>
+        <v>Jun</v>
+      </c>
+      <c r="L153" s="1"/>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A154" t="s">
         <v>250</v>
       </c>
@@ -7439,8 +8236,13 @@
       <c r="J154">
         <v>165</v>
       </c>
-    </row>
-    <row r="155" spans="1:10">
+      <c r="K154" t="str">
+        <f>TEXT(DATE(1976,1,J154),"mmm")</f>
+        <v>Jun</v>
+      </c>
+      <c r="L154" s="1"/>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A155" t="s">
         <v>477</v>
       </c>
@@ -7471,8 +8273,13 @@
       <c r="J155">
         <v>166</v>
       </c>
-    </row>
-    <row r="156" spans="1:10">
+      <c r="K155" t="str">
+        <f>TEXT(DATE(1976,1,J155),"mmm")</f>
+        <v>Jun</v>
+      </c>
+      <c r="L155" s="1"/>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A156" t="s">
         <v>413</v>
       </c>
@@ -7503,8 +8310,13 @@
       <c r="J156">
         <v>167</v>
       </c>
-    </row>
-    <row r="157" spans="1:10">
+      <c r="K156" t="str">
+        <f>TEXT(DATE(1976,1,J156),"mmm")</f>
+        <v>Jun</v>
+      </c>
+      <c r="L156" s="1"/>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A157" t="s">
         <v>322</v>
       </c>
@@ -7535,8 +8347,13 @@
       <c r="J157">
         <v>168</v>
       </c>
-    </row>
-    <row r="158" spans="1:10">
+      <c r="K157" t="str">
+        <f>TEXT(DATE(1976,1,J157),"mmm")</f>
+        <v>Jun</v>
+      </c>
+      <c r="L157" s="1"/>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A158" t="s">
         <v>141</v>
       </c>
@@ -7567,8 +8384,13 @@
       <c r="J158">
         <v>169</v>
       </c>
-    </row>
-    <row r="159" spans="1:10">
+      <c r="K158" t="str">
+        <f>TEXT(DATE(1976,1,J158),"mmm")</f>
+        <v>Jun</v>
+      </c>
+      <c r="L158" s="1"/>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A159" t="s">
         <v>244</v>
       </c>
@@ -7599,8 +8421,13 @@
       <c r="J159">
         <v>170</v>
       </c>
-    </row>
-    <row r="160" spans="1:10">
+      <c r="K159" t="str">
+        <f>TEXT(DATE(1976,1,J159),"mmm")</f>
+        <v>Jun</v>
+      </c>
+      <c r="L159" s="1"/>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A160" t="s">
         <v>477</v>
       </c>
@@ -7631,8 +8458,13 @@
       <c r="J160">
         <v>171</v>
       </c>
-    </row>
-    <row r="161" spans="1:10">
+      <c r="K160" t="str">
+        <f>TEXT(DATE(1976,1,J160),"mmm")</f>
+        <v>Jun</v>
+      </c>
+      <c r="L160" s="1"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A161" t="s">
         <v>393</v>
       </c>
@@ -7663,8 +8495,13 @@
       <c r="J161">
         <v>172</v>
       </c>
-    </row>
-    <row r="162" spans="1:10">
+      <c r="K161" t="str">
+        <f>TEXT(DATE(1976,1,J161),"mmm")</f>
+        <v>Jun</v>
+      </c>
+      <c r="L161" s="1"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A162" t="s">
         <v>240</v>
       </c>
@@ -7695,8 +8532,13 @@
       <c r="J162">
         <v>173</v>
       </c>
-    </row>
-    <row r="163" spans="1:10">
+      <c r="K162" t="str">
+        <f>TEXT(DATE(1976,1,J162),"mmm")</f>
+        <v>Jun</v>
+      </c>
+      <c r="L162" s="1"/>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A163" t="s">
         <v>410</v>
       </c>
@@ -7727,8 +8569,13 @@
       <c r="J163">
         <v>174</v>
       </c>
-    </row>
-    <row r="164" spans="1:10">
+      <c r="K163" t="str">
+        <f>TEXT(DATE(1976,1,J163),"mmm")</f>
+        <v>Jun</v>
+      </c>
+      <c r="L163" s="1"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A164" t="s">
         <v>240</v>
       </c>
@@ -7759,8 +8606,13 @@
       <c r="J164">
         <v>175</v>
       </c>
-    </row>
-    <row r="165" spans="1:10">
+      <c r="K164" t="str">
+        <f>TEXT(DATE(1976,1,J164),"mmm")</f>
+        <v>Jun</v>
+      </c>
+      <c r="L164" s="1"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A165" t="s">
         <v>383</v>
       </c>
@@ -7791,8 +8643,13 @@
       <c r="J165">
         <v>176</v>
       </c>
-    </row>
-    <row r="166" spans="1:10">
+      <c r="K165" t="str">
+        <f>TEXT(DATE(1976,1,J165),"mmm")</f>
+        <v>Jun</v>
+      </c>
+      <c r="L165" s="1"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A166" t="s">
         <v>477</v>
       </c>
@@ -7823,8 +8680,13 @@
       <c r="J166">
         <v>177</v>
       </c>
-    </row>
-    <row r="167" spans="1:10">
+      <c r="K166" t="str">
+        <f>TEXT(DATE(1976,1,J166),"mmm")</f>
+        <v>Jun</v>
+      </c>
+      <c r="L166" s="1"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A167" t="s">
         <v>380</v>
       </c>
@@ -7855,8 +8717,13 @@
       <c r="J167">
         <v>178</v>
       </c>
-    </row>
-    <row r="168" spans="1:10">
+      <c r="K167" t="str">
+        <f>TEXT(DATE(1976,1,J167),"mmm")</f>
+        <v>Jun</v>
+      </c>
+      <c r="L167" s="1"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A168" t="s">
         <v>222</v>
       </c>
@@ -7887,8 +8754,13 @@
       <c r="J168">
         <v>179</v>
       </c>
-    </row>
-    <row r="169" spans="1:10">
+      <c r="K168" t="str">
+        <f>TEXT(DATE(1976,1,J168),"mmm")</f>
+        <v>Jun</v>
+      </c>
+      <c r="L168" s="1"/>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A169" t="s">
         <v>509</v>
       </c>
@@ -7919,8 +8791,13 @@
       <c r="J169">
         <v>180</v>
       </c>
-    </row>
-    <row r="170" spans="1:10">
+      <c r="K169" t="str">
+        <f>TEXT(DATE(1976,1,J169),"mmm")</f>
+        <v>Jun</v>
+      </c>
+      <c r="L169" s="1"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A170" t="s">
         <v>477</v>
       </c>
@@ -7951,8 +8828,13 @@
       <c r="J170">
         <v>181</v>
       </c>
-    </row>
-    <row r="171" spans="1:10">
+      <c r="K170" t="str">
+        <f>TEXT(DATE(1976,1,J170),"mmm")</f>
+        <v>Jun</v>
+      </c>
+      <c r="L170" s="1"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A171" t="s">
         <v>240</v>
       </c>
@@ -7983,8 +8865,13 @@
       <c r="J171">
         <v>182</v>
       </c>
-    </row>
-    <row r="172" spans="1:10">
+      <c r="K171" t="str">
+        <f>TEXT(DATE(1976,1,J171),"mmm")</f>
+        <v>Jun</v>
+      </c>
+      <c r="L171" s="1"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A172" t="s">
         <v>297</v>
       </c>
@@ -8015,8 +8902,13 @@
       <c r="J172">
         <v>183</v>
       </c>
-    </row>
-    <row r="173" spans="1:10">
+      <c r="K172" t="str">
+        <f>TEXT(DATE(1976,1,J172),"mmm")</f>
+        <v>Jul</v>
+      </c>
+      <c r="L172" s="1"/>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A173" t="s">
         <v>297</v>
       </c>
@@ -8047,8 +8939,13 @@
       <c r="J173">
         <v>184</v>
       </c>
-    </row>
-    <row r="174" spans="1:10">
+      <c r="K173" t="str">
+        <f>TEXT(DATE(1976,1,J173),"mmm")</f>
+        <v>Jul</v>
+      </c>
+      <c r="L173" s="1"/>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A174" t="s">
         <v>380</v>
       </c>
@@ -8079,8 +8976,13 @@
       <c r="J174">
         <v>185</v>
       </c>
-    </row>
-    <row r="175" spans="1:10">
+      <c r="K174" t="str">
+        <f>TEXT(DATE(1976,1,J174),"mmm")</f>
+        <v>Jul</v>
+      </c>
+      <c r="L174" s="1"/>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A175" t="s">
         <v>244</v>
       </c>
@@ -8111,8 +9013,13 @@
       <c r="J175">
         <v>186</v>
       </c>
-    </row>
-    <row r="176" spans="1:10">
+      <c r="K175" t="str">
+        <f>TEXT(DATE(1976,1,J175),"mmm")</f>
+        <v>Jul</v>
+      </c>
+      <c r="L175" s="1"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A176" t="s">
         <v>527</v>
       </c>
@@ -8143,8 +9050,13 @@
       <c r="J176">
         <v>187</v>
       </c>
-    </row>
-    <row r="177" spans="1:10">
+      <c r="K176" t="str">
+        <f>TEXT(DATE(1976,1,J176),"mmm")</f>
+        <v>Jul</v>
+      </c>
+      <c r="L176" s="1"/>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A177" t="s">
         <v>530</v>
       </c>
@@ -8175,8 +9087,13 @@
       <c r="J177">
         <v>188</v>
       </c>
-    </row>
-    <row r="178" spans="1:10">
+      <c r="K177" t="str">
+        <f>TEXT(DATE(1976,1,J177),"mmm")</f>
+        <v>Jul</v>
+      </c>
+      <c r="L177" s="1"/>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A178" t="s">
         <v>417</v>
       </c>
@@ -8207,8 +9124,13 @@
       <c r="J178">
         <v>189</v>
       </c>
-    </row>
-    <row r="179" spans="1:10">
+      <c r="K178" t="str">
+        <f>TEXT(DATE(1976,1,J178),"mmm")</f>
+        <v>Jul</v>
+      </c>
+      <c r="L178" s="1"/>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A179" t="s">
         <v>303</v>
       </c>
@@ -8239,8 +9161,13 @@
       <c r="J179">
         <v>191</v>
       </c>
-    </row>
-    <row r="180" spans="1:10">
+      <c r="K179" t="str">
+        <f>TEXT(DATE(1976,1,J179),"mmm")</f>
+        <v>Jul</v>
+      </c>
+      <c r="L179" s="1"/>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A180" t="s">
         <v>250</v>
       </c>
@@ -8271,8 +9198,13 @@
       <c r="J180">
         <v>192</v>
       </c>
-    </row>
-    <row r="181" spans="1:10">
+      <c r="K180" t="str">
+        <f>TEXT(DATE(1976,1,J180),"mmm")</f>
+        <v>Jul</v>
+      </c>
+      <c r="L180" s="1"/>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A181" t="s">
         <v>145</v>
       </c>
@@ -8303,8 +9235,13 @@
       <c r="J181">
         <v>193</v>
       </c>
-    </row>
-    <row r="182" spans="1:10">
+      <c r="K181" t="str">
+        <f>TEXT(DATE(1976,1,J181),"mmm")</f>
+        <v>Jul</v>
+      </c>
+      <c r="L181" s="1"/>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A182" t="s">
         <v>322</v>
       </c>
@@ -8335,8 +9272,13 @@
       <c r="J182">
         <v>194</v>
       </c>
-    </row>
-    <row r="183" spans="1:10">
+      <c r="K182" t="str">
+        <f>TEXT(DATE(1976,1,J182),"mmm")</f>
+        <v>Jul</v>
+      </c>
+      <c r="L182" s="1"/>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A183" t="s">
         <v>222</v>
       </c>
@@ -8367,8 +9309,13 @@
       <c r="J183">
         <v>195</v>
       </c>
-    </row>
-    <row r="184" spans="1:10">
+      <c r="K183" t="str">
+        <f>TEXT(DATE(1976,1,J183),"mmm")</f>
+        <v>Jul</v>
+      </c>
+      <c r="L183" s="1"/>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A184" t="s">
         <v>250</v>
       </c>
@@ -8399,8 +9346,13 @@
       <c r="J184">
         <v>196</v>
       </c>
-    </row>
-    <row r="185" spans="1:10">
+      <c r="K184" t="str">
+        <f>TEXT(DATE(1976,1,J184),"mmm")</f>
+        <v>Jul</v>
+      </c>
+      <c r="L184" s="1"/>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A185" t="s">
         <v>368</v>
       </c>
@@ -8431,8 +9383,13 @@
       <c r="J185">
         <v>198</v>
       </c>
-    </row>
-    <row r="186" spans="1:10">
+      <c r="K185" t="str">
+        <f>TEXT(DATE(1976,1,J185),"mmm")</f>
+        <v>Jul</v>
+      </c>
+      <c r="L185" s="1"/>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A186" t="s">
         <v>380</v>
       </c>
@@ -8463,8 +9420,13 @@
       <c r="J186">
         <v>199</v>
       </c>
-    </row>
-    <row r="187" spans="1:10">
+      <c r="K186" t="str">
+        <f>TEXT(DATE(1976,1,J186),"mmm")</f>
+        <v>Jul</v>
+      </c>
+      <c r="L186" s="1"/>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A187" t="s">
         <v>410</v>
       </c>
@@ -8495,8 +9457,13 @@
       <c r="J187">
         <v>200</v>
       </c>
-    </row>
-    <row r="188" spans="1:10">
+      <c r="K187" t="str">
+        <f>TEXT(DATE(1976,1,J187),"mmm")</f>
+        <v>Jul</v>
+      </c>
+      <c r="L187" s="1"/>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A188" t="s">
         <v>423</v>
       </c>
@@ -8527,8 +9494,13 @@
       <c r="J188">
         <v>201</v>
       </c>
-    </row>
-    <row r="189" spans="1:10">
+      <c r="K188" t="str">
+        <f>TEXT(DATE(1976,1,J188),"mmm")</f>
+        <v>Jul</v>
+      </c>
+      <c r="L188" s="1"/>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A189" t="s">
         <v>527</v>
       </c>
@@ -8559,8 +9531,13 @@
       <c r="J189">
         <v>202</v>
       </c>
-    </row>
-    <row r="190" spans="1:10">
+      <c r="K189" t="str">
+        <f>TEXT(DATE(1976,1,J189),"mmm")</f>
+        <v>Jul</v>
+      </c>
+      <c r="L189" s="1"/>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A190" t="s">
         <v>398</v>
       </c>
@@ -8591,8 +9568,13 @@
       <c r="J190">
         <v>203</v>
       </c>
-    </row>
-    <row r="191" spans="1:10">
+      <c r="K190" t="str">
+        <f>TEXT(DATE(1976,1,J190),"mmm")</f>
+        <v>Jul</v>
+      </c>
+      <c r="L190" s="1"/>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A191" t="s">
         <v>244</v>
       </c>
@@ -8623,8 +9605,13 @@
       <c r="J191">
         <v>205</v>
       </c>
-    </row>
-    <row r="192" spans="1:10">
+      <c r="K191" t="str">
+        <f>TEXT(DATE(1976,1,J191),"mmm")</f>
+        <v>Jul</v>
+      </c>
+      <c r="L191" s="1"/>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A192" t="s">
         <v>477</v>
       </c>
@@ -8655,8 +9642,13 @@
       <c r="J192">
         <v>206</v>
       </c>
-    </row>
-    <row r="193" spans="1:10">
+      <c r="K192" t="str">
+        <f>TEXT(DATE(1976,1,J192),"mmm")</f>
+        <v>Jul</v>
+      </c>
+      <c r="L192" s="1"/>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A193" t="s">
         <v>322</v>
       </c>
@@ -8687,8 +9679,13 @@
       <c r="J193">
         <v>207</v>
       </c>
-    </row>
-    <row r="194" spans="1:10">
+      <c r="K193" t="str">
+        <f>TEXT(DATE(1976,1,J193),"mmm")</f>
+        <v>Jul</v>
+      </c>
+      <c r="L193" s="1"/>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A194" t="s">
         <v>222</v>
       </c>
@@ -8719,8 +9716,13 @@
       <c r="J194">
         <v>208</v>
       </c>
-    </row>
-    <row r="195" spans="1:10">
+      <c r="K194" t="str">
+        <f>TEXT(DATE(1976,1,J194),"mmm")</f>
+        <v>Jul</v>
+      </c>
+      <c r="L194" s="1"/>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A195" t="s">
         <v>477</v>
       </c>
@@ -8751,8 +9753,13 @@
       <c r="J195">
         <v>209</v>
       </c>
-    </row>
-    <row r="196" spans="1:10">
+      <c r="K195" t="str">
+        <f>TEXT(DATE(1976,1,J195),"mmm")</f>
+        <v>Jul</v>
+      </c>
+      <c r="L195" s="1"/>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A196" t="s">
         <v>368</v>
       </c>
@@ -8783,8 +9790,13 @@
       <c r="J196">
         <v>210</v>
       </c>
-    </row>
-    <row r="197" spans="1:10">
+      <c r="K196" t="str">
+        <f>TEXT(DATE(1976,1,J196),"mmm")</f>
+        <v>Jul</v>
+      </c>
+      <c r="L196" s="1"/>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A197" t="s">
         <v>322</v>
       </c>
@@ -8815,8 +9827,13 @@
       <c r="J197">
         <v>213</v>
       </c>
-    </row>
-    <row r="198" spans="1:10">
+      <c r="K197" t="str">
+        <f>TEXT(DATE(1976,1,J197),"mmm")</f>
+        <v>Jul</v>
+      </c>
+      <c r="L197" s="1"/>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A198" t="s">
         <v>222</v>
       </c>
@@ -8847,8 +9864,13 @@
       <c r="J198">
         <v>214</v>
       </c>
-    </row>
-    <row r="199" spans="1:10">
+      <c r="K198" t="str">
+        <f>TEXT(DATE(1976,1,J198),"mmm")</f>
+        <v>Aug</v>
+      </c>
+      <c r="L198" s="1"/>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A199" t="s">
         <v>101</v>
       </c>
@@ -8879,8 +9901,13 @@
       <c r="J199">
         <v>215</v>
       </c>
-    </row>
-    <row r="200" spans="1:10">
+      <c r="K199" t="str">
+        <f>TEXT(DATE(1976,1,J199),"mmm")</f>
+        <v>Aug</v>
+      </c>
+      <c r="L199" s="1"/>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A200" t="s">
         <v>154</v>
       </c>
@@ -8911,8 +9938,13 @@
       <c r="J200">
         <v>216</v>
       </c>
-    </row>
-    <row r="201" spans="1:10">
+      <c r="K200" t="str">
+        <f>TEXT(DATE(1976,1,J200),"mmm")</f>
+        <v>Aug</v>
+      </c>
+      <c r="L200" s="1"/>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A201" t="s">
         <v>322</v>
       </c>
@@ -8943,8 +9975,13 @@
       <c r="J201">
         <v>222</v>
       </c>
-    </row>
-    <row r="202" spans="1:10">
+      <c r="K201" t="str">
+        <f>TEXT(DATE(1976,1,J201),"mmm")</f>
+        <v>Aug</v>
+      </c>
+      <c r="L201" s="1"/>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A202" t="s">
         <v>303</v>
       </c>
@@ -8975,8 +10012,13 @@
       <c r="J202">
         <v>224</v>
       </c>
-    </row>
-    <row r="203" spans="1:10">
+      <c r="K202" t="str">
+        <f>TEXT(DATE(1976,1,J202),"mmm")</f>
+        <v>Aug</v>
+      </c>
+      <c r="L202" s="1"/>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A203" t="s">
         <v>380</v>
       </c>
@@ -9007,8 +10049,13 @@
       <c r="J203">
         <v>225</v>
       </c>
-    </row>
-    <row r="204" spans="1:10">
+      <c r="K203" t="str">
+        <f>TEXT(DATE(1976,1,J203),"mmm")</f>
+        <v>Aug</v>
+      </c>
+      <c r="L203" s="1"/>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A204" t="s">
         <v>297</v>
       </c>
@@ -9039,8 +10086,13 @@
       <c r="J204">
         <v>226</v>
       </c>
-    </row>
-    <row r="205" spans="1:10">
+      <c r="K204" t="str">
+        <f>TEXT(DATE(1976,1,J204),"mmm")</f>
+        <v>Aug</v>
+      </c>
+      <c r="L204" s="1"/>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A205" t="s">
         <v>60</v>
       </c>
@@ -9071,8 +10123,13 @@
       <c r="J205">
         <v>227</v>
       </c>
-    </row>
-    <row r="206" spans="1:10">
+      <c r="K205" t="str">
+        <f>TEXT(DATE(1976,1,J205),"mmm")</f>
+        <v>Aug</v>
+      </c>
+      <c r="L205" s="1"/>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A206" t="s">
         <v>165</v>
       </c>
@@ -9103,8 +10160,13 @@
       <c r="J206">
         <v>228</v>
       </c>
-    </row>
-    <row r="207" spans="1:10">
+      <c r="K206" t="str">
+        <f>TEXT(DATE(1976,1,J206),"mmm")</f>
+        <v>Aug</v>
+      </c>
+      <c r="L206" s="1"/>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A207" t="s">
         <v>42</v>
       </c>
@@ -9135,8 +10197,13 @@
       <c r="J207">
         <v>229</v>
       </c>
-    </row>
-    <row r="208" spans="1:10">
+      <c r="K207" t="str">
+        <f>TEXT(DATE(1976,1,J207),"mmm")</f>
+        <v>Aug</v>
+      </c>
+      <c r="L207" s="1"/>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A208" t="s">
         <v>35</v>
       </c>
@@ -9167,8 +10234,13 @@
       <c r="J208">
         <v>230</v>
       </c>
-    </row>
-    <row r="209" spans="1:10">
+      <c r="K208" t="str">
+        <f>TEXT(DATE(1976,1,J208),"mmm")</f>
+        <v>Aug</v>
+      </c>
+      <c r="L208" s="1"/>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A209" t="s">
         <v>154</v>
       </c>
@@ -9199,8 +10271,13 @@
       <c r="J209">
         <v>231</v>
       </c>
-    </row>
-    <row r="210" spans="1:10">
+      <c r="K209" t="str">
+        <f>TEXT(DATE(1976,1,J209),"mmm")</f>
+        <v>Aug</v>
+      </c>
+      <c r="L209" s="1"/>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A210" t="s">
         <v>101</v>
       </c>
@@ -9231,8 +10308,13 @@
       <c r="J210">
         <v>232</v>
       </c>
-    </row>
-    <row r="211" spans="1:10">
+      <c r="K210" t="str">
+        <f>TEXT(DATE(1976,1,J210),"mmm")</f>
+        <v>Aug</v>
+      </c>
+      <c r="L210" s="1"/>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A211" t="s">
         <v>240</v>
       </c>
@@ -9263,8 +10345,13 @@
       <c r="J211">
         <v>233</v>
       </c>
-    </row>
-    <row r="212" spans="1:10">
+      <c r="K211" t="str">
+        <f>TEXT(DATE(1976,1,J211),"mmm")</f>
+        <v>Aug</v>
+      </c>
+      <c r="L211" s="1"/>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A212" t="s">
         <v>250</v>
       </c>
@@ -9295,8 +10382,13 @@
       <c r="J212">
         <v>234</v>
       </c>
-    </row>
-    <row r="213" spans="1:10">
+      <c r="K212" t="str">
+        <f>TEXT(DATE(1976,1,J212),"mmm")</f>
+        <v>Aug</v>
+      </c>
+      <c r="L212" s="1"/>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A213" t="s">
         <v>222</v>
       </c>
@@ -9327,8 +10419,13 @@
       <c r="J213">
         <v>235</v>
       </c>
-    </row>
-    <row r="214" spans="1:10">
+      <c r="K213" t="str">
+        <f>TEXT(DATE(1976,1,J213),"mmm")</f>
+        <v>Aug</v>
+      </c>
+      <c r="L213" s="1"/>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A214" t="s">
         <v>410</v>
       </c>
@@ -9359,8 +10456,13 @@
       <c r="J214">
         <v>236</v>
       </c>
-    </row>
-    <row r="215" spans="1:10">
+      <c r="K214" t="str">
+        <f>TEXT(DATE(1976,1,J214),"mmm")</f>
+        <v>Aug</v>
+      </c>
+      <c r="L214" s="1"/>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A215" t="s">
         <v>368</v>
       </c>
@@ -9391,8 +10493,13 @@
       <c r="J215">
         <v>237</v>
       </c>
-    </row>
-    <row r="216" spans="1:10">
+      <c r="K215" t="str">
+        <f>TEXT(DATE(1976,1,J215),"mmm")</f>
+        <v>Aug</v>
+      </c>
+      <c r="L215" s="1"/>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A216" t="s">
         <v>303</v>
       </c>
@@ -9423,8 +10530,13 @@
       <c r="J216">
         <v>238</v>
       </c>
-    </row>
-    <row r="217" spans="1:10">
+      <c r="K216" t="str">
+        <f>TEXT(DATE(1976,1,J216),"mmm")</f>
+        <v>Aug</v>
+      </c>
+      <c r="L216" s="1"/>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A217" t="s">
         <v>477</v>
       </c>
@@ -9455,8 +10567,13 @@
       <c r="J217">
         <v>239</v>
       </c>
-    </row>
-    <row r="218" spans="1:10">
+      <c r="K217" t="str">
+        <f>TEXT(DATE(1976,1,J217),"mmm")</f>
+        <v>Aug</v>
+      </c>
+      <c r="L217" s="1"/>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A218" t="s">
         <v>592</v>
       </c>
@@ -9487,8 +10604,13 @@
       <c r="J218">
         <v>240</v>
       </c>
-    </row>
-    <row r="219" spans="1:10">
+      <c r="K218" t="str">
+        <f>TEXT(DATE(1976,1,J218),"mmm")</f>
+        <v>Aug</v>
+      </c>
+      <c r="L218" s="1"/>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A219" t="s">
         <v>417</v>
       </c>
@@ -9519,8 +10641,13 @@
       <c r="J219">
         <v>241</v>
       </c>
-    </row>
-    <row r="220" spans="1:10">
+      <c r="K219" t="str">
+        <f>TEXT(DATE(1976,1,J219),"mmm")</f>
+        <v>Aug</v>
+      </c>
+      <c r="L219" s="1"/>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A220" t="s">
         <v>413</v>
       </c>
@@ -9551,8 +10678,13 @@
       <c r="J220">
         <v>242</v>
       </c>
-    </row>
-    <row r="221" spans="1:10">
+      <c r="K220" t="str">
+        <f>TEXT(DATE(1976,1,J220),"mmm")</f>
+        <v>Aug</v>
+      </c>
+      <c r="L220" s="1"/>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A221" t="s">
         <v>601</v>
       </c>
@@ -9583,8 +10715,13 @@
       <c r="J221">
         <v>243</v>
       </c>
-    </row>
-    <row r="222" spans="1:10">
+      <c r="K221" t="str">
+        <f>TEXT(DATE(1976,1,J221),"mmm")</f>
+        <v>Aug</v>
+      </c>
+      <c r="L221" s="1"/>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A222" t="s">
         <v>244</v>
       </c>
@@ -9615,8 +10752,13 @@
       <c r="J222">
         <v>244</v>
       </c>
-    </row>
-    <row r="223" spans="1:10">
+      <c r="K222" t="str">
+        <f>TEXT(DATE(1976,1,J222),"mmm")</f>
+        <v>Aug</v>
+      </c>
+      <c r="L222" s="1"/>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A223" t="s">
         <v>380</v>
       </c>
@@ -9647,8 +10789,13 @@
       <c r="J223">
         <v>245</v>
       </c>
-    </row>
-    <row r="224" spans="1:10">
+      <c r="K223" t="str">
+        <f>TEXT(DATE(1976,1,J223),"mmm")</f>
+        <v>Sep</v>
+      </c>
+      <c r="L223" s="1"/>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A224" t="s">
         <v>380</v>
       </c>
@@ -9679,8 +10826,13 @@
       <c r="J224">
         <v>246</v>
       </c>
-    </row>
-    <row r="225" spans="1:10">
+      <c r="K224" t="str">
+        <f>TEXT(DATE(1976,1,J224),"mmm")</f>
+        <v>Sep</v>
+      </c>
+      <c r="L224" s="1"/>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A225" t="s">
         <v>240</v>
       </c>
@@ -9711,8 +10863,13 @@
       <c r="J225">
         <v>247</v>
       </c>
-    </row>
-    <row r="226" spans="1:10">
+      <c r="K225" t="str">
+        <f>TEXT(DATE(1976,1,J225),"mmm")</f>
+        <v>Sep</v>
+      </c>
+      <c r="L225" s="1"/>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A226" t="s">
         <v>527</v>
       </c>
@@ -9743,8 +10900,13 @@
       <c r="J226">
         <v>248</v>
       </c>
-    </row>
-    <row r="227" spans="1:10">
+      <c r="K226" t="str">
+        <f>TEXT(DATE(1976,1,J226),"mmm")</f>
+        <v>Sep</v>
+      </c>
+      <c r="L226" s="1"/>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A227" t="s">
         <v>145</v>
       </c>
@@ -9775,8 +10937,13 @@
       <c r="J227">
         <v>249</v>
       </c>
-    </row>
-    <row r="228" spans="1:10">
+      <c r="K227" t="str">
+        <f>TEXT(DATE(1976,1,J227),"mmm")</f>
+        <v>Sep</v>
+      </c>
+      <c r="L227" s="1"/>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A228" t="s">
         <v>322</v>
       </c>
@@ -9807,8 +10974,13 @@
       <c r="J228">
         <v>250</v>
       </c>
-    </row>
-    <row r="229" spans="1:10">
+      <c r="K228" t="str">
+        <f>TEXT(DATE(1976,1,J228),"mmm")</f>
+        <v>Sep</v>
+      </c>
+      <c r="L228" s="1"/>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A229" t="s">
         <v>477</v>
       </c>
@@ -9839,8 +11011,13 @@
       <c r="J229">
         <v>251</v>
       </c>
-    </row>
-    <row r="230" spans="1:10">
+      <c r="K229" t="str">
+        <f>TEXT(DATE(1976,1,J229),"mmm")</f>
+        <v>Sep</v>
+      </c>
+      <c r="L229" s="1"/>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A230" t="s">
         <v>250</v>
       </c>
@@ -9871,8 +11048,13 @@
       <c r="J230">
         <v>252</v>
       </c>
-    </row>
-    <row r="231" spans="1:10">
+      <c r="K230" t="str">
+        <f>TEXT(DATE(1976,1,J230),"mmm")</f>
+        <v>Sep</v>
+      </c>
+      <c r="L230" s="1"/>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A231" t="s">
         <v>10</v>
       </c>
@@ -9903,8 +11085,13 @@
       <c r="J231">
         <v>255</v>
       </c>
-    </row>
-    <row r="232" spans="1:10">
+      <c r="K231" t="str">
+        <f>TEXT(DATE(1976,1,J231),"mmm")</f>
+        <v>Sep</v>
+      </c>
+      <c r="L231" s="1"/>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A232" t="s">
         <v>322</v>
       </c>
@@ -9935,8 +11122,13 @@
       <c r="J232">
         <v>256</v>
       </c>
-    </row>
-    <row r="233" spans="1:10">
+      <c r="K232" t="str">
+        <f>TEXT(DATE(1976,1,J232),"mmm")</f>
+        <v>Sep</v>
+      </c>
+      <c r="L232" s="1"/>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A233" t="s">
         <v>398</v>
       </c>
@@ -9967,8 +11159,13 @@
       <c r="J233">
         <v>257</v>
       </c>
-    </row>
-    <row r="234" spans="1:10">
+      <c r="K233" t="str">
+        <f>TEXT(DATE(1976,1,J233),"mmm")</f>
+        <v>Sep</v>
+      </c>
+      <c r="L233" s="1"/>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A234" t="s">
         <v>383</v>
       </c>
@@ -9999,8 +11196,13 @@
       <c r="J234">
         <v>258</v>
       </c>
-    </row>
-    <row r="235" spans="1:10">
+      <c r="K234" t="str">
+        <f>TEXT(DATE(1976,1,J234),"mmm")</f>
+        <v>Sep</v>
+      </c>
+      <c r="L234" s="1"/>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A235" t="s">
         <v>10</v>
       </c>
@@ -10031,8 +11233,13 @@
       <c r="J235">
         <v>259</v>
       </c>
-    </row>
-    <row r="236" spans="1:10">
+      <c r="K235" t="str">
+        <f>TEXT(DATE(1976,1,J235),"mmm")</f>
+        <v>Sep</v>
+      </c>
+      <c r="L235" s="1"/>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A236" t="s">
         <v>101</v>
       </c>
@@ -10063,8 +11270,13 @@
       <c r="J236">
         <v>261</v>
       </c>
-    </row>
-    <row r="237" spans="1:10">
+      <c r="K236" t="str">
+        <f>TEXT(DATE(1976,1,J236),"mmm")</f>
+        <v>Sep</v>
+      </c>
+      <c r="L236" s="1"/>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A237" t="s">
         <v>380</v>
       </c>
@@ -10095,8 +11307,13 @@
       <c r="J237">
         <v>262</v>
       </c>
-    </row>
-    <row r="238" spans="1:10">
+      <c r="K237" t="str">
+        <f>TEXT(DATE(1976,1,J237),"mmm")</f>
+        <v>Sep</v>
+      </c>
+      <c r="L237" s="1"/>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A238" t="s">
         <v>201</v>
       </c>
@@ -10127,8 +11344,13 @@
       <c r="J238">
         <v>263</v>
       </c>
-    </row>
-    <row r="239" spans="1:10">
+      <c r="K238" t="str">
+        <f>TEXT(DATE(1976,1,J238),"mmm")</f>
+        <v>Sep</v>
+      </c>
+      <c r="L238" s="1"/>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A239" t="s">
         <v>244</v>
       </c>
@@ -10159,8 +11381,13 @@
       <c r="J239">
         <v>265</v>
       </c>
-    </row>
-    <row r="240" spans="1:10">
+      <c r="K239" t="str">
+        <f>TEXT(DATE(1976,1,J239),"mmm")</f>
+        <v>Sep</v>
+      </c>
+      <c r="L239" s="1"/>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A240" t="s">
         <v>222</v>
       </c>
@@ -10191,8 +11418,13 @@
       <c r="J240">
         <v>266</v>
       </c>
-    </row>
-    <row r="241" spans="1:10">
+      <c r="K240" t="str">
+        <f>TEXT(DATE(1976,1,J240),"mmm")</f>
+        <v>Sep</v>
+      </c>
+      <c r="L240" s="1"/>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A241" t="s">
         <v>60</v>
       </c>
@@ -10223,8 +11455,13 @@
       <c r="J241">
         <v>268</v>
       </c>
-    </row>
-    <row r="242" spans="1:10">
+      <c r="K241" t="str">
+        <f>TEXT(DATE(1976,1,J241),"mmm")</f>
+        <v>Sep</v>
+      </c>
+      <c r="L241" s="1"/>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A242" t="s">
         <v>10</v>
       </c>
@@ -10255,8 +11492,13 @@
       <c r="J242">
         <v>269</v>
       </c>
-    </row>
-    <row r="243" spans="1:10">
+      <c r="K242" t="str">
+        <f>TEXT(DATE(1976,1,J242),"mmm")</f>
+        <v>Sep</v>
+      </c>
+      <c r="L242" s="1"/>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A243" t="s">
         <v>19</v>
       </c>
@@ -10287,8 +11529,13 @@
       <c r="J243">
         <v>270</v>
       </c>
-    </row>
-    <row r="244" spans="1:10">
+      <c r="K243" t="str">
+        <f>TEXT(DATE(1976,1,J243),"mmm")</f>
+        <v>Sep</v>
+      </c>
+      <c r="L243" s="1"/>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A244" t="s">
         <v>141</v>
       </c>
@@ -10319,8 +11566,13 @@
       <c r="J244">
         <v>271</v>
       </c>
-    </row>
-    <row r="245" spans="1:10">
+      <c r="K244" t="str">
+        <f>TEXT(DATE(1976,1,J244),"mmm")</f>
+        <v>Sep</v>
+      </c>
+      <c r="L244" s="1"/>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A245" t="s">
         <v>154</v>
       </c>
@@ -10351,8 +11603,13 @@
       <c r="J245">
         <v>272</v>
       </c>
-    </row>
-    <row r="246" spans="1:10">
+      <c r="K245" t="str">
+        <f>TEXT(DATE(1976,1,J245),"mmm")</f>
+        <v>Sep</v>
+      </c>
+      <c r="L245" s="1"/>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A246" t="s">
         <v>19</v>
       </c>
@@ -10383,8 +11640,13 @@
       <c r="J246">
         <v>273</v>
       </c>
-    </row>
-    <row r="247" spans="1:10">
+      <c r="K246" t="str">
+        <f>TEXT(DATE(1976,1,J246),"mmm")</f>
+        <v>Sep</v>
+      </c>
+      <c r="L246" s="1"/>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A247" t="s">
         <v>42</v>
       </c>
@@ -10415,8 +11677,13 @@
       <c r="J247">
         <v>274</v>
       </c>
-    </row>
-    <row r="248" spans="1:10">
+      <c r="K247" t="str">
+        <f>TEXT(DATE(1976,1,J247),"mmm")</f>
+        <v>Sep</v>
+      </c>
+      <c r="L247" s="1"/>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A248" t="s">
         <v>19</v>
       </c>
@@ -10447,8 +11714,13 @@
       <c r="J248">
         <v>275</v>
       </c>
-    </row>
-    <row r="249" spans="1:10">
+      <c r="K248" t="str">
+        <f>TEXT(DATE(1976,1,J248),"mmm")</f>
+        <v>Oct</v>
+      </c>
+      <c r="L248" s="1"/>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A249" t="s">
         <v>42</v>
       </c>
@@ -10479,8 +11751,13 @@
       <c r="J249">
         <v>276</v>
       </c>
-    </row>
-    <row r="250" spans="1:10">
+      <c r="K249" t="str">
+        <f>TEXT(DATE(1976,1,J249),"mmm")</f>
+        <v>Oct</v>
+      </c>
+      <c r="L249" s="1"/>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A250" t="s">
         <v>145</v>
       </c>
@@ -10511,8 +11788,13 @@
       <c r="J250">
         <v>277</v>
       </c>
-    </row>
-    <row r="251" spans="1:10">
+      <c r="K250" t="str">
+        <f>TEXT(DATE(1976,1,J250),"mmm")</f>
+        <v>Oct</v>
+      </c>
+      <c r="L250" s="1"/>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -10543,8 +11825,13 @@
       <c r="J251">
         <v>278</v>
       </c>
-    </row>
-    <row r="252" spans="1:10">
+      <c r="K251" t="str">
+        <f>TEXT(DATE(1976,1,J251),"mmm")</f>
+        <v>Oct</v>
+      </c>
+      <c r="L251" s="1"/>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A252" t="s">
         <v>477</v>
       </c>
@@ -10575,8 +11862,13 @@
       <c r="J252">
         <v>279</v>
       </c>
-    </row>
-    <row r="253" spans="1:10">
+      <c r="K252" t="str">
+        <f>TEXT(DATE(1976,1,J252),"mmm")</f>
+        <v>Oct</v>
+      </c>
+      <c r="L252" s="1"/>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A253" t="s">
         <v>509</v>
       </c>
@@ -10607,8 +11899,13 @@
       <c r="J253">
         <v>280</v>
       </c>
-    </row>
-    <row r="254" spans="1:10">
+      <c r="K253" t="str">
+        <f>TEXT(DATE(1976,1,J253),"mmm")</f>
+        <v>Oct</v>
+      </c>
+      <c r="L253" s="1"/>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A254" t="s">
         <v>383</v>
       </c>
@@ -10639,8 +11936,13 @@
       <c r="J254">
         <v>281</v>
       </c>
-    </row>
-    <row r="255" spans="1:10">
+      <c r="K254" t="str">
+        <f>TEXT(DATE(1976,1,J254),"mmm")</f>
+        <v>Oct</v>
+      </c>
+      <c r="L254" s="1"/>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A255" t="s">
         <v>154</v>
       </c>
@@ -10671,8 +11973,13 @@
       <c r="J255">
         <v>282</v>
       </c>
-    </row>
-    <row r="256" spans="1:10">
+      <c r="K255" t="str">
+        <f>TEXT(DATE(1976,1,J255),"mmm")</f>
+        <v>Oct</v>
+      </c>
+      <c r="L255" s="1"/>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A256" t="s">
         <v>60</v>
       </c>
@@ -10703,8 +12010,13 @@
       <c r="J256">
         <v>283</v>
       </c>
-    </row>
-    <row r="257" spans="1:10">
+      <c r="K256" t="str">
+        <f>TEXT(DATE(1976,1,J256),"mmm")</f>
+        <v>Oct</v>
+      </c>
+      <c r="L256" s="1"/>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A257" t="s">
         <v>240</v>
       </c>
@@ -10735,8 +12047,13 @@
       <c r="J257">
         <v>284</v>
       </c>
-    </row>
-    <row r="258" spans="1:10">
+      <c r="K257" t="str">
+        <f>TEXT(DATE(1976,1,J257),"mmm")</f>
+        <v>Oct</v>
+      </c>
+      <c r="L257" s="1"/>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A258" t="s">
         <v>154</v>
       </c>
@@ -10767,8 +12084,13 @@
       <c r="J258">
         <v>285</v>
       </c>
-    </row>
-    <row r="259" spans="1:10">
+      <c r="K258" t="str">
+        <f>TEXT(DATE(1976,1,J258),"mmm")</f>
+        <v>Oct</v>
+      </c>
+      <c r="L258" s="1"/>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A259" t="s">
         <v>60</v>
       </c>
@@ -10799,8 +12121,13 @@
       <c r="J259">
         <v>286</v>
       </c>
-    </row>
-    <row r="260" spans="1:10">
+      <c r="K259" t="str">
+        <f>TEXT(DATE(1976,1,J259),"mmm")</f>
+        <v>Oct</v>
+      </c>
+      <c r="L259" s="1"/>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A260" t="s">
         <v>527</v>
       </c>
@@ -10831,8 +12158,13 @@
       <c r="J260">
         <v>287</v>
       </c>
-    </row>
-    <row r="261" spans="1:10">
+      <c r="K260" t="str">
+        <f>TEXT(DATE(1976,1,J260),"mmm")</f>
+        <v>Oct</v>
+      </c>
+      <c r="L260" s="1"/>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A261" t="s">
         <v>368</v>
       </c>
@@ -10863,8 +12195,13 @@
       <c r="J261">
         <v>288</v>
       </c>
-    </row>
-    <row r="262" spans="1:10">
+      <c r="K261" t="str">
+        <f>TEXT(DATE(1976,1,J261),"mmm")</f>
+        <v>Oct</v>
+      </c>
+      <c r="L261" s="1"/>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A262" t="s">
         <v>383</v>
       </c>
@@ -10895,8 +12232,13 @@
       <c r="J262">
         <v>289</v>
       </c>
-    </row>
-    <row r="263" spans="1:10">
+      <c r="K262" t="str">
+        <f>TEXT(DATE(1976,1,J262),"mmm")</f>
+        <v>Oct</v>
+      </c>
+      <c r="L262" s="1"/>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A263" t="s">
         <v>322</v>
       </c>
@@ -10927,8 +12269,13 @@
       <c r="J263">
         <v>290</v>
       </c>
-    </row>
-    <row r="264" spans="1:10">
+      <c r="K263" t="str">
+        <f>TEXT(DATE(1976,1,J263),"mmm")</f>
+        <v>Oct</v>
+      </c>
+      <c r="L263" s="1"/>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A264" t="s">
         <v>303</v>
       </c>
@@ -10959,8 +12306,13 @@
       <c r="J264">
         <v>291</v>
       </c>
-    </row>
-    <row r="265" spans="1:10">
+      <c r="K264" t="str">
+        <f>TEXT(DATE(1976,1,J264),"mmm")</f>
+        <v>Oct</v>
+      </c>
+      <c r="L264" s="1"/>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A265" t="s">
         <v>145</v>
       </c>
@@ -10991,8 +12343,13 @@
       <c r="J265">
         <v>292</v>
       </c>
-    </row>
-    <row r="266" spans="1:10">
+      <c r="K265" t="str">
+        <f>TEXT(DATE(1976,1,J265),"mmm")</f>
+        <v>Oct</v>
+      </c>
+      <c r="L265" s="1"/>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A266" t="s">
         <v>322</v>
       </c>
@@ -11023,8 +12380,13 @@
       <c r="J266">
         <v>293</v>
       </c>
-    </row>
-    <row r="267" spans="1:10">
+      <c r="K266" t="str">
+        <f>TEXT(DATE(1976,1,J266),"mmm")</f>
+        <v>Oct</v>
+      </c>
+      <c r="L266" s="1"/>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A267" t="s">
         <v>101</v>
       </c>
@@ -11055,8 +12417,13 @@
       <c r="J267">
         <v>294</v>
       </c>
-    </row>
-    <row r="268" spans="1:10">
+      <c r="K267" t="str">
+        <f>TEXT(DATE(1976,1,J267),"mmm")</f>
+        <v>Oct</v>
+      </c>
+      <c r="L267" s="1"/>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A268" t="s">
         <v>154</v>
       </c>
@@ -11087,8 +12454,13 @@
       <c r="J268">
         <v>295</v>
       </c>
-    </row>
-    <row r="269" spans="1:10">
+      <c r="K268" t="str">
+        <f>TEXT(DATE(1976,1,J268),"mmm")</f>
+        <v>Oct</v>
+      </c>
+      <c r="L268" s="1"/>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A269" t="s">
         <v>60</v>
       </c>
@@ -11119,8 +12491,13 @@
       <c r="J269">
         <v>296</v>
       </c>
-    </row>
-    <row r="270" spans="1:10">
+      <c r="K269" t="str">
+        <f>TEXT(DATE(1976,1,J269),"mmm")</f>
+        <v>Oct</v>
+      </c>
+      <c r="L269" s="1"/>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A270" t="s">
         <v>60</v>
       </c>
@@ -11151,8 +12528,13 @@
       <c r="J270">
         <v>297</v>
       </c>
-    </row>
-    <row r="271" spans="1:10">
+      <c r="K270" t="str">
+        <f>TEXT(DATE(1976,1,J270),"mmm")</f>
+        <v>Oct</v>
+      </c>
+      <c r="L270" s="1"/>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A271" t="s">
         <v>35</v>
       </c>
@@ -11183,8 +12565,13 @@
       <c r="J271">
         <v>298</v>
       </c>
-    </row>
-    <row r="272" spans="1:10">
+      <c r="K271" t="str">
+        <f>TEXT(DATE(1976,1,J271),"mmm")</f>
+        <v>Oct</v>
+      </c>
+      <c r="L271" s="1"/>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A272" t="s">
         <v>222</v>
       </c>
@@ -11215,8 +12602,13 @@
       <c r="J272">
         <v>299</v>
       </c>
-    </row>
-    <row r="273" spans="1:10">
+      <c r="K272" t="str">
+        <f>TEXT(DATE(1976,1,J272),"mmm")</f>
+        <v>Oct</v>
+      </c>
+      <c r="L272" s="1"/>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A273" t="s">
         <v>19</v>
       </c>
@@ -11247,8 +12639,13 @@
       <c r="J273">
         <v>300</v>
       </c>
-    </row>
-    <row r="274" spans="1:10">
+      <c r="K273" t="str">
+        <f>TEXT(DATE(1976,1,J273),"mmm")</f>
+        <v>Oct</v>
+      </c>
+      <c r="L273" s="1"/>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A274" t="s">
         <v>10</v>
       </c>
@@ -11279,8 +12676,13 @@
       <c r="J274">
         <v>301</v>
       </c>
-    </row>
-    <row r="275" spans="1:10">
+      <c r="K274" t="str">
+        <f>TEXT(DATE(1976,1,J274),"mmm")</f>
+        <v>Oct</v>
+      </c>
+      <c r="L274" s="1"/>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A275" t="s">
         <v>60</v>
       </c>
@@ -11311,8 +12713,13 @@
       <c r="J275">
         <v>302</v>
       </c>
-    </row>
-    <row r="276" spans="1:10">
+      <c r="K275" t="str">
+        <f>TEXT(DATE(1976,1,J275),"mmm")</f>
+        <v>Oct</v>
+      </c>
+      <c r="L275" s="1"/>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A276" t="s">
         <v>201</v>
       </c>
@@ -11343,8 +12750,13 @@
       <c r="J276">
         <v>303</v>
       </c>
-    </row>
-    <row r="277" spans="1:10">
+      <c r="K276" t="str">
+        <f>TEXT(DATE(1976,1,J276),"mmm")</f>
+        <v>Oct</v>
+      </c>
+      <c r="L276" s="1"/>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A277" t="s">
         <v>145</v>
       </c>
@@ -11375,8 +12787,13 @@
       <c r="J277">
         <v>304</v>
       </c>
-    </row>
-    <row r="278" spans="1:10">
+      <c r="K277" t="str">
+        <f>TEXT(DATE(1976,1,J277),"mmm")</f>
+        <v>Oct</v>
+      </c>
+      <c r="L277" s="1"/>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A278" t="s">
         <v>154</v>
       </c>
@@ -11407,8 +12824,13 @@
       <c r="J278">
         <v>305</v>
       </c>
-    </row>
-    <row r="279" spans="1:10">
+      <c r="K278" t="str">
+        <f>TEXT(DATE(1976,1,J278),"mmm")</f>
+        <v>Oct</v>
+      </c>
+      <c r="L278" s="1"/>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A279" t="s">
         <v>35</v>
       </c>
@@ -11439,8 +12861,13 @@
       <c r="J279">
         <v>308</v>
       </c>
-    </row>
-    <row r="280" spans="1:10">
+      <c r="K279" t="str">
+        <f>TEXT(DATE(1976,1,J279),"mmm")</f>
+        <v>Nov</v>
+      </c>
+      <c r="L279" s="1"/>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A280" t="s">
         <v>19</v>
       </c>
@@ -11471,8 +12898,13 @@
       <c r="J280">
         <v>310</v>
       </c>
-    </row>
-    <row r="281" spans="1:10">
+      <c r="K280" t="str">
+        <f>TEXT(DATE(1976,1,J280),"mmm")</f>
+        <v>Nov</v>
+      </c>
+      <c r="L280" s="1"/>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A281" t="s">
         <v>410</v>
       </c>
@@ -11503,8 +12935,13 @@
       <c r="J281">
         <v>312</v>
       </c>
-    </row>
-    <row r="282" spans="1:10">
+      <c r="K281" t="str">
+        <f>TEXT(DATE(1976,1,J281),"mmm")</f>
+        <v>Nov</v>
+      </c>
+      <c r="L281" s="1"/>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A282" t="s">
         <v>322</v>
       </c>
@@ -11535,8 +12972,13 @@
       <c r="J282">
         <v>314</v>
       </c>
-    </row>
-    <row r="283" spans="1:10">
+      <c r="K282" t="str">
+        <f>TEXT(DATE(1976,1,J282),"mmm")</f>
+        <v>Nov</v>
+      </c>
+      <c r="L282" s="1"/>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A283" t="s">
         <v>297</v>
       </c>
@@ -11567,8 +13009,13 @@
       <c r="J283">
         <v>315</v>
       </c>
-    </row>
-    <row r="284" spans="1:10">
+      <c r="K283" t="str">
+        <f>TEXT(DATE(1976,1,J283),"mmm")</f>
+        <v>Nov</v>
+      </c>
+      <c r="L283" s="1"/>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A284" t="s">
         <v>19</v>
       </c>
@@ -11599,8 +13046,13 @@
       <c r="J284">
         <v>316</v>
       </c>
-    </row>
-    <row r="285" spans="1:10">
+      <c r="K284" t="str">
+        <f>TEXT(DATE(1976,1,J284),"mmm")</f>
+        <v>Nov</v>
+      </c>
+      <c r="L284" s="1"/>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A285" t="s">
         <v>10</v>
       </c>
@@ -11631,8 +13083,13 @@
       <c r="J285">
         <v>317</v>
       </c>
-    </row>
-    <row r="286" spans="1:10">
+      <c r="K285" t="str">
+        <f>TEXT(DATE(1976,1,J285),"mmm")</f>
+        <v>Nov</v>
+      </c>
+      <c r="L285" s="1"/>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A286" t="s">
         <v>19</v>
       </c>
@@ -11663,8 +13120,13 @@
       <c r="J286">
         <v>318</v>
       </c>
-    </row>
-    <row r="287" spans="1:10">
+      <c r="K286" t="str">
+        <f>TEXT(DATE(1976,1,J286),"mmm")</f>
+        <v>Nov</v>
+      </c>
+      <c r="L286" s="1"/>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A287" t="s">
         <v>680</v>
       </c>
@@ -11695,8 +13157,13 @@
       <c r="J287">
         <v>319</v>
       </c>
-    </row>
-    <row r="288" spans="1:10">
+      <c r="K287" t="str">
+        <f>TEXT(DATE(1976,1,J287),"mmm")</f>
+        <v>Nov</v>
+      </c>
+      <c r="L287" s="1"/>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A288" t="s">
         <v>19</v>
       </c>
@@ -11727,8 +13194,13 @@
       <c r="J288">
         <v>320</v>
       </c>
-    </row>
-    <row r="289" spans="1:10">
+      <c r="K288" t="str">
+        <f>TEXT(DATE(1976,1,J288),"mmm")</f>
+        <v>Nov</v>
+      </c>
+      <c r="L288" s="1"/>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A289" t="s">
         <v>42</v>
       </c>
@@ -11759,8 +13231,13 @@
       <c r="J289">
         <v>321</v>
       </c>
-    </row>
-    <row r="290" spans="1:10">
+      <c r="K289" t="str">
+        <f>TEXT(DATE(1976,1,J289),"mmm")</f>
+        <v>Nov</v>
+      </c>
+      <c r="L289" s="1"/>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A290" t="s">
         <v>141</v>
       </c>
@@ -11791,8 +13268,13 @@
       <c r="J290">
         <v>322</v>
       </c>
-    </row>
-    <row r="291" spans="1:10">
+      <c r="K290" t="str">
+        <f>TEXT(DATE(1976,1,J290),"mmm")</f>
+        <v>Nov</v>
+      </c>
+      <c r="L290" s="1"/>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A291" t="s">
         <v>35</v>
       </c>
@@ -11823,8 +13305,13 @@
       <c r="J291">
         <v>323</v>
       </c>
-    </row>
-    <row r="292" spans="1:10">
+      <c r="K291" t="str">
+        <f>TEXT(DATE(1976,1,J291),"mmm")</f>
+        <v>Nov</v>
+      </c>
+      <c r="L291" s="1"/>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A292" t="s">
         <v>201</v>
       </c>
@@ -11855,8 +13342,13 @@
       <c r="J292">
         <v>324</v>
       </c>
-    </row>
-    <row r="293" spans="1:10">
+      <c r="K292" t="str">
+        <f>TEXT(DATE(1976,1,J292),"mmm")</f>
+        <v>Nov</v>
+      </c>
+      <c r="L292" s="1"/>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A293" t="s">
         <v>322</v>
       </c>
@@ -11887,8 +13379,13 @@
       <c r="J293">
         <v>325</v>
       </c>
-    </row>
-    <row r="294" spans="1:10">
+      <c r="K293" t="str">
+        <f>TEXT(DATE(1976,1,J293),"mmm")</f>
+        <v>Nov</v>
+      </c>
+      <c r="L293" s="1"/>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A294" t="s">
         <v>383</v>
       </c>
@@ -11919,8 +13416,13 @@
       <c r="J294">
         <v>326</v>
       </c>
-    </row>
-    <row r="295" spans="1:10">
+      <c r="K294" t="str">
+        <f>TEXT(DATE(1976,1,J294),"mmm")</f>
+        <v>Nov</v>
+      </c>
+      <c r="L294" s="1"/>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A295" t="s">
         <v>154</v>
       </c>
@@ -11951,8 +13453,13 @@
       <c r="J295">
         <v>327</v>
       </c>
-    </row>
-    <row r="296" spans="1:10">
+      <c r="K295" t="str">
+        <f>TEXT(DATE(1976,1,J295),"mmm")</f>
+        <v>Nov</v>
+      </c>
+      <c r="L295" s="1"/>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A296" t="s">
         <v>101</v>
       </c>
@@ -11983,8 +13490,13 @@
       <c r="J296">
         <v>328</v>
       </c>
-    </row>
-    <row r="297" spans="1:10">
+      <c r="K296" t="str">
+        <f>TEXT(DATE(1976,1,J296),"mmm")</f>
+        <v>Nov</v>
+      </c>
+      <c r="L296" s="1"/>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A297" t="s">
         <v>60</v>
       </c>
@@ -12015,8 +13527,13 @@
       <c r="J297">
         <v>329</v>
       </c>
-    </row>
-    <row r="298" spans="1:10">
+      <c r="K297" t="str">
+        <f>TEXT(DATE(1976,1,J297),"mmm")</f>
+        <v>Nov</v>
+      </c>
+      <c r="L297" s="1"/>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A298" t="s">
         <v>322</v>
       </c>
@@ -12047,8 +13564,13 @@
       <c r="J298">
         <v>330</v>
       </c>
-    </row>
-    <row r="299" spans="1:10">
+      <c r="K298" t="str">
+        <f>TEXT(DATE(1976,1,J298),"mmm")</f>
+        <v>Nov</v>
+      </c>
+      <c r="L298" s="1"/>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A299" t="s">
         <v>42</v>
       </c>
@@ -12079,8 +13601,13 @@
       <c r="J299">
         <v>331</v>
       </c>
-    </row>
-    <row r="300" spans="1:10">
+      <c r="K299" t="str">
+        <f>TEXT(DATE(1976,1,J299),"mmm")</f>
+        <v>Nov</v>
+      </c>
+      <c r="L299" s="1"/>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A300" t="s">
         <v>10</v>
       </c>
@@ -12111,8 +13638,13 @@
       <c r="J300">
         <v>332</v>
       </c>
-    </row>
-    <row r="301" spans="1:10">
+      <c r="K300" t="str">
+        <f>TEXT(DATE(1976,1,J300),"mmm")</f>
+        <v>Nov</v>
+      </c>
+      <c r="L300" s="1"/>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A301" t="s">
         <v>10</v>
       </c>
@@ -12143,8 +13675,13 @@
       <c r="J301">
         <v>333</v>
       </c>
-    </row>
-    <row r="302" spans="1:10">
+      <c r="K301" t="str">
+        <f>TEXT(DATE(1976,1,J301),"mmm")</f>
+        <v>Nov</v>
+      </c>
+      <c r="L301" s="1"/>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A302" t="s">
         <v>10</v>
       </c>
@@ -12175,8 +13712,13 @@
       <c r="J302">
         <v>334</v>
       </c>
-    </row>
-    <row r="303" spans="1:10">
+      <c r="K302" t="str">
+        <f>TEXT(DATE(1976,1,J302),"mmm")</f>
+        <v>Nov</v>
+      </c>
+      <c r="L302" s="1"/>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A303" t="s">
         <v>10</v>
       </c>
@@ -12207,8 +13749,13 @@
       <c r="J303">
         <v>335</v>
       </c>
-    </row>
-    <row r="304" spans="1:10">
+      <c r="K303" t="str">
+        <f>TEXT(DATE(1976,1,J303),"mmm")</f>
+        <v>Nov</v>
+      </c>
+      <c r="L303" s="1"/>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A304" t="s">
         <v>10</v>
       </c>
@@ -12239,8 +13786,13 @@
       <c r="J304">
         <v>336</v>
       </c>
-    </row>
-    <row r="305" spans="1:10">
+      <c r="K304" t="str">
+        <f>TEXT(DATE(1976,1,J304),"mmm")</f>
+        <v>Dec</v>
+      </c>
+      <c r="L304" s="1"/>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A305" t="s">
         <v>10</v>
       </c>
@@ -12271,8 +13823,13 @@
       <c r="J305">
         <v>337</v>
       </c>
-    </row>
-    <row r="306" spans="1:10">
+      <c r="K305" t="str">
+        <f>TEXT(DATE(1976,1,J305),"mmm")</f>
+        <v>Dec</v>
+      </c>
+      <c r="L305" s="1"/>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A306" t="s">
         <v>10</v>
       </c>
@@ -12303,8 +13860,13 @@
       <c r="J306">
         <v>338</v>
       </c>
-    </row>
-    <row r="307" spans="1:10">
+      <c r="K306" t="str">
+        <f>TEXT(DATE(1976,1,J306),"mmm")</f>
+        <v>Dec</v>
+      </c>
+      <c r="L306" s="1"/>
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A307" t="s">
         <v>35</v>
       </c>
@@ -12335,8 +13897,13 @@
       <c r="J307">
         <v>339</v>
       </c>
-    </row>
-    <row r="308" spans="1:10">
+      <c r="K307" t="str">
+        <f>TEXT(DATE(1976,1,J307),"mmm")</f>
+        <v>Dec</v>
+      </c>
+      <c r="L307" s="1"/>
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A308" t="s">
         <v>35</v>
       </c>
@@ -12367,8 +13934,13 @@
       <c r="J308">
         <v>340</v>
       </c>
-    </row>
-    <row r="309" spans="1:10">
+      <c r="K308" t="str">
+        <f>TEXT(DATE(1976,1,J308),"mmm")</f>
+        <v>Dec</v>
+      </c>
+      <c r="L308" s="1"/>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A309" t="s">
         <v>19</v>
       </c>
@@ -12399,8 +13971,13 @@
       <c r="J309">
         <v>341</v>
       </c>
-    </row>
-    <row r="310" spans="1:10">
+      <c r="K309" t="str">
+        <f>TEXT(DATE(1976,1,J309),"mmm")</f>
+        <v>Dec</v>
+      </c>
+      <c r="L309" s="1"/>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A310" t="s">
         <v>10</v>
       </c>
@@ -12431,8 +14008,13 @@
       <c r="J310">
         <v>342</v>
       </c>
-    </row>
-    <row r="311" spans="1:10">
+      <c r="K310" t="str">
+        <f>TEXT(DATE(1976,1,J310),"mmm")</f>
+        <v>Dec</v>
+      </c>
+      <c r="L310" s="1"/>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A311" t="s">
         <v>42</v>
       </c>
@@ -12463,8 +14045,13 @@
       <c r="J311">
         <v>343</v>
       </c>
-    </row>
-    <row r="312" spans="1:10">
+      <c r="K311" t="str">
+        <f>TEXT(DATE(1976,1,J311),"mmm")</f>
+        <v>Dec</v>
+      </c>
+      <c r="L311" s="1"/>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A312" t="s">
         <v>60</v>
       </c>
@@ -12495,8 +14082,13 @@
       <c r="J312">
         <v>344</v>
       </c>
-    </row>
-    <row r="313" spans="1:10">
+      <c r="K312" t="str">
+        <f>TEXT(DATE(1976,1,J312),"mmm")</f>
+        <v>Dec</v>
+      </c>
+      <c r="L312" s="1"/>
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A313" t="s">
         <v>19</v>
       </c>
@@ -12527,8 +14119,13 @@
       <c r="J313">
         <v>345</v>
       </c>
-    </row>
-    <row r="314" spans="1:10">
+      <c r="K313" t="str">
+        <f>TEXT(DATE(1976,1,J313),"mmm")</f>
+        <v>Dec</v>
+      </c>
+      <c r="L313" s="1"/>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A314" t="s">
         <v>19</v>
       </c>
@@ -12559,8 +14156,13 @@
       <c r="J314">
         <v>346</v>
       </c>
-    </row>
-    <row r="315" spans="1:10">
+      <c r="K314" t="str">
+        <f>TEXT(DATE(1976,1,J314),"mmm")</f>
+        <v>Dec</v>
+      </c>
+      <c r="L314" s="1"/>
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A315" t="s">
         <v>42</v>
       </c>
@@ -12591,8 +14193,13 @@
       <c r="J315">
         <v>347</v>
       </c>
-    </row>
-    <row r="316" spans="1:10">
+      <c r="K315" t="str">
+        <f>TEXT(DATE(1976,1,J315),"mmm")</f>
+        <v>Dec</v>
+      </c>
+      <c r="L315" s="1"/>
+    </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A316" t="s">
         <v>10</v>
       </c>
@@ -12623,8 +14230,13 @@
       <c r="J316">
         <v>348</v>
       </c>
-    </row>
-    <row r="317" spans="1:10">
+      <c r="K316" t="str">
+        <f>TEXT(DATE(1976,1,J316),"mmm")</f>
+        <v>Dec</v>
+      </c>
+      <c r="L316" s="1"/>
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A317" t="s">
         <v>165</v>
       </c>
@@ -12655,8 +14267,13 @@
       <c r="J317">
         <v>349</v>
       </c>
-    </row>
-    <row r="318" spans="1:10">
+      <c r="K317" t="str">
+        <f>TEXT(DATE(1976,1,J317),"mmm")</f>
+        <v>Dec</v>
+      </c>
+      <c r="L317" s="1"/>
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A318" t="s">
         <v>19</v>
       </c>
@@ -12687,8 +14304,13 @@
       <c r="J318">
         <v>350</v>
       </c>
-    </row>
-    <row r="319" spans="1:10">
+      <c r="K318" t="str">
+        <f>TEXT(DATE(1976,1,J318),"mmm")</f>
+        <v>Dec</v>
+      </c>
+      <c r="L318" s="1"/>
+    </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A319" t="s">
         <v>10</v>
       </c>
@@ -12719,8 +14341,13 @@
       <c r="J319">
         <v>351</v>
       </c>
-    </row>
-    <row r="320" spans="1:10">
+      <c r="K319" t="str">
+        <f>TEXT(DATE(1976,1,J319),"mmm")</f>
+        <v>Dec</v>
+      </c>
+      <c r="L319" s="1"/>
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A320" t="s">
         <v>42</v>
       </c>
@@ -12751,8 +14378,13 @@
       <c r="J320">
         <v>352</v>
       </c>
-    </row>
-    <row r="321" spans="1:10">
+      <c r="K320" t="str">
+        <f>TEXT(DATE(1976,1,J320),"mmm")</f>
+        <v>Dec</v>
+      </c>
+      <c r="L320" s="1"/>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A321" t="s">
         <v>42</v>
       </c>
@@ -12783,8 +14415,13 @@
       <c r="J321">
         <v>353</v>
       </c>
-    </row>
-    <row r="322" spans="1:10">
+      <c r="K321" t="str">
+        <f>TEXT(DATE(1976,1,J321),"mmm")</f>
+        <v>Dec</v>
+      </c>
+      <c r="L321" s="1"/>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A322" t="s">
         <v>35</v>
       </c>
@@ -12815,8 +14452,13 @@
       <c r="J322">
         <v>354</v>
       </c>
-    </row>
-    <row r="323" spans="1:10">
+      <c r="K322" t="str">
+        <f>TEXT(DATE(1976,1,J322),"mmm")</f>
+        <v>Dec</v>
+      </c>
+      <c r="L322" s="1"/>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A323" t="s">
         <v>35</v>
       </c>
@@ -12847,8 +14489,13 @@
       <c r="J323">
         <v>355</v>
       </c>
-    </row>
-    <row r="324" spans="1:10">
+      <c r="K323" t="str">
+        <f>TEXT(DATE(1976,1,J323),"mmm")</f>
+        <v>Dec</v>
+      </c>
+      <c r="L323" s="1"/>
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A324" t="s">
         <v>10</v>
       </c>
@@ -12879,8 +14526,13 @@
       <c r="J324">
         <v>356</v>
       </c>
-    </row>
-    <row r="325" spans="1:10">
+      <c r="K324" t="str">
+        <f>TEXT(DATE(1976,1,J324),"mmm")</f>
+        <v>Dec</v>
+      </c>
+      <c r="L324" s="1"/>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A325" t="s">
         <v>42</v>
       </c>
@@ -12911,8 +14563,13 @@
       <c r="J325">
         <v>357</v>
       </c>
-    </row>
-    <row r="326" spans="1:10">
+      <c r="K325" t="str">
+        <f>TEXT(DATE(1976,1,J325),"mmm")</f>
+        <v>Dec</v>
+      </c>
+      <c r="L325" s="1"/>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A326" t="s">
         <v>10</v>
       </c>
@@ -12943,8 +14600,13 @@
       <c r="J326">
         <v>358</v>
       </c>
-    </row>
-    <row r="327" spans="1:10">
+      <c r="K326" t="str">
+        <f>TEXT(DATE(1976,1,J326),"mmm")</f>
+        <v>Dec</v>
+      </c>
+      <c r="L326" s="1"/>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A327" t="s">
         <v>201</v>
       </c>
@@ -12975,8 +14637,13 @@
       <c r="J327">
         <v>359</v>
       </c>
-    </row>
-    <row r="328" spans="1:10">
+      <c r="K327" t="str">
+        <f>TEXT(DATE(1976,1,J327),"mmm")</f>
+        <v>Dec</v>
+      </c>
+      <c r="L327" s="1"/>
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A328" t="s">
         <v>165</v>
       </c>
@@ -13007,8 +14674,13 @@
       <c r="J328">
         <v>362</v>
       </c>
-    </row>
-    <row r="329" spans="1:10">
+      <c r="K328" t="str">
+        <f>TEXT(DATE(1976,1,J328),"mmm")</f>
+        <v>Dec</v>
+      </c>
+      <c r="L328" s="1"/>
+    </row>
+    <row r="329" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A329" t="s">
         <v>10</v>
       </c>
@@ -13039,8 +14711,13 @@
       <c r="J329">
         <v>363</v>
       </c>
-    </row>
-    <row r="330" spans="1:10">
+      <c r="K329" t="str">
+        <f>TEXT(DATE(1976,1,J329),"mmm")</f>
+        <v>Dec</v>
+      </c>
+      <c r="L329" s="1"/>
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A330" t="s">
         <v>19</v>
       </c>
@@ -13071,8 +14748,13 @@
       <c r="J330">
         <v>364</v>
       </c>
-    </row>
-    <row r="331" spans="1:10">
+      <c r="K330" t="str">
+        <f>TEXT(DATE(1976,1,J330),"mmm")</f>
+        <v>Dec</v>
+      </c>
+      <c r="L330" s="1"/>
+    </row>
+    <row r="331" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A331" t="s">
         <v>680</v>
       </c>
@@ -13103,19 +14785,16 @@
       <c r="J331">
         <v>365</v>
       </c>
+      <c r="K331" t="str">
+        <f>TEXT(DATE(1976,1,J331),"mmm")</f>
+        <v>Dec</v>
+      </c>
+      <c r="L331" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustav Surface\Google Drive\DTU\02450 Introduktion til Machine Learning og Data Mining F20\02450Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3D9CFF-1743-44AD-BA96-3C9D65E9C41B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B568722-840F-4C81-A8A4-56ECE296875C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="18426" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3003" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3008" uniqueCount="744">
   <si>
     <t>doy</t>
   </si>
@@ -2247,6 +2247,21 @@
   </si>
   <si>
     <t>℉</t>
+  </si>
+  <si>
+    <t>Season</t>
+  </si>
+  <si>
+    <t>ses</t>
+  </si>
+  <si>
+    <t>type2</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>A2</t>
   </si>
 </sst>
 </file>
@@ -2600,8 +2615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -2654,6 +2669,9 @@
       <c r="K1" s="2" t="s">
         <v>724</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>739</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
@@ -2689,6 +2707,9 @@
       <c r="K2" t="s">
         <v>722</v>
       </c>
+      <c r="L2" t="s">
+        <v>740</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
@@ -2724,6 +2745,9 @@
       <c r="K3" t="s">
         <v>736</v>
       </c>
+      <c r="L3" t="s">
+        <v>741</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
@@ -2760,7 +2784,9 @@
         <f t="shared" ref="K4:K67" si="0">TEXT(DATE(1976,1,J4),"mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="L4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
@@ -2797,7 +2823,9 @@
         <f t="shared" si="0"/>
         <v>Jan</v>
       </c>
-      <c r="L5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
@@ -2834,7 +2862,6 @@
         <f t="shared" si="0"/>
         <v>Jan</v>
       </c>
-      <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A7" t="s">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustav Surface\Google Drive\DTU\02450 Introduktion til Machine Learning og Data Mining F20\02450Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B568722-840F-4C81-A8A4-56ECE296875C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09526B49-464B-4524-A8F6-2DC05252F0CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="18426" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3008" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3336" uniqueCount="746">
   <si>
     <t>doy</t>
   </si>
@@ -2261,7 +2261,13 @@
     <t>Winter</t>
   </si>
   <si>
-    <t>A2</t>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Autumn</t>
   </si>
 </sst>
 </file>
@@ -2615,8 +2621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L333"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="D309" workbookViewId="0">
+      <selection activeCell="H316" sqref="H316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -2785,7 +2791,7 @@
         <v>Jan</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.5">
@@ -2862,6 +2868,9 @@
         <f t="shared" si="0"/>
         <v>Jan</v>
       </c>
+      <c r="L6" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
@@ -2898,7 +2907,9 @@
         <f t="shared" si="0"/>
         <v>Jan</v>
       </c>
-      <c r="L7" s="1"/>
+      <c r="L7" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
@@ -2935,7 +2946,9 @@
         <f t="shared" si="0"/>
         <v>Jan</v>
       </c>
-      <c r="L8" s="1"/>
+      <c r="L8" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
@@ -2972,7 +2985,9 @@
         <f t="shared" si="0"/>
         <v>Jan</v>
       </c>
-      <c r="L9" s="1"/>
+      <c r="L9" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
@@ -3009,7 +3024,9 @@
         <f t="shared" si="0"/>
         <v>Jan</v>
       </c>
-      <c r="L10" s="1"/>
+      <c r="L10" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
@@ -3046,7 +3063,9 @@
         <f t="shared" si="0"/>
         <v>Jan</v>
       </c>
-      <c r="L11" s="1"/>
+      <c r="L11" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
@@ -3083,7 +3102,9 @@
         <f t="shared" si="0"/>
         <v>Jan</v>
       </c>
-      <c r="L12" s="1"/>
+      <c r="L12" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
@@ -3120,7 +3141,9 @@
         <f t="shared" si="0"/>
         <v>Jan</v>
       </c>
-      <c r="L13" s="1"/>
+      <c r="L13" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
@@ -3157,7 +3180,9 @@
         <f t="shared" si="0"/>
         <v>Jan</v>
       </c>
-      <c r="L14" s="1"/>
+      <c r="L14" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
@@ -3194,7 +3219,9 @@
         <f t="shared" si="0"/>
         <v>Jan</v>
       </c>
-      <c r="L15" s="1"/>
+      <c r="L15" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
@@ -3231,7 +3258,9 @@
         <f t="shared" si="0"/>
         <v>Jan</v>
       </c>
-      <c r="L16" s="1"/>
+      <c r="L16" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
@@ -3268,7 +3297,9 @@
         <f t="shared" si="0"/>
         <v>Jan</v>
       </c>
-      <c r="L17" s="1"/>
+      <c r="L17" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
@@ -3305,7 +3336,9 @@
         <f t="shared" si="0"/>
         <v>Jan</v>
       </c>
-      <c r="L18" s="1"/>
+      <c r="L18" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
@@ -3342,7 +3375,9 @@
         <f t="shared" si="0"/>
         <v>Jan</v>
       </c>
-      <c r="L19" s="1"/>
+      <c r="L19" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
@@ -3379,7 +3414,9 @@
         <f t="shared" si="0"/>
         <v>Jan</v>
       </c>
-      <c r="L20" s="1"/>
+      <c r="L20" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
@@ -3416,7 +3453,9 @@
         <f t="shared" si="0"/>
         <v>Jan</v>
       </c>
-      <c r="L21" s="1"/>
+      <c r="L21" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
@@ -3453,7 +3492,9 @@
         <f t="shared" si="0"/>
         <v>Jan</v>
       </c>
-      <c r="L22" s="1"/>
+      <c r="L22" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
@@ -3490,7 +3531,9 @@
         <f t="shared" si="0"/>
         <v>Jan</v>
       </c>
-      <c r="L23" s="1"/>
+      <c r="L23" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
@@ -3527,7 +3570,9 @@
         <f t="shared" si="0"/>
         <v>Jan</v>
       </c>
-      <c r="L24" s="1"/>
+      <c r="L24" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
@@ -3564,7 +3609,9 @@
         <f t="shared" si="0"/>
         <v>Jan</v>
       </c>
-      <c r="L25" s="1"/>
+      <c r="L25" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
@@ -3601,7 +3648,9 @@
         <f t="shared" si="0"/>
         <v>Jan</v>
       </c>
-      <c r="L26" s="1"/>
+      <c r="L26" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
@@ -3638,7 +3687,9 @@
         <f t="shared" si="0"/>
         <v>Jan</v>
       </c>
-      <c r="L27" s="1"/>
+      <c r="L27" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
@@ -3675,7 +3726,9 @@
         <f t="shared" si="0"/>
         <v>Jan</v>
       </c>
-      <c r="L28" s="1"/>
+      <c r="L28" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
@@ -3712,7 +3765,9 @@
         <f t="shared" si="0"/>
         <v>Jan</v>
       </c>
-      <c r="L29" s="1"/>
+      <c r="L29" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
@@ -3749,7 +3804,9 @@
         <f t="shared" si="0"/>
         <v>Jan</v>
       </c>
-      <c r="L30" s="1"/>
+      <c r="L30" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
@@ -3786,7 +3843,9 @@
         <f t="shared" si="0"/>
         <v>Feb</v>
       </c>
-      <c r="L31" s="1"/>
+      <c r="L31" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
@@ -3823,7 +3882,9 @@
         <f t="shared" si="0"/>
         <v>Feb</v>
       </c>
-      <c r="L32" s="1"/>
+      <c r="L32" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
@@ -3860,7 +3921,9 @@
         <f t="shared" si="0"/>
         <v>Feb</v>
       </c>
-      <c r="L33" s="1"/>
+      <c r="L33" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
@@ -3897,7 +3960,9 @@
         <f t="shared" si="0"/>
         <v>Feb</v>
       </c>
-      <c r="L34" s="1"/>
+      <c r="L34" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
@@ -3934,7 +3999,9 @@
         <f t="shared" si="0"/>
         <v>Feb</v>
       </c>
-      <c r="L35" s="1"/>
+      <c r="L35" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
@@ -3971,7 +4038,9 @@
         <f t="shared" si="0"/>
         <v>Feb</v>
       </c>
-      <c r="L36" s="1"/>
+      <c r="L36" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
@@ -4008,7 +4077,9 @@
         <f t="shared" si="0"/>
         <v>Feb</v>
       </c>
-      <c r="L37" s="1"/>
+      <c r="L37" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
@@ -4045,7 +4116,9 @@
         <f t="shared" si="0"/>
         <v>Feb</v>
       </c>
-      <c r="L38" s="1"/>
+      <c r="L38" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
@@ -4082,7 +4155,9 @@
         <f t="shared" si="0"/>
         <v>Feb</v>
       </c>
-      <c r="L39" s="1"/>
+      <c r="L39" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
@@ -4119,7 +4194,9 @@
         <f t="shared" si="0"/>
         <v>Feb</v>
       </c>
-      <c r="L40" s="1"/>
+      <c r="L40" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
@@ -4156,7 +4233,9 @@
         <f t="shared" si="0"/>
         <v>Feb</v>
       </c>
-      <c r="L41" s="1"/>
+      <c r="L41" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
@@ -4193,7 +4272,9 @@
         <f t="shared" si="0"/>
         <v>Feb</v>
       </c>
-      <c r="L42" s="1"/>
+      <c r="L42" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
@@ -4230,7 +4311,9 @@
         <f t="shared" si="0"/>
         <v>Feb</v>
       </c>
-      <c r="L43" s="1"/>
+      <c r="L43" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
@@ -4267,7 +4350,9 @@
         <f t="shared" si="0"/>
         <v>Feb</v>
       </c>
-      <c r="L44" s="1"/>
+      <c r="L44" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
@@ -4304,7 +4389,9 @@
         <f t="shared" si="0"/>
         <v>Feb</v>
       </c>
-      <c r="L45" s="1"/>
+      <c r="L45" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
@@ -4341,7 +4428,9 @@
         <f t="shared" si="0"/>
         <v>Feb</v>
       </c>
-      <c r="L46" s="1"/>
+      <c r="L46" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
@@ -4378,7 +4467,9 @@
         <f t="shared" si="0"/>
         <v>Feb</v>
       </c>
-      <c r="L47" s="1"/>
+      <c r="L47" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
@@ -4415,7 +4506,9 @@
         <f t="shared" si="0"/>
         <v>Feb</v>
       </c>
-      <c r="L48" s="1"/>
+      <c r="L48" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
@@ -4452,7 +4545,9 @@
         <f t="shared" si="0"/>
         <v>Feb</v>
       </c>
-      <c r="L49" s="1"/>
+      <c r="L49" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
@@ -4489,7 +4584,9 @@
         <f t="shared" si="0"/>
         <v>Feb</v>
       </c>
-      <c r="L50" s="1"/>
+      <c r="L50" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
@@ -4526,7 +4623,9 @@
         <f t="shared" si="0"/>
         <v>Feb</v>
       </c>
-      <c r="L51" s="1"/>
+      <c r="L51" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
@@ -4563,7 +4662,9 @@
         <f t="shared" si="0"/>
         <v>Feb</v>
       </c>
-      <c r="L52" s="1"/>
+      <c r="L52" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
@@ -4600,7 +4701,9 @@
         <f t="shared" si="0"/>
         <v>Feb</v>
       </c>
-      <c r="L53" s="1"/>
+      <c r="L53" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
@@ -4637,7 +4740,9 @@
         <f t="shared" si="0"/>
         <v>Feb</v>
       </c>
-      <c r="L54" s="1"/>
+      <c r="L54" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
@@ -4674,7 +4779,9 @@
         <f t="shared" si="0"/>
         <v>Feb</v>
       </c>
-      <c r="L55" s="1"/>
+      <c r="L55" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
@@ -4711,7 +4818,9 @@
         <f t="shared" si="0"/>
         <v>Feb</v>
       </c>
-      <c r="L56" s="1"/>
+      <c r="L56" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
@@ -4748,7 +4857,9 @@
         <f t="shared" si="0"/>
         <v>Feb</v>
       </c>
-      <c r="L57" s="1"/>
+      <c r="L57" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
@@ -4785,7 +4896,9 @@
         <f t="shared" si="0"/>
         <v>Feb</v>
       </c>
-      <c r="L58" s="1"/>
+      <c r="L58" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
@@ -4822,7 +4935,9 @@
         <f t="shared" si="0"/>
         <v>Mar</v>
       </c>
-      <c r="L59" s="1"/>
+      <c r="L59" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
@@ -4859,7 +4974,9 @@
         <f t="shared" si="0"/>
         <v>Mar</v>
       </c>
-      <c r="L60" s="1"/>
+      <c r="L60" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
@@ -4896,7 +5013,9 @@
         <f t="shared" si="0"/>
         <v>Mar</v>
       </c>
-      <c r="L61" s="1"/>
+      <c r="L61" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
@@ -4933,7 +5052,9 @@
         <f t="shared" si="0"/>
         <v>Mar</v>
       </c>
-      <c r="L62" s="1"/>
+      <c r="L62" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
@@ -4970,7 +5091,9 @@
         <f t="shared" si="0"/>
         <v>Mar</v>
       </c>
-      <c r="L63" s="1"/>
+      <c r="L63" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
@@ -5007,7 +5130,9 @@
         <f t="shared" si="0"/>
         <v>Mar</v>
       </c>
-      <c r="L64" s="1"/>
+      <c r="L64" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
@@ -5044,7 +5169,9 @@
         <f t="shared" si="0"/>
         <v>Mar</v>
       </c>
-      <c r="L65" s="1"/>
+      <c r="L65" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A66" t="s">
@@ -5081,7 +5208,9 @@
         <f t="shared" si="0"/>
         <v>Mar</v>
       </c>
-      <c r="L66" s="1"/>
+      <c r="L66" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
@@ -5118,7 +5247,9 @@
         <f t="shared" si="0"/>
         <v>Mar</v>
       </c>
-      <c r="L67" s="1"/>
+      <c r="L67" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
@@ -5155,7 +5286,9 @@
         <f t="shared" ref="K68:K131" si="1">TEXT(DATE(1976,1,J68),"mmm")</f>
         <v>Mar</v>
       </c>
-      <c r="L68" s="1"/>
+      <c r="L68" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
@@ -5192,7 +5325,9 @@
         <f t="shared" si="1"/>
         <v>Mar</v>
       </c>
-      <c r="L69" s="1"/>
+      <c r="L69" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A70" t="s">
@@ -5229,7 +5364,9 @@
         <f t="shared" si="1"/>
         <v>Mar</v>
       </c>
-      <c r="L70" s="1"/>
+      <c r="L70" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A71" t="s">
@@ -5266,7 +5403,9 @@
         <f t="shared" si="1"/>
         <v>Mar</v>
       </c>
-      <c r="L71" s="1"/>
+      <c r="L71" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A72" t="s">
@@ -5303,7 +5442,9 @@
         <f t="shared" si="1"/>
         <v>Mar</v>
       </c>
-      <c r="L72" s="1"/>
+      <c r="L72" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A73" t="s">
@@ -5340,7 +5481,9 @@
         <f t="shared" si="1"/>
         <v>Mar</v>
       </c>
-      <c r="L73" s="1"/>
+      <c r="L73" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A74" t="s">
@@ -5377,7 +5520,9 @@
         <f t="shared" si="1"/>
         <v>Mar</v>
       </c>
-      <c r="L74" s="1"/>
+      <c r="L74" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A75" t="s">
@@ -5414,7 +5559,9 @@
         <f t="shared" si="1"/>
         <v>Mar</v>
       </c>
-      <c r="L75" s="1"/>
+      <c r="L75" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A76" t="s">
@@ -5451,7 +5598,9 @@
         <f t="shared" si="1"/>
         <v>Mar</v>
       </c>
-      <c r="L76" s="1"/>
+      <c r="L76" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A77" t="s">
@@ -5488,7 +5637,9 @@
         <f t="shared" si="1"/>
         <v>Mar</v>
       </c>
-      <c r="L77" s="1"/>
+      <c r="L77" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A78" t="s">
@@ -5525,7 +5676,9 @@
         <f t="shared" si="1"/>
         <v>Mar</v>
       </c>
-      <c r="L78" s="1"/>
+      <c r="L78" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A79" t="s">
@@ -5562,7 +5715,9 @@
         <f t="shared" si="1"/>
         <v>Mar</v>
       </c>
-      <c r="L79" s="1"/>
+      <c r="L79" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A80" t="s">
@@ -5599,7 +5754,9 @@
         <f t="shared" si="1"/>
         <v>Mar</v>
       </c>
-      <c r="L80" s="1"/>
+      <c r="L80" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A81" t="s">
@@ -5636,7 +5793,9 @@
         <f t="shared" si="1"/>
         <v>Mar</v>
       </c>
-      <c r="L81" s="1"/>
+      <c r="L81" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A82" t="s">
@@ -5673,7 +5832,9 @@
         <f t="shared" si="1"/>
         <v>Mar</v>
       </c>
-      <c r="L82" s="1"/>
+      <c r="L82" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A83" t="s">
@@ -5710,7 +5871,9 @@
         <f t="shared" si="1"/>
         <v>Mar</v>
       </c>
-      <c r="L83" s="1"/>
+      <c r="L83" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A84" t="s">
@@ -5747,7 +5910,9 @@
         <f t="shared" si="1"/>
         <v>Mar</v>
       </c>
-      <c r="L84" s="1"/>
+      <c r="L84" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A85" t="s">
@@ -5784,7 +5949,9 @@
         <f t="shared" si="1"/>
         <v>Mar</v>
       </c>
-      <c r="L85" s="1"/>
+      <c r="L85" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A86" t="s">
@@ -5821,7 +5988,9 @@
         <f t="shared" si="1"/>
         <v>Mar</v>
       </c>
-      <c r="L86" s="1"/>
+      <c r="L86" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A87" t="s">
@@ -5858,7 +6027,9 @@
         <f t="shared" si="1"/>
         <v>Mar</v>
       </c>
-      <c r="L87" s="1"/>
+      <c r="L87" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A88" t="s">
@@ -5895,7 +6066,9 @@
         <f t="shared" si="1"/>
         <v>Apr</v>
       </c>
-      <c r="L88" s="1"/>
+      <c r="L88" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A89" t="s">
@@ -5932,7 +6105,9 @@
         <f t="shared" si="1"/>
         <v>Apr</v>
       </c>
-      <c r="L89" s="1"/>
+      <c r="L89" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A90" t="s">
@@ -5969,7 +6144,9 @@
         <f t="shared" si="1"/>
         <v>Apr</v>
       </c>
-      <c r="L90" s="1"/>
+      <c r="L90" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A91" t="s">
@@ -6006,7 +6183,9 @@
         <f t="shared" si="1"/>
         <v>Apr</v>
       </c>
-      <c r="L91" s="1"/>
+      <c r="L91" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A92" t="s">
@@ -6043,7 +6222,9 @@
         <f t="shared" si="1"/>
         <v>Apr</v>
       </c>
-      <c r="L92" s="1"/>
+      <c r="L92" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A93" t="s">
@@ -6080,7 +6261,9 @@
         <f t="shared" si="1"/>
         <v>Apr</v>
       </c>
-      <c r="L93" s="1"/>
+      <c r="L93" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A94" t="s">
@@ -6117,7 +6300,9 @@
         <f t="shared" si="1"/>
         <v>Apr</v>
       </c>
-      <c r="L94" s="1"/>
+      <c r="L94" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A95" t="s">
@@ -6154,7 +6339,9 @@
         <f t="shared" si="1"/>
         <v>Apr</v>
       </c>
-      <c r="L95" s="1"/>
+      <c r="L95" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A96" t="s">
@@ -6191,7 +6378,9 @@
         <f t="shared" si="1"/>
         <v>Apr</v>
       </c>
-      <c r="L96" s="1"/>
+      <c r="L96" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A97" t="s">
@@ -6228,7 +6417,9 @@
         <f t="shared" si="1"/>
         <v>Apr</v>
       </c>
-      <c r="L97" s="1"/>
+      <c r="L97" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A98" t="s">
@@ -6265,7 +6456,9 @@
         <f t="shared" si="1"/>
         <v>Apr</v>
       </c>
-      <c r="L98" s="1"/>
+      <c r="L98" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A99" t="s">
@@ -6302,7 +6495,9 @@
         <f t="shared" si="1"/>
         <v>Apr</v>
       </c>
-      <c r="L99" s="1"/>
+      <c r="L99" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A100" t="s">
@@ -6339,7 +6534,9 @@
         <f t="shared" si="1"/>
         <v>Apr</v>
       </c>
-      <c r="L100" s="1"/>
+      <c r="L100" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A101" t="s">
@@ -6376,7 +6573,9 @@
         <f t="shared" si="1"/>
         <v>Apr</v>
       </c>
-      <c r="L101" s="1"/>
+      <c r="L101" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A102" t="s">
@@ -6413,7 +6612,9 @@
         <f t="shared" si="1"/>
         <v>Apr</v>
       </c>
-      <c r="L102" s="1"/>
+      <c r="L102" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A103" t="s">
@@ -6450,7 +6651,9 @@
         <f t="shared" si="1"/>
         <v>Apr</v>
       </c>
-      <c r="L103" s="1"/>
+      <c r="L103" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A104" t="s">
@@ -6487,7 +6690,9 @@
         <f t="shared" si="1"/>
         <v>Apr</v>
       </c>
-      <c r="L104" s="1"/>
+      <c r="L104" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A105" t="s">
@@ -6524,7 +6729,9 @@
         <f t="shared" si="1"/>
         <v>Apr</v>
       </c>
-      <c r="L105" s="1"/>
+      <c r="L105" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A106" t="s">
@@ -6561,7 +6768,9 @@
         <f t="shared" si="1"/>
         <v>Apr</v>
       </c>
-      <c r="L106" s="1"/>
+      <c r="L106" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A107" t="s">
@@ -6598,7 +6807,9 @@
         <f t="shared" si="1"/>
         <v>Apr</v>
       </c>
-      <c r="L107" s="1"/>
+      <c r="L107" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A108" t="s">
@@ -6635,7 +6846,9 @@
         <f t="shared" si="1"/>
         <v>Apr</v>
       </c>
-      <c r="L108" s="1"/>
+      <c r="L108" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A109" t="s">
@@ -6672,7 +6885,9 @@
         <f t="shared" si="1"/>
         <v>Apr</v>
       </c>
-      <c r="L109" s="1"/>
+      <c r="L109" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A110" t="s">
@@ -6709,7 +6924,9 @@
         <f t="shared" si="1"/>
         <v>Apr</v>
       </c>
-      <c r="L110" s="1"/>
+      <c r="L110" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A111" t="s">
@@ -6746,7 +6963,9 @@
         <f t="shared" si="1"/>
         <v>Apr</v>
       </c>
-      <c r="L111" s="1"/>
+      <c r="L111" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A112" t="s">
@@ -6783,7 +7002,9 @@
         <f t="shared" si="1"/>
         <v>Apr</v>
       </c>
-      <c r="L112" s="1"/>
+      <c r="L112" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A113" t="s">
@@ -6820,7 +7041,9 @@
         <f t="shared" si="1"/>
         <v>Apr</v>
       </c>
-      <c r="L113" s="1"/>
+      <c r="L113" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A114" t="s">
@@ -6857,7 +7080,9 @@
         <f t="shared" si="1"/>
         <v>Apr</v>
       </c>
-      <c r="L114" s="1"/>
+      <c r="L114" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A115" t="s">
@@ -6894,7 +7119,9 @@
         <f t="shared" si="1"/>
         <v>Apr</v>
       </c>
-      <c r="L115" s="1"/>
+      <c r="L115" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A116" t="s">
@@ -6931,7 +7158,9 @@
         <f t="shared" si="1"/>
         <v>Apr</v>
       </c>
-      <c r="L116" s="1"/>
+      <c r="L116" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A117" t="s">
@@ -6968,7 +7197,9 @@
         <f t="shared" si="1"/>
         <v>Apr</v>
       </c>
-      <c r="L117" s="1"/>
+      <c r="L117" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A118" t="s">
@@ -7005,7 +7236,9 @@
         <f t="shared" si="1"/>
         <v>May</v>
       </c>
-      <c r="L118" s="1"/>
+      <c r="L118" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A119" t="s">
@@ -7042,7 +7275,9 @@
         <f t="shared" si="1"/>
         <v>May</v>
       </c>
-      <c r="L119" s="1"/>
+      <c r="L119" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A120" t="s">
@@ -7079,7 +7314,9 @@
         <f t="shared" si="1"/>
         <v>May</v>
       </c>
-      <c r="L120" s="1"/>
+      <c r="L120" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A121" t="s">
@@ -7116,7 +7353,9 @@
         <f t="shared" si="1"/>
         <v>May</v>
       </c>
-      <c r="L121" s="1"/>
+      <c r="L121" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A122" t="s">
@@ -7153,7 +7392,9 @@
         <f t="shared" si="1"/>
         <v>May</v>
       </c>
-      <c r="L122" s="1"/>
+      <c r="L122" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A123" t="s">
@@ -7190,7 +7431,9 @@
         <f t="shared" si="1"/>
         <v>May</v>
       </c>
-      <c r="L123" s="1"/>
+      <c r="L123" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A124" t="s">
@@ -7227,7 +7470,9 @@
         <f t="shared" si="1"/>
         <v>May</v>
       </c>
-      <c r="L124" s="1"/>
+      <c r="L124" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A125" t="s">
@@ -7264,7 +7509,9 @@
         <f t="shared" si="1"/>
         <v>May</v>
       </c>
-      <c r="L125" s="1"/>
+      <c r="L125" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A126" t="s">
@@ -7301,7 +7548,9 @@
         <f t="shared" si="1"/>
         <v>May</v>
       </c>
-      <c r="L126" s="1"/>
+      <c r="L126" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A127" t="s">
@@ -7338,7 +7587,9 @@
         <f t="shared" si="1"/>
         <v>May</v>
       </c>
-      <c r="L127" s="1"/>
+      <c r="L127" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A128" t="s">
@@ -7375,7 +7626,9 @@
         <f t="shared" si="1"/>
         <v>May</v>
       </c>
-      <c r="L128" s="1"/>
+      <c r="L128" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A129" t="s">
@@ -7412,7 +7665,9 @@
         <f t="shared" si="1"/>
         <v>May</v>
       </c>
-      <c r="L129" s="1"/>
+      <c r="L129" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A130" t="s">
@@ -7449,7 +7704,9 @@
         <f t="shared" si="1"/>
         <v>May</v>
       </c>
-      <c r="L130" s="1"/>
+      <c r="L130" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A131" t="s">
@@ -7486,7 +7743,9 @@
         <f t="shared" si="1"/>
         <v>May</v>
       </c>
-      <c r="L131" s="1"/>
+      <c r="L131" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A132" t="s">
@@ -7523,7 +7782,9 @@
         <f t="shared" ref="K132:K195" si="2">TEXT(DATE(1976,1,J132),"mmm")</f>
         <v>May</v>
       </c>
-      <c r="L132" s="1"/>
+      <c r="L132" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A133" t="s">
@@ -7560,7 +7821,9 @@
         <f t="shared" si="2"/>
         <v>May</v>
       </c>
-      <c r="L133" s="1"/>
+      <c r="L133" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A134" t="s">
@@ -7597,7 +7860,9 @@
         <f t="shared" si="2"/>
         <v>May</v>
       </c>
-      <c r="L134" s="1"/>
+      <c r="L134" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A135" t="s">
@@ -7634,7 +7899,9 @@
         <f t="shared" si="2"/>
         <v>May</v>
       </c>
-      <c r="L135" s="1"/>
+      <c r="L135" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A136" t="s">
@@ -7671,7 +7938,9 @@
         <f t="shared" si="2"/>
         <v>May</v>
       </c>
-      <c r="L136" s="1"/>
+      <c r="L136" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A137" t="s">
@@ -7708,7 +7977,9 @@
         <f t="shared" si="2"/>
         <v>May</v>
       </c>
-      <c r="L137" s="1"/>
+      <c r="L137" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A138" t="s">
@@ -7745,7 +8016,9 @@
         <f t="shared" si="2"/>
         <v>May</v>
       </c>
-      <c r="L138" s="1"/>
+      <c r="L138" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A139" t="s">
@@ -7782,7 +8055,9 @@
         <f t="shared" si="2"/>
         <v>May</v>
       </c>
-      <c r="L139" s="1"/>
+      <c r="L139" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A140" t="s">
@@ -7819,7 +8094,9 @@
         <f t="shared" si="2"/>
         <v>May</v>
       </c>
-      <c r="L140" s="1"/>
+      <c r="L140" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A141" t="s">
@@ -7856,7 +8133,9 @@
         <f t="shared" si="2"/>
         <v>May</v>
       </c>
-      <c r="L141" s="1"/>
+      <c r="L141" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A142" t="s">
@@ -7893,7 +8172,9 @@
         <f t="shared" si="2"/>
         <v>May</v>
       </c>
-      <c r="L142" s="1"/>
+      <c r="L142" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A143" t="s">
@@ -7930,7 +8211,9 @@
         <f t="shared" si="2"/>
         <v>May</v>
       </c>
-      <c r="L143" s="1"/>
+      <c r="L143" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A144" t="s">
@@ -7967,7 +8250,9 @@
         <f t="shared" si="2"/>
         <v>Jun</v>
       </c>
-      <c r="L144" s="1"/>
+      <c r="L144" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A145" t="s">
@@ -8004,7 +8289,9 @@
         <f t="shared" si="2"/>
         <v>Jun</v>
       </c>
-      <c r="L145" s="1"/>
+      <c r="L145" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A146" t="s">
@@ -8041,7 +8328,9 @@
         <f t="shared" si="2"/>
         <v>Jun</v>
       </c>
-      <c r="L146" s="1"/>
+      <c r="L146" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A147" t="s">
@@ -8078,7 +8367,9 @@
         <f t="shared" si="2"/>
         <v>Jun</v>
       </c>
-      <c r="L147" s="1"/>
+      <c r="L147" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A148" t="s">
@@ -8115,7 +8406,9 @@
         <f t="shared" si="2"/>
         <v>Jun</v>
       </c>
-      <c r="L148" s="1"/>
+      <c r="L148" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A149" t="s">
@@ -8152,7 +8445,9 @@
         <f t="shared" si="2"/>
         <v>Jun</v>
       </c>
-      <c r="L149" s="1"/>
+      <c r="L149" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A150" t="s">
@@ -8189,7 +8484,9 @@
         <f t="shared" si="2"/>
         <v>Jun</v>
       </c>
-      <c r="L150" s="1"/>
+      <c r="L150" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A151" t="s">
@@ -8226,7 +8523,9 @@
         <f t="shared" si="2"/>
         <v>Jun</v>
       </c>
-      <c r="L151" s="1"/>
+      <c r="L151" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A152" t="s">
@@ -8263,7 +8562,9 @@
         <f t="shared" si="2"/>
         <v>Jun</v>
       </c>
-      <c r="L152" s="1"/>
+      <c r="L152" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A153" t="s">
@@ -8300,7 +8601,9 @@
         <f t="shared" si="2"/>
         <v>Jun</v>
       </c>
-      <c r="L153" s="1"/>
+      <c r="L153" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A154" t="s">
@@ -8337,7 +8640,9 @@
         <f t="shared" si="2"/>
         <v>Jun</v>
       </c>
-      <c r="L154" s="1"/>
+      <c r="L154" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A155" t="s">
@@ -8374,7 +8679,9 @@
         <f t="shared" si="2"/>
         <v>Jun</v>
       </c>
-      <c r="L155" s="1"/>
+      <c r="L155" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A156" t="s">
@@ -8411,7 +8718,9 @@
         <f t="shared" si="2"/>
         <v>Jun</v>
       </c>
-      <c r="L156" s="1"/>
+      <c r="L156" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A157" t="s">
@@ -8448,7 +8757,9 @@
         <f t="shared" si="2"/>
         <v>Jun</v>
       </c>
-      <c r="L157" s="1"/>
+      <c r="L157" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A158" t="s">
@@ -8485,7 +8796,9 @@
         <f t="shared" si="2"/>
         <v>Jun</v>
       </c>
-      <c r="L158" s="1"/>
+      <c r="L158" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A159" t="s">
@@ -8522,7 +8835,9 @@
         <f t="shared" si="2"/>
         <v>Jun</v>
       </c>
-      <c r="L159" s="1"/>
+      <c r="L159" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A160" t="s">
@@ -8559,7 +8874,9 @@
         <f t="shared" si="2"/>
         <v>Jun</v>
       </c>
-      <c r="L160" s="1"/>
+      <c r="L160" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A161" t="s">
@@ -8596,7 +8913,9 @@
         <f t="shared" si="2"/>
         <v>Jun</v>
       </c>
-      <c r="L161" s="1"/>
+      <c r="L161" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A162" t="s">
@@ -8633,7 +8952,9 @@
         <f t="shared" si="2"/>
         <v>Jun</v>
       </c>
-      <c r="L162" s="1"/>
+      <c r="L162" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A163" t="s">
@@ -8670,7 +8991,9 @@
         <f t="shared" si="2"/>
         <v>Jun</v>
       </c>
-      <c r="L163" s="1"/>
+      <c r="L163" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A164" t="s">
@@ -8707,7 +9030,9 @@
         <f t="shared" si="2"/>
         <v>Jun</v>
       </c>
-      <c r="L164" s="1"/>
+      <c r="L164" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A165" t="s">
@@ -8744,7 +9069,9 @@
         <f t="shared" si="2"/>
         <v>Jun</v>
       </c>
-      <c r="L165" s="1"/>
+      <c r="L165" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A166" t="s">
@@ -8781,7 +9108,9 @@
         <f t="shared" si="2"/>
         <v>Jun</v>
       </c>
-      <c r="L166" s="1"/>
+      <c r="L166" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A167" t="s">
@@ -8818,7 +9147,9 @@
         <f t="shared" si="2"/>
         <v>Jun</v>
       </c>
-      <c r="L167" s="1"/>
+      <c r="L167" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A168" t="s">
@@ -8855,7 +9186,9 @@
         <f t="shared" si="2"/>
         <v>Jun</v>
       </c>
-      <c r="L168" s="1"/>
+      <c r="L168" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A169" t="s">
@@ -8892,7 +9225,9 @@
         <f t="shared" si="2"/>
         <v>Jun</v>
       </c>
-      <c r="L169" s="1"/>
+      <c r="L169" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A170" t="s">
@@ -8929,7 +9264,9 @@
         <f t="shared" si="2"/>
         <v>Jun</v>
       </c>
-      <c r="L170" s="1"/>
+      <c r="L170" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A171" t="s">
@@ -8966,7 +9303,9 @@
         <f t="shared" si="2"/>
         <v>Jun</v>
       </c>
-      <c r="L171" s="1"/>
+      <c r="L171" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A172" t="s">
@@ -9003,7 +9342,9 @@
         <f t="shared" si="2"/>
         <v>Jun</v>
       </c>
-      <c r="L172" s="1"/>
+      <c r="L172" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A173" t="s">
@@ -9040,7 +9381,9 @@
         <f t="shared" si="2"/>
         <v>Jun</v>
       </c>
-      <c r="L173" s="1"/>
+      <c r="L173" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A174" t="s">
@@ -9077,7 +9420,9 @@
         <f t="shared" si="2"/>
         <v>Jul</v>
       </c>
-      <c r="L174" s="1"/>
+      <c r="L174" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A175" t="s">
@@ -9114,7 +9459,9 @@
         <f t="shared" si="2"/>
         <v>Jul</v>
       </c>
-      <c r="L175" s="1"/>
+      <c r="L175" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A176" t="s">
@@ -9151,7 +9498,9 @@
         <f t="shared" si="2"/>
         <v>Jul</v>
       </c>
-      <c r="L176" s="1"/>
+      <c r="L176" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A177" t="s">
@@ -9188,7 +9537,9 @@
         <f t="shared" si="2"/>
         <v>Jul</v>
       </c>
-      <c r="L177" s="1"/>
+      <c r="L177" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A178" t="s">
@@ -9225,7 +9576,9 @@
         <f t="shared" si="2"/>
         <v>Jul</v>
       </c>
-      <c r="L178" s="1"/>
+      <c r="L178" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A179" t="s">
@@ -9262,7 +9615,9 @@
         <f t="shared" si="2"/>
         <v>Jul</v>
       </c>
-      <c r="L179" s="1"/>
+      <c r="L179" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A180" t="s">
@@ -9299,7 +9654,9 @@
         <f t="shared" si="2"/>
         <v>Jul</v>
       </c>
-      <c r="L180" s="1"/>
+      <c r="L180" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A181" t="s">
@@ -9336,7 +9693,9 @@
         <f t="shared" si="2"/>
         <v>Jul</v>
       </c>
-      <c r="L181" s="1"/>
+      <c r="L181" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A182" t="s">
@@ -9373,7 +9732,9 @@
         <f t="shared" si="2"/>
         <v>Jul</v>
       </c>
-      <c r="L182" s="1"/>
+      <c r="L182" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A183" t="s">
@@ -9410,7 +9771,9 @@
         <f t="shared" si="2"/>
         <v>Jul</v>
       </c>
-      <c r="L183" s="1"/>
+      <c r="L183" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A184" t="s">
@@ -9447,7 +9810,9 @@
         <f t="shared" si="2"/>
         <v>Jul</v>
       </c>
-      <c r="L184" s="1"/>
+      <c r="L184" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A185" t="s">
@@ -9484,7 +9849,9 @@
         <f t="shared" si="2"/>
         <v>Jul</v>
       </c>
-      <c r="L185" s="1"/>
+      <c r="L185" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A186" t="s">
@@ -9521,7 +9888,9 @@
         <f t="shared" si="2"/>
         <v>Jul</v>
       </c>
-      <c r="L186" s="1"/>
+      <c r="L186" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A187" t="s">
@@ -9558,7 +9927,9 @@
         <f t="shared" si="2"/>
         <v>Jul</v>
       </c>
-      <c r="L187" s="1"/>
+      <c r="L187" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A188" t="s">
@@ -9595,7 +9966,9 @@
         <f t="shared" si="2"/>
         <v>Jul</v>
       </c>
-      <c r="L188" s="1"/>
+      <c r="L188" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A189" t="s">
@@ -9632,7 +10005,9 @@
         <f t="shared" si="2"/>
         <v>Jul</v>
       </c>
-      <c r="L189" s="1"/>
+      <c r="L189" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A190" t="s">
@@ -9669,7 +10044,9 @@
         <f t="shared" si="2"/>
         <v>Jul</v>
       </c>
-      <c r="L190" s="1"/>
+      <c r="L190" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A191" t="s">
@@ -9706,7 +10083,9 @@
         <f t="shared" si="2"/>
         <v>Jul</v>
       </c>
-      <c r="L191" s="1"/>
+      <c r="L191" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A192" t="s">
@@ -9743,7 +10122,9 @@
         <f t="shared" si="2"/>
         <v>Jul</v>
       </c>
-      <c r="L192" s="1"/>
+      <c r="L192" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A193" t="s">
@@ -9780,7 +10161,9 @@
         <f t="shared" si="2"/>
         <v>Jul</v>
       </c>
-      <c r="L193" s="1"/>
+      <c r="L193" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A194" t="s">
@@ -9817,7 +10200,9 @@
         <f t="shared" si="2"/>
         <v>Jul</v>
       </c>
-      <c r="L194" s="1"/>
+      <c r="L194" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A195" t="s">
@@ -9854,7 +10239,9 @@
         <f t="shared" si="2"/>
         <v>Jul</v>
       </c>
-      <c r="L195" s="1"/>
+      <c r="L195" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A196" t="s">
@@ -9891,7 +10278,9 @@
         <f t="shared" ref="K196:K259" si="3">TEXT(DATE(1976,1,J196),"mmm")</f>
         <v>Jul</v>
       </c>
-      <c r="L196" s="1"/>
+      <c r="L196" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A197" t="s">
@@ -9928,7 +10317,9 @@
         <f t="shared" si="3"/>
         <v>Jul</v>
       </c>
-      <c r="L197" s="1"/>
+      <c r="L197" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A198" t="s">
@@ -9965,7 +10356,9 @@
         <f t="shared" si="3"/>
         <v>Jul</v>
       </c>
-      <c r="L198" s="1"/>
+      <c r="L198" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A199" t="s">
@@ -10002,7 +10395,9 @@
         <f t="shared" si="3"/>
         <v>Jul</v>
       </c>
-      <c r="L199" s="1"/>
+      <c r="L199" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A200" t="s">
@@ -10039,7 +10434,9 @@
         <f t="shared" si="3"/>
         <v>Aug</v>
       </c>
-      <c r="L200" s="1"/>
+      <c r="L200" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A201" t="s">
@@ -10076,7 +10473,9 @@
         <f t="shared" si="3"/>
         <v>Aug</v>
       </c>
-      <c r="L201" s="1"/>
+      <c r="L201" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A202" t="s">
@@ -10113,7 +10512,9 @@
         <f t="shared" si="3"/>
         <v>Aug</v>
       </c>
-      <c r="L202" s="1"/>
+      <c r="L202" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A203" t="s">
@@ -10150,7 +10551,9 @@
         <f t="shared" si="3"/>
         <v>Aug</v>
       </c>
-      <c r="L203" s="1"/>
+      <c r="L203" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A204" t="s">
@@ -10187,7 +10590,9 @@
         <f t="shared" si="3"/>
         <v>Aug</v>
       </c>
-      <c r="L204" s="1"/>
+      <c r="L204" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A205" t="s">
@@ -10224,7 +10629,9 @@
         <f t="shared" si="3"/>
         <v>Aug</v>
       </c>
-      <c r="L205" s="1"/>
+      <c r="L205" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A206" t="s">
@@ -10261,7 +10668,9 @@
         <f t="shared" si="3"/>
         <v>Aug</v>
       </c>
-      <c r="L206" s="1"/>
+      <c r="L206" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A207" t="s">
@@ -10298,7 +10707,9 @@
         <f t="shared" si="3"/>
         <v>Aug</v>
       </c>
-      <c r="L207" s="1"/>
+      <c r="L207" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A208" t="s">
@@ -10335,7 +10746,9 @@
         <f t="shared" si="3"/>
         <v>Aug</v>
       </c>
-      <c r="L208" s="1"/>
+      <c r="L208" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A209" t="s">
@@ -10372,7 +10785,9 @@
         <f t="shared" si="3"/>
         <v>Aug</v>
       </c>
-      <c r="L209" s="1"/>
+      <c r="L209" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A210" t="s">
@@ -10409,7 +10824,9 @@
         <f t="shared" si="3"/>
         <v>Aug</v>
       </c>
-      <c r="L210" s="1"/>
+      <c r="L210" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A211" t="s">
@@ -10446,7 +10863,9 @@
         <f t="shared" si="3"/>
         <v>Aug</v>
       </c>
-      <c r="L211" s="1"/>
+      <c r="L211" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A212" t="s">
@@ -10483,7 +10902,9 @@
         <f t="shared" si="3"/>
         <v>Aug</v>
       </c>
-      <c r="L212" s="1"/>
+      <c r="L212" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A213" t="s">
@@ -10520,7 +10941,9 @@
         <f t="shared" si="3"/>
         <v>Aug</v>
       </c>
-      <c r="L213" s="1"/>
+      <c r="L213" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A214" t="s">
@@ -10557,7 +10980,9 @@
         <f t="shared" si="3"/>
         <v>Aug</v>
       </c>
-      <c r="L214" s="1"/>
+      <c r="L214" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A215" t="s">
@@ -10594,7 +11019,9 @@
         <f t="shared" si="3"/>
         <v>Aug</v>
       </c>
-      <c r="L215" s="1"/>
+      <c r="L215" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A216" t="s">
@@ -10631,7 +11058,9 @@
         <f t="shared" si="3"/>
         <v>Aug</v>
       </c>
-      <c r="L216" s="1"/>
+      <c r="L216" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A217" t="s">
@@ -10668,7 +11097,9 @@
         <f t="shared" si="3"/>
         <v>Aug</v>
       </c>
-      <c r="L217" s="1"/>
+      <c r="L217" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A218" t="s">
@@ -10705,7 +11136,9 @@
         <f t="shared" si="3"/>
         <v>Aug</v>
       </c>
-      <c r="L218" s="1"/>
+      <c r="L218" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A219" t="s">
@@ -10742,7 +11175,9 @@
         <f t="shared" si="3"/>
         <v>Aug</v>
       </c>
-      <c r="L219" s="1"/>
+      <c r="L219" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A220" t="s">
@@ -10779,7 +11214,9 @@
         <f t="shared" si="3"/>
         <v>Aug</v>
       </c>
-      <c r="L220" s="1"/>
+      <c r="L220" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A221" t="s">
@@ -10816,7 +11253,9 @@
         <f t="shared" si="3"/>
         <v>Aug</v>
       </c>
-      <c r="L221" s="1"/>
+      <c r="L221" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A222" t="s">
@@ -10853,7 +11292,9 @@
         <f t="shared" si="3"/>
         <v>Aug</v>
       </c>
-      <c r="L222" s="1"/>
+      <c r="L222" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A223" t="s">
@@ -10890,7 +11331,9 @@
         <f t="shared" si="3"/>
         <v>Aug</v>
       </c>
-      <c r="L223" s="1"/>
+      <c r="L223" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A224" t="s">
@@ -10927,7 +11370,9 @@
         <f t="shared" si="3"/>
         <v>Aug</v>
       </c>
-      <c r="L224" s="1"/>
+      <c r="L224" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A225" t="s">
@@ -10964,7 +11409,9 @@
         <f t="shared" si="3"/>
         <v>Sep</v>
       </c>
-      <c r="L225" s="1"/>
+      <c r="L225" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A226" t="s">
@@ -11001,7 +11448,9 @@
         <f t="shared" si="3"/>
         <v>Sep</v>
       </c>
-      <c r="L226" s="1"/>
+      <c r="L226" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A227" t="s">
@@ -11038,7 +11487,9 @@
         <f t="shared" si="3"/>
         <v>Sep</v>
       </c>
-      <c r="L227" s="1"/>
+      <c r="L227" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A228" t="s">
@@ -11075,7 +11526,9 @@
         <f t="shared" si="3"/>
         <v>Sep</v>
       </c>
-      <c r="L228" s="1"/>
+      <c r="L228" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A229" t="s">
@@ -11112,7 +11565,9 @@
         <f t="shared" si="3"/>
         <v>Sep</v>
       </c>
-      <c r="L229" s="1"/>
+      <c r="L229" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A230" t="s">
@@ -11149,7 +11604,9 @@
         <f t="shared" si="3"/>
         <v>Sep</v>
       </c>
-      <c r="L230" s="1"/>
+      <c r="L230" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A231" t="s">
@@ -11186,7 +11643,9 @@
         <f t="shared" si="3"/>
         <v>Sep</v>
       </c>
-      <c r="L231" s="1"/>
+      <c r="L231" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A232" t="s">
@@ -11223,7 +11682,9 @@
         <f t="shared" si="3"/>
         <v>Sep</v>
       </c>
-      <c r="L232" s="1"/>
+      <c r="L232" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A233" t="s">
@@ -11260,7 +11721,9 @@
         <f t="shared" si="3"/>
         <v>Sep</v>
       </c>
-      <c r="L233" s="1"/>
+      <c r="L233" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A234" t="s">
@@ -11297,7 +11760,9 @@
         <f t="shared" si="3"/>
         <v>Sep</v>
       </c>
-      <c r="L234" s="1"/>
+      <c r="L234" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A235" t="s">
@@ -11334,7 +11799,9 @@
         <f t="shared" si="3"/>
         <v>Sep</v>
       </c>
-      <c r="L235" s="1"/>
+      <c r="L235" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A236" t="s">
@@ -11371,7 +11838,9 @@
         <f t="shared" si="3"/>
         <v>Sep</v>
       </c>
-      <c r="L236" s="1"/>
+      <c r="L236" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A237" t="s">
@@ -11408,7 +11877,9 @@
         <f t="shared" si="3"/>
         <v>Sep</v>
       </c>
-      <c r="L237" s="1"/>
+      <c r="L237" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A238" t="s">
@@ -11445,7 +11916,9 @@
         <f t="shared" si="3"/>
         <v>Sep</v>
       </c>
-      <c r="L238" s="1"/>
+      <c r="L238" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A239" t="s">
@@ -11482,7 +11955,9 @@
         <f t="shared" si="3"/>
         <v>Sep</v>
       </c>
-      <c r="L239" s="1"/>
+      <c r="L239" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A240" t="s">
@@ -11519,7 +11994,9 @@
         <f t="shared" si="3"/>
         <v>Sep</v>
       </c>
-      <c r="L240" s="1"/>
+      <c r="L240" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A241" t="s">
@@ -11556,7 +12033,9 @@
         <f t="shared" si="3"/>
         <v>Sep</v>
       </c>
-      <c r="L241" s="1"/>
+      <c r="L241" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A242" t="s">
@@ -11593,7 +12072,9 @@
         <f t="shared" si="3"/>
         <v>Sep</v>
       </c>
-      <c r="L242" s="1"/>
+      <c r="L242" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A243" t="s">
@@ -11630,7 +12111,9 @@
         <f t="shared" si="3"/>
         <v>Sep</v>
       </c>
-      <c r="L243" s="1"/>
+      <c r="L243" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A244" t="s">
@@ -11667,7 +12150,9 @@
         <f t="shared" si="3"/>
         <v>Sep</v>
       </c>
-      <c r="L244" s="1"/>
+      <c r="L244" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A245" t="s">
@@ -11704,7 +12189,9 @@
         <f t="shared" si="3"/>
         <v>Sep</v>
       </c>
-      <c r="L245" s="1"/>
+      <c r="L245" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A246" t="s">
@@ -11741,7 +12228,9 @@
         <f t="shared" si="3"/>
         <v>Sep</v>
       </c>
-      <c r="L246" s="1"/>
+      <c r="L246" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A247" t="s">
@@ -11778,7 +12267,9 @@
         <f t="shared" si="3"/>
         <v>Sep</v>
       </c>
-      <c r="L247" s="1"/>
+      <c r="L247" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A248" t="s">
@@ -11815,7 +12306,9 @@
         <f t="shared" si="3"/>
         <v>Sep</v>
       </c>
-      <c r="L248" s="1"/>
+      <c r="L248" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A249" t="s">
@@ -11852,7 +12345,9 @@
         <f t="shared" si="3"/>
         <v>Sep</v>
       </c>
-      <c r="L249" s="1"/>
+      <c r="L249" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A250" t="s">
@@ -11889,7 +12384,9 @@
         <f t="shared" si="3"/>
         <v>Oct</v>
       </c>
-      <c r="L250" s="1"/>
+      <c r="L250" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A251" t="s">
@@ -11926,7 +12423,9 @@
         <f t="shared" si="3"/>
         <v>Oct</v>
       </c>
-      <c r="L251" s="1"/>
+      <c r="L251" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A252" t="s">
@@ -11963,7 +12462,9 @@
         <f t="shared" si="3"/>
         <v>Oct</v>
       </c>
-      <c r="L252" s="1"/>
+      <c r="L252" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A253" t="s">
@@ -12000,7 +12501,9 @@
         <f t="shared" si="3"/>
         <v>Oct</v>
       </c>
-      <c r="L253" s="1"/>
+      <c r="L253" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A254" t="s">
@@ -12037,7 +12540,9 @@
         <f t="shared" si="3"/>
         <v>Oct</v>
       </c>
-      <c r="L254" s="1"/>
+      <c r="L254" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A255" t="s">
@@ -12074,7 +12579,9 @@
         <f t="shared" si="3"/>
         <v>Oct</v>
       </c>
-      <c r="L255" s="1"/>
+      <c r="L255" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A256" t="s">
@@ -12111,7 +12618,9 @@
         <f t="shared" si="3"/>
         <v>Oct</v>
       </c>
-      <c r="L256" s="1"/>
+      <c r="L256" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A257" t="s">
@@ -12148,7 +12657,9 @@
         <f t="shared" si="3"/>
         <v>Oct</v>
       </c>
-      <c r="L257" s="1"/>
+      <c r="L257" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A258" t="s">
@@ -12185,7 +12696,9 @@
         <f t="shared" si="3"/>
         <v>Oct</v>
       </c>
-      <c r="L258" s="1"/>
+      <c r="L258" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A259" t="s">
@@ -12222,7 +12735,9 @@
         <f t="shared" si="3"/>
         <v>Oct</v>
       </c>
-      <c r="L259" s="1"/>
+      <c r="L259" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A260" t="s">
@@ -12259,7 +12774,9 @@
         <f t="shared" ref="K260:K323" si="4">TEXT(DATE(1976,1,J260),"mmm")</f>
         <v>Oct</v>
       </c>
-      <c r="L260" s="1"/>
+      <c r="L260" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A261" t="s">
@@ -12296,7 +12813,9 @@
         <f t="shared" si="4"/>
         <v>Oct</v>
       </c>
-      <c r="L261" s="1"/>
+      <c r="L261" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A262" t="s">
@@ -12333,7 +12852,9 @@
         <f t="shared" si="4"/>
         <v>Oct</v>
       </c>
-      <c r="L262" s="1"/>
+      <c r="L262" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A263" t="s">
@@ -12370,7 +12891,9 @@
         <f t="shared" si="4"/>
         <v>Oct</v>
       </c>
-      <c r="L263" s="1"/>
+      <c r="L263" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A264" t="s">
@@ -12407,7 +12930,9 @@
         <f t="shared" si="4"/>
         <v>Oct</v>
       </c>
-      <c r="L264" s="1"/>
+      <c r="L264" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A265" t="s">
@@ -12444,7 +12969,9 @@
         <f t="shared" si="4"/>
         <v>Oct</v>
       </c>
-      <c r="L265" s="1"/>
+      <c r="L265" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A266" t="s">
@@ -12481,7 +13008,9 @@
         <f t="shared" si="4"/>
         <v>Oct</v>
       </c>
-      <c r="L266" s="1"/>
+      <c r="L266" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A267" t="s">
@@ -12518,7 +13047,9 @@
         <f t="shared" si="4"/>
         <v>Oct</v>
       </c>
-      <c r="L267" s="1"/>
+      <c r="L267" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A268" t="s">
@@ -12555,7 +13086,9 @@
         <f t="shared" si="4"/>
         <v>Oct</v>
       </c>
-      <c r="L268" s="1"/>
+      <c r="L268" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A269" t="s">
@@ -12592,7 +13125,9 @@
         <f t="shared" si="4"/>
         <v>Oct</v>
       </c>
-      <c r="L269" s="1"/>
+      <c r="L269" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A270" t="s">
@@ -12629,7 +13164,9 @@
         <f t="shared" si="4"/>
         <v>Oct</v>
       </c>
-      <c r="L270" s="1"/>
+      <c r="L270" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A271" t="s">
@@ -12666,7 +13203,9 @@
         <f t="shared" si="4"/>
         <v>Oct</v>
       </c>
-      <c r="L271" s="1"/>
+      <c r="L271" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A272" t="s">
@@ -12703,7 +13242,9 @@
         <f t="shared" si="4"/>
         <v>Oct</v>
       </c>
-      <c r="L272" s="1"/>
+      <c r="L272" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A273" t="s">
@@ -12740,7 +13281,9 @@
         <f t="shared" si="4"/>
         <v>Oct</v>
       </c>
-      <c r="L273" s="1"/>
+      <c r="L273" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A274" t="s">
@@ -12777,7 +13320,9 @@
         <f t="shared" si="4"/>
         <v>Oct</v>
       </c>
-      <c r="L274" s="1"/>
+      <c r="L274" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A275" t="s">
@@ -12814,7 +13359,9 @@
         <f t="shared" si="4"/>
         <v>Oct</v>
       </c>
-      <c r="L275" s="1"/>
+      <c r="L275" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A276" t="s">
@@ -12851,7 +13398,9 @@
         <f t="shared" si="4"/>
         <v>Oct</v>
       </c>
-      <c r="L276" s="1"/>
+      <c r="L276" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A277" t="s">
@@ -12888,7 +13437,9 @@
         <f t="shared" si="4"/>
         <v>Oct</v>
       </c>
-      <c r="L277" s="1"/>
+      <c r="L277" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A278" t="s">
@@ -12925,7 +13476,9 @@
         <f t="shared" si="4"/>
         <v>Oct</v>
       </c>
-      <c r="L278" s="1"/>
+      <c r="L278" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A279" t="s">
@@ -12962,7 +13515,9 @@
         <f t="shared" si="4"/>
         <v>Oct</v>
       </c>
-      <c r="L279" s="1"/>
+      <c r="L279" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A280" t="s">
@@ -12999,7 +13554,9 @@
         <f t="shared" si="4"/>
         <v>Oct</v>
       </c>
-      <c r="L280" s="1"/>
+      <c r="L280" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A281" t="s">
@@ -13036,7 +13593,9 @@
         <f t="shared" si="4"/>
         <v>Nov</v>
       </c>
-      <c r="L281" s="1"/>
+      <c r="L281" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A282" t="s">
@@ -13073,7 +13632,9 @@
         <f t="shared" si="4"/>
         <v>Nov</v>
       </c>
-      <c r="L282" s="1"/>
+      <c r="L282" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A283" t="s">
@@ -13110,7 +13671,9 @@
         <f t="shared" si="4"/>
         <v>Nov</v>
       </c>
-      <c r="L283" s="1"/>
+      <c r="L283" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A284" t="s">
@@ -13147,7 +13710,9 @@
         <f t="shared" si="4"/>
         <v>Nov</v>
       </c>
-      <c r="L284" s="1"/>
+      <c r="L284" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A285" t="s">
@@ -13184,7 +13749,9 @@
         <f t="shared" si="4"/>
         <v>Nov</v>
       </c>
-      <c r="L285" s="1"/>
+      <c r="L285" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A286" t="s">
@@ -13221,7 +13788,9 @@
         <f t="shared" si="4"/>
         <v>Nov</v>
       </c>
-      <c r="L286" s="1"/>
+      <c r="L286" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A287" t="s">
@@ -13258,7 +13827,9 @@
         <f t="shared" si="4"/>
         <v>Nov</v>
       </c>
-      <c r="L287" s="1"/>
+      <c r="L287" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A288" t="s">
@@ -13295,7 +13866,9 @@
         <f t="shared" si="4"/>
         <v>Nov</v>
       </c>
-      <c r="L288" s="1"/>
+      <c r="L288" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A289" t="s">
@@ -13332,7 +13905,9 @@
         <f t="shared" si="4"/>
         <v>Nov</v>
       </c>
-      <c r="L289" s="1"/>
+      <c r="L289" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A290" t="s">
@@ -13369,7 +13944,9 @@
         <f t="shared" si="4"/>
         <v>Nov</v>
       </c>
-      <c r="L290" s="1"/>
+      <c r="L290" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A291" t="s">
@@ -13406,7 +13983,9 @@
         <f t="shared" si="4"/>
         <v>Nov</v>
       </c>
-      <c r="L291" s="1"/>
+      <c r="L291" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A292" t="s">
@@ -13443,7 +14022,9 @@
         <f t="shared" si="4"/>
         <v>Nov</v>
       </c>
-      <c r="L292" s="1"/>
+      <c r="L292" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A293" t="s">
@@ -13480,7 +14061,9 @@
         <f t="shared" si="4"/>
         <v>Nov</v>
       </c>
-      <c r="L293" s="1"/>
+      <c r="L293" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A294" t="s">
@@ -13517,7 +14100,9 @@
         <f t="shared" si="4"/>
         <v>Nov</v>
       </c>
-      <c r="L294" s="1"/>
+      <c r="L294" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A295" t="s">
@@ -13554,7 +14139,9 @@
         <f t="shared" si="4"/>
         <v>Nov</v>
       </c>
-      <c r="L295" s="1"/>
+      <c r="L295" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A296" t="s">
@@ -13591,7 +14178,9 @@
         <f t="shared" si="4"/>
         <v>Nov</v>
       </c>
-      <c r="L296" s="1"/>
+      <c r="L296" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A297" t="s">
@@ -13628,7 +14217,9 @@
         <f t="shared" si="4"/>
         <v>Nov</v>
       </c>
-      <c r="L297" s="1"/>
+      <c r="L297" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A298" t="s">
@@ -13665,7 +14256,9 @@
         <f t="shared" si="4"/>
         <v>Nov</v>
       </c>
-      <c r="L298" s="1"/>
+      <c r="L298" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A299" t="s">
@@ -13702,7 +14295,9 @@
         <f t="shared" si="4"/>
         <v>Nov</v>
       </c>
-      <c r="L299" s="1"/>
+      <c r="L299" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A300" t="s">
@@ -13739,7 +14334,9 @@
         <f t="shared" si="4"/>
         <v>Nov</v>
       </c>
-      <c r="L300" s="1"/>
+      <c r="L300" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A301" t="s">
@@ -13776,7 +14373,9 @@
         <f t="shared" si="4"/>
         <v>Nov</v>
       </c>
-      <c r="L301" s="1"/>
+      <c r="L301" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A302" t="s">
@@ -13813,7 +14412,9 @@
         <f t="shared" si="4"/>
         <v>Nov</v>
       </c>
-      <c r="L302" s="1"/>
+      <c r="L302" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A303" t="s">
@@ -13850,7 +14451,9 @@
         <f t="shared" si="4"/>
         <v>Nov</v>
       </c>
-      <c r="L303" s="1"/>
+      <c r="L303" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A304" t="s">
@@ -13887,7 +14490,9 @@
         <f t="shared" si="4"/>
         <v>Nov</v>
       </c>
-      <c r="L304" s="1"/>
+      <c r="L304" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A305" t="s">
@@ -13924,7 +14529,9 @@
         <f t="shared" si="4"/>
         <v>Nov</v>
       </c>
-      <c r="L305" s="1"/>
+      <c r="L305" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A306" t="s">
@@ -13961,7 +14568,9 @@
         <f t="shared" si="4"/>
         <v>Dec</v>
       </c>
-      <c r="L306" s="1"/>
+      <c r="L306" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A307" t="s">
@@ -13998,7 +14607,9 @@
         <f t="shared" si="4"/>
         <v>Dec</v>
       </c>
-      <c r="L307" s="1"/>
+      <c r="L307" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A308" t="s">
@@ -14035,7 +14646,9 @@
         <f t="shared" si="4"/>
         <v>Dec</v>
       </c>
-      <c r="L308" s="1"/>
+      <c r="L308" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A309" t="s">
@@ -14072,7 +14685,9 @@
         <f t="shared" si="4"/>
         <v>Dec</v>
       </c>
-      <c r="L309" s="1"/>
+      <c r="L309" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A310" t="s">
@@ -14109,7 +14724,9 @@
         <f t="shared" si="4"/>
         <v>Dec</v>
       </c>
-      <c r="L310" s="1"/>
+      <c r="L310" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A311" t="s">
@@ -14146,7 +14763,9 @@
         <f t="shared" si="4"/>
         <v>Dec</v>
       </c>
-      <c r="L311" s="1"/>
+      <c r="L311" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A312" t="s">
@@ -14183,7 +14802,9 @@
         <f t="shared" si="4"/>
         <v>Dec</v>
       </c>
-      <c r="L312" s="1"/>
+      <c r="L312" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A313" t="s">
@@ -14220,7 +14841,9 @@
         <f t="shared" si="4"/>
         <v>Dec</v>
       </c>
-      <c r="L313" s="1"/>
+      <c r="L313" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A314" t="s">
@@ -14257,7 +14880,9 @@
         <f t="shared" si="4"/>
         <v>Dec</v>
       </c>
-      <c r="L314" s="1"/>
+      <c r="L314" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A315" t="s">
@@ -14294,7 +14919,9 @@
         <f t="shared" si="4"/>
         <v>Dec</v>
       </c>
-      <c r="L315" s="1"/>
+      <c r="L315" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A316" t="s">
@@ -14331,7 +14958,9 @@
         <f t="shared" si="4"/>
         <v>Dec</v>
       </c>
-      <c r="L316" s="1"/>
+      <c r="L316" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A317" t="s">
@@ -14368,7 +14997,9 @@
         <f t="shared" si="4"/>
         <v>Dec</v>
       </c>
-      <c r="L317" s="1"/>
+      <c r="L317" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A318" t="s">
@@ -14405,7 +15036,9 @@
         <f t="shared" si="4"/>
         <v>Dec</v>
       </c>
-      <c r="L318" s="1"/>
+      <c r="L318" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A319" t="s">
@@ -14442,7 +15075,9 @@
         <f t="shared" si="4"/>
         <v>Dec</v>
       </c>
-      <c r="L319" s="1"/>
+      <c r="L319" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A320" t="s">
@@ -14479,7 +15114,9 @@
         <f t="shared" si="4"/>
         <v>Dec</v>
       </c>
-      <c r="L320" s="1"/>
+      <c r="L320" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A321" t="s">
@@ -14516,7 +15153,9 @@
         <f t="shared" si="4"/>
         <v>Dec</v>
       </c>
-      <c r="L321" s="1"/>
+      <c r="L321" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A322" t="s">
@@ -14553,7 +15192,9 @@
         <f t="shared" si="4"/>
         <v>Dec</v>
       </c>
-      <c r="L322" s="1"/>
+      <c r="L322" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A323" t="s">
@@ -14590,7 +15231,9 @@
         <f t="shared" si="4"/>
         <v>Dec</v>
       </c>
-      <c r="L323" s="1"/>
+      <c r="L323" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A324" t="s">
@@ -14627,7 +15270,9 @@
         <f t="shared" ref="K324:K333" si="5">TEXT(DATE(1976,1,J324),"mmm")</f>
         <v>Dec</v>
       </c>
-      <c r="L324" s="1"/>
+      <c r="L324" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A325" t="s">
@@ -14664,7 +15309,9 @@
         <f t="shared" si="5"/>
         <v>Dec</v>
       </c>
-      <c r="L325" s="1"/>
+      <c r="L325" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A326" t="s">
@@ -14701,7 +15348,9 @@
         <f t="shared" si="5"/>
         <v>Dec</v>
       </c>
-      <c r="L326" s="1"/>
+      <c r="L326" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A327" t="s">
@@ -14738,7 +15387,9 @@
         <f t="shared" si="5"/>
         <v>Dec</v>
       </c>
-      <c r="L327" s="1"/>
+      <c r="L327" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A328" t="s">
@@ -14775,7 +15426,9 @@
         <f t="shared" si="5"/>
         <v>Dec</v>
       </c>
-      <c r="L328" s="1"/>
+      <c r="L328" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A329" t="s">
@@ -14812,7 +15465,9 @@
         <f t="shared" si="5"/>
         <v>Dec</v>
       </c>
-      <c r="L329" s="1"/>
+      <c r="L329" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A330" t="s">
@@ -14849,7 +15504,9 @@
         <f t="shared" si="5"/>
         <v>Dec</v>
       </c>
-      <c r="L330" s="1"/>
+      <c r="L330" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A331" t="s">
@@ -14886,7 +15543,9 @@
         <f t="shared" si="5"/>
         <v>Dec</v>
       </c>
-      <c r="L331" s="1"/>
+      <c r="L331" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A332" t="s">
@@ -14923,7 +15582,9 @@
         <f t="shared" si="5"/>
         <v>Dec</v>
       </c>
-      <c r="L332" s="1"/>
+      <c r="L332" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A333" t="s">
@@ -14960,7 +15621,9 @@
         <f t="shared" si="5"/>
         <v>Dec</v>
       </c>
-      <c r="L333" s="1"/>
+      <c r="L333" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustav Surface\Google Drive\DTU\02450 Introduktion til Machine Learning og Data Mining F20\02450Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09526B49-464B-4524-A8F6-2DC05252F0CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A0F80F-0F9E-4388-AAA7-BDD98147EE8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="18426" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2240,9 +2240,6 @@
     <t>Wind Speed</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>percent</t>
   </si>
   <si>
@@ -2252,12 +2249,6 @@
     <t>Season</t>
   </si>
   <si>
-    <t>ses</t>
-  </si>
-  <si>
-    <t>type2</t>
-  </si>
-  <si>
     <t>Winter</t>
   </si>
   <si>
@@ -2268,6 +2259,15 @@
   </si>
   <si>
     <t>Autumn</t>
+  </si>
+  <si>
+    <t>seas</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>classhelper</t>
   </si>
 </sst>
 </file>
@@ -2621,8 +2621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D309" workbookViewId="0">
-      <selection activeCell="H316" sqref="H316"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -2636,9 +2636,9 @@
     <col min="7" max="7" width="21.17578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.9375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.29296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.29296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.5">
@@ -2669,14 +2669,14 @@
       <c r="I1" t="s">
         <v>732</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="K1" t="s">
         <v>723</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>724</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.5">
@@ -2708,13 +2708,13 @@
         <v>721</v>
       </c>
       <c r="J2" t="s">
+        <v>743</v>
+      </c>
+      <c r="K2" t="s">
         <v>0</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>722</v>
-      </c>
-      <c r="L2" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.5">
@@ -2728,10 +2728,10 @@
         <v>725</v>
       </c>
       <c r="D3" t="s">
+        <v>736</v>
+      </c>
+      <c r="E3" t="s">
         <v>737</v>
-      </c>
-      <c r="E3" t="s">
-        <v>738</v>
       </c>
       <c r="F3" t="s">
         <v>730</v>
@@ -2740,19 +2740,19 @@
         <v>731</v>
       </c>
       <c r="H3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="I3" t="s">
         <v>726</v>
       </c>
       <c r="J3" t="s">
+        <v>744</v>
+      </c>
+      <c r="K3" t="s">
         <v>727</v>
       </c>
-      <c r="K3" t="s">
-        <v>736</v>
-      </c>
       <c r="L3" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.5">
@@ -2783,15 +2783,15 @@
       <c r="I4" t="s">
         <v>9</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K4">
         <v>3</v>
       </c>
-      <c r="K4" t="str">
-        <f t="shared" ref="K4:K67" si="0">TEXT(DATE(1976,1,J4),"mmm")</f>
+      <c r="L4" t="str">
+        <f>TEXT(DATE(1976,1,K4),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.5">
@@ -2822,15 +2822,15 @@
       <c r="I5" t="s">
         <v>18</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K5">
         <v>4</v>
       </c>
-      <c r="K5" t="str">
-        <f t="shared" si="0"/>
+      <c r="L5" t="str">
+        <f>TEXT(DATE(1976,1,K5),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.5">
@@ -2861,15 +2861,15 @@
       <c r="I6" t="s">
         <v>25</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K6">
         <v>5</v>
       </c>
-      <c r="K6" t="str">
-        <f t="shared" si="0"/>
+      <c r="L6" t="str">
+        <f>TEXT(DATE(1976,1,K6),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.5">
@@ -2900,15 +2900,15 @@
       <c r="I7" t="s">
         <v>25</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K7">
         <v>6</v>
       </c>
-      <c r="K7" t="str">
-        <f t="shared" si="0"/>
+      <c r="L7" t="str">
+        <f>TEXT(DATE(1976,1,K7),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.5">
@@ -2939,15 +2939,15 @@
       <c r="I8" t="s">
         <v>18</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K8">
         <v>7</v>
       </c>
-      <c r="K8" t="str">
-        <f t="shared" si="0"/>
+      <c r="L8" t="str">
+        <f>TEXT(DATE(1976,1,K8),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.5">
@@ -2978,15 +2978,15 @@
       <c r="I9" t="s">
         <v>9</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K9">
         <v>8</v>
       </c>
-      <c r="K9" t="str">
-        <f t="shared" si="0"/>
+      <c r="L9" t="str">
+        <f>TEXT(DATE(1976,1,K9),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.5">
@@ -3017,15 +3017,15 @@
       <c r="I10" t="s">
         <v>50</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K10">
         <v>9</v>
       </c>
-      <c r="K10" t="str">
-        <f t="shared" si="0"/>
+      <c r="L10" t="str">
+        <f>TEXT(DATE(1976,1,K10),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.5">
@@ -3056,15 +3056,15 @@
       <c r="I11" t="s">
         <v>50</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K11">
         <v>10</v>
       </c>
-      <c r="K11" t="str">
-        <f t="shared" si="0"/>
+      <c r="L11" t="str">
+        <f>TEXT(DATE(1976,1,K11),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.5">
@@ -3095,15 +3095,15 @@
       <c r="I12" t="s">
         <v>50</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K12">
         <v>11</v>
       </c>
-      <c r="K12" t="str">
-        <f t="shared" si="0"/>
+      <c r="L12" t="str">
+        <f>TEXT(DATE(1976,1,K12),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.5">
@@ -3134,15 +3134,15 @@
       <c r="I13" t="s">
         <v>68</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K13">
         <v>12</v>
       </c>
-      <c r="K13" t="str">
-        <f t="shared" si="0"/>
+      <c r="L13" t="str">
+        <f>TEXT(DATE(1976,1,K13),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.5">
@@ -3173,15 +3173,15 @@
       <c r="I14" t="s">
         <v>73</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K14">
         <v>13</v>
       </c>
-      <c r="K14" t="str">
-        <f t="shared" si="0"/>
+      <c r="L14" t="str">
+        <f>TEXT(DATE(1976,1,K14),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.5">
@@ -3212,15 +3212,15 @@
       <c r="I15" t="s">
         <v>76</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K15">
         <v>14</v>
       </c>
-      <c r="K15" t="str">
-        <f t="shared" si="0"/>
+      <c r="L15" t="str">
+        <f>TEXT(DATE(1976,1,K15),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.5">
@@ -3251,15 +3251,15 @@
       <c r="I16" t="s">
         <v>9</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K16">
         <v>15</v>
       </c>
-      <c r="K16" t="str">
-        <f t="shared" si="0"/>
+      <c r="L16" t="str">
+        <f>TEXT(DATE(1976,1,K16),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.5">
@@ -3290,15 +3290,15 @@
       <c r="I17" t="s">
         <v>76</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K17">
         <v>16</v>
       </c>
-      <c r="K17" t="str">
-        <f t="shared" si="0"/>
+      <c r="L17" t="str">
+        <f>TEXT(DATE(1976,1,K17),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.5">
@@ -3329,15 +3329,15 @@
       <c r="I18" t="s">
         <v>76</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K18">
         <v>17</v>
       </c>
-      <c r="K18" t="str">
-        <f t="shared" si="0"/>
+      <c r="L18" t="str">
+        <f>TEXT(DATE(1976,1,K18),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.5">
@@ -3368,15 +3368,15 @@
       <c r="I19" t="s">
         <v>68</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K19">
         <v>18</v>
       </c>
-      <c r="K19" t="str">
-        <f t="shared" si="0"/>
+      <c r="L19" t="str">
+        <f>TEXT(DATE(1976,1,K19),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.5">
@@ -3407,15 +3407,15 @@
       <c r="I20" t="s">
         <v>102</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K20">
         <v>19</v>
       </c>
-      <c r="K20" t="str">
-        <f t="shared" si="0"/>
+      <c r="L20" t="str">
+        <f>TEXT(DATE(1976,1,K20),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.5">
@@ -3446,15 +3446,15 @@
       <c r="I21" t="s">
         <v>105</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K21">
         <v>20</v>
       </c>
-      <c r="K21" t="str">
-        <f t="shared" si="0"/>
+      <c r="L21" t="str">
+        <f>TEXT(DATE(1976,1,K21),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.5">
@@ -3485,15 +3485,15 @@
       <c r="I22" t="s">
         <v>9</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K22">
         <v>21</v>
       </c>
-      <c r="K22" t="str">
-        <f t="shared" si="0"/>
+      <c r="L22" t="str">
+        <f>TEXT(DATE(1976,1,K22),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.5">
@@ -3524,15 +3524,15 @@
       <c r="I23" t="s">
         <v>76</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K23">
         <v>22</v>
       </c>
-      <c r="K23" t="str">
-        <f t="shared" si="0"/>
+      <c r="L23" t="str">
+        <f>TEXT(DATE(1976,1,K23),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.5">
@@ -3563,15 +3563,15 @@
       <c r="I24" t="s">
         <v>68</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K24">
         <v>23</v>
       </c>
-      <c r="K24" t="str">
-        <f t="shared" si="0"/>
+      <c r="L24" t="str">
+        <f>TEXT(DATE(1976,1,K24),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.5">
@@ -3602,15 +3602,15 @@
       <c r="I25" t="s">
         <v>105</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K25">
         <v>24</v>
       </c>
-      <c r="K25" t="str">
-        <f t="shared" si="0"/>
+      <c r="L25" t="str">
+        <f>TEXT(DATE(1976,1,K25),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.5">
@@ -3641,15 +3641,15 @@
       <c r="I26" t="s">
         <v>122</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K26">
         <v>25</v>
       </c>
-      <c r="K26" t="str">
-        <f t="shared" si="0"/>
+      <c r="L26" t="str">
+        <f>TEXT(DATE(1976,1,K26),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.5">
@@ -3680,15 +3680,15 @@
       <c r="I27" t="s">
         <v>128</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K27">
         <v>27</v>
       </c>
-      <c r="K27" t="str">
-        <f t="shared" si="0"/>
+      <c r="L27" t="str">
+        <f>TEXT(DATE(1976,1,K27),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.5">
@@ -3719,15 +3719,15 @@
       <c r="I28" t="s">
         <v>68</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K28">
         <v>29</v>
       </c>
-      <c r="K28" t="str">
-        <f t="shared" si="0"/>
+      <c r="L28" t="str">
+        <f>TEXT(DATE(1976,1,K28),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.5">
@@ -3758,15 +3758,15 @@
       <c r="I29" t="s">
         <v>50</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K29">
         <v>30</v>
       </c>
-      <c r="K29" t="str">
-        <f t="shared" si="0"/>
+      <c r="L29" t="str">
+        <f>TEXT(DATE(1976,1,K29),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.5">
@@ -3797,15 +3797,15 @@
       <c r="I30" t="s">
         <v>73</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K30">
         <v>31</v>
       </c>
-      <c r="K30" t="str">
-        <f t="shared" si="0"/>
+      <c r="L30" t="str">
+        <f>TEXT(DATE(1976,1,K30),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.5">
@@ -3836,15 +3836,15 @@
       <c r="I31" t="s">
         <v>50</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K31">
         <v>32</v>
       </c>
-      <c r="K31" t="str">
-        <f t="shared" si="0"/>
+      <c r="L31" t="str">
+        <f>TEXT(DATE(1976,1,K31),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.5">
@@ -3875,15 +3875,15 @@
       <c r="I32" t="s">
         <v>150</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K32">
         <v>33</v>
       </c>
-      <c r="K32" t="str">
-        <f t="shared" si="0"/>
+      <c r="L32" t="str">
+        <f>TEXT(DATE(1976,1,K32),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.5">
@@ -3914,15 +3914,15 @@
       <c r="I33" t="s">
         <v>155</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K33">
         <v>34</v>
       </c>
-      <c r="K33" t="str">
-        <f t="shared" si="0"/>
+      <c r="L33" t="str">
+        <f>TEXT(DATE(1976,1,K33),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.5">
@@ -3953,15 +3953,15 @@
       <c r="I34" t="s">
         <v>18</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K34">
         <v>35</v>
       </c>
-      <c r="K34" t="str">
-        <f t="shared" si="0"/>
+      <c r="L34" t="str">
+        <f>TEXT(DATE(1976,1,K34),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.5">
@@ -3992,15 +3992,15 @@
       <c r="I35" t="s">
         <v>76</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K35">
         <v>36</v>
       </c>
-      <c r="K35" t="str">
-        <f t="shared" si="0"/>
+      <c r="L35" t="str">
+        <f>TEXT(DATE(1976,1,K35),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.5">
@@ -4031,15 +4031,15 @@
       <c r="I36" t="s">
         <v>25</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K36">
         <v>37</v>
       </c>
-      <c r="K36" t="str">
-        <f t="shared" si="0"/>
+      <c r="L36" t="str">
+        <f>TEXT(DATE(1976,1,K36),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.5">
@@ -4070,15 +4070,15 @@
       <c r="I37" t="s">
         <v>175</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K37">
         <v>38</v>
       </c>
-      <c r="K37" t="str">
-        <f t="shared" si="0"/>
+      <c r="L37" t="str">
+        <f>TEXT(DATE(1976,1,K37),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.5">
@@ -4109,15 +4109,15 @@
       <c r="I38" t="s">
         <v>9</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K38">
         <v>39</v>
       </c>
-      <c r="K38" t="str">
-        <f t="shared" si="0"/>
+      <c r="L38" t="str">
+        <f>TEXT(DATE(1976,1,K38),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.5">
@@ -4148,15 +4148,15 @@
       <c r="I39" t="s">
         <v>175</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K39">
         <v>40</v>
       </c>
-      <c r="K39" t="str">
-        <f t="shared" si="0"/>
+      <c r="L39" t="str">
+        <f>TEXT(DATE(1976,1,K39),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.5">
@@ -4187,15 +4187,15 @@
       <c r="I40" t="s">
         <v>189</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K40">
         <v>41</v>
       </c>
-      <c r="K40" t="str">
-        <f t="shared" si="0"/>
+      <c r="L40" t="str">
+        <f>TEXT(DATE(1976,1,K40),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.5">
@@ -4226,15 +4226,15 @@
       <c r="I41" t="s">
         <v>189</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K41">
         <v>42</v>
       </c>
-      <c r="K41" t="str">
-        <f t="shared" si="0"/>
+      <c r="L41" t="str">
+        <f>TEXT(DATE(1976,1,K41),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.5">
@@ -4265,15 +4265,15 @@
       <c r="I42" t="s">
         <v>189</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K42">
         <v>43</v>
       </c>
-      <c r="K42" t="str">
-        <f t="shared" si="0"/>
+      <c r="L42" t="str">
+        <f>TEXT(DATE(1976,1,K42),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.5">
@@ -4304,15 +4304,15 @@
       <c r="I43" t="s">
         <v>76</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K43">
         <v>44</v>
       </c>
-      <c r="K43" t="str">
-        <f t="shared" si="0"/>
+      <c r="L43" t="str">
+        <f>TEXT(DATE(1976,1,K43),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.5">
@@ -4343,15 +4343,15 @@
       <c r="I44" t="s">
         <v>18</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K44">
         <v>45</v>
       </c>
-      <c r="K44" t="str">
-        <f t="shared" si="0"/>
+      <c r="L44" t="str">
+        <f>TEXT(DATE(1976,1,K44),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.5">
@@ -4382,15 +4382,15 @@
       <c r="I45" t="s">
         <v>9</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K45">
         <v>46</v>
       </c>
-      <c r="K45" t="str">
-        <f t="shared" si="0"/>
+      <c r="L45" t="str">
+        <f>TEXT(DATE(1976,1,K45),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.5">
@@ -4421,15 +4421,15 @@
       <c r="I46" t="s">
         <v>76</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K46">
         <v>47</v>
       </c>
-      <c r="K46" t="str">
-        <f t="shared" si="0"/>
+      <c r="L46" t="str">
+        <f>TEXT(DATE(1976,1,K46),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.5">
@@ -4460,15 +4460,15 @@
       <c r="I47" t="s">
         <v>76</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K47">
         <v>48</v>
       </c>
-      <c r="K47" t="str">
-        <f t="shared" si="0"/>
+      <c r="L47" t="str">
+        <f>TEXT(DATE(1976,1,K47),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.5">
@@ -4499,15 +4499,15 @@
       <c r="I48" t="s">
         <v>73</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K48">
         <v>49</v>
       </c>
-      <c r="K48" t="str">
-        <f t="shared" si="0"/>
+      <c r="L48" t="str">
+        <f>TEXT(DATE(1976,1,K48),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.5">
@@ -4538,15 +4538,15 @@
       <c r="I49" t="s">
         <v>189</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K49">
         <v>51</v>
       </c>
-      <c r="K49" t="str">
-        <f t="shared" si="0"/>
+      <c r="L49" t="str">
+        <f>TEXT(DATE(1976,1,K49),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.5">
@@ -4577,15 +4577,15 @@
       <c r="I50" t="s">
         <v>189</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K50">
         <v>52</v>
       </c>
-      <c r="K50" t="str">
-        <f t="shared" si="0"/>
+      <c r="L50" t="str">
+        <f>TEXT(DATE(1976,1,K50),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.5">
@@ -4616,15 +4616,15 @@
       <c r="I51" t="s">
         <v>189</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K51">
         <v>53</v>
       </c>
-      <c r="K51" t="str">
-        <f t="shared" si="0"/>
+      <c r="L51" t="str">
+        <f>TEXT(DATE(1976,1,K51),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.5">
@@ -4655,15 +4655,15 @@
       <c r="I52" t="s">
         <v>189</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K52">
         <v>54</v>
       </c>
-      <c r="K52" t="str">
-        <f t="shared" si="0"/>
+      <c r="L52" t="str">
+        <f>TEXT(DATE(1976,1,K52),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.5">
@@ -4694,15 +4694,15 @@
       <c r="I53" t="s">
         <v>189</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K53">
         <v>55</v>
       </c>
-      <c r="K53" t="str">
-        <f t="shared" si="0"/>
+      <c r="L53" t="str">
+        <f>TEXT(DATE(1976,1,K53),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.5">
@@ -4733,15 +4733,15 @@
       <c r="I54" t="s">
         <v>68</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K54">
         <v>56</v>
       </c>
-      <c r="K54" t="str">
-        <f t="shared" si="0"/>
+      <c r="L54" t="str">
+        <f>TEXT(DATE(1976,1,K54),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.5">
@@ -4772,15 +4772,15 @@
       <c r="I55" t="s">
         <v>68</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K55">
         <v>57</v>
       </c>
-      <c r="K55" t="str">
-        <f t="shared" si="0"/>
+      <c r="L55" t="str">
+        <f>TEXT(DATE(1976,1,K55),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.5">
@@ -4811,15 +4811,15 @@
       <c r="I56" t="s">
         <v>240</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K56">
         <v>58</v>
       </c>
-      <c r="K56" t="str">
-        <f t="shared" si="0"/>
+      <c r="L56" t="str">
+        <f>TEXT(DATE(1976,1,K56),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.5">
@@ -4850,15 +4850,15 @@
       <c r="I57" t="s">
         <v>73</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K57">
         <v>59</v>
       </c>
-      <c r="K57" t="str">
-        <f t="shared" si="0"/>
+      <c r="L57" t="str">
+        <f>TEXT(DATE(1976,1,K57),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.5">
@@ -4889,15 +4889,15 @@
       <c r="I58" t="s">
         <v>73</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K58">
         <v>60</v>
       </c>
-      <c r="K58" t="str">
-        <f t="shared" si="0"/>
+      <c r="L58" t="str">
+        <f>TEXT(DATE(1976,1,K58),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.5">
@@ -4928,15 +4928,15 @@
       <c r="I59" t="s">
         <v>240</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K59">
         <v>61</v>
       </c>
-      <c r="K59" t="str">
-        <f t="shared" si="0"/>
+      <c r="L59" t="str">
+        <f>TEXT(DATE(1976,1,K59),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.5">
@@ -4967,15 +4967,15 @@
       <c r="I60" t="s">
         <v>189</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K60">
         <v>62</v>
       </c>
-      <c r="K60" t="str">
-        <f t="shared" si="0"/>
+      <c r="L60" t="str">
+        <f>TEXT(DATE(1976,1,K60),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.5">
@@ -5006,15 +5006,15 @@
       <c r="I61" t="s">
         <v>76</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K61">
         <v>63</v>
       </c>
-      <c r="K61" t="str">
-        <f t="shared" si="0"/>
+      <c r="L61" t="str">
+        <f>TEXT(DATE(1976,1,K61),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.5">
@@ -5045,15 +5045,15 @@
       <c r="I62" t="s">
         <v>105</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K62">
         <v>65</v>
       </c>
-      <c r="K62" t="str">
-        <f t="shared" si="0"/>
+      <c r="L62" t="str">
+        <f>TEXT(DATE(1976,1,K62),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.5">
@@ -5084,15 +5084,15 @@
       <c r="I63" t="s">
         <v>105</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K63">
         <v>66</v>
       </c>
-      <c r="K63" t="str">
-        <f t="shared" si="0"/>
+      <c r="L63" t="str">
+        <f>TEXT(DATE(1976,1,K63),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.5">
@@ -5123,15 +5123,15 @@
       <c r="I64" t="s">
         <v>105</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K64">
         <v>67</v>
       </c>
-      <c r="K64" t="str">
-        <f t="shared" si="0"/>
+      <c r="L64" t="str">
+        <f>TEXT(DATE(1976,1,K64),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.5">
@@ -5162,15 +5162,15 @@
       <c r="I65" t="s">
         <v>18</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K65">
         <v>68</v>
       </c>
-      <c r="K65" t="str">
-        <f t="shared" si="0"/>
+      <c r="L65" t="str">
+        <f>TEXT(DATE(1976,1,K65),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.5">
@@ -5201,15 +5201,15 @@
       <c r="I66" t="s">
         <v>105</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K66">
         <v>69</v>
       </c>
-      <c r="K66" t="str">
-        <f t="shared" si="0"/>
+      <c r="L66" t="str">
+        <f>TEXT(DATE(1976,1,K66),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.5">
@@ -5240,15 +5240,15 @@
       <c r="I67" t="s">
         <v>76</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K67">
         <v>70</v>
       </c>
-      <c r="K67" t="str">
-        <f t="shared" si="0"/>
+      <c r="L67" t="str">
+        <f>TEXT(DATE(1976,1,K67),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L67" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.5">
@@ -5279,15 +5279,15 @@
       <c r="I68" t="s">
         <v>50</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K68">
         <v>71</v>
       </c>
-      <c r="K68" t="str">
-        <f t="shared" ref="K68:K131" si="1">TEXT(DATE(1976,1,J68),"mmm")</f>
+      <c r="L68" t="str">
+        <f>TEXT(DATE(1976,1,K68),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L68" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.5">
@@ -5318,15 +5318,15 @@
       <c r="I69" t="s">
         <v>189</v>
       </c>
-      <c r="J69">
+      <c r="J69" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K69">
         <v>72</v>
       </c>
-      <c r="K69" t="str">
-        <f t="shared" si="1"/>
+      <c r="L69" t="str">
+        <f>TEXT(DATE(1976,1,K69),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L69" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.5">
@@ -5357,15 +5357,15 @@
       <c r="I70" t="s">
         <v>189</v>
       </c>
-      <c r="J70">
+      <c r="J70" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K70">
         <v>73</v>
       </c>
-      <c r="K70" t="str">
-        <f t="shared" si="1"/>
+      <c r="L70" t="str">
+        <f>TEXT(DATE(1976,1,K70),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L70" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.5">
@@ -5396,15 +5396,15 @@
       <c r="I71" t="s">
         <v>68</v>
       </c>
-      <c r="J71">
+      <c r="J71" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K71">
         <v>74</v>
       </c>
-      <c r="K71" t="str">
-        <f t="shared" si="1"/>
+      <c r="L71" t="str">
+        <f>TEXT(DATE(1976,1,K71),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L71" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.5">
@@ -5435,15 +5435,15 @@
       <c r="I72" t="s">
         <v>163</v>
       </c>
-      <c r="J72">
+      <c r="J72" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K72">
         <v>75</v>
       </c>
-      <c r="K72" t="str">
-        <f t="shared" si="1"/>
+      <c r="L72" t="str">
+        <f>TEXT(DATE(1976,1,K72),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L72" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.5">
@@ -5474,15 +5474,15 @@
       <c r="I73" t="s">
         <v>122</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K73">
         <v>76</v>
       </c>
-      <c r="K73" t="str">
-        <f t="shared" si="1"/>
+      <c r="L73" t="str">
+        <f>TEXT(DATE(1976,1,K73),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.5">
@@ -5513,15 +5513,15 @@
       <c r="I74" t="s">
         <v>128</v>
       </c>
-      <c r="J74">
+      <c r="J74" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K74">
         <v>77</v>
       </c>
-      <c r="K74" t="str">
-        <f t="shared" si="1"/>
+      <c r="L74" t="str">
+        <f>TEXT(DATE(1976,1,K74),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L74" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.5">
@@ -5552,15 +5552,15 @@
       <c r="I75" t="s">
         <v>301</v>
       </c>
-      <c r="J75">
+      <c r="J75" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K75">
         <v>78</v>
       </c>
-      <c r="K75" t="str">
-        <f t="shared" si="1"/>
+      <c r="L75" t="str">
+        <f>TEXT(DATE(1976,1,K75),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L75" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.5">
@@ -5591,15 +5591,15 @@
       <c r="I76" t="s">
         <v>105</v>
       </c>
-      <c r="J76">
+      <c r="J76" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K76">
         <v>79</v>
       </c>
-      <c r="K76" t="str">
-        <f t="shared" si="1"/>
+      <c r="L76" t="str">
+        <f>TEXT(DATE(1976,1,K76),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L76" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.5">
@@ -5630,15 +5630,15 @@
       <c r="I77" t="s">
         <v>105</v>
       </c>
-      <c r="J77">
+      <c r="J77" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K77">
         <v>80</v>
       </c>
-      <c r="K77" t="str">
-        <f t="shared" si="1"/>
+      <c r="L77" t="str">
+        <f>TEXT(DATE(1976,1,K77),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.5">
@@ -5669,15 +5669,15 @@
       <c r="I78" t="s">
         <v>189</v>
       </c>
-      <c r="J78">
+      <c r="J78" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K78">
         <v>81</v>
       </c>
-      <c r="K78" t="str">
-        <f t="shared" si="1"/>
+      <c r="L78" t="str">
+        <f>TEXT(DATE(1976,1,K78),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L78" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.5">
@@ -5708,15 +5708,15 @@
       <c r="I79" t="s">
         <v>76</v>
       </c>
-      <c r="J79">
+      <c r="J79" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K79">
         <v>82</v>
       </c>
-      <c r="K79" t="str">
-        <f t="shared" si="1"/>
+      <c r="L79" t="str">
+        <f>TEXT(DATE(1976,1,K79),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L79" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.5">
@@ -5747,15 +5747,15 @@
       <c r="I80" t="s">
         <v>9</v>
       </c>
-      <c r="J80">
+      <c r="J80" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K80">
         <v>83</v>
       </c>
-      <c r="K80" t="str">
-        <f t="shared" si="1"/>
+      <c r="L80" t="str">
+        <f>TEXT(DATE(1976,1,K80),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L80" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.5">
@@ -5786,15 +5786,15 @@
       <c r="I81" t="s">
         <v>25</v>
       </c>
-      <c r="J81">
+      <c r="J81" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K81">
         <v>85</v>
       </c>
-      <c r="K81" t="str">
-        <f t="shared" si="1"/>
+      <c r="L81" t="str">
+        <f>TEXT(DATE(1976,1,K81),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.5">
@@ -5825,15 +5825,15 @@
       <c r="I82" t="s">
         <v>18</v>
       </c>
-      <c r="J82">
+      <c r="J82" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K82">
         <v>86</v>
       </c>
-      <c r="K82" t="str">
-        <f t="shared" si="1"/>
+      <c r="L82" t="str">
+        <f>TEXT(DATE(1976,1,K82),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L82" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.5">
@@ -5864,15 +5864,15 @@
       <c r="I83" t="s">
         <v>68</v>
       </c>
-      <c r="J83">
+      <c r="J83" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K83">
         <v>87</v>
       </c>
-      <c r="K83" t="str">
-        <f t="shared" si="1"/>
+      <c r="L83" t="str">
+        <f>TEXT(DATE(1976,1,K83),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L83" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.5">
@@ -5903,15 +5903,15 @@
       <c r="I84" t="s">
         <v>68</v>
       </c>
-      <c r="J84">
+      <c r="J84" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K84">
         <v>88</v>
       </c>
-      <c r="K84" t="str">
-        <f t="shared" si="1"/>
+      <c r="L84" t="str">
+        <f>TEXT(DATE(1976,1,K84),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L84" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.5">
@@ -5942,15 +5942,15 @@
       <c r="I85" t="s">
         <v>76</v>
       </c>
-      <c r="J85">
+      <c r="J85" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K85">
         <v>89</v>
       </c>
-      <c r="K85" t="str">
-        <f t="shared" si="1"/>
+      <c r="L85" t="str">
+        <f>TEXT(DATE(1976,1,K85),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L85" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.5">
@@ -5981,15 +5981,15 @@
       <c r="I86" t="s">
         <v>18</v>
       </c>
-      <c r="J86">
+      <c r="J86" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K86">
         <v>90</v>
       </c>
-      <c r="K86" t="str">
-        <f t="shared" si="1"/>
+      <c r="L86" t="str">
+        <f>TEXT(DATE(1976,1,K86),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.5">
@@ -6020,15 +6020,15 @@
       <c r="I87" t="s">
         <v>189</v>
       </c>
-      <c r="J87">
+      <c r="J87" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K87">
         <v>91</v>
       </c>
-      <c r="K87" t="str">
-        <f t="shared" si="1"/>
+      <c r="L87" t="str">
+        <f>TEXT(DATE(1976,1,K87),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L87" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.5">
@@ -6059,15 +6059,15 @@
       <c r="I88" t="s">
         <v>50</v>
       </c>
-      <c r="J88">
+      <c r="J88" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K88">
         <v>92</v>
       </c>
-      <c r="K88" t="str">
-        <f t="shared" si="1"/>
+      <c r="L88" t="str">
+        <f>TEXT(DATE(1976,1,K88),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L88" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.5">
@@ -6098,15 +6098,15 @@
       <c r="I89" t="s">
         <v>18</v>
       </c>
-      <c r="J89">
+      <c r="J89" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K89">
         <v>93</v>
       </c>
-      <c r="K89" t="str">
-        <f t="shared" si="1"/>
+      <c r="L89" t="str">
+        <f>TEXT(DATE(1976,1,K89),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L89" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.5">
@@ -6137,15 +6137,15 @@
       <c r="I90" t="s">
         <v>76</v>
       </c>
-      <c r="J90">
+      <c r="J90" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K90">
         <v>94</v>
       </c>
-      <c r="K90" t="str">
-        <f t="shared" si="1"/>
+      <c r="L90" t="str">
+        <f>TEXT(DATE(1976,1,K90),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L90" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.5">
@@ -6176,15 +6176,15 @@
       <c r="I91" t="s">
         <v>76</v>
       </c>
-      <c r="J91">
+      <c r="J91" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K91">
         <v>95</v>
       </c>
-      <c r="K91" t="str">
-        <f t="shared" si="1"/>
+      <c r="L91" t="str">
+        <f>TEXT(DATE(1976,1,K91),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L91" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.5">
@@ -6215,15 +6215,15 @@
       <c r="I92" t="s">
         <v>76</v>
       </c>
-      <c r="J92">
+      <c r="J92" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K92">
         <v>96</v>
       </c>
-      <c r="K92" t="str">
-        <f t="shared" si="1"/>
+      <c r="L92" t="str">
+        <f>TEXT(DATE(1976,1,K92),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L92" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.5">
@@ -6254,15 +6254,15 @@
       <c r="I93" t="s">
         <v>189</v>
       </c>
-      <c r="J93">
+      <c r="J93" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K93">
         <v>97</v>
       </c>
-      <c r="K93" t="str">
-        <f t="shared" si="1"/>
+      <c r="L93" t="str">
+        <f>TEXT(DATE(1976,1,K93),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L93" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.5">
@@ -6293,15 +6293,15 @@
       <c r="I94" t="s">
         <v>189</v>
       </c>
-      <c r="J94">
+      <c r="J94" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K94">
         <v>98</v>
       </c>
-      <c r="K94" t="str">
-        <f t="shared" si="1"/>
+      <c r="L94" t="str">
+        <f>TEXT(DATE(1976,1,K94),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L94" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.5">
@@ -6332,15 +6332,15 @@
       <c r="I95" t="s">
         <v>9</v>
       </c>
-      <c r="J95">
+      <c r="J95" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K95">
         <v>99</v>
       </c>
-      <c r="K95" t="str">
-        <f t="shared" si="1"/>
+      <c r="L95" t="str">
+        <f>TEXT(DATE(1976,1,K95),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L95" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.5">
@@ -6371,15 +6371,15 @@
       <c r="I96" t="s">
         <v>50</v>
       </c>
-      <c r="J96">
+      <c r="J96" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K96">
         <v>100</v>
       </c>
-      <c r="K96" t="str">
-        <f t="shared" si="1"/>
+      <c r="L96" t="str">
+        <f>TEXT(DATE(1976,1,K96),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L96" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.5">
@@ -6410,15 +6410,15 @@
       <c r="I97" t="s">
         <v>105</v>
       </c>
-      <c r="J97">
+      <c r="J97" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K97">
         <v>101</v>
       </c>
-      <c r="K97" t="str">
-        <f t="shared" si="1"/>
+      <c r="L97" t="str">
+        <f>TEXT(DATE(1976,1,K97),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L97" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.5">
@@ -6449,15 +6449,15 @@
       <c r="I98" t="s">
         <v>76</v>
       </c>
-      <c r="J98">
+      <c r="J98" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K98">
         <v>102</v>
       </c>
-      <c r="K98" t="str">
-        <f t="shared" si="1"/>
+      <c r="L98" t="str">
+        <f>TEXT(DATE(1976,1,K98),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L98" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.5">
@@ -6488,15 +6488,15 @@
       <c r="I99" t="s">
         <v>105</v>
       </c>
-      <c r="J99">
+      <c r="J99" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K99">
         <v>103</v>
       </c>
-      <c r="K99" t="str">
-        <f t="shared" si="1"/>
+      <c r="L99" t="str">
+        <f>TEXT(DATE(1976,1,K99),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L99" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.5">
@@ -6527,15 +6527,15 @@
       <c r="I100" t="s">
         <v>240</v>
       </c>
-      <c r="J100">
+      <c r="J100" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K100">
         <v>104</v>
       </c>
-      <c r="K100" t="str">
-        <f t="shared" si="1"/>
+      <c r="L100" t="str">
+        <f>TEXT(DATE(1976,1,K100),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L100" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.5">
@@ -6566,15 +6566,15 @@
       <c r="I101" t="s">
         <v>189</v>
       </c>
-      <c r="J101">
+      <c r="J101" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K101">
         <v>105</v>
       </c>
-      <c r="K101" t="str">
-        <f t="shared" si="1"/>
+      <c r="L101" t="str">
+        <f>TEXT(DATE(1976,1,K101),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L101" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.5">
@@ -6605,15 +6605,15 @@
       <c r="I102" t="s">
         <v>18</v>
       </c>
-      <c r="J102">
+      <c r="J102" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K102">
         <v>106</v>
       </c>
-      <c r="K102" t="str">
-        <f t="shared" si="1"/>
+      <c r="L102" t="str">
+        <f>TEXT(DATE(1976,1,K102),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L102" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.5">
@@ -6644,15 +6644,15 @@
       <c r="I103" t="s">
         <v>189</v>
       </c>
-      <c r="J103">
+      <c r="J103" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K103">
         <v>107</v>
       </c>
-      <c r="K103" t="str">
-        <f t="shared" si="1"/>
+      <c r="L103" t="str">
+        <f>TEXT(DATE(1976,1,K103),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L103" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.5">
@@ -6683,15 +6683,15 @@
       <c r="I104" t="s">
         <v>76</v>
       </c>
-      <c r="J104">
+      <c r="J104" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K104">
         <v>108</v>
       </c>
-      <c r="K104" t="str">
-        <f t="shared" si="1"/>
+      <c r="L104" t="str">
+        <f>TEXT(DATE(1976,1,K104),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L104" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.5">
@@ -6722,15 +6722,15 @@
       <c r="I105" t="s">
         <v>50</v>
       </c>
-      <c r="J105">
+      <c r="J105" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K105">
         <v>109</v>
       </c>
-      <c r="K105" t="str">
-        <f t="shared" si="1"/>
+      <c r="L105" t="str">
+        <f>TEXT(DATE(1976,1,K105),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L105" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.5">
@@ -6761,15 +6761,15 @@
       <c r="I106" t="s">
         <v>18</v>
       </c>
-      <c r="J106">
+      <c r="J106" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K106">
         <v>110</v>
       </c>
-      <c r="K106" t="str">
-        <f t="shared" si="1"/>
+      <c r="L106" t="str">
+        <f>TEXT(DATE(1976,1,K106),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L106" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.5">
@@ -6800,15 +6800,15 @@
       <c r="I107" t="s">
         <v>50</v>
       </c>
-      <c r="J107">
+      <c r="J107" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K107">
         <v>111</v>
       </c>
-      <c r="K107" t="str">
-        <f t="shared" si="1"/>
+      <c r="L107" t="str">
+        <f>TEXT(DATE(1976,1,K107),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L107" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.5">
@@ -6839,15 +6839,15 @@
       <c r="I108" t="s">
         <v>25</v>
       </c>
-      <c r="J108">
+      <c r="J108" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K108">
         <v>112</v>
       </c>
-      <c r="K108" t="str">
-        <f t="shared" si="1"/>
+      <c r="L108" t="str">
+        <f>TEXT(DATE(1976,1,K108),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L108" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.5">
@@ -6878,15 +6878,15 @@
       <c r="I109" t="s">
         <v>50</v>
       </c>
-      <c r="J109">
+      <c r="J109" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K109">
         <v>113</v>
       </c>
-      <c r="K109" t="str">
-        <f t="shared" si="1"/>
+      <c r="L109" t="str">
+        <f>TEXT(DATE(1976,1,K109),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L109" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.5">
@@ -6917,15 +6917,15 @@
       <c r="I110" t="s">
         <v>18</v>
       </c>
-      <c r="J110">
+      <c r="J110" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K110">
         <v>114</v>
       </c>
-      <c r="K110" t="str">
-        <f t="shared" si="1"/>
+      <c r="L110" t="str">
+        <f>TEXT(DATE(1976,1,K110),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L110" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.5">
@@ -6956,15 +6956,15 @@
       <c r="I111" t="s">
         <v>18</v>
       </c>
-      <c r="J111">
+      <c r="J111" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K111">
         <v>115</v>
       </c>
-      <c r="K111" t="str">
-        <f t="shared" si="1"/>
+      <c r="L111" t="str">
+        <f>TEXT(DATE(1976,1,K111),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L111" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.5">
@@ -6995,15 +6995,15 @@
       <c r="I112" t="s">
         <v>209</v>
       </c>
-      <c r="J112">
+      <c r="J112" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K112">
         <v>116</v>
       </c>
-      <c r="K112" t="str">
-        <f t="shared" si="1"/>
+      <c r="L112" t="str">
+        <f>TEXT(DATE(1976,1,K112),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L112" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.5">
@@ -7034,15 +7034,15 @@
       <c r="I113" t="s">
         <v>73</v>
       </c>
-      <c r="J113">
+      <c r="J113" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K113">
         <v>117</v>
       </c>
-      <c r="K113" t="str">
-        <f t="shared" si="1"/>
+      <c r="L113" t="str">
+        <f>TEXT(DATE(1976,1,K113),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L113" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.5">
@@ -7073,15 +7073,15 @@
       <c r="I114" t="s">
         <v>105</v>
       </c>
-      <c r="J114">
+      <c r="J114" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K114">
         <v>118</v>
       </c>
-      <c r="K114" t="str">
-        <f t="shared" si="1"/>
+      <c r="L114" t="str">
+        <f>TEXT(DATE(1976,1,K114),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L114" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.5">
@@ -7112,15 +7112,15 @@
       <c r="I115" t="s">
         <v>68</v>
       </c>
-      <c r="J115">
+      <c r="J115" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K115">
         <v>119</v>
       </c>
-      <c r="K115" t="str">
-        <f t="shared" si="1"/>
+      <c r="L115" t="str">
+        <f>TEXT(DATE(1976,1,K115),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L115" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.5">
@@ -7151,15 +7151,15 @@
       <c r="I116" t="s">
         <v>18</v>
       </c>
-      <c r="J116">
+      <c r="J116" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K116">
         <v>120</v>
       </c>
-      <c r="K116" t="str">
-        <f t="shared" si="1"/>
+      <c r="L116" t="str">
+        <f>TEXT(DATE(1976,1,K116),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L116" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.5">
@@ -7190,15 +7190,15 @@
       <c r="I117" t="s">
         <v>18</v>
       </c>
-      <c r="J117">
+      <c r="J117" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K117">
         <v>121</v>
       </c>
-      <c r="K117" t="str">
-        <f t="shared" si="1"/>
+      <c r="L117" t="str">
+        <f>TEXT(DATE(1976,1,K117),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L117" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.5">
@@ -7229,15 +7229,15 @@
       <c r="I118" t="s">
         <v>50</v>
       </c>
-      <c r="J118">
+      <c r="J118" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K118">
         <v>122</v>
       </c>
-      <c r="K118" t="str">
-        <f t="shared" si="1"/>
+      <c r="L118" t="str">
+        <f>TEXT(DATE(1976,1,K118),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L118" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.5">
@@ -7268,15 +7268,15 @@
       <c r="I119" t="s">
         <v>68</v>
       </c>
-      <c r="J119">
+      <c r="J119" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K119">
         <v>123</v>
       </c>
-      <c r="K119" t="str">
-        <f t="shared" si="1"/>
+      <c r="L119" t="str">
+        <f>TEXT(DATE(1976,1,K119),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L119" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.5">
@@ -7307,15 +7307,15 @@
       <c r="I120" t="s">
         <v>50</v>
       </c>
-      <c r="J120">
+      <c r="J120" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K120">
         <v>125</v>
       </c>
-      <c r="K120" t="str">
-        <f t="shared" si="1"/>
+      <c r="L120" t="str">
+        <f>TEXT(DATE(1976,1,K120),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L120" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.5">
@@ -7346,15 +7346,15 @@
       <c r="I121" t="s">
         <v>50</v>
       </c>
-      <c r="J121">
+      <c r="J121" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K121">
         <v>127</v>
       </c>
-      <c r="K121" t="str">
-        <f t="shared" si="1"/>
+      <c r="L121" t="str">
+        <f>TEXT(DATE(1976,1,K121),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L121" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.5">
@@ -7385,15 +7385,15 @@
       <c r="I122" t="s">
         <v>105</v>
       </c>
-      <c r="J122">
+      <c r="J122" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K122">
         <v>128</v>
       </c>
-      <c r="K122" t="str">
-        <f t="shared" si="1"/>
+      <c r="L122" t="str">
+        <f>TEXT(DATE(1976,1,K122),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L122" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.5">
@@ -7424,15 +7424,15 @@
       <c r="I123" t="s">
         <v>50</v>
       </c>
-      <c r="J123">
+      <c r="J123" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K123">
         <v>129</v>
       </c>
-      <c r="K123" t="str">
-        <f t="shared" si="1"/>
+      <c r="L123" t="str">
+        <f>TEXT(DATE(1976,1,K123),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L123" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.5">
@@ -7463,15 +7463,15 @@
       <c r="I124" t="s">
         <v>128</v>
       </c>
-      <c r="J124">
+      <c r="J124" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K124">
         <v>130</v>
       </c>
-      <c r="K124" t="str">
-        <f t="shared" si="1"/>
+      <c r="L124" t="str">
+        <f>TEXT(DATE(1976,1,K124),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L124" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.5">
@@ -7502,15 +7502,15 @@
       <c r="I125" t="s">
         <v>240</v>
       </c>
-      <c r="J125">
+      <c r="J125" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K125">
         <v>131</v>
       </c>
-      <c r="K125" t="str">
-        <f t="shared" si="1"/>
+      <c r="L125" t="str">
+        <f>TEXT(DATE(1976,1,K125),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L125" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.5">
@@ -7541,15 +7541,15 @@
       <c r="I126" t="s">
         <v>128</v>
       </c>
-      <c r="J126">
+      <c r="J126" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K126">
         <v>132</v>
       </c>
-      <c r="K126" t="str">
-        <f t="shared" si="1"/>
+      <c r="L126" t="str">
+        <f>TEXT(DATE(1976,1,K126),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L126" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.5">
@@ -7580,15 +7580,15 @@
       <c r="I127" t="s">
         <v>73</v>
       </c>
-      <c r="J127">
+      <c r="J127" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K127">
         <v>133</v>
       </c>
-      <c r="K127" t="str">
-        <f t="shared" si="1"/>
+      <c r="L127" t="str">
+        <f>TEXT(DATE(1976,1,K127),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L127" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.5">
@@ -7619,15 +7619,15 @@
       <c r="I128" t="s">
         <v>272</v>
       </c>
-      <c r="J128">
+      <c r="J128" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K128">
         <v>134</v>
       </c>
-      <c r="K128" t="str">
-        <f t="shared" si="1"/>
+      <c r="L128" t="str">
+        <f>TEXT(DATE(1976,1,K128),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L128" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.5">
@@ -7658,15 +7658,15 @@
       <c r="I129" t="s">
         <v>301</v>
       </c>
-      <c r="J129">
+      <c r="J129" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K129">
         <v>135</v>
       </c>
-      <c r="K129" t="str">
-        <f t="shared" si="1"/>
+      <c r="L129" t="str">
+        <f>TEXT(DATE(1976,1,K129),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L129" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.5">
@@ -7697,15 +7697,15 @@
       <c r="I130" t="s">
         <v>73</v>
       </c>
-      <c r="J130">
+      <c r="J130" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K130">
         <v>136</v>
       </c>
-      <c r="K130" t="str">
-        <f t="shared" si="1"/>
+      <c r="L130" t="str">
+        <f>TEXT(DATE(1976,1,K130),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L130" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.5">
@@ -7736,15 +7736,15 @@
       <c r="I131" t="s">
         <v>122</v>
       </c>
-      <c r="J131">
+      <c r="J131" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K131">
         <v>138</v>
       </c>
-      <c r="K131" t="str">
-        <f t="shared" si="1"/>
+      <c r="L131" t="str">
+        <f>TEXT(DATE(1976,1,K131),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L131" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.5">
@@ -7775,15 +7775,15 @@
       <c r="I132" t="s">
         <v>128</v>
       </c>
-      <c r="J132">
+      <c r="J132" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K132">
         <v>139</v>
       </c>
-      <c r="K132" t="str">
-        <f t="shared" ref="K132:K195" si="2">TEXT(DATE(1976,1,J132),"mmm")</f>
+      <c r="L132" t="str">
+        <f>TEXT(DATE(1976,1,K132),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L132" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.5">
@@ -7814,15 +7814,15 @@
       <c r="I133" t="s">
         <v>240</v>
       </c>
-      <c r="J133">
+      <c r="J133" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K133">
         <v>140</v>
       </c>
-      <c r="K133" t="str">
-        <f t="shared" si="2"/>
+      <c r="L133" t="str">
+        <f>TEXT(DATE(1976,1,K133),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L133" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.5">
@@ -7853,15 +7853,15 @@
       <c r="I134" t="s">
         <v>50</v>
       </c>
-      <c r="J134">
+      <c r="J134" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K134">
         <v>141</v>
       </c>
-      <c r="K134" t="str">
-        <f t="shared" si="2"/>
+      <c r="L134" t="str">
+        <f>TEXT(DATE(1976,1,K134),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L134" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.5">
@@ -7892,15 +7892,15 @@
       <c r="I135" t="s">
         <v>18</v>
       </c>
-      <c r="J135">
+      <c r="J135" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K135">
         <v>143</v>
       </c>
-      <c r="K135" t="str">
-        <f t="shared" si="2"/>
+      <c r="L135" t="str">
+        <f>TEXT(DATE(1976,1,K135),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L135" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.5">
@@ -7931,15 +7931,15 @@
       <c r="I136" t="s">
         <v>50</v>
       </c>
-      <c r="J136">
+      <c r="J136" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K136">
         <v>145</v>
       </c>
-      <c r="K136" t="str">
-        <f t="shared" si="2"/>
+      <c r="L136" t="str">
+        <f>TEXT(DATE(1976,1,K136),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L136" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.5">
@@ -7970,15 +7970,15 @@
       <c r="I137" t="s">
         <v>76</v>
       </c>
-      <c r="J137">
+      <c r="J137" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K137">
         <v>146</v>
       </c>
-      <c r="K137" t="str">
-        <f t="shared" si="2"/>
+      <c r="L137" t="str">
+        <f>TEXT(DATE(1976,1,K137),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L137" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.5">
@@ -8009,15 +8009,15 @@
       <c r="I138" t="s">
         <v>50</v>
       </c>
-      <c r="J138">
+      <c r="J138" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K138">
         <v>147</v>
       </c>
-      <c r="K138" t="str">
-        <f t="shared" si="2"/>
+      <c r="L138" t="str">
+        <f>TEXT(DATE(1976,1,K138),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L138" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.5">
@@ -8048,15 +8048,15 @@
       <c r="I139" t="s">
         <v>73</v>
       </c>
-      <c r="J139">
+      <c r="J139" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K139">
         <v>148</v>
       </c>
-      <c r="K139" t="str">
-        <f t="shared" si="2"/>
+      <c r="L139" t="str">
+        <f>TEXT(DATE(1976,1,K139),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L139" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.5">
@@ -8087,15 +8087,15 @@
       <c r="I140" t="s">
         <v>128</v>
       </c>
-      <c r="J140">
+      <c r="J140" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K140">
         <v>149</v>
       </c>
-      <c r="K140" t="str">
-        <f t="shared" si="2"/>
+      <c r="L140" t="str">
+        <f>TEXT(DATE(1976,1,K140),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L140" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.5">
@@ -8126,15 +8126,15 @@
       <c r="I141" t="s">
         <v>18</v>
       </c>
-      <c r="J141">
+      <c r="J141" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K141">
         <v>150</v>
       </c>
-      <c r="K141" t="str">
-        <f t="shared" si="2"/>
+      <c r="L141" t="str">
+        <f>TEXT(DATE(1976,1,K141),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L141" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.5">
@@ -8165,15 +8165,15 @@
       <c r="I142" t="s">
         <v>50</v>
       </c>
-      <c r="J142">
+      <c r="J142" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K142">
         <v>151</v>
       </c>
-      <c r="K142" t="str">
-        <f t="shared" si="2"/>
+      <c r="L142" t="str">
+        <f>TEXT(DATE(1976,1,K142),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L142" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.5">
@@ -8204,15 +8204,15 @@
       <c r="I143" t="s">
         <v>18</v>
       </c>
-      <c r="J143">
+      <c r="J143" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K143">
         <v>152</v>
       </c>
-      <c r="K143" t="str">
-        <f t="shared" si="2"/>
+      <c r="L143" t="str">
+        <f>TEXT(DATE(1976,1,K143),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L143" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.5">
@@ -8243,15 +8243,15 @@
       <c r="I144" t="s">
         <v>50</v>
       </c>
-      <c r="J144">
+      <c r="J144" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K144">
         <v>153</v>
       </c>
-      <c r="K144" t="str">
-        <f t="shared" si="2"/>
+      <c r="L144" t="str">
+        <f>TEXT(DATE(1976,1,K144),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L144" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.5">
@@ -8282,15 +8282,15 @@
       <c r="I145" t="s">
         <v>128</v>
       </c>
-      <c r="J145">
+      <c r="J145" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K145">
         <v>154</v>
       </c>
-      <c r="K145" t="str">
-        <f t="shared" si="2"/>
+      <c r="L145" t="str">
+        <f>TEXT(DATE(1976,1,K145),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L145" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.5">
@@ -8321,15 +8321,15 @@
       <c r="I146" t="s">
         <v>240</v>
       </c>
-      <c r="J146">
+      <c r="J146" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K146">
         <v>155</v>
       </c>
-      <c r="K146" t="str">
-        <f t="shared" si="2"/>
+      <c r="L146" t="str">
+        <f>TEXT(DATE(1976,1,K146),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L146" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.5">
@@ -8360,15 +8360,15 @@
       <c r="I147" t="s">
         <v>18</v>
       </c>
-      <c r="J147">
+      <c r="J147" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K147">
         <v>156</v>
       </c>
-      <c r="K147" t="str">
-        <f t="shared" si="2"/>
+      <c r="L147" t="str">
+        <f>TEXT(DATE(1976,1,K147),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L147" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.5">
@@ -8399,15 +8399,15 @@
       <c r="I148" t="s">
         <v>18</v>
       </c>
-      <c r="J148">
+      <c r="J148" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K148">
         <v>157</v>
       </c>
-      <c r="K148" t="str">
-        <f t="shared" si="2"/>
+      <c r="L148" t="str">
+        <f>TEXT(DATE(1976,1,K148),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L148" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.5">
@@ -8438,15 +8438,15 @@
       <c r="I149" t="s">
         <v>50</v>
       </c>
-      <c r="J149">
+      <c r="J149" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K149">
         <v>158</v>
       </c>
-      <c r="K149" t="str">
-        <f t="shared" si="2"/>
+      <c r="L149" t="str">
+        <f>TEXT(DATE(1976,1,K149),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L149" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.5">
@@ -8477,15 +8477,15 @@
       <c r="I150" t="s">
         <v>50</v>
       </c>
-      <c r="J150">
+      <c r="J150" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K150">
         <v>159</v>
       </c>
-      <c r="K150" t="str">
-        <f t="shared" si="2"/>
+      <c r="L150" t="str">
+        <f>TEXT(DATE(1976,1,K150),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L150" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.5">
@@ -8516,15 +8516,15 @@
       <c r="I151" t="s">
         <v>50</v>
       </c>
-      <c r="J151">
+      <c r="J151" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K151">
         <v>160</v>
       </c>
-      <c r="K151" t="str">
-        <f t="shared" si="2"/>
+      <c r="L151" t="str">
+        <f>TEXT(DATE(1976,1,K151),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L151" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.5">
@@ -8555,15 +8555,15 @@
       <c r="I152" t="s">
         <v>68</v>
       </c>
-      <c r="J152">
+      <c r="J152" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K152">
         <v>161</v>
       </c>
-      <c r="K152" t="str">
-        <f t="shared" si="2"/>
+      <c r="L152" t="str">
+        <f>TEXT(DATE(1976,1,K152),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L152" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.5">
@@ -8594,15 +8594,15 @@
       <c r="I153" t="s">
         <v>105</v>
       </c>
-      <c r="J153">
+      <c r="J153" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K153">
         <v>162</v>
       </c>
-      <c r="K153" t="str">
-        <f t="shared" si="2"/>
+      <c r="L153" t="str">
+        <f>TEXT(DATE(1976,1,K153),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L153" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.5">
@@ -8633,15 +8633,15 @@
       <c r="I154" t="s">
         <v>105</v>
       </c>
-      <c r="J154">
+      <c r="J154" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K154">
         <v>163</v>
       </c>
-      <c r="K154" t="str">
-        <f t="shared" si="2"/>
+      <c r="L154" t="str">
+        <f>TEXT(DATE(1976,1,K154),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L154" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.5">
@@ -8672,15 +8672,15 @@
       <c r="I155" t="s">
         <v>105</v>
       </c>
-      <c r="J155">
+      <c r="J155" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K155">
         <v>164</v>
       </c>
-      <c r="K155" t="str">
-        <f t="shared" si="2"/>
+      <c r="L155" t="str">
+        <f>TEXT(DATE(1976,1,K155),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L155" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.5">
@@ -8711,15 +8711,15 @@
       <c r="I156" t="s">
         <v>105</v>
       </c>
-      <c r="J156">
+      <c r="J156" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K156">
         <v>165</v>
       </c>
-      <c r="K156" t="str">
-        <f t="shared" si="2"/>
+      <c r="L156" t="str">
+        <f>TEXT(DATE(1976,1,K156),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L156" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.5">
@@ -8750,15 +8750,15 @@
       <c r="I157" t="s">
         <v>25</v>
       </c>
-      <c r="J157">
+      <c r="J157" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K157">
         <v>166</v>
       </c>
-      <c r="K157" t="str">
-        <f t="shared" si="2"/>
+      <c r="L157" t="str">
+        <f>TEXT(DATE(1976,1,K157),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L157" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.5">
@@ -8789,15 +8789,15 @@
       <c r="I158" t="s">
         <v>155</v>
       </c>
-      <c r="J158">
+      <c r="J158" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K158">
         <v>167</v>
       </c>
-      <c r="K158" t="str">
-        <f t="shared" si="2"/>
+      <c r="L158" t="str">
+        <f>TEXT(DATE(1976,1,K158),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L158" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.5">
@@ -8828,15 +8828,15 @@
       <c r="I159" t="s">
         <v>301</v>
       </c>
-      <c r="J159">
+      <c r="J159" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K159">
         <v>168</v>
       </c>
-      <c r="K159" t="str">
-        <f t="shared" si="2"/>
+      <c r="L159" t="str">
+        <f>TEXT(DATE(1976,1,K159),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L159" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.5">
@@ -8867,15 +8867,15 @@
       <c r="I160" t="s">
         <v>240</v>
       </c>
-      <c r="J160">
+      <c r="J160" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K160">
         <v>169</v>
       </c>
-      <c r="K160" t="str">
-        <f t="shared" si="2"/>
+      <c r="L160" t="str">
+        <f>TEXT(DATE(1976,1,K160),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L160" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.5">
@@ -8906,15 +8906,15 @@
       <c r="I161" t="s">
         <v>25</v>
       </c>
-      <c r="J161">
+      <c r="J161" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K161">
         <v>170</v>
       </c>
-      <c r="K161" t="str">
-        <f t="shared" si="2"/>
+      <c r="L161" t="str">
+        <f>TEXT(DATE(1976,1,K161),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L161" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.5">
@@ -8945,15 +8945,15 @@
       <c r="I162" t="s">
         <v>18</v>
       </c>
-      <c r="J162">
+      <c r="J162" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K162">
         <v>171</v>
       </c>
-      <c r="K162" t="str">
-        <f t="shared" si="2"/>
+      <c r="L162" t="str">
+        <f>TEXT(DATE(1976,1,K162),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L162" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.5">
@@ -8984,15 +8984,15 @@
       <c r="I163" t="s">
         <v>50</v>
       </c>
-      <c r="J163">
+      <c r="J163" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K163">
         <v>172</v>
       </c>
-      <c r="K163" t="str">
-        <f t="shared" si="2"/>
+      <c r="L163" t="str">
+        <f>TEXT(DATE(1976,1,K163),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L163" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.5">
@@ -9023,15 +9023,15 @@
       <c r="I164" t="s">
         <v>68</v>
       </c>
-      <c r="J164">
+      <c r="J164" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K164">
         <v>173</v>
       </c>
-      <c r="K164" t="str">
-        <f t="shared" si="2"/>
+      <c r="L164" t="str">
+        <f>TEXT(DATE(1976,1,K164),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L164" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.5">
@@ -9062,15 +9062,15 @@
       <c r="I165" t="s">
         <v>50</v>
       </c>
-      <c r="J165">
+      <c r="J165" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K165">
         <v>174</v>
       </c>
-      <c r="K165" t="str">
-        <f t="shared" si="2"/>
+      <c r="L165" t="str">
+        <f>TEXT(DATE(1976,1,K165),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L165" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.5">
@@ -9101,15 +9101,15 @@
       <c r="I166" t="s">
         <v>105</v>
       </c>
-      <c r="J166">
+      <c r="J166" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K166">
         <v>175</v>
       </c>
-      <c r="K166" t="str">
-        <f t="shared" si="2"/>
+      <c r="L166" t="str">
+        <f>TEXT(DATE(1976,1,K166),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L166" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.5">
@@ -9140,15 +9140,15 @@
       <c r="I167" t="s">
         <v>105</v>
       </c>
-      <c r="J167">
+      <c r="J167" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K167">
         <v>176</v>
       </c>
-      <c r="K167" t="str">
-        <f t="shared" si="2"/>
+      <c r="L167" t="str">
+        <f>TEXT(DATE(1976,1,K167),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L167" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.5">
@@ -9179,15 +9179,15 @@
       <c r="I168" t="s">
         <v>50</v>
       </c>
-      <c r="J168">
+      <c r="J168" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K168">
         <v>177</v>
       </c>
-      <c r="K168" t="str">
-        <f t="shared" si="2"/>
+      <c r="L168" t="str">
+        <f>TEXT(DATE(1976,1,K168),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L168" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.5">
@@ -9218,15 +9218,15 @@
       <c r="I169" t="s">
         <v>50</v>
       </c>
-      <c r="J169">
+      <c r="J169" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K169">
         <v>178</v>
       </c>
-      <c r="K169" t="str">
-        <f t="shared" si="2"/>
+      <c r="L169" t="str">
+        <f>TEXT(DATE(1976,1,K169),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L169" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.5">
@@ -9257,15 +9257,15 @@
       <c r="I170" t="s">
         <v>240</v>
       </c>
-      <c r="J170">
+      <c r="J170" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K170">
         <v>179</v>
       </c>
-      <c r="K170" t="str">
-        <f t="shared" si="2"/>
+      <c r="L170" t="str">
+        <f>TEXT(DATE(1976,1,K170),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L170" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.5">
@@ -9296,15 +9296,15 @@
       <c r="I171" t="s">
         <v>105</v>
       </c>
-      <c r="J171">
+      <c r="J171" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K171">
         <v>180</v>
       </c>
-      <c r="K171" t="str">
-        <f t="shared" si="2"/>
+      <c r="L171" t="str">
+        <f>TEXT(DATE(1976,1,K171),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L171" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.5">
@@ -9335,15 +9335,15 @@
       <c r="I172" t="s">
         <v>105</v>
       </c>
-      <c r="J172">
+      <c r="J172" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K172">
         <v>181</v>
       </c>
-      <c r="K172" t="str">
-        <f t="shared" si="2"/>
+      <c r="L172" t="str">
+        <f>TEXT(DATE(1976,1,K172),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L172" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.5">
@@ -9374,15 +9374,15 @@
       <c r="I173" t="s">
         <v>68</v>
       </c>
-      <c r="J173">
+      <c r="J173" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K173">
         <v>182</v>
       </c>
-      <c r="K173" t="str">
-        <f t="shared" si="2"/>
+      <c r="L173" t="str">
+        <f>TEXT(DATE(1976,1,K173),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L173" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.5">
@@ -9413,15 +9413,15 @@
       <c r="I174" t="s">
         <v>50</v>
       </c>
-      <c r="J174">
+      <c r="J174" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K174">
         <v>183</v>
       </c>
-      <c r="K174" t="str">
-        <f t="shared" si="2"/>
+      <c r="L174" t="str">
+        <f>TEXT(DATE(1976,1,K174),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L174" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.5">
@@ -9452,15 +9452,15 @@
       <c r="I175" t="s">
         <v>50</v>
       </c>
-      <c r="J175">
+      <c r="J175" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K175">
         <v>184</v>
       </c>
-      <c r="K175" t="str">
-        <f t="shared" si="2"/>
+      <c r="L175" t="str">
+        <f>TEXT(DATE(1976,1,K175),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L175" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.5">
@@ -9491,15 +9491,15 @@
       <c r="I176" t="s">
         <v>105</v>
       </c>
-      <c r="J176">
+      <c r="J176" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K176">
         <v>185</v>
       </c>
-      <c r="K176" t="str">
-        <f t="shared" si="2"/>
+      <c r="L176" t="str">
+        <f>TEXT(DATE(1976,1,K176),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L176" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.5">
@@ -9530,15 +9530,15 @@
       <c r="I177" t="s">
         <v>18</v>
       </c>
-      <c r="J177">
+      <c r="J177" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K177">
         <v>186</v>
       </c>
-      <c r="K177" t="str">
-        <f t="shared" si="2"/>
+      <c r="L177" t="str">
+        <f>TEXT(DATE(1976,1,K177),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L177" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.5">
@@ -9569,15 +9569,15 @@
       <c r="I178" t="s">
         <v>122</v>
       </c>
-      <c r="J178">
+      <c r="J178" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K178">
         <v>187</v>
       </c>
-      <c r="K178" t="str">
-        <f t="shared" si="2"/>
+      <c r="L178" t="str">
+        <f>TEXT(DATE(1976,1,K178),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L178" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.5">
@@ -9608,15 +9608,15 @@
       <c r="I179" t="s">
         <v>73</v>
       </c>
-      <c r="J179">
+      <c r="J179" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K179">
         <v>188</v>
       </c>
-      <c r="K179" t="str">
-        <f t="shared" si="2"/>
+      <c r="L179" t="str">
+        <f>TEXT(DATE(1976,1,K179),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L179" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.5">
@@ -9647,15 +9647,15 @@
       <c r="I180" t="s">
         <v>18</v>
       </c>
-      <c r="J180">
+      <c r="J180" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K180">
         <v>189</v>
       </c>
-      <c r="K180" t="str">
-        <f t="shared" si="2"/>
+      <c r="L180" t="str">
+        <f>TEXT(DATE(1976,1,K180),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L180" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.5">
@@ -9686,15 +9686,15 @@
       <c r="I181" t="s">
         <v>18</v>
       </c>
-      <c r="J181">
+      <c r="J181" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K181">
         <v>191</v>
       </c>
-      <c r="K181" t="str">
-        <f t="shared" si="2"/>
+      <c r="L181" t="str">
+        <f>TEXT(DATE(1976,1,K181),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L181" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.5">
@@ -9725,15 +9725,15 @@
       <c r="I182" t="s">
         <v>25</v>
       </c>
-      <c r="J182">
+      <c r="J182" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K182">
         <v>192</v>
       </c>
-      <c r="K182" t="str">
-        <f t="shared" si="2"/>
+      <c r="L182" t="str">
+        <f>TEXT(DATE(1976,1,K182),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L182" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.5">
@@ -9764,15 +9764,15 @@
       <c r="I183" t="s">
         <v>122</v>
       </c>
-      <c r="J183">
+      <c r="J183" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K183">
         <v>193</v>
       </c>
-      <c r="K183" t="str">
-        <f t="shared" si="2"/>
+      <c r="L183" t="str">
+        <f>TEXT(DATE(1976,1,K183),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L183" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.5">
@@ -9803,15 +9803,15 @@
       <c r="I184" t="s">
         <v>128</v>
       </c>
-      <c r="J184">
+      <c r="J184" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K184">
         <v>194</v>
       </c>
-      <c r="K184" t="str">
-        <f t="shared" si="2"/>
+      <c r="L184" t="str">
+        <f>TEXT(DATE(1976,1,K184),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L184" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.5">
@@ -9842,15 +9842,15 @@
       <c r="I185" t="s">
         <v>240</v>
       </c>
-      <c r="J185">
+      <c r="J185" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K185">
         <v>195</v>
       </c>
-      <c r="K185" t="str">
-        <f t="shared" si="2"/>
+      <c r="L185" t="str">
+        <f>TEXT(DATE(1976,1,K185),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L185" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.5">
@@ -9881,15 +9881,15 @@
       <c r="I186" t="s">
         <v>240</v>
       </c>
-      <c r="J186">
+      <c r="J186" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K186">
         <v>196</v>
       </c>
-      <c r="K186" t="str">
-        <f t="shared" si="2"/>
+      <c r="L186" t="str">
+        <f>TEXT(DATE(1976,1,K186),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L186" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.5">
@@ -9920,15 +9920,15 @@
       <c r="I187" t="s">
         <v>538</v>
       </c>
-      <c r="J187">
+      <c r="J187" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K187">
         <v>198</v>
       </c>
-      <c r="K187" t="str">
-        <f t="shared" si="2"/>
+      <c r="L187" t="str">
+        <f>TEXT(DATE(1976,1,K187),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L187" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.5">
@@ -9959,15 +9959,15 @@
       <c r="I188" t="s">
         <v>50</v>
       </c>
-      <c r="J188">
+      <c r="J188" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K188">
         <v>199</v>
       </c>
-      <c r="K188" t="str">
-        <f t="shared" si="2"/>
+      <c r="L188" t="str">
+        <f>TEXT(DATE(1976,1,K188),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L188" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.5">
@@ -9998,15 +9998,15 @@
       <c r="I189" t="s">
         <v>50</v>
       </c>
-      <c r="J189">
+      <c r="J189" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K189">
         <v>200</v>
       </c>
-      <c r="K189" t="str">
-        <f t="shared" si="2"/>
+      <c r="L189" t="str">
+        <f>TEXT(DATE(1976,1,K189),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L189" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.5">
@@ -10037,15 +10037,15 @@
       <c r="I190" t="s">
         <v>18</v>
       </c>
-      <c r="J190">
+      <c r="J190" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K190">
         <v>201</v>
       </c>
-      <c r="K190" t="str">
-        <f t="shared" si="2"/>
+      <c r="L190" t="str">
+        <f>TEXT(DATE(1976,1,K190),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L190" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.5">
@@ -10076,15 +10076,15 @@
       <c r="I191" t="s">
         <v>25</v>
       </c>
-      <c r="J191">
+      <c r="J191" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K191">
         <v>202</v>
       </c>
-      <c r="K191" t="str">
-        <f t="shared" si="2"/>
+      <c r="L191" t="str">
+        <f>TEXT(DATE(1976,1,K191),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L191" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.5">
@@ -10115,15 +10115,15 @@
       <c r="I192" t="s">
         <v>73</v>
       </c>
-      <c r="J192">
+      <c r="J192" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K192">
         <v>203</v>
       </c>
-      <c r="K192" t="str">
-        <f t="shared" si="2"/>
+      <c r="L192" t="str">
+        <f>TEXT(DATE(1976,1,K192),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L192" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.5">
@@ -10154,15 +10154,15 @@
       <c r="I193" t="s">
         <v>73</v>
       </c>
-      <c r="J193">
+      <c r="J193" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K193">
         <v>205</v>
       </c>
-      <c r="K193" t="str">
-        <f t="shared" si="2"/>
+      <c r="L193" t="str">
+        <f>TEXT(DATE(1976,1,K193),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L193" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.5">
@@ -10193,15 +10193,15 @@
       <c r="I194" t="s">
         <v>128</v>
       </c>
-      <c r="J194">
+      <c r="J194" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K194">
         <v>206</v>
       </c>
-      <c r="K194" t="str">
-        <f t="shared" si="2"/>
+      <c r="L194" t="str">
+        <f>TEXT(DATE(1976,1,K194),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L194" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.5">
@@ -10232,15 +10232,15 @@
       <c r="I195" t="s">
         <v>240</v>
       </c>
-      <c r="J195">
+      <c r="J195" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K195">
         <v>207</v>
       </c>
-      <c r="K195" t="str">
-        <f t="shared" si="2"/>
+      <c r="L195" t="str">
+        <f>TEXT(DATE(1976,1,K195),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L195" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.5">
@@ -10271,15 +10271,15 @@
       <c r="I196" t="s">
         <v>240</v>
       </c>
-      <c r="J196">
+      <c r="J196" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K196">
         <v>208</v>
       </c>
-      <c r="K196" t="str">
-        <f t="shared" ref="K196:K259" si="3">TEXT(DATE(1976,1,J196),"mmm")</f>
+      <c r="L196" t="str">
+        <f>TEXT(DATE(1976,1,K196),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L196" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.5">
@@ -10310,15 +10310,15 @@
       <c r="I197" t="s">
         <v>240</v>
       </c>
-      <c r="J197">
+      <c r="J197" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K197">
         <v>209</v>
       </c>
-      <c r="K197" t="str">
-        <f t="shared" si="3"/>
+      <c r="L197" t="str">
+        <f>TEXT(DATE(1976,1,K197),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L197" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.5">
@@ -10349,15 +10349,15 @@
       <c r="I198" t="s">
         <v>240</v>
       </c>
-      <c r="J198">
+      <c r="J198" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K198">
         <v>210</v>
       </c>
-      <c r="K198" t="str">
-        <f t="shared" si="3"/>
+      <c r="L198" t="str">
+        <f>TEXT(DATE(1976,1,K198),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L198" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.5">
@@ -10388,15 +10388,15 @@
       <c r="I199" t="s">
         <v>50</v>
       </c>
-      <c r="J199">
+      <c r="J199" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K199">
         <v>213</v>
       </c>
-      <c r="K199" t="str">
-        <f t="shared" si="3"/>
+      <c r="L199" t="str">
+        <f>TEXT(DATE(1976,1,K199),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L199" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.5">
@@ -10427,15 +10427,15 @@
       <c r="I200" t="s">
         <v>68</v>
       </c>
-      <c r="J200">
+      <c r="J200" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K200">
         <v>214</v>
       </c>
-      <c r="K200" t="str">
-        <f t="shared" si="3"/>
+      <c r="L200" t="str">
+        <f>TEXT(DATE(1976,1,K200),"mmm")</f>
         <v>Aug</v>
-      </c>
-      <c r="L200" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.5">
@@ -10466,15 +10466,15 @@
       <c r="I201" t="s">
         <v>76</v>
       </c>
-      <c r="J201">
+      <c r="J201" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K201">
         <v>215</v>
       </c>
-      <c r="K201" t="str">
-        <f t="shared" si="3"/>
+      <c r="L201" t="str">
+        <f>TEXT(DATE(1976,1,K201),"mmm")</f>
         <v>Aug</v>
-      </c>
-      <c r="L201" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.5">
@@ -10505,15 +10505,15 @@
       <c r="I202" t="s">
         <v>68</v>
       </c>
-      <c r="J202">
+      <c r="J202" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K202">
         <v>216</v>
       </c>
-      <c r="K202" t="str">
-        <f t="shared" si="3"/>
+      <c r="L202" t="str">
+        <f>TEXT(DATE(1976,1,K202),"mmm")</f>
         <v>Aug</v>
-      </c>
-      <c r="L202" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.5">
@@ -10544,15 +10544,15 @@
       <c r="I203" t="s">
         <v>18</v>
       </c>
-      <c r="J203">
+      <c r="J203" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K203">
         <v>222</v>
       </c>
-      <c r="K203" t="str">
-        <f t="shared" si="3"/>
+      <c r="L203" t="str">
+        <f>TEXT(DATE(1976,1,K203),"mmm")</f>
         <v>Aug</v>
-      </c>
-      <c r="L203" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.5">
@@ -10583,15 +10583,15 @@
       <c r="I204" t="s">
         <v>240</v>
       </c>
-      <c r="J204">
+      <c r="J204" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K204">
         <v>224</v>
       </c>
-      <c r="K204" t="str">
-        <f t="shared" si="3"/>
+      <c r="L204" t="str">
+        <f>TEXT(DATE(1976,1,K204),"mmm")</f>
         <v>Aug</v>
-      </c>
-      <c r="L204" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.5">
@@ -10622,15 +10622,15 @@
       <c r="I205" t="s">
         <v>128</v>
       </c>
-      <c r="J205">
+      <c r="J205" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K205">
         <v>225</v>
       </c>
-      <c r="K205" t="str">
-        <f t="shared" si="3"/>
+      <c r="L205" t="str">
+        <f>TEXT(DATE(1976,1,K205),"mmm")</f>
         <v>Aug</v>
-      </c>
-      <c r="L205" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.5">
@@ -10661,15 +10661,15 @@
       <c r="I206" t="s">
         <v>25</v>
       </c>
-      <c r="J206">
+      <c r="J206" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K206">
         <v>226</v>
       </c>
-      <c r="K206" t="str">
-        <f t="shared" si="3"/>
+      <c r="L206" t="str">
+        <f>TEXT(DATE(1976,1,K206),"mmm")</f>
         <v>Aug</v>
-      </c>
-      <c r="L206" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.5">
@@ -10700,15 +10700,15 @@
       <c r="I207" t="s">
         <v>68</v>
       </c>
-      <c r="J207">
+      <c r="J207" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K207">
         <v>227</v>
       </c>
-      <c r="K207" t="str">
-        <f t="shared" si="3"/>
+      <c r="L207" t="str">
+        <f>TEXT(DATE(1976,1,K207),"mmm")</f>
         <v>Aug</v>
-      </c>
-      <c r="L207" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.5">
@@ -10739,15 +10739,15 @@
       <c r="I208" t="s">
         <v>76</v>
       </c>
-      <c r="J208">
+      <c r="J208" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K208">
         <v>228</v>
       </c>
-      <c r="K208" t="str">
-        <f t="shared" si="3"/>
+      <c r="L208" t="str">
+        <f>TEXT(DATE(1976,1,K208),"mmm")</f>
         <v>Aug</v>
-      </c>
-      <c r="L208" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.5">
@@ -10778,15 +10778,15 @@
       <c r="I209" t="s">
         <v>76</v>
       </c>
-      <c r="J209">
+      <c r="J209" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K209">
         <v>229</v>
       </c>
-      <c r="K209" t="str">
-        <f t="shared" si="3"/>
+      <c r="L209" t="str">
+        <f>TEXT(DATE(1976,1,K209),"mmm")</f>
         <v>Aug</v>
-      </c>
-      <c r="L209" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.5">
@@ -10817,15 +10817,15 @@
       <c r="I210" t="s">
         <v>76</v>
       </c>
-      <c r="J210">
+      <c r="J210" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K210">
         <v>230</v>
       </c>
-      <c r="K210" t="str">
-        <f t="shared" si="3"/>
+      <c r="L210" t="str">
+        <f>TEXT(DATE(1976,1,K210),"mmm")</f>
         <v>Aug</v>
-      </c>
-      <c r="L210" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.5">
@@ -10856,15 +10856,15 @@
       <c r="I211" t="s">
         <v>9</v>
       </c>
-      <c r="J211">
+      <c r="J211" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K211">
         <v>231</v>
       </c>
-      <c r="K211" t="str">
-        <f t="shared" si="3"/>
+      <c r="L211" t="str">
+        <f>TEXT(DATE(1976,1,K211),"mmm")</f>
         <v>Aug</v>
-      </c>
-      <c r="L211" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.5">
@@ -10895,15 +10895,15 @@
       <c r="I212" t="s">
         <v>189</v>
       </c>
-      <c r="J212">
+      <c r="J212" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K212">
         <v>232</v>
       </c>
-      <c r="K212" t="str">
-        <f t="shared" si="3"/>
+      <c r="L212" t="str">
+        <f>TEXT(DATE(1976,1,K212),"mmm")</f>
         <v>Aug</v>
-      </c>
-      <c r="L212" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.5">
@@ -10934,15 +10934,15 @@
       <c r="I213" t="s">
         <v>128</v>
       </c>
-      <c r="J213">
+      <c r="J213" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K213">
         <v>233</v>
       </c>
-      <c r="K213" t="str">
-        <f t="shared" si="3"/>
+      <c r="L213" t="str">
+        <f>TEXT(DATE(1976,1,K213),"mmm")</f>
         <v>Aug</v>
-      </c>
-      <c r="L213" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.5">
@@ -10973,15 +10973,15 @@
       <c r="I214" t="s">
         <v>189</v>
       </c>
-      <c r="J214">
+      <c r="J214" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K214">
         <v>234</v>
       </c>
-      <c r="K214" t="str">
-        <f t="shared" si="3"/>
+      <c r="L214" t="str">
+        <f>TEXT(DATE(1976,1,K214),"mmm")</f>
         <v>Aug</v>
-      </c>
-      <c r="L214" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.5">
@@ -11012,15 +11012,15 @@
       <c r="I215" t="s">
         <v>68</v>
       </c>
-      <c r="J215">
+      <c r="J215" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K215">
         <v>235</v>
       </c>
-      <c r="K215" t="str">
-        <f t="shared" si="3"/>
+      <c r="L215" t="str">
+        <f>TEXT(DATE(1976,1,K215),"mmm")</f>
         <v>Aug</v>
-      </c>
-      <c r="L215" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.5">
@@ -11051,15 +11051,15 @@
       <c r="I216" t="s">
         <v>189</v>
       </c>
-      <c r="J216">
+      <c r="J216" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K216">
         <v>236</v>
       </c>
-      <c r="K216" t="str">
-        <f t="shared" si="3"/>
+      <c r="L216" t="str">
+        <f>TEXT(DATE(1976,1,K216),"mmm")</f>
         <v>Aug</v>
-      </c>
-      <c r="L216" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.5">
@@ -11090,15 +11090,15 @@
       <c r="I217" t="s">
         <v>155</v>
       </c>
-      <c r="J217">
+      <c r="J217" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K217">
         <v>237</v>
       </c>
-      <c r="K217" t="str">
-        <f t="shared" si="3"/>
+      <c r="L217" t="str">
+        <f>TEXT(DATE(1976,1,K217),"mmm")</f>
         <v>Aug</v>
-      </c>
-      <c r="L217" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.5">
@@ -11129,15 +11129,15 @@
       <c r="I218" t="s">
         <v>18</v>
       </c>
-      <c r="J218">
+      <c r="J218" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K218">
         <v>238</v>
       </c>
-      <c r="K218" t="str">
-        <f t="shared" si="3"/>
+      <c r="L218" t="str">
+        <f>TEXT(DATE(1976,1,K218),"mmm")</f>
         <v>Aug</v>
-      </c>
-      <c r="L218" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.5">
@@ -11168,15 +11168,15 @@
       <c r="I219" t="s">
         <v>18</v>
       </c>
-      <c r="J219">
+      <c r="J219" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K219">
         <v>239</v>
       </c>
-      <c r="K219" t="str">
-        <f t="shared" si="3"/>
+      <c r="L219" t="str">
+        <f>TEXT(DATE(1976,1,K219),"mmm")</f>
         <v>Aug</v>
-      </c>
-      <c r="L219" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.5">
@@ -11207,15 +11207,15 @@
       <c r="I220" t="s">
         <v>301</v>
       </c>
-      <c r="J220">
+      <c r="J220" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K220">
         <v>240</v>
       </c>
-      <c r="K220" t="str">
-        <f t="shared" si="3"/>
+      <c r="L220" t="str">
+        <f>TEXT(DATE(1976,1,K220),"mmm")</f>
         <v>Aug</v>
-      </c>
-      <c r="L220" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.5">
@@ -11246,15 +11246,15 @@
       <c r="I221" t="s">
         <v>272</v>
       </c>
-      <c r="J221">
+      <c r="J221" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K221">
         <v>241</v>
       </c>
-      <c r="K221" t="str">
-        <f t="shared" si="3"/>
+      <c r="L221" t="str">
+        <f>TEXT(DATE(1976,1,K221),"mmm")</f>
         <v>Aug</v>
-      </c>
-      <c r="L221" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.5">
@@ -11285,15 +11285,15 @@
       <c r="I222" t="s">
         <v>316</v>
       </c>
-      <c r="J222">
+      <c r="J222" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K222">
         <v>242</v>
       </c>
-      <c r="K222" t="str">
-        <f t="shared" si="3"/>
+      <c r="L222" t="str">
+        <f>TEXT(DATE(1976,1,K222),"mmm")</f>
         <v>Aug</v>
-      </c>
-      <c r="L222" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.5">
@@ -11324,15 +11324,15 @@
       <c r="I223" t="s">
         <v>128</v>
       </c>
-      <c r="J223">
+      <c r="J223" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K223">
         <v>243</v>
       </c>
-      <c r="K223" t="str">
-        <f t="shared" si="3"/>
+      <c r="L223" t="str">
+        <f>TEXT(DATE(1976,1,K223),"mmm")</f>
         <v>Aug</v>
-      </c>
-      <c r="L223" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.5">
@@ -11363,15 +11363,15 @@
       <c r="I224" t="s">
         <v>155</v>
       </c>
-      <c r="J224">
+      <c r="J224" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K224">
         <v>244</v>
       </c>
-      <c r="K224" t="str">
-        <f t="shared" si="3"/>
+      <c r="L224" t="str">
+        <f>TEXT(DATE(1976,1,K224),"mmm")</f>
         <v>Aug</v>
-      </c>
-      <c r="L224" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.5">
@@ -11402,15 +11402,15 @@
       <c r="I225" t="s">
         <v>128</v>
       </c>
-      <c r="J225">
+      <c r="J225" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K225">
         <v>245</v>
       </c>
-      <c r="K225" t="str">
-        <f t="shared" si="3"/>
+      <c r="L225" t="str">
+        <f>TEXT(DATE(1976,1,K225),"mmm")</f>
         <v>Sep</v>
-      </c>
-      <c r="L225" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.5">
@@ -11441,15 +11441,15 @@
       <c r="I226" t="s">
         <v>25</v>
       </c>
-      <c r="J226">
+      <c r="J226" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K226">
         <v>246</v>
       </c>
-      <c r="K226" t="str">
-        <f t="shared" si="3"/>
+      <c r="L226" t="str">
+        <f>TEXT(DATE(1976,1,K226),"mmm")</f>
         <v>Sep</v>
-      </c>
-      <c r="L226" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.5">
@@ -11480,15 +11480,15 @@
       <c r="I227" t="s">
         <v>73</v>
       </c>
-      <c r="J227">
+      <c r="J227" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K227">
         <v>247</v>
       </c>
-      <c r="K227" t="str">
-        <f t="shared" si="3"/>
+      <c r="L227" t="str">
+        <f>TEXT(DATE(1976,1,K227),"mmm")</f>
         <v>Sep</v>
-      </c>
-      <c r="L227" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.5">
@@ -11519,15 +11519,15 @@
       <c r="I228" t="s">
         <v>122</v>
       </c>
-      <c r="J228">
+      <c r="J228" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K228">
         <v>248</v>
       </c>
-      <c r="K228" t="str">
-        <f t="shared" si="3"/>
+      <c r="L228" t="str">
+        <f>TEXT(DATE(1976,1,K228),"mmm")</f>
         <v>Sep</v>
-      </c>
-      <c r="L228" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.5">
@@ -11558,15 +11558,15 @@
       <c r="I229" t="s">
         <v>128</v>
       </c>
-      <c r="J229">
+      <c r="J229" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K229">
         <v>249</v>
       </c>
-      <c r="K229" t="str">
-        <f t="shared" si="3"/>
+      <c r="L229" t="str">
+        <f>TEXT(DATE(1976,1,K229),"mmm")</f>
         <v>Sep</v>
-      </c>
-      <c r="L229" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.5">
@@ -11597,15 +11597,15 @@
       <c r="I230" t="s">
         <v>105</v>
       </c>
-      <c r="J230">
+      <c r="J230" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K230">
         <v>250</v>
       </c>
-      <c r="K230" t="str">
-        <f t="shared" si="3"/>
+      <c r="L230" t="str">
+        <f>TEXT(DATE(1976,1,K230),"mmm")</f>
         <v>Sep</v>
-      </c>
-      <c r="L230" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.5">
@@ -11636,15 +11636,15 @@
       <c r="I231" t="s">
         <v>18</v>
       </c>
-      <c r="J231">
+      <c r="J231" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K231">
         <v>251</v>
       </c>
-      <c r="K231" t="str">
-        <f t="shared" si="3"/>
+      <c r="L231" t="str">
+        <f>TEXT(DATE(1976,1,K231),"mmm")</f>
         <v>Sep</v>
-      </c>
-      <c r="L231" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.5">
@@ -11675,15 +11675,15 @@
       <c r="I232" t="s">
         <v>50</v>
       </c>
-      <c r="J232">
+      <c r="J232" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K232">
         <v>252</v>
       </c>
-      <c r="K232" t="str">
-        <f t="shared" si="3"/>
+      <c r="L232" t="str">
+        <f>TEXT(DATE(1976,1,K232),"mmm")</f>
         <v>Sep</v>
-      </c>
-      <c r="L232" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.5">
@@ -11714,15 +11714,15 @@
       <c r="I233" t="s">
         <v>68</v>
       </c>
-      <c r="J233">
+      <c r="J233" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K233">
         <v>255</v>
       </c>
-      <c r="K233" t="str">
-        <f t="shared" si="3"/>
+      <c r="L233" t="str">
+        <f>TEXT(DATE(1976,1,K233),"mmm")</f>
         <v>Sep</v>
-      </c>
-      <c r="L233" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.5">
@@ -11753,15 +11753,15 @@
       <c r="I234" t="s">
         <v>122</v>
       </c>
-      <c r="J234">
+      <c r="J234" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K234">
         <v>256</v>
       </c>
-      <c r="K234" t="str">
-        <f t="shared" si="3"/>
+      <c r="L234" t="str">
+        <f>TEXT(DATE(1976,1,K234),"mmm")</f>
         <v>Sep</v>
-      </c>
-      <c r="L234" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.5">
@@ -11792,15 +11792,15 @@
       <c r="I235" t="s">
         <v>128</v>
       </c>
-      <c r="J235">
+      <c r="J235" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K235">
         <v>257</v>
       </c>
-      <c r="K235" t="str">
-        <f t="shared" si="3"/>
+      <c r="L235" t="str">
+        <f>TEXT(DATE(1976,1,K235),"mmm")</f>
         <v>Sep</v>
-      </c>
-      <c r="L235" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.5">
@@ -11831,15 +11831,15 @@
       <c r="I236" t="s">
         <v>73</v>
       </c>
-      <c r="J236">
+      <c r="J236" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K236">
         <v>258</v>
       </c>
-      <c r="K236" t="str">
-        <f t="shared" si="3"/>
+      <c r="L236" t="str">
+        <f>TEXT(DATE(1976,1,K236),"mmm")</f>
         <v>Sep</v>
-      </c>
-      <c r="L236" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.5">
@@ -11870,15 +11870,15 @@
       <c r="I237" t="s">
         <v>128</v>
       </c>
-      <c r="J237">
+      <c r="J237" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K237">
         <v>259</v>
       </c>
-      <c r="K237" t="str">
-        <f t="shared" si="3"/>
+      <c r="L237" t="str">
+        <f>TEXT(DATE(1976,1,K237),"mmm")</f>
         <v>Sep</v>
-      </c>
-      <c r="L237" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.5">
@@ -11909,15 +11909,15 @@
       <c r="I238" t="s">
         <v>105</v>
       </c>
-      <c r="J238">
+      <c r="J238" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K238">
         <v>261</v>
       </c>
-      <c r="K238" t="str">
-        <f t="shared" si="3"/>
+      <c r="L238" t="str">
+        <f>TEXT(DATE(1976,1,K238),"mmm")</f>
         <v>Sep</v>
-      </c>
-      <c r="L238" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.5">
@@ -11948,15 +11948,15 @@
       <c r="I239" t="s">
         <v>105</v>
       </c>
-      <c r="J239">
+      <c r="J239" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K239">
         <v>262</v>
       </c>
-      <c r="K239" t="str">
-        <f t="shared" si="3"/>
+      <c r="L239" t="str">
+        <f>TEXT(DATE(1976,1,K239),"mmm")</f>
         <v>Sep</v>
-      </c>
-      <c r="L239" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.5">
@@ -11987,15 +11987,15 @@
       <c r="I240" t="s">
         <v>18</v>
       </c>
-      <c r="J240">
+      <c r="J240" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K240">
         <v>263</v>
       </c>
-      <c r="K240" t="str">
-        <f t="shared" si="3"/>
+      <c r="L240" t="str">
+        <f>TEXT(DATE(1976,1,K240),"mmm")</f>
         <v>Sep</v>
-      </c>
-      <c r="L240" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.5">
@@ -12026,15 +12026,15 @@
       <c r="I241" t="s">
         <v>128</v>
       </c>
-      <c r="J241">
+      <c r="J241" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K241">
         <v>265</v>
       </c>
-      <c r="K241" t="str">
-        <f t="shared" si="3"/>
+      <c r="L241" t="str">
+        <f>TEXT(DATE(1976,1,K241),"mmm")</f>
         <v>Sep</v>
-      </c>
-      <c r="L241" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.5">
@@ -12065,15 +12065,15 @@
       <c r="I242" t="s">
         <v>73</v>
       </c>
-      <c r="J242">
+      <c r="J242" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K242">
         <v>266</v>
       </c>
-      <c r="K242" t="str">
-        <f t="shared" si="3"/>
+      <c r="L242" t="str">
+        <f>TEXT(DATE(1976,1,K242),"mmm")</f>
         <v>Sep</v>
-      </c>
-      <c r="L242" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.5">
@@ -12104,15 +12104,15 @@
       <c r="I243" t="s">
         <v>18</v>
       </c>
-      <c r="J243">
+      <c r="J243" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K243">
         <v>268</v>
       </c>
-      <c r="K243" t="str">
-        <f t="shared" si="3"/>
+      <c r="L243" t="str">
+        <f>TEXT(DATE(1976,1,K243),"mmm")</f>
         <v>Sep</v>
-      </c>
-      <c r="L243" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.5">
@@ -12143,15 +12143,15 @@
       <c r="I244" t="s">
         <v>50</v>
       </c>
-      <c r="J244">
+      <c r="J244" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K244">
         <v>269</v>
       </c>
-      <c r="K244" t="str">
-        <f t="shared" si="3"/>
+      <c r="L244" t="str">
+        <f>TEXT(DATE(1976,1,K244),"mmm")</f>
         <v>Sep</v>
-      </c>
-      <c r="L244" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.5">
@@ -12182,15 +12182,15 @@
       <c r="I245" t="s">
         <v>50</v>
       </c>
-      <c r="J245">
+      <c r="J245" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K245">
         <v>270</v>
       </c>
-      <c r="K245" t="str">
-        <f t="shared" si="3"/>
+      <c r="L245" t="str">
+        <f>TEXT(DATE(1976,1,K245),"mmm")</f>
         <v>Sep</v>
-      </c>
-      <c r="L245" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.5">
@@ -12221,15 +12221,15 @@
       <c r="I246" t="s">
         <v>105</v>
       </c>
-      <c r="J246">
+      <c r="J246" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K246">
         <v>271</v>
       </c>
-      <c r="K246" t="str">
-        <f t="shared" si="3"/>
+      <c r="L246" t="str">
+        <f>TEXT(DATE(1976,1,K246),"mmm")</f>
         <v>Sep</v>
-      </c>
-      <c r="L246" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.5">
@@ -12260,15 +12260,15 @@
       <c r="I247" t="s">
         <v>50</v>
       </c>
-      <c r="J247">
+      <c r="J247" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K247">
         <v>272</v>
       </c>
-      <c r="K247" t="str">
-        <f t="shared" si="3"/>
+      <c r="L247" t="str">
+        <f>TEXT(DATE(1976,1,K247),"mmm")</f>
         <v>Sep</v>
-      </c>
-      <c r="L247" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.5">
@@ -12299,15 +12299,15 @@
       <c r="I248" t="s">
         <v>128</v>
       </c>
-      <c r="J248">
+      <c r="J248" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K248">
         <v>273</v>
       </c>
-      <c r="K248" t="str">
-        <f t="shared" si="3"/>
+      <c r="L248" t="str">
+        <f>TEXT(DATE(1976,1,K248),"mmm")</f>
         <v>Sep</v>
-      </c>
-      <c r="L248" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.5">
@@ -12338,15 +12338,15 @@
       <c r="I249" t="s">
         <v>68</v>
       </c>
-      <c r="J249">
+      <c r="J249" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K249">
         <v>274</v>
       </c>
-      <c r="K249" t="str">
-        <f t="shared" si="3"/>
+      <c r="L249" t="str">
+        <f>TEXT(DATE(1976,1,K249),"mmm")</f>
         <v>Sep</v>
-      </c>
-      <c r="L249" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.5">
@@ -12377,15 +12377,15 @@
       <c r="I250" t="s">
         <v>76</v>
       </c>
-      <c r="J250">
+      <c r="J250" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K250">
         <v>275</v>
       </c>
-      <c r="K250" t="str">
-        <f t="shared" si="3"/>
+      <c r="L250" t="str">
+        <f>TEXT(DATE(1976,1,K250),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L250" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.5">
@@ -12416,15 +12416,15 @@
       <c r="I251" t="s">
         <v>76</v>
       </c>
-      <c r="J251">
+      <c r="J251" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K251">
         <v>276</v>
       </c>
-      <c r="K251" t="str">
-        <f t="shared" si="3"/>
+      <c r="L251" t="str">
+        <f>TEXT(DATE(1976,1,K251),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L251" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.5">
@@ -12455,15 +12455,15 @@
       <c r="I252" t="s">
         <v>76</v>
       </c>
-      <c r="J252">
+      <c r="J252" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K252">
         <v>277</v>
       </c>
-      <c r="K252" t="str">
-        <f t="shared" si="3"/>
+      <c r="L252" t="str">
+        <f>TEXT(DATE(1976,1,K252),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L252" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.5">
@@ -12494,15 +12494,15 @@
       <c r="I253" t="s">
         <v>128</v>
       </c>
-      <c r="J253">
+      <c r="J253" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K253">
         <v>278</v>
       </c>
-      <c r="K253" t="str">
-        <f t="shared" si="3"/>
+      <c r="L253" t="str">
+        <f>TEXT(DATE(1976,1,K253),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L253" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.5">
@@ -12533,15 +12533,15 @@
       <c r="I254" t="s">
         <v>73</v>
       </c>
-      <c r="J254">
+      <c r="J254" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K254">
         <v>279</v>
       </c>
-      <c r="K254" t="str">
-        <f t="shared" si="3"/>
+      <c r="L254" t="str">
+        <f>TEXT(DATE(1976,1,K254),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L254" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.5">
@@ -12572,15 +12572,15 @@
       <c r="I255" t="s">
         <v>122</v>
       </c>
-      <c r="J255">
+      <c r="J255" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K255">
         <v>280</v>
       </c>
-      <c r="K255" t="str">
-        <f t="shared" si="3"/>
+      <c r="L255" t="str">
+        <f>TEXT(DATE(1976,1,K255),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L255" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.5">
@@ -12611,15 +12611,15 @@
       <c r="I256" t="s">
         <v>301</v>
       </c>
-      <c r="J256">
+      <c r="J256" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K256">
         <v>281</v>
       </c>
-      <c r="K256" t="str">
-        <f t="shared" si="3"/>
+      <c r="L256" t="str">
+        <f>TEXT(DATE(1976,1,K256),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L256" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.5">
@@ -12650,15 +12650,15 @@
       <c r="I257" t="s">
         <v>240</v>
       </c>
-      <c r="J257">
+      <c r="J257" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K257">
         <v>282</v>
       </c>
-      <c r="K257" t="str">
-        <f t="shared" si="3"/>
+      <c r="L257" t="str">
+        <f>TEXT(DATE(1976,1,K257),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L257" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.5">
@@ -12689,15 +12689,15 @@
       <c r="I258" t="s">
         <v>9</v>
       </c>
-      <c r="J258">
+      <c r="J258" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K258">
         <v>283</v>
       </c>
-      <c r="K258" t="str">
-        <f t="shared" si="3"/>
+      <c r="L258" t="str">
+        <f>TEXT(DATE(1976,1,K258),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L258" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.5">
@@ -12728,15 +12728,15 @@
       <c r="I259" t="s">
         <v>76</v>
       </c>
-      <c r="J259">
+      <c r="J259" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K259">
         <v>284</v>
       </c>
-      <c r="K259" t="str">
-        <f t="shared" si="3"/>
+      <c r="L259" t="str">
+        <f>TEXT(DATE(1976,1,K259),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L259" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.5">
@@ -12767,15 +12767,15 @@
       <c r="I260" t="s">
         <v>163</v>
       </c>
-      <c r="J260">
+      <c r="J260" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K260">
         <v>285</v>
       </c>
-      <c r="K260" t="str">
-        <f t="shared" ref="K260:K323" si="4">TEXT(DATE(1976,1,J260),"mmm")</f>
+      <c r="L260" t="str">
+        <f>TEXT(DATE(1976,1,K260),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L260" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.5">
@@ -12806,15 +12806,15 @@
       <c r="I261" t="s">
         <v>272</v>
       </c>
-      <c r="J261">
+      <c r="J261" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K261">
         <v>286</v>
       </c>
-      <c r="K261" t="str">
-        <f t="shared" si="4"/>
+      <c r="L261" t="str">
+        <f>TEXT(DATE(1976,1,K261),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L261" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.5">
@@ -12845,15 +12845,15 @@
       <c r="I262" t="s">
         <v>223</v>
       </c>
-      <c r="J262">
+      <c r="J262" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K262">
         <v>287</v>
       </c>
-      <c r="K262" t="str">
-        <f t="shared" si="4"/>
+      <c r="L262" t="str">
+        <f>TEXT(DATE(1976,1,K262),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L262" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.5">
@@ -12884,15 +12884,15 @@
       <c r="I263" t="s">
         <v>155</v>
       </c>
-      <c r="J263">
+      <c r="J263" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K263">
         <v>288</v>
       </c>
-      <c r="K263" t="str">
-        <f t="shared" si="4"/>
+      <c r="L263" t="str">
+        <f>TEXT(DATE(1976,1,K263),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L263" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.5">
@@ -12923,15 +12923,15 @@
       <c r="I264" t="s">
         <v>122</v>
       </c>
-      <c r="J264">
+      <c r="J264" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K264">
         <v>289</v>
       </c>
-      <c r="K264" t="str">
-        <f t="shared" si="4"/>
+      <c r="L264" t="str">
+        <f>TEXT(DATE(1976,1,K264),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L264" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.5">
@@ -12962,15 +12962,15 @@
       <c r="I265" t="s">
         <v>128</v>
       </c>
-      <c r="J265">
+      <c r="J265" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K265">
         <v>290</v>
       </c>
-      <c r="K265" t="str">
-        <f t="shared" si="4"/>
+      <c r="L265" t="str">
+        <f>TEXT(DATE(1976,1,K265),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L265" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.5">
@@ -13001,15 +13001,15 @@
       <c r="I266" t="s">
         <v>301</v>
       </c>
-      <c r="J266">
+      <c r="J266" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K266">
         <v>291</v>
       </c>
-      <c r="K266" t="str">
-        <f t="shared" si="4"/>
+      <c r="L266" t="str">
+        <f>TEXT(DATE(1976,1,K266),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L266" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.5">
@@ -13040,15 +13040,15 @@
       <c r="I267" t="s">
         <v>240</v>
       </c>
-      <c r="J267">
+      <c r="J267" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K267">
         <v>292</v>
       </c>
-      <c r="K267" t="str">
-        <f t="shared" si="4"/>
+      <c r="L267" t="str">
+        <f>TEXT(DATE(1976,1,K267),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L267" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.5">
@@ -13079,15 +13079,15 @@
       <c r="I268" t="s">
         <v>122</v>
       </c>
-      <c r="J268">
+      <c r="J268" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K268">
         <v>293</v>
       </c>
-      <c r="K268" t="str">
-        <f t="shared" si="4"/>
+      <c r="L268" t="str">
+        <f>TEXT(DATE(1976,1,K268),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L268" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.5">
@@ -13118,15 +13118,15 @@
       <c r="I269" t="s">
         <v>25</v>
       </c>
-      <c r="J269">
+      <c r="J269" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K269">
         <v>294</v>
       </c>
-      <c r="K269" t="str">
-        <f t="shared" si="4"/>
+      <c r="L269" t="str">
+        <f>TEXT(DATE(1976,1,K269),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L269" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.5">
@@ -13157,15 +13157,15 @@
       <c r="I270" t="s">
         <v>25</v>
       </c>
-      <c r="J270">
+      <c r="J270" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K270">
         <v>295</v>
       </c>
-      <c r="K270" t="str">
-        <f t="shared" si="4"/>
+      <c r="L270" t="str">
+        <f>TEXT(DATE(1976,1,K270),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L270" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.5">
@@ -13196,15 +13196,15 @@
       <c r="I271" t="s">
         <v>240</v>
       </c>
-      <c r="J271">
+      <c r="J271" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K271">
         <v>296</v>
       </c>
-      <c r="K271" t="str">
-        <f t="shared" si="4"/>
+      <c r="L271" t="str">
+        <f>TEXT(DATE(1976,1,K271),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L271" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.5">
@@ -13235,15 +13235,15 @@
       <c r="I272" t="s">
         <v>122</v>
       </c>
-      <c r="J272">
+      <c r="J272" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K272">
         <v>297</v>
       </c>
-      <c r="K272" t="str">
-        <f t="shared" si="4"/>
+      <c r="L272" t="str">
+        <f>TEXT(DATE(1976,1,K272),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L272" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.5">
@@ -13274,15 +13274,15 @@
       <c r="I273" t="s">
         <v>122</v>
       </c>
-      <c r="J273">
+      <c r="J273" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K273">
         <v>298</v>
       </c>
-      <c r="K273" t="str">
-        <f t="shared" si="4"/>
+      <c r="L273" t="str">
+        <f>TEXT(DATE(1976,1,K273),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L273" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.5">
@@ -13313,15 +13313,15 @@
       <c r="I274" t="s">
         <v>73</v>
       </c>
-      <c r="J274">
+      <c r="J274" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K274">
         <v>299</v>
       </c>
-      <c r="K274" t="str">
-        <f t="shared" si="4"/>
+      <c r="L274" t="str">
+        <f>TEXT(DATE(1976,1,K274),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L274" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.5">
@@ -13352,15 +13352,15 @@
       <c r="I275" t="s">
         <v>73</v>
       </c>
-      <c r="J275">
+      <c r="J275" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K275">
         <v>300</v>
       </c>
-      <c r="K275" t="str">
-        <f t="shared" si="4"/>
+      <c r="L275" t="str">
+        <f>TEXT(DATE(1976,1,K275),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L275" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.5">
@@ -13391,15 +13391,15 @@
       <c r="I276" t="s">
         <v>189</v>
       </c>
-      <c r="J276">
+      <c r="J276" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K276">
         <v>301</v>
       </c>
-      <c r="K276" t="str">
-        <f t="shared" si="4"/>
+      <c r="L276" t="str">
+        <f>TEXT(DATE(1976,1,K276),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L276" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.5">
@@ -13430,15 +13430,15 @@
       <c r="I277" t="s">
         <v>76</v>
       </c>
-      <c r="J277">
+      <c r="J277" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K277">
         <v>302</v>
       </c>
-      <c r="K277" t="str">
-        <f t="shared" si="4"/>
+      <c r="L277" t="str">
+        <f>TEXT(DATE(1976,1,K277),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L277" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.5">
@@ -13469,15 +13469,15 @@
       <c r="I278" t="s">
         <v>68</v>
       </c>
-      <c r="J278">
+      <c r="J278" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K278">
         <v>303</v>
       </c>
-      <c r="K278" t="str">
-        <f t="shared" si="4"/>
+      <c r="L278" t="str">
+        <f>TEXT(DATE(1976,1,K278),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L278" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.5">
@@ -13508,15 +13508,15 @@
       <c r="I279" t="s">
         <v>18</v>
       </c>
-      <c r="J279">
+      <c r="J279" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K279">
         <v>304</v>
       </c>
-      <c r="K279" t="str">
-        <f t="shared" si="4"/>
+      <c r="L279" t="str">
+        <f>TEXT(DATE(1976,1,K279),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L279" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.5">
@@ -13547,15 +13547,15 @@
       <c r="I280" t="s">
         <v>18</v>
       </c>
-      <c r="J280">
+      <c r="J280" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K280">
         <v>305</v>
       </c>
-      <c r="K280" t="str">
-        <f t="shared" si="4"/>
+      <c r="L280" t="str">
+        <f>TEXT(DATE(1976,1,K280),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L280" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.5">
@@ -13586,15 +13586,15 @@
       <c r="I281" t="s">
         <v>68</v>
       </c>
-      <c r="J281">
+      <c r="J281" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K281">
         <v>308</v>
       </c>
-      <c r="K281" t="str">
-        <f t="shared" si="4"/>
+      <c r="L281" t="str">
+        <f>TEXT(DATE(1976,1,K281),"mmm")</f>
         <v>Nov</v>
-      </c>
-      <c r="L281" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.5">
@@ -13625,15 +13625,15 @@
       <c r="I282" t="s">
         <v>189</v>
       </c>
-      <c r="J282">
+      <c r="J282" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K282">
         <v>310</v>
       </c>
-      <c r="K282" t="str">
-        <f t="shared" si="4"/>
+      <c r="L282" t="str">
+        <f>TEXT(DATE(1976,1,K282),"mmm")</f>
         <v>Nov</v>
-      </c>
-      <c r="L282" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.5">
@@ -13664,15 +13664,15 @@
       <c r="I283" t="s">
         <v>155</v>
       </c>
-      <c r="J283">
+      <c r="J283" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K283">
         <v>312</v>
       </c>
-      <c r="K283" t="str">
-        <f t="shared" si="4"/>
+      <c r="L283" t="str">
+        <f>TEXT(DATE(1976,1,K283),"mmm")</f>
         <v>Nov</v>
-      </c>
-      <c r="L283" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.5">
@@ -13703,15 +13703,15 @@
       <c r="I284" t="s">
         <v>122</v>
       </c>
-      <c r="J284">
+      <c r="J284" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K284">
         <v>314</v>
       </c>
-      <c r="K284" t="str">
-        <f t="shared" si="4"/>
+      <c r="L284" t="str">
+        <f>TEXT(DATE(1976,1,K284),"mmm")</f>
         <v>Nov</v>
-      </c>
-      <c r="L284" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.5">
@@ -13742,15 +13742,15 @@
       <c r="I285" t="s">
         <v>272</v>
       </c>
-      <c r="J285">
+      <c r="J285" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K285">
         <v>315</v>
       </c>
-      <c r="K285" t="str">
-        <f t="shared" si="4"/>
+      <c r="L285" t="str">
+        <f>TEXT(DATE(1976,1,K285),"mmm")</f>
         <v>Nov</v>
-      </c>
-      <c r="L285" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.5">
@@ -13781,15 +13781,15 @@
       <c r="I286" t="s">
         <v>76</v>
       </c>
-      <c r="J286">
+      <c r="J286" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K286">
         <v>316</v>
       </c>
-      <c r="K286" t="str">
-        <f t="shared" si="4"/>
+      <c r="L286" t="str">
+        <f>TEXT(DATE(1976,1,K286),"mmm")</f>
         <v>Nov</v>
-      </c>
-      <c r="L286" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.5">
@@ -13820,15 +13820,15 @@
       <c r="I287" t="s">
         <v>50</v>
       </c>
-      <c r="J287">
+      <c r="J287" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K287">
         <v>317</v>
       </c>
-      <c r="K287" t="str">
-        <f t="shared" si="4"/>
+      <c r="L287" t="str">
+        <f>TEXT(DATE(1976,1,K287),"mmm")</f>
         <v>Nov</v>
-      </c>
-      <c r="L287" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.5">
@@ -13859,15 +13859,15 @@
       <c r="I288" t="s">
         <v>189</v>
       </c>
-      <c r="J288">
+      <c r="J288" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K288">
         <v>318</v>
       </c>
-      <c r="K288" t="str">
-        <f t="shared" si="4"/>
+      <c r="L288" t="str">
+        <f>TEXT(DATE(1976,1,K288),"mmm")</f>
         <v>Nov</v>
-      </c>
-      <c r="L288" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.5">
@@ -13898,15 +13898,15 @@
       <c r="I289" t="s">
         <v>76</v>
       </c>
-      <c r="J289">
+      <c r="J289" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K289">
         <v>319</v>
       </c>
-      <c r="K289" t="str">
-        <f t="shared" si="4"/>
+      <c r="L289" t="str">
+        <f>TEXT(DATE(1976,1,K289),"mmm")</f>
         <v>Nov</v>
-      </c>
-      <c r="L289" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.5">
@@ -13937,15 +13937,15 @@
       <c r="I290" t="s">
         <v>128</v>
       </c>
-      <c r="J290">
+      <c r="J290" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K290">
         <v>320</v>
       </c>
-      <c r="K290" t="str">
-        <f t="shared" si="4"/>
+      <c r="L290" t="str">
+        <f>TEXT(DATE(1976,1,K290),"mmm")</f>
         <v>Nov</v>
-      </c>
-      <c r="L290" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.5">
@@ -13976,15 +13976,15 @@
       <c r="I291" t="s">
         <v>105</v>
       </c>
-      <c r="J291">
+      <c r="J291" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K291">
         <v>321</v>
       </c>
-      <c r="K291" t="str">
-        <f t="shared" si="4"/>
+      <c r="L291" t="str">
+        <f>TEXT(DATE(1976,1,K291),"mmm")</f>
         <v>Nov</v>
-      </c>
-      <c r="L291" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.5">
@@ -14015,15 +14015,15 @@
       <c r="I292" t="s">
         <v>68</v>
       </c>
-      <c r="J292">
+      <c r="J292" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K292">
         <v>322</v>
       </c>
-      <c r="K292" t="str">
-        <f t="shared" si="4"/>
+      <c r="L292" t="str">
+        <f>TEXT(DATE(1976,1,K292),"mmm")</f>
         <v>Nov</v>
-      </c>
-      <c r="L292" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.5">
@@ -14054,15 +14054,15 @@
       <c r="I293" t="s">
         <v>76</v>
       </c>
-      <c r="J293">
+      <c r="J293" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K293">
         <v>323</v>
       </c>
-      <c r="K293" t="str">
-        <f t="shared" si="4"/>
+      <c r="L293" t="str">
+        <f>TEXT(DATE(1976,1,K293),"mmm")</f>
         <v>Nov</v>
-      </c>
-      <c r="L293" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.5">
@@ -14093,15 +14093,15 @@
       <c r="I294" t="s">
         <v>316</v>
       </c>
-      <c r="J294">
+      <c r="J294" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K294">
         <v>324</v>
       </c>
-      <c r="K294" t="str">
-        <f t="shared" si="4"/>
+      <c r="L294" t="str">
+        <f>TEXT(DATE(1976,1,K294),"mmm")</f>
         <v>Nov</v>
-      </c>
-      <c r="L294" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.5">
@@ -14132,15 +14132,15 @@
       <c r="I295" t="s">
         <v>73</v>
       </c>
-      <c r="J295">
+      <c r="J295" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K295">
         <v>325</v>
       </c>
-      <c r="K295" t="str">
-        <f t="shared" si="4"/>
+      <c r="L295" t="str">
+        <f>TEXT(DATE(1976,1,K295),"mmm")</f>
         <v>Nov</v>
-      </c>
-      <c r="L295" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.5">
@@ -14171,15 +14171,15 @@
       <c r="I296" t="s">
         <v>155</v>
       </c>
-      <c r="J296">
+      <c r="J296" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K296">
         <v>326</v>
       </c>
-      <c r="K296" t="str">
-        <f t="shared" si="4"/>
+      <c r="L296" t="str">
+        <f>TEXT(DATE(1976,1,K296),"mmm")</f>
         <v>Nov</v>
-      </c>
-      <c r="L296" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.5">
@@ -14210,15 +14210,15 @@
       <c r="I297" t="s">
         <v>155</v>
       </c>
-      <c r="J297">
+      <c r="J297" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K297">
         <v>327</v>
       </c>
-      <c r="K297" t="str">
-        <f t="shared" si="4"/>
+      <c r="L297" t="str">
+        <f>TEXT(DATE(1976,1,K297),"mmm")</f>
         <v>Nov</v>
-      </c>
-      <c r="L297" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.5">
@@ -14249,15 +14249,15 @@
       <c r="I298" t="s">
         <v>163</v>
       </c>
-      <c r="J298">
+      <c r="J298" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K298">
         <v>328</v>
       </c>
-      <c r="K298" t="str">
-        <f t="shared" si="4"/>
+      <c r="L298" t="str">
+        <f>TEXT(DATE(1976,1,K298),"mmm")</f>
         <v>Nov</v>
-      </c>
-      <c r="L298" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.5">
@@ -14288,15 +14288,15 @@
       <c r="I299" t="s">
         <v>173</v>
       </c>
-      <c r="J299">
+      <c r="J299" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K299">
         <v>329</v>
       </c>
-      <c r="K299" t="str">
-        <f t="shared" si="4"/>
+      <c r="L299" t="str">
+        <f>TEXT(DATE(1976,1,K299),"mmm")</f>
         <v>Nov</v>
-      </c>
-      <c r="L299" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.5">
@@ -14327,15 +14327,15 @@
       <c r="I300" t="s">
         <v>155</v>
       </c>
-      <c r="J300">
+      <c r="J300" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K300">
         <v>330</v>
       </c>
-      <c r="K300" t="str">
-        <f t="shared" si="4"/>
+      <c r="L300" t="str">
+        <f>TEXT(DATE(1976,1,K300),"mmm")</f>
         <v>Nov</v>
-      </c>
-      <c r="L300" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.5">
@@ -14366,15 +14366,15 @@
       <c r="I301" t="s">
         <v>25</v>
       </c>
-      <c r="J301">
+      <c r="J301" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K301">
         <v>331</v>
       </c>
-      <c r="K301" t="str">
-        <f t="shared" si="4"/>
+      <c r="L301" t="str">
+        <f>TEXT(DATE(1976,1,K301),"mmm")</f>
         <v>Nov</v>
-      </c>
-      <c r="L301" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.5">
@@ -14405,15 +14405,15 @@
       <c r="I302" t="s">
         <v>68</v>
       </c>
-      <c r="J302">
+      <c r="J302" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K302">
         <v>332</v>
       </c>
-      <c r="K302" t="str">
-        <f t="shared" si="4"/>
+      <c r="L302" t="str">
+        <f>TEXT(DATE(1976,1,K302),"mmm")</f>
         <v>Nov</v>
-      </c>
-      <c r="L302" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.5">
@@ -14444,15 +14444,15 @@
       <c r="I303" t="s">
         <v>18</v>
       </c>
-      <c r="J303">
+      <c r="J303" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K303">
         <v>333</v>
       </c>
-      <c r="K303" t="str">
-        <f t="shared" si="4"/>
+      <c r="L303" t="str">
+        <f>TEXT(DATE(1976,1,K303),"mmm")</f>
         <v>Nov</v>
-      </c>
-      <c r="L303" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.5">
@@ -14483,15 +14483,15 @@
       <c r="I304" t="s">
         <v>9</v>
       </c>
-      <c r="J304">
+      <c r="J304" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K304">
         <v>334</v>
       </c>
-      <c r="K304" t="str">
-        <f t="shared" si="4"/>
+      <c r="L304" t="str">
+        <f>TEXT(DATE(1976,1,K304),"mmm")</f>
         <v>Nov</v>
-      </c>
-      <c r="L304" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.5">
@@ -14522,15 +14522,15 @@
       <c r="I305" t="s">
         <v>68</v>
       </c>
-      <c r="J305">
+      <c r="J305" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K305">
         <v>335</v>
       </c>
-      <c r="K305" t="str">
-        <f t="shared" si="4"/>
+      <c r="L305" t="str">
+        <f>TEXT(DATE(1976,1,K305),"mmm")</f>
         <v>Nov</v>
-      </c>
-      <c r="L305" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.5">
@@ -14561,15 +14561,15 @@
       <c r="I306" t="s">
         <v>76</v>
       </c>
-      <c r="J306">
+      <c r="J306" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K306">
         <v>336</v>
       </c>
-      <c r="K306" t="str">
-        <f t="shared" si="4"/>
+      <c r="L306" t="str">
+        <f>TEXT(DATE(1976,1,K306),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L306" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.5">
@@ -14600,15 +14600,15 @@
       <c r="I307" t="s">
         <v>76</v>
       </c>
-      <c r="J307">
+      <c r="J307" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K307">
         <v>337</v>
       </c>
-      <c r="K307" t="str">
-        <f t="shared" si="4"/>
+      <c r="L307" t="str">
+        <f>TEXT(DATE(1976,1,K307),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L307" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.5">
@@ -14639,15 +14639,15 @@
       <c r="I308" t="s">
         <v>76</v>
       </c>
-      <c r="J308">
+      <c r="J308" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K308">
         <v>338</v>
       </c>
-      <c r="K308" t="str">
-        <f t="shared" si="4"/>
+      <c r="L308" t="str">
+        <f>TEXT(DATE(1976,1,K308),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L308" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.5">
@@ -14678,15 +14678,15 @@
       <c r="I309" t="s">
         <v>240</v>
       </c>
-      <c r="J309">
+      <c r="J309" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K309">
         <v>339</v>
       </c>
-      <c r="K309" t="str">
-        <f t="shared" si="4"/>
+      <c r="L309" t="str">
+        <f>TEXT(DATE(1976,1,K309),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L309" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.5">
@@ -14717,15 +14717,15 @@
       <c r="I310" t="s">
         <v>25</v>
       </c>
-      <c r="J310">
+      <c r="J310" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K310">
         <v>340</v>
       </c>
-      <c r="K310" t="str">
-        <f t="shared" si="4"/>
+      <c r="L310" t="str">
+        <f>TEXT(DATE(1976,1,K310),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L310" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.5">
@@ -14756,15 +14756,15 @@
       <c r="I311" t="s">
         <v>189</v>
       </c>
-      <c r="J311">
+      <c r="J311" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K311">
         <v>341</v>
       </c>
-      <c r="K311" t="str">
-        <f t="shared" si="4"/>
+      <c r="L311" t="str">
+        <f>TEXT(DATE(1976,1,K311),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L311" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.5">
@@ -14795,15 +14795,15 @@
       <c r="I312" t="s">
         <v>76</v>
       </c>
-      <c r="J312">
+      <c r="J312" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K312">
         <v>342</v>
       </c>
-      <c r="K312" t="str">
-        <f t="shared" si="4"/>
+      <c r="L312" t="str">
+        <f>TEXT(DATE(1976,1,K312),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L312" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.5">
@@ -14834,15 +14834,15 @@
       <c r="I313" t="s">
         <v>189</v>
       </c>
-      <c r="J313">
+      <c r="J313" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K313">
         <v>343</v>
       </c>
-      <c r="K313" t="str">
-        <f t="shared" si="4"/>
+      <c r="L313" t="str">
+        <f>TEXT(DATE(1976,1,K313),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L313" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.5">
@@ -14873,15 +14873,15 @@
       <c r="I314" t="s">
         <v>122</v>
       </c>
-      <c r="J314">
+      <c r="J314" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K314">
         <v>344</v>
       </c>
-      <c r="K314" t="str">
-        <f t="shared" si="4"/>
+      <c r="L314" t="str">
+        <f>TEXT(DATE(1976,1,K314),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L314" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.5">
@@ -14912,15 +14912,15 @@
       <c r="I315" t="s">
         <v>73</v>
       </c>
-      <c r="J315">
+      <c r="J315" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K315">
         <v>345</v>
       </c>
-      <c r="K315" t="str">
-        <f t="shared" si="4"/>
+      <c r="L315" t="str">
+        <f>TEXT(DATE(1976,1,K315),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L315" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.5">
@@ -14951,15 +14951,15 @@
       <c r="I316" t="s">
         <v>128</v>
       </c>
-      <c r="J316">
+      <c r="J316" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K316">
         <v>346</v>
       </c>
-      <c r="K316" t="str">
-        <f t="shared" si="4"/>
+      <c r="L316" t="str">
+        <f>TEXT(DATE(1976,1,K316),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L316" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.5">
@@ -14990,15 +14990,15 @@
       <c r="I317" t="s">
         <v>68</v>
       </c>
-      <c r="J317">
+      <c r="J317" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K317">
         <v>347</v>
       </c>
-      <c r="K317" t="str">
-        <f t="shared" si="4"/>
+      <c r="L317" t="str">
+        <f>TEXT(DATE(1976,1,K317),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L317" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.5">
@@ -15029,15 +15029,15 @@
       <c r="I318" t="s">
         <v>68</v>
       </c>
-      <c r="J318">
+      <c r="J318" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K318">
         <v>348</v>
       </c>
-      <c r="K318" t="str">
-        <f t="shared" si="4"/>
+      <c r="L318" t="str">
+        <f>TEXT(DATE(1976,1,K318),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L318" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.5">
@@ -15068,15 +15068,15 @@
       <c r="I319" t="s">
         <v>128</v>
       </c>
-      <c r="J319">
+      <c r="J319" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K319">
         <v>349</v>
       </c>
-      <c r="K319" t="str">
-        <f t="shared" si="4"/>
+      <c r="L319" t="str">
+        <f>TEXT(DATE(1976,1,K319),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L319" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.5">
@@ -15107,15 +15107,15 @@
       <c r="I320" t="s">
         <v>76</v>
       </c>
-      <c r="J320">
+      <c r="J320" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K320">
         <v>350</v>
       </c>
-      <c r="K320" t="str">
-        <f t="shared" si="4"/>
+      <c r="L320" t="str">
+        <f>TEXT(DATE(1976,1,K320),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L320" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.5">
@@ -15146,15 +15146,15 @@
       <c r="I321" t="s">
         <v>50</v>
       </c>
-      <c r="J321">
+      <c r="J321" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K321">
         <v>351</v>
       </c>
-      <c r="K321" t="str">
-        <f t="shared" si="4"/>
+      <c r="L321" t="str">
+        <f>TEXT(DATE(1976,1,K321),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L321" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.5">
@@ -15185,15 +15185,15 @@
       <c r="I322" t="s">
         <v>68</v>
       </c>
-      <c r="J322">
+      <c r="J322" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K322">
         <v>352</v>
       </c>
-      <c r="K322" t="str">
-        <f t="shared" si="4"/>
+      <c r="L322" t="str">
+        <f>TEXT(DATE(1976,1,K322),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L322" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.5">
@@ -15224,15 +15224,15 @@
       <c r="I323" t="s">
         <v>68</v>
       </c>
-      <c r="J323">
+      <c r="J323" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K323">
         <v>353</v>
       </c>
-      <c r="K323" t="str">
-        <f t="shared" si="4"/>
+      <c r="L323" t="str">
+        <f>TEXT(DATE(1976,1,K323),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L323" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.5">
@@ -15263,15 +15263,15 @@
       <c r="I324" t="s">
         <v>25</v>
       </c>
-      <c r="J324">
+      <c r="J324" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K324">
         <v>354</v>
       </c>
-      <c r="K324" t="str">
-        <f t="shared" ref="K324:K333" si="5">TEXT(DATE(1976,1,J324),"mmm")</f>
+      <c r="L324" t="str">
+        <f>TEXT(DATE(1976,1,K324),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L324" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.5">
@@ -15302,15 +15302,15 @@
       <c r="I325" t="s">
         <v>128</v>
       </c>
-      <c r="J325">
+      <c r="J325" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K325">
         <v>355</v>
       </c>
-      <c r="K325" t="str">
-        <f t="shared" si="5"/>
+      <c r="L325" t="str">
+        <f>TEXT(DATE(1976,1,K325),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L325" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.5">
@@ -15341,15 +15341,15 @@
       <c r="I326" t="s">
         <v>68</v>
       </c>
-      <c r="J326">
+      <c r="J326" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K326">
         <v>356</v>
       </c>
-      <c r="K326" t="str">
-        <f t="shared" si="5"/>
+      <c r="L326" t="str">
+        <f>TEXT(DATE(1976,1,K326),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L326" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.5">
@@ -15380,15 +15380,15 @@
       <c r="I327" t="s">
         <v>189</v>
       </c>
-      <c r="J327">
+      <c r="J327" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K327">
         <v>357</v>
       </c>
-      <c r="K327" t="str">
-        <f t="shared" si="5"/>
+      <c r="L327" t="str">
+        <f>TEXT(DATE(1976,1,K327),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L327" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.5">
@@ -15419,15 +15419,15 @@
       <c r="I328" t="s">
         <v>18</v>
       </c>
-      <c r="J328">
+      <c r="J328" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K328">
         <v>358</v>
       </c>
-      <c r="K328" t="str">
-        <f t="shared" si="5"/>
+      <c r="L328" t="str">
+        <f>TEXT(DATE(1976,1,K328),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L328" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.5">
@@ -15458,15 +15458,15 @@
       <c r="I329" t="s">
         <v>128</v>
       </c>
-      <c r="J329">
+      <c r="J329" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K329">
         <v>359</v>
       </c>
-      <c r="K329" t="str">
-        <f t="shared" si="5"/>
+      <c r="L329" t="str">
+        <f>TEXT(DATE(1976,1,K329),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L329" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.5">
@@ -15497,15 +15497,15 @@
       <c r="I330" t="s">
         <v>76</v>
       </c>
-      <c r="J330">
+      <c r="J330" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K330">
         <v>362</v>
       </c>
-      <c r="K330" t="str">
-        <f t="shared" si="5"/>
+      <c r="L330" t="str">
+        <f>TEXT(DATE(1976,1,K330),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L330" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.5">
@@ -15536,15 +15536,15 @@
       <c r="I331" t="s">
         <v>128</v>
       </c>
-      <c r="J331">
+      <c r="J331" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K331">
         <v>363</v>
       </c>
-      <c r="K331" t="str">
-        <f t="shared" si="5"/>
+      <c r="L331" t="str">
+        <f>TEXT(DATE(1976,1,K331),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L331" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.5">
@@ -15575,15 +15575,15 @@
       <c r="I332" t="s">
         <v>73</v>
       </c>
-      <c r="J332">
+      <c r="J332" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K332">
         <v>364</v>
       </c>
-      <c r="K332" t="str">
-        <f t="shared" si="5"/>
+      <c r="L332" t="str">
+        <f>TEXT(DATE(1976,1,K332),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L332" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.5">
@@ -15614,15 +15614,15 @@
       <c r="I333" t="s">
         <v>18</v>
       </c>
-      <c r="J333">
+      <c r="J333" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K333">
         <v>365</v>
       </c>
-      <c r="K333" t="str">
-        <f t="shared" si="5"/>
+      <c r="L333" t="str">
+        <f>TEXT(DATE(1976,1,K333),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L333" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustav Surface\Google Drive\DTU\02450 Introduktion til Machine Learning og Data Mining F20\02450Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A0F80F-0F9E-4388-AAA7-BDD98147EE8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09526B49-464B-4524-A8F6-2DC05252F0CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="18426" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2240,6 +2240,9 @@
     <t>Wind Speed</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
     <t>percent</t>
   </si>
   <si>
@@ -2249,6 +2252,12 @@
     <t>Season</t>
   </si>
   <si>
+    <t>ses</t>
+  </si>
+  <si>
+    <t>type2</t>
+  </si>
+  <si>
     <t>Winter</t>
   </si>
   <si>
@@ -2259,15 +2268,6 @@
   </si>
   <si>
     <t>Autumn</t>
-  </si>
-  <si>
-    <t>seas</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>classhelper</t>
   </si>
 </sst>
 </file>
@@ -2621,8 +2621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="D309" workbookViewId="0">
+      <selection activeCell="H316" sqref="H316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -2636,9 +2636,9 @@
     <col min="7" max="7" width="21.17578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.9375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.29296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.29296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.5">
@@ -2669,14 +2669,14 @@
       <c r="I1" t="s">
         <v>732</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="J1" t="s">
         <v>723</v>
       </c>
+      <c r="K1" s="2" t="s">
+        <v>724</v>
+      </c>
       <c r="L1" s="2" t="s">
-        <v>724</v>
+        <v>739</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.5">
@@ -2708,13 +2708,13 @@
         <v>721</v>
       </c>
       <c r="J2" t="s">
-        <v>743</v>
+        <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>0</v>
+        <v>722</v>
       </c>
       <c r="L2" t="s">
-        <v>722</v>
+        <v>740</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.5">
@@ -2728,10 +2728,10 @@
         <v>725</v>
       </c>
       <c r="D3" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="E3" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="F3" t="s">
         <v>730</v>
@@ -2740,19 +2740,19 @@
         <v>731</v>
       </c>
       <c r="H3" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="I3" t="s">
         <v>726</v>
       </c>
       <c r="J3" t="s">
-        <v>744</v>
+        <v>727</v>
       </c>
       <c r="K3" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="L3" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.5">
@@ -2783,15 +2783,15 @@
       <c r="I4" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K4">
+      <c r="J4">
         <v>3</v>
       </c>
-      <c r="L4" t="str">
-        <f>TEXT(DATE(1976,1,K4),"mmm")</f>
+      <c r="K4" t="str">
+        <f t="shared" ref="K4:K67" si="0">TEXT(DATE(1976,1,J4),"mmm")</f>
         <v>Jan</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.5">
@@ -2822,15 +2822,15 @@
       <c r="I5" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K5">
+      <c r="J5">
         <v>4</v>
       </c>
-      <c r="L5" t="str">
-        <f>TEXT(DATE(1976,1,K5),"mmm")</f>
+      <c r="K5" t="str">
+        <f t="shared" si="0"/>
         <v>Jan</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.5">
@@ -2861,15 +2861,15 @@
       <c r="I6" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K6">
+      <c r="J6">
         <v>5</v>
       </c>
-      <c r="L6" t="str">
-        <f>TEXT(DATE(1976,1,K6),"mmm")</f>
+      <c r="K6" t="str">
+        <f t="shared" si="0"/>
         <v>Jan</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.5">
@@ -2900,15 +2900,15 @@
       <c r="I7" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K7">
+      <c r="J7">
         <v>6</v>
       </c>
-      <c r="L7" t="str">
-        <f>TEXT(DATE(1976,1,K7),"mmm")</f>
+      <c r="K7" t="str">
+        <f t="shared" si="0"/>
         <v>Jan</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.5">
@@ -2939,15 +2939,15 @@
       <c r="I8" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K8">
+      <c r="J8">
         <v>7</v>
       </c>
-      <c r="L8" t="str">
-        <f>TEXT(DATE(1976,1,K8),"mmm")</f>
+      <c r="K8" t="str">
+        <f t="shared" si="0"/>
         <v>Jan</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.5">
@@ -2978,15 +2978,15 @@
       <c r="I9" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K9">
+      <c r="J9">
         <v>8</v>
       </c>
-      <c r="L9" t="str">
-        <f>TEXT(DATE(1976,1,K9),"mmm")</f>
+      <c r="K9" t="str">
+        <f t="shared" si="0"/>
         <v>Jan</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.5">
@@ -3017,15 +3017,15 @@
       <c r="I10" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K10">
+      <c r="J10">
         <v>9</v>
       </c>
-      <c r="L10" t="str">
-        <f>TEXT(DATE(1976,1,K10),"mmm")</f>
+      <c r="K10" t="str">
+        <f t="shared" si="0"/>
         <v>Jan</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.5">
@@ -3056,15 +3056,15 @@
       <c r="I11" t="s">
         <v>50</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K11">
+      <c r="J11">
         <v>10</v>
       </c>
-      <c r="L11" t="str">
-        <f>TEXT(DATE(1976,1,K11),"mmm")</f>
+      <c r="K11" t="str">
+        <f t="shared" si="0"/>
         <v>Jan</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.5">
@@ -3095,15 +3095,15 @@
       <c r="I12" t="s">
         <v>50</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K12">
+      <c r="J12">
         <v>11</v>
       </c>
-      <c r="L12" t="str">
-        <f>TEXT(DATE(1976,1,K12),"mmm")</f>
+      <c r="K12" t="str">
+        <f t="shared" si="0"/>
         <v>Jan</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.5">
@@ -3134,15 +3134,15 @@
       <c r="I13" t="s">
         <v>68</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K13">
+      <c r="J13">
         <v>12</v>
       </c>
-      <c r="L13" t="str">
-        <f>TEXT(DATE(1976,1,K13),"mmm")</f>
+      <c r="K13" t="str">
+        <f t="shared" si="0"/>
         <v>Jan</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.5">
@@ -3173,15 +3173,15 @@
       <c r="I14" t="s">
         <v>73</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K14">
+      <c r="J14">
         <v>13</v>
       </c>
-      <c r="L14" t="str">
-        <f>TEXT(DATE(1976,1,K14),"mmm")</f>
+      <c r="K14" t="str">
+        <f t="shared" si="0"/>
         <v>Jan</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.5">
@@ -3212,15 +3212,15 @@
       <c r="I15" t="s">
         <v>76</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K15">
+      <c r="J15">
         <v>14</v>
       </c>
-      <c r="L15" t="str">
-        <f>TEXT(DATE(1976,1,K15),"mmm")</f>
+      <c r="K15" t="str">
+        <f t="shared" si="0"/>
         <v>Jan</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.5">
@@ -3251,15 +3251,15 @@
       <c r="I16" t="s">
         <v>9</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K16">
+      <c r="J16">
         <v>15</v>
       </c>
-      <c r="L16" t="str">
-        <f>TEXT(DATE(1976,1,K16),"mmm")</f>
+      <c r="K16" t="str">
+        <f t="shared" si="0"/>
         <v>Jan</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.5">
@@ -3290,15 +3290,15 @@
       <c r="I17" t="s">
         <v>76</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K17">
+      <c r="J17">
         <v>16</v>
       </c>
-      <c r="L17" t="str">
-        <f>TEXT(DATE(1976,1,K17),"mmm")</f>
+      <c r="K17" t="str">
+        <f t="shared" si="0"/>
         <v>Jan</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.5">
@@ -3329,15 +3329,15 @@
       <c r="I18" t="s">
         <v>76</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K18">
+      <c r="J18">
         <v>17</v>
       </c>
-      <c r="L18" t="str">
-        <f>TEXT(DATE(1976,1,K18),"mmm")</f>
+      <c r="K18" t="str">
+        <f t="shared" si="0"/>
         <v>Jan</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.5">
@@ -3368,15 +3368,15 @@
       <c r="I19" t="s">
         <v>68</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K19">
+      <c r="J19">
         <v>18</v>
       </c>
-      <c r="L19" t="str">
-        <f>TEXT(DATE(1976,1,K19),"mmm")</f>
+      <c r="K19" t="str">
+        <f t="shared" si="0"/>
         <v>Jan</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.5">
@@ -3407,15 +3407,15 @@
       <c r="I20" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K20">
+      <c r="J20">
         <v>19</v>
       </c>
-      <c r="L20" t="str">
-        <f>TEXT(DATE(1976,1,K20),"mmm")</f>
+      <c r="K20" t="str">
+        <f t="shared" si="0"/>
         <v>Jan</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.5">
@@ -3446,15 +3446,15 @@
       <c r="I21" t="s">
         <v>105</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K21">
+      <c r="J21">
         <v>20</v>
       </c>
-      <c r="L21" t="str">
-        <f>TEXT(DATE(1976,1,K21),"mmm")</f>
+      <c r="K21" t="str">
+        <f t="shared" si="0"/>
         <v>Jan</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.5">
@@ -3485,15 +3485,15 @@
       <c r="I22" t="s">
         <v>9</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K22">
+      <c r="J22">
         <v>21</v>
       </c>
-      <c r="L22" t="str">
-        <f>TEXT(DATE(1976,1,K22),"mmm")</f>
+      <c r="K22" t="str">
+        <f t="shared" si="0"/>
         <v>Jan</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.5">
@@ -3524,15 +3524,15 @@
       <c r="I23" t="s">
         <v>76</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K23">
+      <c r="J23">
         <v>22</v>
       </c>
-      <c r="L23" t="str">
-        <f>TEXT(DATE(1976,1,K23),"mmm")</f>
+      <c r="K23" t="str">
+        <f t="shared" si="0"/>
         <v>Jan</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.5">
@@ -3563,15 +3563,15 @@
       <c r="I24" t="s">
         <v>68</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K24">
+      <c r="J24">
         <v>23</v>
       </c>
-      <c r="L24" t="str">
-        <f>TEXT(DATE(1976,1,K24),"mmm")</f>
+      <c r="K24" t="str">
+        <f t="shared" si="0"/>
         <v>Jan</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.5">
@@ -3602,15 +3602,15 @@
       <c r="I25" t="s">
         <v>105</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K25">
+      <c r="J25">
         <v>24</v>
       </c>
-      <c r="L25" t="str">
-        <f>TEXT(DATE(1976,1,K25),"mmm")</f>
+      <c r="K25" t="str">
+        <f t="shared" si="0"/>
         <v>Jan</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.5">
@@ -3641,15 +3641,15 @@
       <c r="I26" t="s">
         <v>122</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K26">
+      <c r="J26">
         <v>25</v>
       </c>
-      <c r="L26" t="str">
-        <f>TEXT(DATE(1976,1,K26),"mmm")</f>
+      <c r="K26" t="str">
+        <f t="shared" si="0"/>
         <v>Jan</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.5">
@@ -3680,15 +3680,15 @@
       <c r="I27" t="s">
         <v>128</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K27">
+      <c r="J27">
         <v>27</v>
       </c>
-      <c r="L27" t="str">
-        <f>TEXT(DATE(1976,1,K27),"mmm")</f>
+      <c r="K27" t="str">
+        <f t="shared" si="0"/>
         <v>Jan</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.5">
@@ -3719,15 +3719,15 @@
       <c r="I28" t="s">
         <v>68</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K28">
+      <c r="J28">
         <v>29</v>
       </c>
-      <c r="L28" t="str">
-        <f>TEXT(DATE(1976,1,K28),"mmm")</f>
+      <c r="K28" t="str">
+        <f t="shared" si="0"/>
         <v>Jan</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.5">
@@ -3758,15 +3758,15 @@
       <c r="I29" t="s">
         <v>50</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K29">
+      <c r="J29">
         <v>30</v>
       </c>
-      <c r="L29" t="str">
-        <f>TEXT(DATE(1976,1,K29),"mmm")</f>
+      <c r="K29" t="str">
+        <f t="shared" si="0"/>
         <v>Jan</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.5">
@@ -3797,15 +3797,15 @@
       <c r="I30" t="s">
         <v>73</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K30">
+      <c r="J30">
         <v>31</v>
       </c>
-      <c r="L30" t="str">
-        <f>TEXT(DATE(1976,1,K30),"mmm")</f>
+      <c r="K30" t="str">
+        <f t="shared" si="0"/>
         <v>Jan</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.5">
@@ -3836,15 +3836,15 @@
       <c r="I31" t="s">
         <v>50</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K31">
+      <c r="J31">
         <v>32</v>
       </c>
-      <c r="L31" t="str">
-        <f>TEXT(DATE(1976,1,K31),"mmm")</f>
+      <c r="K31" t="str">
+        <f t="shared" si="0"/>
         <v>Feb</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.5">
@@ -3875,15 +3875,15 @@
       <c r="I32" t="s">
         <v>150</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K32">
+      <c r="J32">
         <v>33</v>
       </c>
-      <c r="L32" t="str">
-        <f>TEXT(DATE(1976,1,K32),"mmm")</f>
+      <c r="K32" t="str">
+        <f t="shared" si="0"/>
         <v>Feb</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.5">
@@ -3914,15 +3914,15 @@
       <c r="I33" t="s">
         <v>155</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K33">
+      <c r="J33">
         <v>34</v>
       </c>
-      <c r="L33" t="str">
-        <f>TEXT(DATE(1976,1,K33),"mmm")</f>
+      <c r="K33" t="str">
+        <f t="shared" si="0"/>
         <v>Feb</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.5">
@@ -3953,15 +3953,15 @@
       <c r="I34" t="s">
         <v>18</v>
       </c>
-      <c r="J34" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K34">
+      <c r="J34">
         <v>35</v>
       </c>
-      <c r="L34" t="str">
-        <f>TEXT(DATE(1976,1,K34),"mmm")</f>
+      <c r="K34" t="str">
+        <f t="shared" si="0"/>
         <v>Feb</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.5">
@@ -3992,15 +3992,15 @@
       <c r="I35" t="s">
         <v>76</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K35">
+      <c r="J35">
         <v>36</v>
       </c>
-      <c r="L35" t="str">
-        <f>TEXT(DATE(1976,1,K35),"mmm")</f>
+      <c r="K35" t="str">
+        <f t="shared" si="0"/>
         <v>Feb</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.5">
@@ -4031,15 +4031,15 @@
       <c r="I36" t="s">
         <v>25</v>
       </c>
-      <c r="J36" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K36">
+      <c r="J36">
         <v>37</v>
       </c>
-      <c r="L36" t="str">
-        <f>TEXT(DATE(1976,1,K36),"mmm")</f>
+      <c r="K36" t="str">
+        <f t="shared" si="0"/>
         <v>Feb</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.5">
@@ -4070,15 +4070,15 @@
       <c r="I37" t="s">
         <v>175</v>
       </c>
-      <c r="J37" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K37">
+      <c r="J37">
         <v>38</v>
       </c>
-      <c r="L37" t="str">
-        <f>TEXT(DATE(1976,1,K37),"mmm")</f>
+      <c r="K37" t="str">
+        <f t="shared" si="0"/>
         <v>Feb</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.5">
@@ -4109,15 +4109,15 @@
       <c r="I38" t="s">
         <v>9</v>
       </c>
-      <c r="J38" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K38">
+      <c r="J38">
         <v>39</v>
       </c>
-      <c r="L38" t="str">
-        <f>TEXT(DATE(1976,1,K38),"mmm")</f>
+      <c r="K38" t="str">
+        <f t="shared" si="0"/>
         <v>Feb</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.5">
@@ -4148,15 +4148,15 @@
       <c r="I39" t="s">
         <v>175</v>
       </c>
-      <c r="J39" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K39">
+      <c r="J39">
         <v>40</v>
       </c>
-      <c r="L39" t="str">
-        <f>TEXT(DATE(1976,1,K39),"mmm")</f>
+      <c r="K39" t="str">
+        <f t="shared" si="0"/>
         <v>Feb</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.5">
@@ -4187,15 +4187,15 @@
       <c r="I40" t="s">
         <v>189</v>
       </c>
-      <c r="J40" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K40">
+      <c r="J40">
         <v>41</v>
       </c>
-      <c r="L40" t="str">
-        <f>TEXT(DATE(1976,1,K40),"mmm")</f>
+      <c r="K40" t="str">
+        <f t="shared" si="0"/>
         <v>Feb</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.5">
@@ -4226,15 +4226,15 @@
       <c r="I41" t="s">
         <v>189</v>
       </c>
-      <c r="J41" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K41">
+      <c r="J41">
         <v>42</v>
       </c>
-      <c r="L41" t="str">
-        <f>TEXT(DATE(1976,1,K41),"mmm")</f>
+      <c r="K41" t="str">
+        <f t="shared" si="0"/>
         <v>Feb</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.5">
@@ -4265,15 +4265,15 @@
       <c r="I42" t="s">
         <v>189</v>
       </c>
-      <c r="J42" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K42">
+      <c r="J42">
         <v>43</v>
       </c>
-      <c r="L42" t="str">
-        <f>TEXT(DATE(1976,1,K42),"mmm")</f>
+      <c r="K42" t="str">
+        <f t="shared" si="0"/>
         <v>Feb</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.5">
@@ -4304,15 +4304,15 @@
       <c r="I43" t="s">
         <v>76</v>
       </c>
-      <c r="J43" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K43">
+      <c r="J43">
         <v>44</v>
       </c>
-      <c r="L43" t="str">
-        <f>TEXT(DATE(1976,1,K43),"mmm")</f>
+      <c r="K43" t="str">
+        <f t="shared" si="0"/>
         <v>Feb</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.5">
@@ -4343,15 +4343,15 @@
       <c r="I44" t="s">
         <v>18</v>
       </c>
-      <c r="J44" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K44">
+      <c r="J44">
         <v>45</v>
       </c>
-      <c r="L44" t="str">
-        <f>TEXT(DATE(1976,1,K44),"mmm")</f>
+      <c r="K44" t="str">
+        <f t="shared" si="0"/>
         <v>Feb</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.5">
@@ -4382,15 +4382,15 @@
       <c r="I45" t="s">
         <v>9</v>
       </c>
-      <c r="J45" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K45">
+      <c r="J45">
         <v>46</v>
       </c>
-      <c r="L45" t="str">
-        <f>TEXT(DATE(1976,1,K45),"mmm")</f>
+      <c r="K45" t="str">
+        <f t="shared" si="0"/>
         <v>Feb</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.5">
@@ -4421,15 +4421,15 @@
       <c r="I46" t="s">
         <v>76</v>
       </c>
-      <c r="J46" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K46">
+      <c r="J46">
         <v>47</v>
       </c>
-      <c r="L46" t="str">
-        <f>TEXT(DATE(1976,1,K46),"mmm")</f>
+      <c r="K46" t="str">
+        <f t="shared" si="0"/>
         <v>Feb</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.5">
@@ -4460,15 +4460,15 @@
       <c r="I47" t="s">
         <v>76</v>
       </c>
-      <c r="J47" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K47">
+      <c r="J47">
         <v>48</v>
       </c>
-      <c r="L47" t="str">
-        <f>TEXT(DATE(1976,1,K47),"mmm")</f>
+      <c r="K47" t="str">
+        <f t="shared" si="0"/>
         <v>Feb</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.5">
@@ -4499,15 +4499,15 @@
       <c r="I48" t="s">
         <v>73</v>
       </c>
-      <c r="J48" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K48">
+      <c r="J48">
         <v>49</v>
       </c>
-      <c r="L48" t="str">
-        <f>TEXT(DATE(1976,1,K48),"mmm")</f>
+      <c r="K48" t="str">
+        <f t="shared" si="0"/>
         <v>Feb</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.5">
@@ -4538,15 +4538,15 @@
       <c r="I49" t="s">
         <v>189</v>
       </c>
-      <c r="J49" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K49">
+      <c r="J49">
         <v>51</v>
       </c>
-      <c r="L49" t="str">
-        <f>TEXT(DATE(1976,1,K49),"mmm")</f>
+      <c r="K49" t="str">
+        <f t="shared" si="0"/>
         <v>Feb</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.5">
@@ -4577,15 +4577,15 @@
       <c r="I50" t="s">
         <v>189</v>
       </c>
-      <c r="J50" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K50">
+      <c r="J50">
         <v>52</v>
       </c>
-      <c r="L50" t="str">
-        <f>TEXT(DATE(1976,1,K50),"mmm")</f>
+      <c r="K50" t="str">
+        <f t="shared" si="0"/>
         <v>Feb</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.5">
@@ -4616,15 +4616,15 @@
       <c r="I51" t="s">
         <v>189</v>
       </c>
-      <c r="J51" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K51">
+      <c r="J51">
         <v>53</v>
       </c>
-      <c r="L51" t="str">
-        <f>TEXT(DATE(1976,1,K51),"mmm")</f>
+      <c r="K51" t="str">
+        <f t="shared" si="0"/>
         <v>Feb</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.5">
@@ -4655,15 +4655,15 @@
       <c r="I52" t="s">
         <v>189</v>
       </c>
-      <c r="J52" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K52">
+      <c r="J52">
         <v>54</v>
       </c>
-      <c r="L52" t="str">
-        <f>TEXT(DATE(1976,1,K52),"mmm")</f>
+      <c r="K52" t="str">
+        <f t="shared" si="0"/>
         <v>Feb</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.5">
@@ -4694,15 +4694,15 @@
       <c r="I53" t="s">
         <v>189</v>
       </c>
-      <c r="J53" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K53">
+      <c r="J53">
         <v>55</v>
       </c>
-      <c r="L53" t="str">
-        <f>TEXT(DATE(1976,1,K53),"mmm")</f>
+      <c r="K53" t="str">
+        <f t="shared" si="0"/>
         <v>Feb</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.5">
@@ -4733,15 +4733,15 @@
       <c r="I54" t="s">
         <v>68</v>
       </c>
-      <c r="J54" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K54">
+      <c r="J54">
         <v>56</v>
       </c>
-      <c r="L54" t="str">
-        <f>TEXT(DATE(1976,1,K54),"mmm")</f>
+      <c r="K54" t="str">
+        <f t="shared" si="0"/>
         <v>Feb</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.5">
@@ -4772,15 +4772,15 @@
       <c r="I55" t="s">
         <v>68</v>
       </c>
-      <c r="J55" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K55">
+      <c r="J55">
         <v>57</v>
       </c>
-      <c r="L55" t="str">
-        <f>TEXT(DATE(1976,1,K55),"mmm")</f>
+      <c r="K55" t="str">
+        <f t="shared" si="0"/>
         <v>Feb</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.5">
@@ -4811,15 +4811,15 @@
       <c r="I56" t="s">
         <v>240</v>
       </c>
-      <c r="J56" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K56">
+      <c r="J56">
         <v>58</v>
       </c>
-      <c r="L56" t="str">
-        <f>TEXT(DATE(1976,1,K56),"mmm")</f>
+      <c r="K56" t="str">
+        <f t="shared" si="0"/>
         <v>Feb</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.5">
@@ -4850,15 +4850,15 @@
       <c r="I57" t="s">
         <v>73</v>
       </c>
-      <c r="J57" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K57">
+      <c r="J57">
         <v>59</v>
       </c>
-      <c r="L57" t="str">
-        <f>TEXT(DATE(1976,1,K57),"mmm")</f>
+      <c r="K57" t="str">
+        <f t="shared" si="0"/>
         <v>Feb</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.5">
@@ -4889,15 +4889,15 @@
       <c r="I58" t="s">
         <v>73</v>
       </c>
-      <c r="J58" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K58">
+      <c r="J58">
         <v>60</v>
       </c>
-      <c r="L58" t="str">
-        <f>TEXT(DATE(1976,1,K58),"mmm")</f>
+      <c r="K58" t="str">
+        <f t="shared" si="0"/>
         <v>Feb</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.5">
@@ -4928,15 +4928,15 @@
       <c r="I59" t="s">
         <v>240</v>
       </c>
-      <c r="J59" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K59">
+      <c r="J59">
         <v>61</v>
       </c>
-      <c r="L59" t="str">
-        <f>TEXT(DATE(1976,1,K59),"mmm")</f>
+      <c r="K59" t="str">
+        <f t="shared" si="0"/>
         <v>Mar</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.5">
@@ -4967,15 +4967,15 @@
       <c r="I60" t="s">
         <v>189</v>
       </c>
-      <c r="J60" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K60">
+      <c r="J60">
         <v>62</v>
       </c>
-      <c r="L60" t="str">
-        <f>TEXT(DATE(1976,1,K60),"mmm")</f>
+      <c r="K60" t="str">
+        <f t="shared" si="0"/>
         <v>Mar</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.5">
@@ -5006,15 +5006,15 @@
       <c r="I61" t="s">
         <v>76</v>
       </c>
-      <c r="J61" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K61">
+      <c r="J61">
         <v>63</v>
       </c>
-      <c r="L61" t="str">
-        <f>TEXT(DATE(1976,1,K61),"mmm")</f>
+      <c r="K61" t="str">
+        <f t="shared" si="0"/>
         <v>Mar</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.5">
@@ -5045,15 +5045,15 @@
       <c r="I62" t="s">
         <v>105</v>
       </c>
-      <c r="J62" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K62">
+      <c r="J62">
         <v>65</v>
       </c>
-      <c r="L62" t="str">
-        <f>TEXT(DATE(1976,1,K62),"mmm")</f>
+      <c r="K62" t="str">
+        <f t="shared" si="0"/>
         <v>Mar</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.5">
@@ -5084,15 +5084,15 @@
       <c r="I63" t="s">
         <v>105</v>
       </c>
-      <c r="J63" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K63">
+      <c r="J63">
         <v>66</v>
       </c>
-      <c r="L63" t="str">
-        <f>TEXT(DATE(1976,1,K63),"mmm")</f>
+      <c r="K63" t="str">
+        <f t="shared" si="0"/>
         <v>Mar</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.5">
@@ -5123,15 +5123,15 @@
       <c r="I64" t="s">
         <v>105</v>
       </c>
-      <c r="J64" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K64">
+      <c r="J64">
         <v>67</v>
       </c>
-      <c r="L64" t="str">
-        <f>TEXT(DATE(1976,1,K64),"mmm")</f>
+      <c r="K64" t="str">
+        <f t="shared" si="0"/>
         <v>Mar</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.5">
@@ -5162,15 +5162,15 @@
       <c r="I65" t="s">
         <v>18</v>
       </c>
-      <c r="J65" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K65">
+      <c r="J65">
         <v>68</v>
       </c>
-      <c r="L65" t="str">
-        <f>TEXT(DATE(1976,1,K65),"mmm")</f>
+      <c r="K65" t="str">
+        <f t="shared" si="0"/>
         <v>Mar</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.5">
@@ -5201,15 +5201,15 @@
       <c r="I66" t="s">
         <v>105</v>
       </c>
-      <c r="J66" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K66">
+      <c r="J66">
         <v>69</v>
       </c>
-      <c r="L66" t="str">
-        <f>TEXT(DATE(1976,1,K66),"mmm")</f>
+      <c r="K66" t="str">
+        <f t="shared" si="0"/>
         <v>Mar</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.5">
@@ -5240,15 +5240,15 @@
       <c r="I67" t="s">
         <v>76</v>
       </c>
-      <c r="J67" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K67">
+      <c r="J67">
         <v>70</v>
       </c>
-      <c r="L67" t="str">
-        <f>TEXT(DATE(1976,1,K67),"mmm")</f>
+      <c r="K67" t="str">
+        <f t="shared" si="0"/>
         <v>Mar</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.5">
@@ -5279,15 +5279,15 @@
       <c r="I68" t="s">
         <v>50</v>
       </c>
-      <c r="J68" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K68">
+      <c r="J68">
         <v>71</v>
       </c>
-      <c r="L68" t="str">
-        <f>TEXT(DATE(1976,1,K68),"mmm")</f>
+      <c r="K68" t="str">
+        <f t="shared" ref="K68:K131" si="1">TEXT(DATE(1976,1,J68),"mmm")</f>
         <v>Mar</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.5">
@@ -5318,15 +5318,15 @@
       <c r="I69" t="s">
         <v>189</v>
       </c>
-      <c r="J69" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K69">
+      <c r="J69">
         <v>72</v>
       </c>
-      <c r="L69" t="str">
-        <f>TEXT(DATE(1976,1,K69),"mmm")</f>
+      <c r="K69" t="str">
+        <f t="shared" si="1"/>
         <v>Mar</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.5">
@@ -5357,15 +5357,15 @@
       <c r="I70" t="s">
         <v>189</v>
       </c>
-      <c r="J70" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K70">
+      <c r="J70">
         <v>73</v>
       </c>
-      <c r="L70" t="str">
-        <f>TEXT(DATE(1976,1,K70),"mmm")</f>
+      <c r="K70" t="str">
+        <f t="shared" si="1"/>
         <v>Mar</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.5">
@@ -5396,15 +5396,15 @@
       <c r="I71" t="s">
         <v>68</v>
       </c>
-      <c r="J71" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K71">
+      <c r="J71">
         <v>74</v>
       </c>
-      <c r="L71" t="str">
-        <f>TEXT(DATE(1976,1,K71),"mmm")</f>
+      <c r="K71" t="str">
+        <f t="shared" si="1"/>
         <v>Mar</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.5">
@@ -5435,15 +5435,15 @@
       <c r="I72" t="s">
         <v>163</v>
       </c>
-      <c r="J72" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K72">
+      <c r="J72">
         <v>75</v>
       </c>
-      <c r="L72" t="str">
-        <f>TEXT(DATE(1976,1,K72),"mmm")</f>
+      <c r="K72" t="str">
+        <f t="shared" si="1"/>
         <v>Mar</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.5">
@@ -5474,15 +5474,15 @@
       <c r="I73" t="s">
         <v>122</v>
       </c>
-      <c r="J73" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K73">
+      <c r="J73">
         <v>76</v>
       </c>
-      <c r="L73" t="str">
-        <f>TEXT(DATE(1976,1,K73),"mmm")</f>
+      <c r="K73" t="str">
+        <f t="shared" si="1"/>
         <v>Mar</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.5">
@@ -5513,15 +5513,15 @@
       <c r="I74" t="s">
         <v>128</v>
       </c>
-      <c r="J74" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K74">
+      <c r="J74">
         <v>77</v>
       </c>
-      <c r="L74" t="str">
-        <f>TEXT(DATE(1976,1,K74),"mmm")</f>
+      <c r="K74" t="str">
+        <f t="shared" si="1"/>
         <v>Mar</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.5">
@@ -5552,15 +5552,15 @@
       <c r="I75" t="s">
         <v>301</v>
       </c>
-      <c r="J75" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K75">
+      <c r="J75">
         <v>78</v>
       </c>
-      <c r="L75" t="str">
-        <f>TEXT(DATE(1976,1,K75),"mmm")</f>
+      <c r="K75" t="str">
+        <f t="shared" si="1"/>
         <v>Mar</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.5">
@@ -5591,15 +5591,15 @@
       <c r="I76" t="s">
         <v>105</v>
       </c>
-      <c r="J76" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K76">
+      <c r="J76">
         <v>79</v>
       </c>
-      <c r="L76" t="str">
-        <f>TEXT(DATE(1976,1,K76),"mmm")</f>
+      <c r="K76" t="str">
+        <f t="shared" si="1"/>
         <v>Mar</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.5">
@@ -5630,15 +5630,15 @@
       <c r="I77" t="s">
         <v>105</v>
       </c>
-      <c r="J77" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K77">
+      <c r="J77">
         <v>80</v>
       </c>
-      <c r="L77" t="str">
-        <f>TEXT(DATE(1976,1,K77),"mmm")</f>
+      <c r="K77" t="str">
+        <f t="shared" si="1"/>
         <v>Mar</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.5">
@@ -5669,15 +5669,15 @@
       <c r="I78" t="s">
         <v>189</v>
       </c>
-      <c r="J78" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K78">
+      <c r="J78">
         <v>81</v>
       </c>
-      <c r="L78" t="str">
-        <f>TEXT(DATE(1976,1,K78),"mmm")</f>
+      <c r="K78" t="str">
+        <f t="shared" si="1"/>
         <v>Mar</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.5">
@@ -5708,15 +5708,15 @@
       <c r="I79" t="s">
         <v>76</v>
       </c>
-      <c r="J79" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K79">
+      <c r="J79">
         <v>82</v>
       </c>
-      <c r="L79" t="str">
-        <f>TEXT(DATE(1976,1,K79),"mmm")</f>
+      <c r="K79" t="str">
+        <f t="shared" si="1"/>
         <v>Mar</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.5">
@@ -5747,15 +5747,15 @@
       <c r="I80" t="s">
         <v>9</v>
       </c>
-      <c r="J80" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K80">
+      <c r="J80">
         <v>83</v>
       </c>
-      <c r="L80" t="str">
-        <f>TEXT(DATE(1976,1,K80),"mmm")</f>
+      <c r="K80" t="str">
+        <f t="shared" si="1"/>
         <v>Mar</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.5">
@@ -5786,15 +5786,15 @@
       <c r="I81" t="s">
         <v>25</v>
       </c>
-      <c r="J81" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K81">
+      <c r="J81">
         <v>85</v>
       </c>
-      <c r="L81" t="str">
-        <f>TEXT(DATE(1976,1,K81),"mmm")</f>
+      <c r="K81" t="str">
+        <f t="shared" si="1"/>
         <v>Mar</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.5">
@@ -5825,15 +5825,15 @@
       <c r="I82" t="s">
         <v>18</v>
       </c>
-      <c r="J82" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K82">
+      <c r="J82">
         <v>86</v>
       </c>
-      <c r="L82" t="str">
-        <f>TEXT(DATE(1976,1,K82),"mmm")</f>
+      <c r="K82" t="str">
+        <f t="shared" si="1"/>
         <v>Mar</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.5">
@@ -5864,15 +5864,15 @@
       <c r="I83" t="s">
         <v>68</v>
       </c>
-      <c r="J83" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K83">
+      <c r="J83">
         <v>87</v>
       </c>
-      <c r="L83" t="str">
-        <f>TEXT(DATE(1976,1,K83),"mmm")</f>
+      <c r="K83" t="str">
+        <f t="shared" si="1"/>
         <v>Mar</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.5">
@@ -5903,15 +5903,15 @@
       <c r="I84" t="s">
         <v>68</v>
       </c>
-      <c r="J84" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K84">
+      <c r="J84">
         <v>88</v>
       </c>
-      <c r="L84" t="str">
-        <f>TEXT(DATE(1976,1,K84),"mmm")</f>
+      <c r="K84" t="str">
+        <f t="shared" si="1"/>
         <v>Mar</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.5">
@@ -5942,15 +5942,15 @@
       <c r="I85" t="s">
         <v>76</v>
       </c>
-      <c r="J85" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K85">
+      <c r="J85">
         <v>89</v>
       </c>
-      <c r="L85" t="str">
-        <f>TEXT(DATE(1976,1,K85),"mmm")</f>
+      <c r="K85" t="str">
+        <f t="shared" si="1"/>
         <v>Mar</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.5">
@@ -5981,15 +5981,15 @@
       <c r="I86" t="s">
         <v>18</v>
       </c>
-      <c r="J86" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K86">
+      <c r="J86">
         <v>90</v>
       </c>
-      <c r="L86" t="str">
-        <f>TEXT(DATE(1976,1,K86),"mmm")</f>
+      <c r="K86" t="str">
+        <f t="shared" si="1"/>
         <v>Mar</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.5">
@@ -6020,15 +6020,15 @@
       <c r="I87" t="s">
         <v>189</v>
       </c>
-      <c r="J87" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K87">
+      <c r="J87">
         <v>91</v>
       </c>
-      <c r="L87" t="str">
-        <f>TEXT(DATE(1976,1,K87),"mmm")</f>
+      <c r="K87" t="str">
+        <f t="shared" si="1"/>
         <v>Mar</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.5">
@@ -6059,15 +6059,15 @@
       <c r="I88" t="s">
         <v>50</v>
       </c>
-      <c r="J88" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K88">
+      <c r="J88">
         <v>92</v>
       </c>
-      <c r="L88" t="str">
-        <f>TEXT(DATE(1976,1,K88),"mmm")</f>
+      <c r="K88" t="str">
+        <f t="shared" si="1"/>
         <v>Apr</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.5">
@@ -6098,15 +6098,15 @@
       <c r="I89" t="s">
         <v>18</v>
       </c>
-      <c r="J89" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K89">
+      <c r="J89">
         <v>93</v>
       </c>
-      <c r="L89" t="str">
-        <f>TEXT(DATE(1976,1,K89),"mmm")</f>
+      <c r="K89" t="str">
+        <f t="shared" si="1"/>
         <v>Apr</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.5">
@@ -6137,15 +6137,15 @@
       <c r="I90" t="s">
         <v>76</v>
       </c>
-      <c r="J90" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K90">
+      <c r="J90">
         <v>94</v>
       </c>
-      <c r="L90" t="str">
-        <f>TEXT(DATE(1976,1,K90),"mmm")</f>
+      <c r="K90" t="str">
+        <f t="shared" si="1"/>
         <v>Apr</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.5">
@@ -6176,15 +6176,15 @@
       <c r="I91" t="s">
         <v>76</v>
       </c>
-      <c r="J91" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K91">
+      <c r="J91">
         <v>95</v>
       </c>
-      <c r="L91" t="str">
-        <f>TEXT(DATE(1976,1,K91),"mmm")</f>
+      <c r="K91" t="str">
+        <f t="shared" si="1"/>
         <v>Apr</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.5">
@@ -6215,15 +6215,15 @@
       <c r="I92" t="s">
         <v>76</v>
       </c>
-      <c r="J92" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K92">
+      <c r="J92">
         <v>96</v>
       </c>
-      <c r="L92" t="str">
-        <f>TEXT(DATE(1976,1,K92),"mmm")</f>
+      <c r="K92" t="str">
+        <f t="shared" si="1"/>
         <v>Apr</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.5">
@@ -6254,15 +6254,15 @@
       <c r="I93" t="s">
         <v>189</v>
       </c>
-      <c r="J93" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K93">
+      <c r="J93">
         <v>97</v>
       </c>
-      <c r="L93" t="str">
-        <f>TEXT(DATE(1976,1,K93),"mmm")</f>
+      <c r="K93" t="str">
+        <f t="shared" si="1"/>
         <v>Apr</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.5">
@@ -6293,15 +6293,15 @@
       <c r="I94" t="s">
         <v>189</v>
       </c>
-      <c r="J94" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K94">
+      <c r="J94">
         <v>98</v>
       </c>
-      <c r="L94" t="str">
-        <f>TEXT(DATE(1976,1,K94),"mmm")</f>
+      <c r="K94" t="str">
+        <f t="shared" si="1"/>
         <v>Apr</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.5">
@@ -6332,15 +6332,15 @@
       <c r="I95" t="s">
         <v>9</v>
       </c>
-      <c r="J95" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K95">
+      <c r="J95">
         <v>99</v>
       </c>
-      <c r="L95" t="str">
-        <f>TEXT(DATE(1976,1,K95),"mmm")</f>
+      <c r="K95" t="str">
+        <f t="shared" si="1"/>
         <v>Apr</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.5">
@@ -6371,15 +6371,15 @@
       <c r="I96" t="s">
         <v>50</v>
       </c>
-      <c r="J96" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K96">
+      <c r="J96">
         <v>100</v>
       </c>
-      <c r="L96" t="str">
-        <f>TEXT(DATE(1976,1,K96),"mmm")</f>
+      <c r="K96" t="str">
+        <f t="shared" si="1"/>
         <v>Apr</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.5">
@@ -6410,15 +6410,15 @@
       <c r="I97" t="s">
         <v>105</v>
       </c>
-      <c r="J97" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K97">
+      <c r="J97">
         <v>101</v>
       </c>
-      <c r="L97" t="str">
-        <f>TEXT(DATE(1976,1,K97),"mmm")</f>
+      <c r="K97" t="str">
+        <f t="shared" si="1"/>
         <v>Apr</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.5">
@@ -6449,15 +6449,15 @@
       <c r="I98" t="s">
         <v>76</v>
       </c>
-      <c r="J98" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K98">
+      <c r="J98">
         <v>102</v>
       </c>
-      <c r="L98" t="str">
-        <f>TEXT(DATE(1976,1,K98),"mmm")</f>
+      <c r="K98" t="str">
+        <f t="shared" si="1"/>
         <v>Apr</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.5">
@@ -6488,15 +6488,15 @@
       <c r="I99" t="s">
         <v>105</v>
       </c>
-      <c r="J99" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K99">
+      <c r="J99">
         <v>103</v>
       </c>
-      <c r="L99" t="str">
-        <f>TEXT(DATE(1976,1,K99),"mmm")</f>
+      <c r="K99" t="str">
+        <f t="shared" si="1"/>
         <v>Apr</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.5">
@@ -6527,15 +6527,15 @@
       <c r="I100" t="s">
         <v>240</v>
       </c>
-      <c r="J100" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K100">
+      <c r="J100">
         <v>104</v>
       </c>
-      <c r="L100" t="str">
-        <f>TEXT(DATE(1976,1,K100),"mmm")</f>
+      <c r="K100" t="str">
+        <f t="shared" si="1"/>
         <v>Apr</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.5">
@@ -6566,15 +6566,15 @@
       <c r="I101" t="s">
         <v>189</v>
       </c>
-      <c r="J101" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K101">
+      <c r="J101">
         <v>105</v>
       </c>
-      <c r="L101" t="str">
-        <f>TEXT(DATE(1976,1,K101),"mmm")</f>
+      <c r="K101" t="str">
+        <f t="shared" si="1"/>
         <v>Apr</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.5">
@@ -6605,15 +6605,15 @@
       <c r="I102" t="s">
         <v>18</v>
       </c>
-      <c r="J102" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K102">
+      <c r="J102">
         <v>106</v>
       </c>
-      <c r="L102" t="str">
-        <f>TEXT(DATE(1976,1,K102),"mmm")</f>
+      <c r="K102" t="str">
+        <f t="shared" si="1"/>
         <v>Apr</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.5">
@@ -6644,15 +6644,15 @@
       <c r="I103" t="s">
         <v>189</v>
       </c>
-      <c r="J103" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K103">
+      <c r="J103">
         <v>107</v>
       </c>
-      <c r="L103" t="str">
-        <f>TEXT(DATE(1976,1,K103),"mmm")</f>
+      <c r="K103" t="str">
+        <f t="shared" si="1"/>
         <v>Apr</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.5">
@@ -6683,15 +6683,15 @@
       <c r="I104" t="s">
         <v>76</v>
       </c>
-      <c r="J104" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K104">
+      <c r="J104">
         <v>108</v>
       </c>
-      <c r="L104" t="str">
-        <f>TEXT(DATE(1976,1,K104),"mmm")</f>
+      <c r="K104" t="str">
+        <f t="shared" si="1"/>
         <v>Apr</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.5">
@@ -6722,15 +6722,15 @@
       <c r="I105" t="s">
         <v>50</v>
       </c>
-      <c r="J105" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K105">
+      <c r="J105">
         <v>109</v>
       </c>
-      <c r="L105" t="str">
-        <f>TEXT(DATE(1976,1,K105),"mmm")</f>
+      <c r="K105" t="str">
+        <f t="shared" si="1"/>
         <v>Apr</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.5">
@@ -6761,15 +6761,15 @@
       <c r="I106" t="s">
         <v>18</v>
       </c>
-      <c r="J106" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K106">
+      <c r="J106">
         <v>110</v>
       </c>
-      <c r="L106" t="str">
-        <f>TEXT(DATE(1976,1,K106),"mmm")</f>
+      <c r="K106" t="str">
+        <f t="shared" si="1"/>
         <v>Apr</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.5">
@@ -6800,15 +6800,15 @@
       <c r="I107" t="s">
         <v>50</v>
       </c>
-      <c r="J107" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K107">
+      <c r="J107">
         <v>111</v>
       </c>
-      <c r="L107" t="str">
-        <f>TEXT(DATE(1976,1,K107),"mmm")</f>
+      <c r="K107" t="str">
+        <f t="shared" si="1"/>
         <v>Apr</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.5">
@@ -6839,15 +6839,15 @@
       <c r="I108" t="s">
         <v>25</v>
       </c>
-      <c r="J108" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K108">
+      <c r="J108">
         <v>112</v>
       </c>
-      <c r="L108" t="str">
-        <f>TEXT(DATE(1976,1,K108),"mmm")</f>
+      <c r="K108" t="str">
+        <f t="shared" si="1"/>
         <v>Apr</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.5">
@@ -6878,15 +6878,15 @@
       <c r="I109" t="s">
         <v>50</v>
       </c>
-      <c r="J109" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K109">
+      <c r="J109">
         <v>113</v>
       </c>
-      <c r="L109" t="str">
-        <f>TEXT(DATE(1976,1,K109),"mmm")</f>
+      <c r="K109" t="str">
+        <f t="shared" si="1"/>
         <v>Apr</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.5">
@@ -6917,15 +6917,15 @@
       <c r="I110" t="s">
         <v>18</v>
       </c>
-      <c r="J110" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K110">
+      <c r="J110">
         <v>114</v>
       </c>
-      <c r="L110" t="str">
-        <f>TEXT(DATE(1976,1,K110),"mmm")</f>
+      <c r="K110" t="str">
+        <f t="shared" si="1"/>
         <v>Apr</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.5">
@@ -6956,15 +6956,15 @@
       <c r="I111" t="s">
         <v>18</v>
       </c>
-      <c r="J111" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K111">
+      <c r="J111">
         <v>115</v>
       </c>
-      <c r="L111" t="str">
-        <f>TEXT(DATE(1976,1,K111),"mmm")</f>
+      <c r="K111" t="str">
+        <f t="shared" si="1"/>
         <v>Apr</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.5">
@@ -6995,15 +6995,15 @@
       <c r="I112" t="s">
         <v>209</v>
       </c>
-      <c r="J112" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K112">
+      <c r="J112">
         <v>116</v>
       </c>
-      <c r="L112" t="str">
-        <f>TEXT(DATE(1976,1,K112),"mmm")</f>
+      <c r="K112" t="str">
+        <f t="shared" si="1"/>
         <v>Apr</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.5">
@@ -7034,15 +7034,15 @@
       <c r="I113" t="s">
         <v>73</v>
       </c>
-      <c r="J113" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K113">
+      <c r="J113">
         <v>117</v>
       </c>
-      <c r="L113" t="str">
-        <f>TEXT(DATE(1976,1,K113),"mmm")</f>
+      <c r="K113" t="str">
+        <f t="shared" si="1"/>
         <v>Apr</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.5">
@@ -7073,15 +7073,15 @@
       <c r="I114" t="s">
         <v>105</v>
       </c>
-      <c r="J114" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K114">
+      <c r="J114">
         <v>118</v>
       </c>
-      <c r="L114" t="str">
-        <f>TEXT(DATE(1976,1,K114),"mmm")</f>
+      <c r="K114" t="str">
+        <f t="shared" si="1"/>
         <v>Apr</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.5">
@@ -7112,15 +7112,15 @@
       <c r="I115" t="s">
         <v>68</v>
       </c>
-      <c r="J115" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K115">
+      <c r="J115">
         <v>119</v>
       </c>
-      <c r="L115" t="str">
-        <f>TEXT(DATE(1976,1,K115),"mmm")</f>
+      <c r="K115" t="str">
+        <f t="shared" si="1"/>
         <v>Apr</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.5">
@@ -7151,15 +7151,15 @@
       <c r="I116" t="s">
         <v>18</v>
       </c>
-      <c r="J116" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K116">
+      <c r="J116">
         <v>120</v>
       </c>
-      <c r="L116" t="str">
-        <f>TEXT(DATE(1976,1,K116),"mmm")</f>
+      <c r="K116" t="str">
+        <f t="shared" si="1"/>
         <v>Apr</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.5">
@@ -7190,15 +7190,15 @@
       <c r="I117" t="s">
         <v>18</v>
       </c>
-      <c r="J117" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K117">
+      <c r="J117">
         <v>121</v>
       </c>
-      <c r="L117" t="str">
-        <f>TEXT(DATE(1976,1,K117),"mmm")</f>
+      <c r="K117" t="str">
+        <f t="shared" si="1"/>
         <v>Apr</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.5">
@@ -7229,15 +7229,15 @@
       <c r="I118" t="s">
         <v>50</v>
       </c>
-      <c r="J118" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K118">
+      <c r="J118">
         <v>122</v>
       </c>
-      <c r="L118" t="str">
-        <f>TEXT(DATE(1976,1,K118),"mmm")</f>
+      <c r="K118" t="str">
+        <f t="shared" si="1"/>
         <v>May</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.5">
@@ -7268,15 +7268,15 @@
       <c r="I119" t="s">
         <v>68</v>
       </c>
-      <c r="J119" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K119">
+      <c r="J119">
         <v>123</v>
       </c>
-      <c r="L119" t="str">
-        <f>TEXT(DATE(1976,1,K119),"mmm")</f>
+      <c r="K119" t="str">
+        <f t="shared" si="1"/>
         <v>May</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.5">
@@ -7307,15 +7307,15 @@
       <c r="I120" t="s">
         <v>50</v>
       </c>
-      <c r="J120" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K120">
+      <c r="J120">
         <v>125</v>
       </c>
-      <c r="L120" t="str">
-        <f>TEXT(DATE(1976,1,K120),"mmm")</f>
+      <c r="K120" t="str">
+        <f t="shared" si="1"/>
         <v>May</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.5">
@@ -7346,15 +7346,15 @@
       <c r="I121" t="s">
         <v>50</v>
       </c>
-      <c r="J121" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K121">
+      <c r="J121">
         <v>127</v>
       </c>
-      <c r="L121" t="str">
-        <f>TEXT(DATE(1976,1,K121),"mmm")</f>
+      <c r="K121" t="str">
+        <f t="shared" si="1"/>
         <v>May</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.5">
@@ -7385,15 +7385,15 @@
       <c r="I122" t="s">
         <v>105</v>
       </c>
-      <c r="J122" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K122">
+      <c r="J122">
         <v>128</v>
       </c>
-      <c r="L122" t="str">
-        <f>TEXT(DATE(1976,1,K122),"mmm")</f>
+      <c r="K122" t="str">
+        <f t="shared" si="1"/>
         <v>May</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.5">
@@ -7424,15 +7424,15 @@
       <c r="I123" t="s">
         <v>50</v>
       </c>
-      <c r="J123" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K123">
+      <c r="J123">
         <v>129</v>
       </c>
-      <c r="L123" t="str">
-        <f>TEXT(DATE(1976,1,K123),"mmm")</f>
+      <c r="K123" t="str">
+        <f t="shared" si="1"/>
         <v>May</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.5">
@@ -7463,15 +7463,15 @@
       <c r="I124" t="s">
         <v>128</v>
       </c>
-      <c r="J124" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K124">
+      <c r="J124">
         <v>130</v>
       </c>
-      <c r="L124" t="str">
-        <f>TEXT(DATE(1976,1,K124),"mmm")</f>
+      <c r="K124" t="str">
+        <f t="shared" si="1"/>
         <v>May</v>
+      </c>
+      <c r="L124" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.5">
@@ -7502,15 +7502,15 @@
       <c r="I125" t="s">
         <v>240</v>
       </c>
-      <c r="J125" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K125">
+      <c r="J125">
         <v>131</v>
       </c>
-      <c r="L125" t="str">
-        <f>TEXT(DATE(1976,1,K125),"mmm")</f>
+      <c r="K125" t="str">
+        <f t="shared" si="1"/>
         <v>May</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.5">
@@ -7541,15 +7541,15 @@
       <c r="I126" t="s">
         <v>128</v>
       </c>
-      <c r="J126" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K126">
+      <c r="J126">
         <v>132</v>
       </c>
-      <c r="L126" t="str">
-        <f>TEXT(DATE(1976,1,K126),"mmm")</f>
+      <c r="K126" t="str">
+        <f t="shared" si="1"/>
         <v>May</v>
+      </c>
+      <c r="L126" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.5">
@@ -7580,15 +7580,15 @@
       <c r="I127" t="s">
         <v>73</v>
       </c>
-      <c r="J127" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K127">
+      <c r="J127">
         <v>133</v>
       </c>
-      <c r="L127" t="str">
-        <f>TEXT(DATE(1976,1,K127),"mmm")</f>
+      <c r="K127" t="str">
+        <f t="shared" si="1"/>
         <v>May</v>
+      </c>
+      <c r="L127" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.5">
@@ -7619,15 +7619,15 @@
       <c r="I128" t="s">
         <v>272</v>
       </c>
-      <c r="J128" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K128">
+      <c r="J128">
         <v>134</v>
       </c>
-      <c r="L128" t="str">
-        <f>TEXT(DATE(1976,1,K128),"mmm")</f>
+      <c r="K128" t="str">
+        <f t="shared" si="1"/>
         <v>May</v>
+      </c>
+      <c r="L128" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.5">
@@ -7658,15 +7658,15 @@
       <c r="I129" t="s">
         <v>301</v>
       </c>
-      <c r="J129" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K129">
+      <c r="J129">
         <v>135</v>
       </c>
-      <c r="L129" t="str">
-        <f>TEXT(DATE(1976,1,K129),"mmm")</f>
+      <c r="K129" t="str">
+        <f t="shared" si="1"/>
         <v>May</v>
+      </c>
+      <c r="L129" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.5">
@@ -7697,15 +7697,15 @@
       <c r="I130" t="s">
         <v>73</v>
       </c>
-      <c r="J130" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K130">
+      <c r="J130">
         <v>136</v>
       </c>
-      <c r="L130" t="str">
-        <f>TEXT(DATE(1976,1,K130),"mmm")</f>
+      <c r="K130" t="str">
+        <f t="shared" si="1"/>
         <v>May</v>
+      </c>
+      <c r="L130" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.5">
@@ -7736,15 +7736,15 @@
       <c r="I131" t="s">
         <v>122</v>
       </c>
-      <c r="J131" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K131">
+      <c r="J131">
         <v>138</v>
       </c>
-      <c r="L131" t="str">
-        <f>TEXT(DATE(1976,1,K131),"mmm")</f>
+      <c r="K131" t="str">
+        <f t="shared" si="1"/>
         <v>May</v>
+      </c>
+      <c r="L131" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.5">
@@ -7775,15 +7775,15 @@
       <c r="I132" t="s">
         <v>128</v>
       </c>
-      <c r="J132" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K132">
+      <c r="J132">
         <v>139</v>
       </c>
-      <c r="L132" t="str">
-        <f>TEXT(DATE(1976,1,K132),"mmm")</f>
+      <c r="K132" t="str">
+        <f t="shared" ref="K132:K195" si="2">TEXT(DATE(1976,1,J132),"mmm")</f>
         <v>May</v>
+      </c>
+      <c r="L132" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.5">
@@ -7814,15 +7814,15 @@
       <c r="I133" t="s">
         <v>240</v>
       </c>
-      <c r="J133" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K133">
+      <c r="J133">
         <v>140</v>
       </c>
-      <c r="L133" t="str">
-        <f>TEXT(DATE(1976,1,K133),"mmm")</f>
+      <c r="K133" t="str">
+        <f t="shared" si="2"/>
         <v>May</v>
+      </c>
+      <c r="L133" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.5">
@@ -7853,15 +7853,15 @@
       <c r="I134" t="s">
         <v>50</v>
       </c>
-      <c r="J134" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K134">
+      <c r="J134">
         <v>141</v>
       </c>
-      <c r="L134" t="str">
-        <f>TEXT(DATE(1976,1,K134),"mmm")</f>
+      <c r="K134" t="str">
+        <f t="shared" si="2"/>
         <v>May</v>
+      </c>
+      <c r="L134" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.5">
@@ -7892,15 +7892,15 @@
       <c r="I135" t="s">
         <v>18</v>
       </c>
-      <c r="J135" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K135">
+      <c r="J135">
         <v>143</v>
       </c>
-      <c r="L135" t="str">
-        <f>TEXT(DATE(1976,1,K135),"mmm")</f>
+      <c r="K135" t="str">
+        <f t="shared" si="2"/>
         <v>May</v>
+      </c>
+      <c r="L135" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.5">
@@ -7931,15 +7931,15 @@
       <c r="I136" t="s">
         <v>50</v>
       </c>
-      <c r="J136" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K136">
+      <c r="J136">
         <v>145</v>
       </c>
-      <c r="L136" t="str">
-        <f>TEXT(DATE(1976,1,K136),"mmm")</f>
+      <c r="K136" t="str">
+        <f t="shared" si="2"/>
         <v>May</v>
+      </c>
+      <c r="L136" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.5">
@@ -7970,15 +7970,15 @@
       <c r="I137" t="s">
         <v>76</v>
       </c>
-      <c r="J137" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K137">
+      <c r="J137">
         <v>146</v>
       </c>
-      <c r="L137" t="str">
-        <f>TEXT(DATE(1976,1,K137),"mmm")</f>
+      <c r="K137" t="str">
+        <f t="shared" si="2"/>
         <v>May</v>
+      </c>
+      <c r="L137" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.5">
@@ -8009,15 +8009,15 @@
       <c r="I138" t="s">
         <v>50</v>
       </c>
-      <c r="J138" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K138">
+      <c r="J138">
         <v>147</v>
       </c>
-      <c r="L138" t="str">
-        <f>TEXT(DATE(1976,1,K138),"mmm")</f>
+      <c r="K138" t="str">
+        <f t="shared" si="2"/>
         <v>May</v>
+      </c>
+      <c r="L138" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.5">
@@ -8048,15 +8048,15 @@
       <c r="I139" t="s">
         <v>73</v>
       </c>
-      <c r="J139" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K139">
+      <c r="J139">
         <v>148</v>
       </c>
-      <c r="L139" t="str">
-        <f>TEXT(DATE(1976,1,K139),"mmm")</f>
+      <c r="K139" t="str">
+        <f t="shared" si="2"/>
         <v>May</v>
+      </c>
+      <c r="L139" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.5">
@@ -8087,15 +8087,15 @@
       <c r="I140" t="s">
         <v>128</v>
       </c>
-      <c r="J140" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K140">
+      <c r="J140">
         <v>149</v>
       </c>
-      <c r="L140" t="str">
-        <f>TEXT(DATE(1976,1,K140),"mmm")</f>
+      <c r="K140" t="str">
+        <f t="shared" si="2"/>
         <v>May</v>
+      </c>
+      <c r="L140" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.5">
@@ -8126,15 +8126,15 @@
       <c r="I141" t="s">
         <v>18</v>
       </c>
-      <c r="J141" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K141">
+      <c r="J141">
         <v>150</v>
       </c>
-      <c r="L141" t="str">
-        <f>TEXT(DATE(1976,1,K141),"mmm")</f>
+      <c r="K141" t="str">
+        <f t="shared" si="2"/>
         <v>May</v>
+      </c>
+      <c r="L141" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.5">
@@ -8165,15 +8165,15 @@
       <c r="I142" t="s">
         <v>50</v>
       </c>
-      <c r="J142" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K142">
+      <c r="J142">
         <v>151</v>
       </c>
-      <c r="L142" t="str">
-        <f>TEXT(DATE(1976,1,K142),"mmm")</f>
+      <c r="K142" t="str">
+        <f t="shared" si="2"/>
         <v>May</v>
+      </c>
+      <c r="L142" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.5">
@@ -8204,15 +8204,15 @@
       <c r="I143" t="s">
         <v>18</v>
       </c>
-      <c r="J143" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="K143">
+      <c r="J143">
         <v>152</v>
       </c>
-      <c r="L143" t="str">
-        <f>TEXT(DATE(1976,1,K143),"mmm")</f>
+      <c r="K143" t="str">
+        <f t="shared" si="2"/>
         <v>May</v>
+      </c>
+      <c r="L143" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.5">
@@ -8243,15 +8243,15 @@
       <c r="I144" t="s">
         <v>50</v>
       </c>
-      <c r="J144" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K144">
+      <c r="J144">
         <v>153</v>
       </c>
-      <c r="L144" t="str">
-        <f>TEXT(DATE(1976,1,K144),"mmm")</f>
+      <c r="K144" t="str">
+        <f t="shared" si="2"/>
         <v>Jun</v>
+      </c>
+      <c r="L144" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.5">
@@ -8282,15 +8282,15 @@
       <c r="I145" t="s">
         <v>128</v>
       </c>
-      <c r="J145" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K145">
+      <c r="J145">
         <v>154</v>
       </c>
-      <c r="L145" t="str">
-        <f>TEXT(DATE(1976,1,K145),"mmm")</f>
+      <c r="K145" t="str">
+        <f t="shared" si="2"/>
         <v>Jun</v>
+      </c>
+      <c r="L145" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.5">
@@ -8321,15 +8321,15 @@
       <c r="I146" t="s">
         <v>240</v>
       </c>
-      <c r="J146" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K146">
+      <c r="J146">
         <v>155</v>
       </c>
-      <c r="L146" t="str">
-        <f>TEXT(DATE(1976,1,K146),"mmm")</f>
+      <c r="K146" t="str">
+        <f t="shared" si="2"/>
         <v>Jun</v>
+      </c>
+      <c r="L146" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.5">
@@ -8360,15 +8360,15 @@
       <c r="I147" t="s">
         <v>18</v>
       </c>
-      <c r="J147" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K147">
+      <c r="J147">
         <v>156</v>
       </c>
-      <c r="L147" t="str">
-        <f>TEXT(DATE(1976,1,K147),"mmm")</f>
+      <c r="K147" t="str">
+        <f t="shared" si="2"/>
         <v>Jun</v>
+      </c>
+      <c r="L147" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.5">
@@ -8399,15 +8399,15 @@
       <c r="I148" t="s">
         <v>18</v>
       </c>
-      <c r="J148" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K148">
+      <c r="J148">
         <v>157</v>
       </c>
-      <c r="L148" t="str">
-        <f>TEXT(DATE(1976,1,K148),"mmm")</f>
+      <c r="K148" t="str">
+        <f t="shared" si="2"/>
         <v>Jun</v>
+      </c>
+      <c r="L148" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.5">
@@ -8438,15 +8438,15 @@
       <c r="I149" t="s">
         <v>50</v>
       </c>
-      <c r="J149" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K149">
+      <c r="J149">
         <v>158</v>
       </c>
-      <c r="L149" t="str">
-        <f>TEXT(DATE(1976,1,K149),"mmm")</f>
+      <c r="K149" t="str">
+        <f t="shared" si="2"/>
         <v>Jun</v>
+      </c>
+      <c r="L149" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.5">
@@ -8477,15 +8477,15 @@
       <c r="I150" t="s">
         <v>50</v>
       </c>
-      <c r="J150" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K150">
+      <c r="J150">
         <v>159</v>
       </c>
-      <c r="L150" t="str">
-        <f>TEXT(DATE(1976,1,K150),"mmm")</f>
+      <c r="K150" t="str">
+        <f t="shared" si="2"/>
         <v>Jun</v>
+      </c>
+      <c r="L150" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.5">
@@ -8516,15 +8516,15 @@
       <c r="I151" t="s">
         <v>50</v>
       </c>
-      <c r="J151" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K151">
+      <c r="J151">
         <v>160</v>
       </c>
-      <c r="L151" t="str">
-        <f>TEXT(DATE(1976,1,K151),"mmm")</f>
+      <c r="K151" t="str">
+        <f t="shared" si="2"/>
         <v>Jun</v>
+      </c>
+      <c r="L151" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.5">
@@ -8555,15 +8555,15 @@
       <c r="I152" t="s">
         <v>68</v>
       </c>
-      <c r="J152" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K152">
+      <c r="J152">
         <v>161</v>
       </c>
-      <c r="L152" t="str">
-        <f>TEXT(DATE(1976,1,K152),"mmm")</f>
+      <c r="K152" t="str">
+        <f t="shared" si="2"/>
         <v>Jun</v>
+      </c>
+      <c r="L152" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.5">
@@ -8594,15 +8594,15 @@
       <c r="I153" t="s">
         <v>105</v>
       </c>
-      <c r="J153" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K153">
+      <c r="J153">
         <v>162</v>
       </c>
-      <c r="L153" t="str">
-        <f>TEXT(DATE(1976,1,K153),"mmm")</f>
+      <c r="K153" t="str">
+        <f t="shared" si="2"/>
         <v>Jun</v>
+      </c>
+      <c r="L153" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.5">
@@ -8633,15 +8633,15 @@
       <c r="I154" t="s">
         <v>105</v>
       </c>
-      <c r="J154" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K154">
+      <c r="J154">
         <v>163</v>
       </c>
-      <c r="L154" t="str">
-        <f>TEXT(DATE(1976,1,K154),"mmm")</f>
+      <c r="K154" t="str">
+        <f t="shared" si="2"/>
         <v>Jun</v>
+      </c>
+      <c r="L154" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.5">
@@ -8672,15 +8672,15 @@
       <c r="I155" t="s">
         <v>105</v>
       </c>
-      <c r="J155" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K155">
+      <c r="J155">
         <v>164</v>
       </c>
-      <c r="L155" t="str">
-        <f>TEXT(DATE(1976,1,K155),"mmm")</f>
+      <c r="K155" t="str">
+        <f t="shared" si="2"/>
         <v>Jun</v>
+      </c>
+      <c r="L155" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.5">
@@ -8711,15 +8711,15 @@
       <c r="I156" t="s">
         <v>105</v>
       </c>
-      <c r="J156" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K156">
+      <c r="J156">
         <v>165</v>
       </c>
-      <c r="L156" t="str">
-        <f>TEXT(DATE(1976,1,K156),"mmm")</f>
+      <c r="K156" t="str">
+        <f t="shared" si="2"/>
         <v>Jun</v>
+      </c>
+      <c r="L156" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.5">
@@ -8750,15 +8750,15 @@
       <c r="I157" t="s">
         <v>25</v>
       </c>
-      <c r="J157" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K157">
+      <c r="J157">
         <v>166</v>
       </c>
-      <c r="L157" t="str">
-        <f>TEXT(DATE(1976,1,K157),"mmm")</f>
+      <c r="K157" t="str">
+        <f t="shared" si="2"/>
         <v>Jun</v>
+      </c>
+      <c r="L157" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.5">
@@ -8789,15 +8789,15 @@
       <c r="I158" t="s">
         <v>155</v>
       </c>
-      <c r="J158" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K158">
+      <c r="J158">
         <v>167</v>
       </c>
-      <c r="L158" t="str">
-        <f>TEXT(DATE(1976,1,K158),"mmm")</f>
+      <c r="K158" t="str">
+        <f t="shared" si="2"/>
         <v>Jun</v>
+      </c>
+      <c r="L158" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.5">
@@ -8828,15 +8828,15 @@
       <c r="I159" t="s">
         <v>301</v>
       </c>
-      <c r="J159" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K159">
+      <c r="J159">
         <v>168</v>
       </c>
-      <c r="L159" t="str">
-        <f>TEXT(DATE(1976,1,K159),"mmm")</f>
+      <c r="K159" t="str">
+        <f t="shared" si="2"/>
         <v>Jun</v>
+      </c>
+      <c r="L159" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.5">
@@ -8867,15 +8867,15 @@
       <c r="I160" t="s">
         <v>240</v>
       </c>
-      <c r="J160" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K160">
+      <c r="J160">
         <v>169</v>
       </c>
-      <c r="L160" t="str">
-        <f>TEXT(DATE(1976,1,K160),"mmm")</f>
+      <c r="K160" t="str">
+        <f t="shared" si="2"/>
         <v>Jun</v>
+      </c>
+      <c r="L160" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.5">
@@ -8906,15 +8906,15 @@
       <c r="I161" t="s">
         <v>25</v>
       </c>
-      <c r="J161" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K161">
+      <c r="J161">
         <v>170</v>
       </c>
-      <c r="L161" t="str">
-        <f>TEXT(DATE(1976,1,K161),"mmm")</f>
+      <c r="K161" t="str">
+        <f t="shared" si="2"/>
         <v>Jun</v>
+      </c>
+      <c r="L161" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.5">
@@ -8945,15 +8945,15 @@
       <c r="I162" t="s">
         <v>18</v>
       </c>
-      <c r="J162" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K162">
+      <c r="J162">
         <v>171</v>
       </c>
-      <c r="L162" t="str">
-        <f>TEXT(DATE(1976,1,K162),"mmm")</f>
+      <c r="K162" t="str">
+        <f t="shared" si="2"/>
         <v>Jun</v>
+      </c>
+      <c r="L162" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.5">
@@ -8984,15 +8984,15 @@
       <c r="I163" t="s">
         <v>50</v>
       </c>
-      <c r="J163" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K163">
+      <c r="J163">
         <v>172</v>
       </c>
-      <c r="L163" t="str">
-        <f>TEXT(DATE(1976,1,K163),"mmm")</f>
+      <c r="K163" t="str">
+        <f t="shared" si="2"/>
         <v>Jun</v>
+      </c>
+      <c r="L163" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.5">
@@ -9023,15 +9023,15 @@
       <c r="I164" t="s">
         <v>68</v>
       </c>
-      <c r="J164" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K164">
+      <c r="J164">
         <v>173</v>
       </c>
-      <c r="L164" t="str">
-        <f>TEXT(DATE(1976,1,K164),"mmm")</f>
+      <c r="K164" t="str">
+        <f t="shared" si="2"/>
         <v>Jun</v>
+      </c>
+      <c r="L164" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.5">
@@ -9062,15 +9062,15 @@
       <c r="I165" t="s">
         <v>50</v>
       </c>
-      <c r="J165" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K165">
+      <c r="J165">
         <v>174</v>
       </c>
-      <c r="L165" t="str">
-        <f>TEXT(DATE(1976,1,K165),"mmm")</f>
+      <c r="K165" t="str">
+        <f t="shared" si="2"/>
         <v>Jun</v>
+      </c>
+      <c r="L165" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.5">
@@ -9101,15 +9101,15 @@
       <c r="I166" t="s">
         <v>105</v>
       </c>
-      <c r="J166" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K166">
+      <c r="J166">
         <v>175</v>
       </c>
-      <c r="L166" t="str">
-        <f>TEXT(DATE(1976,1,K166),"mmm")</f>
+      <c r="K166" t="str">
+        <f t="shared" si="2"/>
         <v>Jun</v>
+      </c>
+      <c r="L166" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.5">
@@ -9140,15 +9140,15 @@
       <c r="I167" t="s">
         <v>105</v>
       </c>
-      <c r="J167" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K167">
+      <c r="J167">
         <v>176</v>
       </c>
-      <c r="L167" t="str">
-        <f>TEXT(DATE(1976,1,K167),"mmm")</f>
+      <c r="K167" t="str">
+        <f t="shared" si="2"/>
         <v>Jun</v>
+      </c>
+      <c r="L167" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.5">
@@ -9179,15 +9179,15 @@
       <c r="I168" t="s">
         <v>50</v>
       </c>
-      <c r="J168" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K168">
+      <c r="J168">
         <v>177</v>
       </c>
-      <c r="L168" t="str">
-        <f>TEXT(DATE(1976,1,K168),"mmm")</f>
+      <c r="K168" t="str">
+        <f t="shared" si="2"/>
         <v>Jun</v>
+      </c>
+      <c r="L168" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.5">
@@ -9218,15 +9218,15 @@
       <c r="I169" t="s">
         <v>50</v>
       </c>
-      <c r="J169" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K169">
+      <c r="J169">
         <v>178</v>
       </c>
-      <c r="L169" t="str">
-        <f>TEXT(DATE(1976,1,K169),"mmm")</f>
+      <c r="K169" t="str">
+        <f t="shared" si="2"/>
         <v>Jun</v>
+      </c>
+      <c r="L169" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.5">
@@ -9257,15 +9257,15 @@
       <c r="I170" t="s">
         <v>240</v>
       </c>
-      <c r="J170" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K170">
+      <c r="J170">
         <v>179</v>
       </c>
-      <c r="L170" t="str">
-        <f>TEXT(DATE(1976,1,K170),"mmm")</f>
+      <c r="K170" t="str">
+        <f t="shared" si="2"/>
         <v>Jun</v>
+      </c>
+      <c r="L170" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.5">
@@ -9296,15 +9296,15 @@
       <c r="I171" t="s">
         <v>105</v>
       </c>
-      <c r="J171" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K171">
+      <c r="J171">
         <v>180</v>
       </c>
-      <c r="L171" t="str">
-        <f>TEXT(DATE(1976,1,K171),"mmm")</f>
+      <c r="K171" t="str">
+        <f t="shared" si="2"/>
         <v>Jun</v>
+      </c>
+      <c r="L171" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.5">
@@ -9335,15 +9335,15 @@
       <c r="I172" t="s">
         <v>105</v>
       </c>
-      <c r="J172" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K172">
+      <c r="J172">
         <v>181</v>
       </c>
-      <c r="L172" t="str">
-        <f>TEXT(DATE(1976,1,K172),"mmm")</f>
+      <c r="K172" t="str">
+        <f t="shared" si="2"/>
         <v>Jun</v>
+      </c>
+      <c r="L172" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.5">
@@ -9374,15 +9374,15 @@
       <c r="I173" t="s">
         <v>68</v>
       </c>
-      <c r="J173" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K173">
+      <c r="J173">
         <v>182</v>
       </c>
-      <c r="L173" t="str">
-        <f>TEXT(DATE(1976,1,K173),"mmm")</f>
+      <c r="K173" t="str">
+        <f t="shared" si="2"/>
         <v>Jun</v>
+      </c>
+      <c r="L173" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.5">
@@ -9413,15 +9413,15 @@
       <c r="I174" t="s">
         <v>50</v>
       </c>
-      <c r="J174" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K174">
+      <c r="J174">
         <v>183</v>
       </c>
-      <c r="L174" t="str">
-        <f>TEXT(DATE(1976,1,K174),"mmm")</f>
+      <c r="K174" t="str">
+        <f t="shared" si="2"/>
         <v>Jul</v>
+      </c>
+      <c r="L174" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.5">
@@ -9452,15 +9452,15 @@
       <c r="I175" t="s">
         <v>50</v>
       </c>
-      <c r="J175" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K175">
+      <c r="J175">
         <v>184</v>
       </c>
-      <c r="L175" t="str">
-        <f>TEXT(DATE(1976,1,K175),"mmm")</f>
+      <c r="K175" t="str">
+        <f t="shared" si="2"/>
         <v>Jul</v>
+      </c>
+      <c r="L175" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.5">
@@ -9491,15 +9491,15 @@
       <c r="I176" t="s">
         <v>105</v>
       </c>
-      <c r="J176" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K176">
+      <c r="J176">
         <v>185</v>
       </c>
-      <c r="L176" t="str">
-        <f>TEXT(DATE(1976,1,K176),"mmm")</f>
+      <c r="K176" t="str">
+        <f t="shared" si="2"/>
         <v>Jul</v>
+      </c>
+      <c r="L176" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.5">
@@ -9530,15 +9530,15 @@
       <c r="I177" t="s">
         <v>18</v>
       </c>
-      <c r="J177" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K177">
+      <c r="J177">
         <v>186</v>
       </c>
-      <c r="L177" t="str">
-        <f>TEXT(DATE(1976,1,K177),"mmm")</f>
+      <c r="K177" t="str">
+        <f t="shared" si="2"/>
         <v>Jul</v>
+      </c>
+      <c r="L177" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.5">
@@ -9569,15 +9569,15 @@
       <c r="I178" t="s">
         <v>122</v>
       </c>
-      <c r="J178" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K178">
+      <c r="J178">
         <v>187</v>
       </c>
-      <c r="L178" t="str">
-        <f>TEXT(DATE(1976,1,K178),"mmm")</f>
+      <c r="K178" t="str">
+        <f t="shared" si="2"/>
         <v>Jul</v>
+      </c>
+      <c r="L178" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.5">
@@ -9608,15 +9608,15 @@
       <c r="I179" t="s">
         <v>73</v>
       </c>
-      <c r="J179" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K179">
+      <c r="J179">
         <v>188</v>
       </c>
-      <c r="L179" t="str">
-        <f>TEXT(DATE(1976,1,K179),"mmm")</f>
+      <c r="K179" t="str">
+        <f t="shared" si="2"/>
         <v>Jul</v>
+      </c>
+      <c r="L179" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.5">
@@ -9647,15 +9647,15 @@
       <c r="I180" t="s">
         <v>18</v>
       </c>
-      <c r="J180" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K180">
+      <c r="J180">
         <v>189</v>
       </c>
-      <c r="L180" t="str">
-        <f>TEXT(DATE(1976,1,K180),"mmm")</f>
+      <c r="K180" t="str">
+        <f t="shared" si="2"/>
         <v>Jul</v>
+      </c>
+      <c r="L180" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.5">
@@ -9686,15 +9686,15 @@
       <c r="I181" t="s">
         <v>18</v>
       </c>
-      <c r="J181" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K181">
+      <c r="J181">
         <v>191</v>
       </c>
-      <c r="L181" t="str">
-        <f>TEXT(DATE(1976,1,K181),"mmm")</f>
+      <c r="K181" t="str">
+        <f t="shared" si="2"/>
         <v>Jul</v>
+      </c>
+      <c r="L181" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.5">
@@ -9725,15 +9725,15 @@
       <c r="I182" t="s">
         <v>25</v>
       </c>
-      <c r="J182" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K182">
+      <c r="J182">
         <v>192</v>
       </c>
-      <c r="L182" t="str">
-        <f>TEXT(DATE(1976,1,K182),"mmm")</f>
+      <c r="K182" t="str">
+        <f t="shared" si="2"/>
         <v>Jul</v>
+      </c>
+      <c r="L182" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.5">
@@ -9764,15 +9764,15 @@
       <c r="I183" t="s">
         <v>122</v>
       </c>
-      <c r="J183" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K183">
+      <c r="J183">
         <v>193</v>
       </c>
-      <c r="L183" t="str">
-        <f>TEXT(DATE(1976,1,K183),"mmm")</f>
+      <c r="K183" t="str">
+        <f t="shared" si="2"/>
         <v>Jul</v>
+      </c>
+      <c r="L183" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.5">
@@ -9803,15 +9803,15 @@
       <c r="I184" t="s">
         <v>128</v>
       </c>
-      <c r="J184" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K184">
+      <c r="J184">
         <v>194</v>
       </c>
-      <c r="L184" t="str">
-        <f>TEXT(DATE(1976,1,K184),"mmm")</f>
+      <c r="K184" t="str">
+        <f t="shared" si="2"/>
         <v>Jul</v>
+      </c>
+      <c r="L184" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.5">
@@ -9842,15 +9842,15 @@
       <c r="I185" t="s">
         <v>240</v>
       </c>
-      <c r="J185" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K185">
+      <c r="J185">
         <v>195</v>
       </c>
-      <c r="L185" t="str">
-        <f>TEXT(DATE(1976,1,K185),"mmm")</f>
+      <c r="K185" t="str">
+        <f t="shared" si="2"/>
         <v>Jul</v>
+      </c>
+      <c r="L185" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.5">
@@ -9881,15 +9881,15 @@
       <c r="I186" t="s">
         <v>240</v>
       </c>
-      <c r="J186" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K186">
+      <c r="J186">
         <v>196</v>
       </c>
-      <c r="L186" t="str">
-        <f>TEXT(DATE(1976,1,K186),"mmm")</f>
+      <c r="K186" t="str">
+        <f t="shared" si="2"/>
         <v>Jul</v>
+      </c>
+      <c r="L186" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.5">
@@ -9920,15 +9920,15 @@
       <c r="I187" t="s">
         <v>538</v>
       </c>
-      <c r="J187" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K187">
+      <c r="J187">
         <v>198</v>
       </c>
-      <c r="L187" t="str">
-        <f>TEXT(DATE(1976,1,K187),"mmm")</f>
+      <c r="K187" t="str">
+        <f t="shared" si="2"/>
         <v>Jul</v>
+      </c>
+      <c r="L187" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.5">
@@ -9959,15 +9959,15 @@
       <c r="I188" t="s">
         <v>50</v>
       </c>
-      <c r="J188" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K188">
+      <c r="J188">
         <v>199</v>
       </c>
-      <c r="L188" t="str">
-        <f>TEXT(DATE(1976,1,K188),"mmm")</f>
+      <c r="K188" t="str">
+        <f t="shared" si="2"/>
         <v>Jul</v>
+      </c>
+      <c r="L188" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.5">
@@ -9998,15 +9998,15 @@
       <c r="I189" t="s">
         <v>50</v>
       </c>
-      <c r="J189" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K189">
+      <c r="J189">
         <v>200</v>
       </c>
-      <c r="L189" t="str">
-        <f>TEXT(DATE(1976,1,K189),"mmm")</f>
+      <c r="K189" t="str">
+        <f t="shared" si="2"/>
         <v>Jul</v>
+      </c>
+      <c r="L189" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.5">
@@ -10037,15 +10037,15 @@
       <c r="I190" t="s">
         <v>18</v>
       </c>
-      <c r="J190" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K190">
+      <c r="J190">
         <v>201</v>
       </c>
-      <c r="L190" t="str">
-        <f>TEXT(DATE(1976,1,K190),"mmm")</f>
+      <c r="K190" t="str">
+        <f t="shared" si="2"/>
         <v>Jul</v>
+      </c>
+      <c r="L190" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.5">
@@ -10076,15 +10076,15 @@
       <c r="I191" t="s">
         <v>25</v>
       </c>
-      <c r="J191" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K191">
+      <c r="J191">
         <v>202</v>
       </c>
-      <c r="L191" t="str">
-        <f>TEXT(DATE(1976,1,K191),"mmm")</f>
+      <c r="K191" t="str">
+        <f t="shared" si="2"/>
         <v>Jul</v>
+      </c>
+      <c r="L191" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.5">
@@ -10115,15 +10115,15 @@
       <c r="I192" t="s">
         <v>73</v>
       </c>
-      <c r="J192" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K192">
+      <c r="J192">
         <v>203</v>
       </c>
-      <c r="L192" t="str">
-        <f>TEXT(DATE(1976,1,K192),"mmm")</f>
+      <c r="K192" t="str">
+        <f t="shared" si="2"/>
         <v>Jul</v>
+      </c>
+      <c r="L192" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.5">
@@ -10154,15 +10154,15 @@
       <c r="I193" t="s">
         <v>73</v>
       </c>
-      <c r="J193" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K193">
+      <c r="J193">
         <v>205</v>
       </c>
-      <c r="L193" t="str">
-        <f>TEXT(DATE(1976,1,K193),"mmm")</f>
+      <c r="K193" t="str">
+        <f t="shared" si="2"/>
         <v>Jul</v>
+      </c>
+      <c r="L193" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.5">
@@ -10193,15 +10193,15 @@
       <c r="I194" t="s">
         <v>128</v>
       </c>
-      <c r="J194" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K194">
+      <c r="J194">
         <v>206</v>
       </c>
-      <c r="L194" t="str">
-        <f>TEXT(DATE(1976,1,K194),"mmm")</f>
+      <c r="K194" t="str">
+        <f t="shared" si="2"/>
         <v>Jul</v>
+      </c>
+      <c r="L194" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.5">
@@ -10232,15 +10232,15 @@
       <c r="I195" t="s">
         <v>240</v>
       </c>
-      <c r="J195" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K195">
+      <c r="J195">
         <v>207</v>
       </c>
-      <c r="L195" t="str">
-        <f>TEXT(DATE(1976,1,K195),"mmm")</f>
+      <c r="K195" t="str">
+        <f t="shared" si="2"/>
         <v>Jul</v>
+      </c>
+      <c r="L195" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.5">
@@ -10271,15 +10271,15 @@
       <c r="I196" t="s">
         <v>240</v>
       </c>
-      <c r="J196" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K196">
+      <c r="J196">
         <v>208</v>
       </c>
-      <c r="L196" t="str">
-        <f>TEXT(DATE(1976,1,K196),"mmm")</f>
+      <c r="K196" t="str">
+        <f t="shared" ref="K196:K259" si="3">TEXT(DATE(1976,1,J196),"mmm")</f>
         <v>Jul</v>
+      </c>
+      <c r="L196" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.5">
@@ -10310,15 +10310,15 @@
       <c r="I197" t="s">
         <v>240</v>
       </c>
-      <c r="J197" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K197">
+      <c r="J197">
         <v>209</v>
       </c>
-      <c r="L197" t="str">
-        <f>TEXT(DATE(1976,1,K197),"mmm")</f>
+      <c r="K197" t="str">
+        <f t="shared" si="3"/>
         <v>Jul</v>
+      </c>
+      <c r="L197" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.5">
@@ -10349,15 +10349,15 @@
       <c r="I198" t="s">
         <v>240</v>
       </c>
-      <c r="J198" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K198">
+      <c r="J198">
         <v>210</v>
       </c>
-      <c r="L198" t="str">
-        <f>TEXT(DATE(1976,1,K198),"mmm")</f>
+      <c r="K198" t="str">
+        <f t="shared" si="3"/>
         <v>Jul</v>
+      </c>
+      <c r="L198" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.5">
@@ -10388,15 +10388,15 @@
       <c r="I199" t="s">
         <v>50</v>
       </c>
-      <c r="J199" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K199">
+      <c r="J199">
         <v>213</v>
       </c>
-      <c r="L199" t="str">
-        <f>TEXT(DATE(1976,1,K199),"mmm")</f>
+      <c r="K199" t="str">
+        <f t="shared" si="3"/>
         <v>Jul</v>
+      </c>
+      <c r="L199" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.5">
@@ -10427,15 +10427,15 @@
       <c r="I200" t="s">
         <v>68</v>
       </c>
-      <c r="J200" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K200">
+      <c r="J200">
         <v>214</v>
       </c>
-      <c r="L200" t="str">
-        <f>TEXT(DATE(1976,1,K200),"mmm")</f>
+      <c r="K200" t="str">
+        <f t="shared" si="3"/>
         <v>Aug</v>
+      </c>
+      <c r="L200" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.5">
@@ -10466,15 +10466,15 @@
       <c r="I201" t="s">
         <v>76</v>
       </c>
-      <c r="J201" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K201">
+      <c r="J201">
         <v>215</v>
       </c>
-      <c r="L201" t="str">
-        <f>TEXT(DATE(1976,1,K201),"mmm")</f>
+      <c r="K201" t="str">
+        <f t="shared" si="3"/>
         <v>Aug</v>
+      </c>
+      <c r="L201" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.5">
@@ -10505,15 +10505,15 @@
       <c r="I202" t="s">
         <v>68</v>
       </c>
-      <c r="J202" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K202">
+      <c r="J202">
         <v>216</v>
       </c>
-      <c r="L202" t="str">
-        <f>TEXT(DATE(1976,1,K202),"mmm")</f>
+      <c r="K202" t="str">
+        <f t="shared" si="3"/>
         <v>Aug</v>
+      </c>
+      <c r="L202" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.5">
@@ -10544,15 +10544,15 @@
       <c r="I203" t="s">
         <v>18</v>
       </c>
-      <c r="J203" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K203">
+      <c r="J203">
         <v>222</v>
       </c>
-      <c r="L203" t="str">
-        <f>TEXT(DATE(1976,1,K203),"mmm")</f>
+      <c r="K203" t="str">
+        <f t="shared" si="3"/>
         <v>Aug</v>
+      </c>
+      <c r="L203" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.5">
@@ -10583,15 +10583,15 @@
       <c r="I204" t="s">
         <v>240</v>
       </c>
-      <c r="J204" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K204">
+      <c r="J204">
         <v>224</v>
       </c>
-      <c r="L204" t="str">
-        <f>TEXT(DATE(1976,1,K204),"mmm")</f>
+      <c r="K204" t="str">
+        <f t="shared" si="3"/>
         <v>Aug</v>
+      </c>
+      <c r="L204" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.5">
@@ -10622,15 +10622,15 @@
       <c r="I205" t="s">
         <v>128</v>
       </c>
-      <c r="J205" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K205">
+      <c r="J205">
         <v>225</v>
       </c>
-      <c r="L205" t="str">
-        <f>TEXT(DATE(1976,1,K205),"mmm")</f>
+      <c r="K205" t="str">
+        <f t="shared" si="3"/>
         <v>Aug</v>
+      </c>
+      <c r="L205" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.5">
@@ -10661,15 +10661,15 @@
       <c r="I206" t="s">
         <v>25</v>
       </c>
-      <c r="J206" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K206">
+      <c r="J206">
         <v>226</v>
       </c>
-      <c r="L206" t="str">
-        <f>TEXT(DATE(1976,1,K206),"mmm")</f>
+      <c r="K206" t="str">
+        <f t="shared" si="3"/>
         <v>Aug</v>
+      </c>
+      <c r="L206" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.5">
@@ -10700,15 +10700,15 @@
       <c r="I207" t="s">
         <v>68</v>
       </c>
-      <c r="J207" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K207">
+      <c r="J207">
         <v>227</v>
       </c>
-      <c r="L207" t="str">
-        <f>TEXT(DATE(1976,1,K207),"mmm")</f>
+      <c r="K207" t="str">
+        <f t="shared" si="3"/>
         <v>Aug</v>
+      </c>
+      <c r="L207" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.5">
@@ -10739,15 +10739,15 @@
       <c r="I208" t="s">
         <v>76</v>
       </c>
-      <c r="J208" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K208">
+      <c r="J208">
         <v>228</v>
       </c>
-      <c r="L208" t="str">
-        <f>TEXT(DATE(1976,1,K208),"mmm")</f>
+      <c r="K208" t="str">
+        <f t="shared" si="3"/>
         <v>Aug</v>
+      </c>
+      <c r="L208" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.5">
@@ -10778,15 +10778,15 @@
       <c r="I209" t="s">
         <v>76</v>
       </c>
-      <c r="J209" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K209">
+      <c r="J209">
         <v>229</v>
       </c>
-      <c r="L209" t="str">
-        <f>TEXT(DATE(1976,1,K209),"mmm")</f>
+      <c r="K209" t="str">
+        <f t="shared" si="3"/>
         <v>Aug</v>
+      </c>
+      <c r="L209" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.5">
@@ -10817,15 +10817,15 @@
       <c r="I210" t="s">
         <v>76</v>
       </c>
-      <c r="J210" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K210">
+      <c r="J210">
         <v>230</v>
       </c>
-      <c r="L210" t="str">
-        <f>TEXT(DATE(1976,1,K210),"mmm")</f>
+      <c r="K210" t="str">
+        <f t="shared" si="3"/>
         <v>Aug</v>
+      </c>
+      <c r="L210" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.5">
@@ -10856,15 +10856,15 @@
       <c r="I211" t="s">
         <v>9</v>
       </c>
-      <c r="J211" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K211">
+      <c r="J211">
         <v>231</v>
       </c>
-      <c r="L211" t="str">
-        <f>TEXT(DATE(1976,1,K211),"mmm")</f>
+      <c r="K211" t="str">
+        <f t="shared" si="3"/>
         <v>Aug</v>
+      </c>
+      <c r="L211" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.5">
@@ -10895,15 +10895,15 @@
       <c r="I212" t="s">
         <v>189</v>
       </c>
-      <c r="J212" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K212">
+      <c r="J212">
         <v>232</v>
       </c>
-      <c r="L212" t="str">
-        <f>TEXT(DATE(1976,1,K212),"mmm")</f>
+      <c r="K212" t="str">
+        <f t="shared" si="3"/>
         <v>Aug</v>
+      </c>
+      <c r="L212" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.5">
@@ -10934,15 +10934,15 @@
       <c r="I213" t="s">
         <v>128</v>
       </c>
-      <c r="J213" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K213">
+      <c r="J213">
         <v>233</v>
       </c>
-      <c r="L213" t="str">
-        <f>TEXT(DATE(1976,1,K213),"mmm")</f>
+      <c r="K213" t="str">
+        <f t="shared" si="3"/>
         <v>Aug</v>
+      </c>
+      <c r="L213" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.5">
@@ -10973,15 +10973,15 @@
       <c r="I214" t="s">
         <v>189</v>
       </c>
-      <c r="J214" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K214">
+      <c r="J214">
         <v>234</v>
       </c>
-      <c r="L214" t="str">
-        <f>TEXT(DATE(1976,1,K214),"mmm")</f>
+      <c r="K214" t="str">
+        <f t="shared" si="3"/>
         <v>Aug</v>
+      </c>
+      <c r="L214" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.5">
@@ -11012,15 +11012,15 @@
       <c r="I215" t="s">
         <v>68</v>
       </c>
-      <c r="J215" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K215">
+      <c r="J215">
         <v>235</v>
       </c>
-      <c r="L215" t="str">
-        <f>TEXT(DATE(1976,1,K215),"mmm")</f>
+      <c r="K215" t="str">
+        <f t="shared" si="3"/>
         <v>Aug</v>
+      </c>
+      <c r="L215" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.5">
@@ -11051,15 +11051,15 @@
       <c r="I216" t="s">
         <v>189</v>
       </c>
-      <c r="J216" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K216">
+      <c r="J216">
         <v>236</v>
       </c>
-      <c r="L216" t="str">
-        <f>TEXT(DATE(1976,1,K216),"mmm")</f>
+      <c r="K216" t="str">
+        <f t="shared" si="3"/>
         <v>Aug</v>
+      </c>
+      <c r="L216" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.5">
@@ -11090,15 +11090,15 @@
       <c r="I217" t="s">
         <v>155</v>
       </c>
-      <c r="J217" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K217">
+      <c r="J217">
         <v>237</v>
       </c>
-      <c r="L217" t="str">
-        <f>TEXT(DATE(1976,1,K217),"mmm")</f>
+      <c r="K217" t="str">
+        <f t="shared" si="3"/>
         <v>Aug</v>
+      </c>
+      <c r="L217" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.5">
@@ -11129,15 +11129,15 @@
       <c r="I218" t="s">
         <v>18</v>
       </c>
-      <c r="J218" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K218">
+      <c r="J218">
         <v>238</v>
       </c>
-      <c r="L218" t="str">
-        <f>TEXT(DATE(1976,1,K218),"mmm")</f>
+      <c r="K218" t="str">
+        <f t="shared" si="3"/>
         <v>Aug</v>
+      </c>
+      <c r="L218" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.5">
@@ -11168,15 +11168,15 @@
       <c r="I219" t="s">
         <v>18</v>
       </c>
-      <c r="J219" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K219">
+      <c r="J219">
         <v>239</v>
       </c>
-      <c r="L219" t="str">
-        <f>TEXT(DATE(1976,1,K219),"mmm")</f>
+      <c r="K219" t="str">
+        <f t="shared" si="3"/>
         <v>Aug</v>
+      </c>
+      <c r="L219" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.5">
@@ -11207,15 +11207,15 @@
       <c r="I220" t="s">
         <v>301</v>
       </c>
-      <c r="J220" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K220">
+      <c r="J220">
         <v>240</v>
       </c>
-      <c r="L220" t="str">
-        <f>TEXT(DATE(1976,1,K220),"mmm")</f>
+      <c r="K220" t="str">
+        <f t="shared" si="3"/>
         <v>Aug</v>
+      </c>
+      <c r="L220" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.5">
@@ -11246,15 +11246,15 @@
       <c r="I221" t="s">
         <v>272</v>
       </c>
-      <c r="J221" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K221">
+      <c r="J221">
         <v>241</v>
       </c>
-      <c r="L221" t="str">
-        <f>TEXT(DATE(1976,1,K221),"mmm")</f>
+      <c r="K221" t="str">
+        <f t="shared" si="3"/>
         <v>Aug</v>
+      </c>
+      <c r="L221" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.5">
@@ -11285,15 +11285,15 @@
       <c r="I222" t="s">
         <v>316</v>
       </c>
-      <c r="J222" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K222">
+      <c r="J222">
         <v>242</v>
       </c>
-      <c r="L222" t="str">
-        <f>TEXT(DATE(1976,1,K222),"mmm")</f>
+      <c r="K222" t="str">
+        <f t="shared" si="3"/>
         <v>Aug</v>
+      </c>
+      <c r="L222" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.5">
@@ -11324,15 +11324,15 @@
       <c r="I223" t="s">
         <v>128</v>
       </c>
-      <c r="J223" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K223">
+      <c r="J223">
         <v>243</v>
       </c>
-      <c r="L223" t="str">
-        <f>TEXT(DATE(1976,1,K223),"mmm")</f>
+      <c r="K223" t="str">
+        <f t="shared" si="3"/>
         <v>Aug</v>
+      </c>
+      <c r="L223" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.5">
@@ -11363,15 +11363,15 @@
       <c r="I224" t="s">
         <v>155</v>
       </c>
-      <c r="J224" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K224">
+      <c r="J224">
         <v>244</v>
       </c>
-      <c r="L224" t="str">
-        <f>TEXT(DATE(1976,1,K224),"mmm")</f>
+      <c r="K224" t="str">
+        <f t="shared" si="3"/>
         <v>Aug</v>
+      </c>
+      <c r="L224" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.5">
@@ -11402,15 +11402,15 @@
       <c r="I225" t="s">
         <v>128</v>
       </c>
-      <c r="J225" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K225">
+      <c r="J225">
         <v>245</v>
       </c>
-      <c r="L225" t="str">
-        <f>TEXT(DATE(1976,1,K225),"mmm")</f>
+      <c r="K225" t="str">
+        <f t="shared" si="3"/>
         <v>Sep</v>
+      </c>
+      <c r="L225" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.5">
@@ -11441,15 +11441,15 @@
       <c r="I226" t="s">
         <v>25</v>
       </c>
-      <c r="J226" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K226">
+      <c r="J226">
         <v>246</v>
       </c>
-      <c r="L226" t="str">
-        <f>TEXT(DATE(1976,1,K226),"mmm")</f>
+      <c r="K226" t="str">
+        <f t="shared" si="3"/>
         <v>Sep</v>
+      </c>
+      <c r="L226" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.5">
@@ -11480,15 +11480,15 @@
       <c r="I227" t="s">
         <v>73</v>
       </c>
-      <c r="J227" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K227">
+      <c r="J227">
         <v>247</v>
       </c>
-      <c r="L227" t="str">
-        <f>TEXT(DATE(1976,1,K227),"mmm")</f>
+      <c r="K227" t="str">
+        <f t="shared" si="3"/>
         <v>Sep</v>
+      </c>
+      <c r="L227" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.5">
@@ -11519,15 +11519,15 @@
       <c r="I228" t="s">
         <v>122</v>
       </c>
-      <c r="J228" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K228">
+      <c r="J228">
         <v>248</v>
       </c>
-      <c r="L228" t="str">
-        <f>TEXT(DATE(1976,1,K228),"mmm")</f>
+      <c r="K228" t="str">
+        <f t="shared" si="3"/>
         <v>Sep</v>
+      </c>
+      <c r="L228" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.5">
@@ -11558,15 +11558,15 @@
       <c r="I229" t="s">
         <v>128</v>
       </c>
-      <c r="J229" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K229">
+      <c r="J229">
         <v>249</v>
       </c>
-      <c r="L229" t="str">
-        <f>TEXT(DATE(1976,1,K229),"mmm")</f>
+      <c r="K229" t="str">
+        <f t="shared" si="3"/>
         <v>Sep</v>
+      </c>
+      <c r="L229" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.5">
@@ -11597,15 +11597,15 @@
       <c r="I230" t="s">
         <v>105</v>
       </c>
-      <c r="J230" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K230">
+      <c r="J230">
         <v>250</v>
       </c>
-      <c r="L230" t="str">
-        <f>TEXT(DATE(1976,1,K230),"mmm")</f>
+      <c r="K230" t="str">
+        <f t="shared" si="3"/>
         <v>Sep</v>
+      </c>
+      <c r="L230" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.5">
@@ -11636,15 +11636,15 @@
       <c r="I231" t="s">
         <v>18</v>
       </c>
-      <c r="J231" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K231">
+      <c r="J231">
         <v>251</v>
       </c>
-      <c r="L231" t="str">
-        <f>TEXT(DATE(1976,1,K231),"mmm")</f>
+      <c r="K231" t="str">
+        <f t="shared" si="3"/>
         <v>Sep</v>
+      </c>
+      <c r="L231" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.5">
@@ -11675,15 +11675,15 @@
       <c r="I232" t="s">
         <v>50</v>
       </c>
-      <c r="J232" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K232">
+      <c r="J232">
         <v>252</v>
       </c>
-      <c r="L232" t="str">
-        <f>TEXT(DATE(1976,1,K232),"mmm")</f>
+      <c r="K232" t="str">
+        <f t="shared" si="3"/>
         <v>Sep</v>
+      </c>
+      <c r="L232" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.5">
@@ -11714,15 +11714,15 @@
       <c r="I233" t="s">
         <v>68</v>
       </c>
-      <c r="J233" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K233">
+      <c r="J233">
         <v>255</v>
       </c>
-      <c r="L233" t="str">
-        <f>TEXT(DATE(1976,1,K233),"mmm")</f>
+      <c r="K233" t="str">
+        <f t="shared" si="3"/>
         <v>Sep</v>
+      </c>
+      <c r="L233" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.5">
@@ -11753,15 +11753,15 @@
       <c r="I234" t="s">
         <v>122</v>
       </c>
-      <c r="J234" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K234">
+      <c r="J234">
         <v>256</v>
       </c>
-      <c r="L234" t="str">
-        <f>TEXT(DATE(1976,1,K234),"mmm")</f>
+      <c r="K234" t="str">
+        <f t="shared" si="3"/>
         <v>Sep</v>
+      </c>
+      <c r="L234" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.5">
@@ -11792,15 +11792,15 @@
       <c r="I235" t="s">
         <v>128</v>
       </c>
-      <c r="J235" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K235">
+      <c r="J235">
         <v>257</v>
       </c>
-      <c r="L235" t="str">
-        <f>TEXT(DATE(1976,1,K235),"mmm")</f>
+      <c r="K235" t="str">
+        <f t="shared" si="3"/>
         <v>Sep</v>
+      </c>
+      <c r="L235" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.5">
@@ -11831,15 +11831,15 @@
       <c r="I236" t="s">
         <v>73</v>
       </c>
-      <c r="J236" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K236">
+      <c r="J236">
         <v>258</v>
       </c>
-      <c r="L236" t="str">
-        <f>TEXT(DATE(1976,1,K236),"mmm")</f>
+      <c r="K236" t="str">
+        <f t="shared" si="3"/>
         <v>Sep</v>
+      </c>
+      <c r="L236" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.5">
@@ -11870,15 +11870,15 @@
       <c r="I237" t="s">
         <v>128</v>
       </c>
-      <c r="J237" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K237">
+      <c r="J237">
         <v>259</v>
       </c>
-      <c r="L237" t="str">
-        <f>TEXT(DATE(1976,1,K237),"mmm")</f>
+      <c r="K237" t="str">
+        <f t="shared" si="3"/>
         <v>Sep</v>
+      </c>
+      <c r="L237" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.5">
@@ -11909,15 +11909,15 @@
       <c r="I238" t="s">
         <v>105</v>
       </c>
-      <c r="J238" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K238">
+      <c r="J238">
         <v>261</v>
       </c>
-      <c r="L238" t="str">
-        <f>TEXT(DATE(1976,1,K238),"mmm")</f>
+      <c r="K238" t="str">
+        <f t="shared" si="3"/>
         <v>Sep</v>
+      </c>
+      <c r="L238" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.5">
@@ -11948,15 +11948,15 @@
       <c r="I239" t="s">
         <v>105</v>
       </c>
-      <c r="J239" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K239">
+      <c r="J239">
         <v>262</v>
       </c>
-      <c r="L239" t="str">
-        <f>TEXT(DATE(1976,1,K239),"mmm")</f>
+      <c r="K239" t="str">
+        <f t="shared" si="3"/>
         <v>Sep</v>
+      </c>
+      <c r="L239" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.5">
@@ -11987,15 +11987,15 @@
       <c r="I240" t="s">
         <v>18</v>
       </c>
-      <c r="J240" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K240">
+      <c r="J240">
         <v>263</v>
       </c>
-      <c r="L240" t="str">
-        <f>TEXT(DATE(1976,1,K240),"mmm")</f>
+      <c r="K240" t="str">
+        <f t="shared" si="3"/>
         <v>Sep</v>
+      </c>
+      <c r="L240" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.5">
@@ -12026,15 +12026,15 @@
       <c r="I241" t="s">
         <v>128</v>
       </c>
-      <c r="J241" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K241">
+      <c r="J241">
         <v>265</v>
       </c>
-      <c r="L241" t="str">
-        <f>TEXT(DATE(1976,1,K241),"mmm")</f>
+      <c r="K241" t="str">
+        <f t="shared" si="3"/>
         <v>Sep</v>
+      </c>
+      <c r="L241" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.5">
@@ -12065,15 +12065,15 @@
       <c r="I242" t="s">
         <v>73</v>
       </c>
-      <c r="J242" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K242">
+      <c r="J242">
         <v>266</v>
       </c>
-      <c r="L242" t="str">
-        <f>TEXT(DATE(1976,1,K242),"mmm")</f>
+      <c r="K242" t="str">
+        <f t="shared" si="3"/>
         <v>Sep</v>
+      </c>
+      <c r="L242" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.5">
@@ -12104,15 +12104,15 @@
       <c r="I243" t="s">
         <v>18</v>
       </c>
-      <c r="J243" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K243">
+      <c r="J243">
         <v>268</v>
       </c>
-      <c r="L243" t="str">
-        <f>TEXT(DATE(1976,1,K243),"mmm")</f>
+      <c r="K243" t="str">
+        <f t="shared" si="3"/>
         <v>Sep</v>
+      </c>
+      <c r="L243" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.5">
@@ -12143,15 +12143,15 @@
       <c r="I244" t="s">
         <v>50</v>
       </c>
-      <c r="J244" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K244">
+      <c r="J244">
         <v>269</v>
       </c>
-      <c r="L244" t="str">
-        <f>TEXT(DATE(1976,1,K244),"mmm")</f>
+      <c r="K244" t="str">
+        <f t="shared" si="3"/>
         <v>Sep</v>
+      </c>
+      <c r="L244" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.5">
@@ -12182,15 +12182,15 @@
       <c r="I245" t="s">
         <v>50</v>
       </c>
-      <c r="J245" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K245">
+      <c r="J245">
         <v>270</v>
       </c>
-      <c r="L245" t="str">
-        <f>TEXT(DATE(1976,1,K245),"mmm")</f>
+      <c r="K245" t="str">
+        <f t="shared" si="3"/>
         <v>Sep</v>
+      </c>
+      <c r="L245" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.5">
@@ -12221,15 +12221,15 @@
       <c r="I246" t="s">
         <v>105</v>
       </c>
-      <c r="J246" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K246">
+      <c r="J246">
         <v>271</v>
       </c>
-      <c r="L246" t="str">
-        <f>TEXT(DATE(1976,1,K246),"mmm")</f>
+      <c r="K246" t="str">
+        <f t="shared" si="3"/>
         <v>Sep</v>
+      </c>
+      <c r="L246" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.5">
@@ -12260,15 +12260,15 @@
       <c r="I247" t="s">
         <v>50</v>
       </c>
-      <c r="J247" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K247">
+      <c r="J247">
         <v>272</v>
       </c>
-      <c r="L247" t="str">
-        <f>TEXT(DATE(1976,1,K247),"mmm")</f>
+      <c r="K247" t="str">
+        <f t="shared" si="3"/>
         <v>Sep</v>
+      </c>
+      <c r="L247" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.5">
@@ -12299,15 +12299,15 @@
       <c r="I248" t="s">
         <v>128</v>
       </c>
-      <c r="J248" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K248">
+      <c r="J248">
         <v>273</v>
       </c>
-      <c r="L248" t="str">
-        <f>TEXT(DATE(1976,1,K248),"mmm")</f>
+      <c r="K248" t="str">
+        <f t="shared" si="3"/>
         <v>Sep</v>
+      </c>
+      <c r="L248" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.5">
@@ -12338,15 +12338,15 @@
       <c r="I249" t="s">
         <v>68</v>
       </c>
-      <c r="J249" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K249">
+      <c r="J249">
         <v>274</v>
       </c>
-      <c r="L249" t="str">
-        <f>TEXT(DATE(1976,1,K249),"mmm")</f>
+      <c r="K249" t="str">
+        <f t="shared" si="3"/>
         <v>Sep</v>
+      </c>
+      <c r="L249" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.5">
@@ -12377,15 +12377,15 @@
       <c r="I250" t="s">
         <v>76</v>
       </c>
-      <c r="J250" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K250">
+      <c r="J250">
         <v>275</v>
       </c>
-      <c r="L250" t="str">
-        <f>TEXT(DATE(1976,1,K250),"mmm")</f>
+      <c r="K250" t="str">
+        <f t="shared" si="3"/>
         <v>Oct</v>
+      </c>
+      <c r="L250" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.5">
@@ -12416,15 +12416,15 @@
       <c r="I251" t="s">
         <v>76</v>
       </c>
-      <c r="J251" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K251">
+      <c r="J251">
         <v>276</v>
       </c>
-      <c r="L251" t="str">
-        <f>TEXT(DATE(1976,1,K251),"mmm")</f>
+      <c r="K251" t="str">
+        <f t="shared" si="3"/>
         <v>Oct</v>
+      </c>
+      <c r="L251" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.5">
@@ -12455,15 +12455,15 @@
       <c r="I252" t="s">
         <v>76</v>
       </c>
-      <c r="J252" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K252">
+      <c r="J252">
         <v>277</v>
       </c>
-      <c r="L252" t="str">
-        <f>TEXT(DATE(1976,1,K252),"mmm")</f>
+      <c r="K252" t="str">
+        <f t="shared" si="3"/>
         <v>Oct</v>
+      </c>
+      <c r="L252" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.5">
@@ -12494,15 +12494,15 @@
       <c r="I253" t="s">
         <v>128</v>
       </c>
-      <c r="J253" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K253">
+      <c r="J253">
         <v>278</v>
       </c>
-      <c r="L253" t="str">
-        <f>TEXT(DATE(1976,1,K253),"mmm")</f>
+      <c r="K253" t="str">
+        <f t="shared" si="3"/>
         <v>Oct</v>
+      </c>
+      <c r="L253" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.5">
@@ -12533,15 +12533,15 @@
       <c r="I254" t="s">
         <v>73</v>
       </c>
-      <c r="J254" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K254">
+      <c r="J254">
         <v>279</v>
       </c>
-      <c r="L254" t="str">
-        <f>TEXT(DATE(1976,1,K254),"mmm")</f>
+      <c r="K254" t="str">
+        <f t="shared" si="3"/>
         <v>Oct</v>
+      </c>
+      <c r="L254" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.5">
@@ -12572,15 +12572,15 @@
       <c r="I255" t="s">
         <v>122</v>
       </c>
-      <c r="J255" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K255">
+      <c r="J255">
         <v>280</v>
       </c>
-      <c r="L255" t="str">
-        <f>TEXT(DATE(1976,1,K255),"mmm")</f>
+      <c r="K255" t="str">
+        <f t="shared" si="3"/>
         <v>Oct</v>
+      </c>
+      <c r="L255" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.5">
@@ -12611,15 +12611,15 @@
       <c r="I256" t="s">
         <v>301</v>
       </c>
-      <c r="J256" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K256">
+      <c r="J256">
         <v>281</v>
       </c>
-      <c r="L256" t="str">
-        <f>TEXT(DATE(1976,1,K256),"mmm")</f>
+      <c r="K256" t="str">
+        <f t="shared" si="3"/>
         <v>Oct</v>
+      </c>
+      <c r="L256" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.5">
@@ -12650,15 +12650,15 @@
       <c r="I257" t="s">
         <v>240</v>
       </c>
-      <c r="J257" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K257">
+      <c r="J257">
         <v>282</v>
       </c>
-      <c r="L257" t="str">
-        <f>TEXT(DATE(1976,1,K257),"mmm")</f>
+      <c r="K257" t="str">
+        <f t="shared" si="3"/>
         <v>Oct</v>
+      </c>
+      <c r="L257" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.5">
@@ -12689,15 +12689,15 @@
       <c r="I258" t="s">
         <v>9</v>
       </c>
-      <c r="J258" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K258">
+      <c r="J258">
         <v>283</v>
       </c>
-      <c r="L258" t="str">
-        <f>TEXT(DATE(1976,1,K258),"mmm")</f>
+      <c r="K258" t="str">
+        <f t="shared" si="3"/>
         <v>Oct</v>
+      </c>
+      <c r="L258" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.5">
@@ -12728,15 +12728,15 @@
       <c r="I259" t="s">
         <v>76</v>
       </c>
-      <c r="J259" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K259">
+      <c r="J259">
         <v>284</v>
       </c>
-      <c r="L259" t="str">
-        <f>TEXT(DATE(1976,1,K259),"mmm")</f>
+      <c r="K259" t="str">
+        <f t="shared" si="3"/>
         <v>Oct</v>
+      </c>
+      <c r="L259" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.5">
@@ -12767,15 +12767,15 @@
       <c r="I260" t="s">
         <v>163</v>
       </c>
-      <c r="J260" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K260">
+      <c r="J260">
         <v>285</v>
       </c>
-      <c r="L260" t="str">
-        <f>TEXT(DATE(1976,1,K260),"mmm")</f>
+      <c r="K260" t="str">
+        <f t="shared" ref="K260:K323" si="4">TEXT(DATE(1976,1,J260),"mmm")</f>
         <v>Oct</v>
+      </c>
+      <c r="L260" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.5">
@@ -12806,15 +12806,15 @@
       <c r="I261" t="s">
         <v>272</v>
       </c>
-      <c r="J261" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K261">
+      <c r="J261">
         <v>286</v>
       </c>
-      <c r="L261" t="str">
-        <f>TEXT(DATE(1976,1,K261),"mmm")</f>
+      <c r="K261" t="str">
+        <f t="shared" si="4"/>
         <v>Oct</v>
+      </c>
+      <c r="L261" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.5">
@@ -12845,15 +12845,15 @@
       <c r="I262" t="s">
         <v>223</v>
       </c>
-      <c r="J262" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K262">
+      <c r="J262">
         <v>287</v>
       </c>
-      <c r="L262" t="str">
-        <f>TEXT(DATE(1976,1,K262),"mmm")</f>
+      <c r="K262" t="str">
+        <f t="shared" si="4"/>
         <v>Oct</v>
+      </c>
+      <c r="L262" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.5">
@@ -12884,15 +12884,15 @@
       <c r="I263" t="s">
         <v>155</v>
       </c>
-      <c r="J263" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K263">
+      <c r="J263">
         <v>288</v>
       </c>
-      <c r="L263" t="str">
-        <f>TEXT(DATE(1976,1,K263),"mmm")</f>
+      <c r="K263" t="str">
+        <f t="shared" si="4"/>
         <v>Oct</v>
+      </c>
+      <c r="L263" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.5">
@@ -12923,15 +12923,15 @@
       <c r="I264" t="s">
         <v>122</v>
       </c>
-      <c r="J264" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K264">
+      <c r="J264">
         <v>289</v>
       </c>
-      <c r="L264" t="str">
-        <f>TEXT(DATE(1976,1,K264),"mmm")</f>
+      <c r="K264" t="str">
+        <f t="shared" si="4"/>
         <v>Oct</v>
+      </c>
+      <c r="L264" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.5">
@@ -12962,15 +12962,15 @@
       <c r="I265" t="s">
         <v>128</v>
       </c>
-      <c r="J265" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K265">
+      <c r="J265">
         <v>290</v>
       </c>
-      <c r="L265" t="str">
-        <f>TEXT(DATE(1976,1,K265),"mmm")</f>
+      <c r="K265" t="str">
+        <f t="shared" si="4"/>
         <v>Oct</v>
+      </c>
+      <c r="L265" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.5">
@@ -13001,15 +13001,15 @@
       <c r="I266" t="s">
         <v>301</v>
       </c>
-      <c r="J266" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K266">
+      <c r="J266">
         <v>291</v>
       </c>
-      <c r="L266" t="str">
-        <f>TEXT(DATE(1976,1,K266),"mmm")</f>
+      <c r="K266" t="str">
+        <f t="shared" si="4"/>
         <v>Oct</v>
+      </c>
+      <c r="L266" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.5">
@@ -13040,15 +13040,15 @@
       <c r="I267" t="s">
         <v>240</v>
       </c>
-      <c r="J267" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K267">
+      <c r="J267">
         <v>292</v>
       </c>
-      <c r="L267" t="str">
-        <f>TEXT(DATE(1976,1,K267),"mmm")</f>
+      <c r="K267" t="str">
+        <f t="shared" si="4"/>
         <v>Oct</v>
+      </c>
+      <c r="L267" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.5">
@@ -13079,15 +13079,15 @@
       <c r="I268" t="s">
         <v>122</v>
       </c>
-      <c r="J268" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K268">
+      <c r="J268">
         <v>293</v>
       </c>
-      <c r="L268" t="str">
-        <f>TEXT(DATE(1976,1,K268),"mmm")</f>
+      <c r="K268" t="str">
+        <f t="shared" si="4"/>
         <v>Oct</v>
+      </c>
+      <c r="L268" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.5">
@@ -13118,15 +13118,15 @@
       <c r="I269" t="s">
         <v>25</v>
       </c>
-      <c r="J269" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K269">
+      <c r="J269">
         <v>294</v>
       </c>
-      <c r="L269" t="str">
-        <f>TEXT(DATE(1976,1,K269),"mmm")</f>
+      <c r="K269" t="str">
+        <f t="shared" si="4"/>
         <v>Oct</v>
+      </c>
+      <c r="L269" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.5">
@@ -13157,15 +13157,15 @@
       <c r="I270" t="s">
         <v>25</v>
       </c>
-      <c r="J270" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K270">
+      <c r="J270">
         <v>295</v>
       </c>
-      <c r="L270" t="str">
-        <f>TEXT(DATE(1976,1,K270),"mmm")</f>
+      <c r="K270" t="str">
+        <f t="shared" si="4"/>
         <v>Oct</v>
+      </c>
+      <c r="L270" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.5">
@@ -13196,15 +13196,15 @@
       <c r="I271" t="s">
         <v>240</v>
       </c>
-      <c r="J271" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K271">
+      <c r="J271">
         <v>296</v>
       </c>
-      <c r="L271" t="str">
-        <f>TEXT(DATE(1976,1,K271),"mmm")</f>
+      <c r="K271" t="str">
+        <f t="shared" si="4"/>
         <v>Oct</v>
+      </c>
+      <c r="L271" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.5">
@@ -13235,15 +13235,15 @@
       <c r="I272" t="s">
         <v>122</v>
       </c>
-      <c r="J272" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K272">
+      <c r="J272">
         <v>297</v>
       </c>
-      <c r="L272" t="str">
-        <f>TEXT(DATE(1976,1,K272),"mmm")</f>
+      <c r="K272" t="str">
+        <f t="shared" si="4"/>
         <v>Oct</v>
+      </c>
+      <c r="L272" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.5">
@@ -13274,15 +13274,15 @@
       <c r="I273" t="s">
         <v>122</v>
       </c>
-      <c r="J273" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K273">
+      <c r="J273">
         <v>298</v>
       </c>
-      <c r="L273" t="str">
-        <f>TEXT(DATE(1976,1,K273),"mmm")</f>
+      <c r="K273" t="str">
+        <f t="shared" si="4"/>
         <v>Oct</v>
+      </c>
+      <c r="L273" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.5">
@@ -13313,15 +13313,15 @@
       <c r="I274" t="s">
         <v>73</v>
       </c>
-      <c r="J274" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K274">
+      <c r="J274">
         <v>299</v>
       </c>
-      <c r="L274" t="str">
-        <f>TEXT(DATE(1976,1,K274),"mmm")</f>
+      <c r="K274" t="str">
+        <f t="shared" si="4"/>
         <v>Oct</v>
+      </c>
+      <c r="L274" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.5">
@@ -13352,15 +13352,15 @@
       <c r="I275" t="s">
         <v>73</v>
       </c>
-      <c r="J275" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K275">
+      <c r="J275">
         <v>300</v>
       </c>
-      <c r="L275" t="str">
-        <f>TEXT(DATE(1976,1,K275),"mmm")</f>
+      <c r="K275" t="str">
+        <f t="shared" si="4"/>
         <v>Oct</v>
+      </c>
+      <c r="L275" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.5">
@@ -13391,15 +13391,15 @@
       <c r="I276" t="s">
         <v>189</v>
       </c>
-      <c r="J276" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K276">
+      <c r="J276">
         <v>301</v>
       </c>
-      <c r="L276" t="str">
-        <f>TEXT(DATE(1976,1,K276),"mmm")</f>
+      <c r="K276" t="str">
+        <f t="shared" si="4"/>
         <v>Oct</v>
+      </c>
+      <c r="L276" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.5">
@@ -13430,15 +13430,15 @@
       <c r="I277" t="s">
         <v>76</v>
       </c>
-      <c r="J277" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K277">
+      <c r="J277">
         <v>302</v>
       </c>
-      <c r="L277" t="str">
-        <f>TEXT(DATE(1976,1,K277),"mmm")</f>
+      <c r="K277" t="str">
+        <f t="shared" si="4"/>
         <v>Oct</v>
+      </c>
+      <c r="L277" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.5">
@@ -13469,15 +13469,15 @@
       <c r="I278" t="s">
         <v>68</v>
       </c>
-      <c r="J278" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K278">
+      <c r="J278">
         <v>303</v>
       </c>
-      <c r="L278" t="str">
-        <f>TEXT(DATE(1976,1,K278),"mmm")</f>
+      <c r="K278" t="str">
+        <f t="shared" si="4"/>
         <v>Oct</v>
+      </c>
+      <c r="L278" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.5">
@@ -13508,15 +13508,15 @@
       <c r="I279" t="s">
         <v>18</v>
       </c>
-      <c r="J279" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K279">
+      <c r="J279">
         <v>304</v>
       </c>
-      <c r="L279" t="str">
-        <f>TEXT(DATE(1976,1,K279),"mmm")</f>
+      <c r="K279" t="str">
+        <f t="shared" si="4"/>
         <v>Oct</v>
+      </c>
+      <c r="L279" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.5">
@@ -13547,15 +13547,15 @@
       <c r="I280" t="s">
         <v>18</v>
       </c>
-      <c r="J280" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K280">
+      <c r="J280">
         <v>305</v>
       </c>
-      <c r="L280" t="str">
-        <f>TEXT(DATE(1976,1,K280),"mmm")</f>
+      <c r="K280" t="str">
+        <f t="shared" si="4"/>
         <v>Oct</v>
+      </c>
+      <c r="L280" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.5">
@@ -13586,15 +13586,15 @@
       <c r="I281" t="s">
         <v>68</v>
       </c>
-      <c r="J281" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K281">
+      <c r="J281">
         <v>308</v>
       </c>
-      <c r="L281" t="str">
-        <f>TEXT(DATE(1976,1,K281),"mmm")</f>
+      <c r="K281" t="str">
+        <f t="shared" si="4"/>
         <v>Nov</v>
+      </c>
+      <c r="L281" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.5">
@@ -13625,15 +13625,15 @@
       <c r="I282" t="s">
         <v>189</v>
       </c>
-      <c r="J282" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K282">
+      <c r="J282">
         <v>310</v>
       </c>
-      <c r="L282" t="str">
-        <f>TEXT(DATE(1976,1,K282),"mmm")</f>
+      <c r="K282" t="str">
+        <f t="shared" si="4"/>
         <v>Nov</v>
+      </c>
+      <c r="L282" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.5">
@@ -13664,15 +13664,15 @@
       <c r="I283" t="s">
         <v>155</v>
       </c>
-      <c r="J283" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K283">
+      <c r="J283">
         <v>312</v>
       </c>
-      <c r="L283" t="str">
-        <f>TEXT(DATE(1976,1,K283),"mmm")</f>
+      <c r="K283" t="str">
+        <f t="shared" si="4"/>
         <v>Nov</v>
+      </c>
+      <c r="L283" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.5">
@@ -13703,15 +13703,15 @@
       <c r="I284" t="s">
         <v>122</v>
       </c>
-      <c r="J284" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K284">
+      <c r="J284">
         <v>314</v>
       </c>
-      <c r="L284" t="str">
-        <f>TEXT(DATE(1976,1,K284),"mmm")</f>
+      <c r="K284" t="str">
+        <f t="shared" si="4"/>
         <v>Nov</v>
+      </c>
+      <c r="L284" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.5">
@@ -13742,15 +13742,15 @@
       <c r="I285" t="s">
         <v>272</v>
       </c>
-      <c r="J285" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K285">
+      <c r="J285">
         <v>315</v>
       </c>
-      <c r="L285" t="str">
-        <f>TEXT(DATE(1976,1,K285),"mmm")</f>
+      <c r="K285" t="str">
+        <f t="shared" si="4"/>
         <v>Nov</v>
+      </c>
+      <c r="L285" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.5">
@@ -13781,15 +13781,15 @@
       <c r="I286" t="s">
         <v>76</v>
       </c>
-      <c r="J286" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K286">
+      <c r="J286">
         <v>316</v>
       </c>
-      <c r="L286" t="str">
-        <f>TEXT(DATE(1976,1,K286),"mmm")</f>
+      <c r="K286" t="str">
+        <f t="shared" si="4"/>
         <v>Nov</v>
+      </c>
+      <c r="L286" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.5">
@@ -13820,15 +13820,15 @@
       <c r="I287" t="s">
         <v>50</v>
       </c>
-      <c r="J287" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K287">
+      <c r="J287">
         <v>317</v>
       </c>
-      <c r="L287" t="str">
-        <f>TEXT(DATE(1976,1,K287),"mmm")</f>
+      <c r="K287" t="str">
+        <f t="shared" si="4"/>
         <v>Nov</v>
+      </c>
+      <c r="L287" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.5">
@@ -13859,15 +13859,15 @@
       <c r="I288" t="s">
         <v>189</v>
       </c>
-      <c r="J288" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K288">
+      <c r="J288">
         <v>318</v>
       </c>
-      <c r="L288" t="str">
-        <f>TEXT(DATE(1976,1,K288),"mmm")</f>
+      <c r="K288" t="str">
+        <f t="shared" si="4"/>
         <v>Nov</v>
+      </c>
+      <c r="L288" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.5">
@@ -13898,15 +13898,15 @@
       <c r="I289" t="s">
         <v>76</v>
       </c>
-      <c r="J289" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K289">
+      <c r="J289">
         <v>319</v>
       </c>
-      <c r="L289" t="str">
-        <f>TEXT(DATE(1976,1,K289),"mmm")</f>
+      <c r="K289" t="str">
+        <f t="shared" si="4"/>
         <v>Nov</v>
+      </c>
+      <c r="L289" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.5">
@@ -13937,15 +13937,15 @@
       <c r="I290" t="s">
         <v>128</v>
       </c>
-      <c r="J290" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K290">
+      <c r="J290">
         <v>320</v>
       </c>
-      <c r="L290" t="str">
-        <f>TEXT(DATE(1976,1,K290),"mmm")</f>
+      <c r="K290" t="str">
+        <f t="shared" si="4"/>
         <v>Nov</v>
+      </c>
+      <c r="L290" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.5">
@@ -13976,15 +13976,15 @@
       <c r="I291" t="s">
         <v>105</v>
       </c>
-      <c r="J291" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K291">
+      <c r="J291">
         <v>321</v>
       </c>
-      <c r="L291" t="str">
-        <f>TEXT(DATE(1976,1,K291),"mmm")</f>
+      <c r="K291" t="str">
+        <f t="shared" si="4"/>
         <v>Nov</v>
+      </c>
+      <c r="L291" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.5">
@@ -14015,15 +14015,15 @@
       <c r="I292" t="s">
         <v>68</v>
       </c>
-      <c r="J292" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K292">
+      <c r="J292">
         <v>322</v>
       </c>
-      <c r="L292" t="str">
-        <f>TEXT(DATE(1976,1,K292),"mmm")</f>
+      <c r="K292" t="str">
+        <f t="shared" si="4"/>
         <v>Nov</v>
+      </c>
+      <c r="L292" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.5">
@@ -14054,15 +14054,15 @@
       <c r="I293" t="s">
         <v>76</v>
       </c>
-      <c r="J293" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K293">
+      <c r="J293">
         <v>323</v>
       </c>
-      <c r="L293" t="str">
-        <f>TEXT(DATE(1976,1,K293),"mmm")</f>
+      <c r="K293" t="str">
+        <f t="shared" si="4"/>
         <v>Nov</v>
+      </c>
+      <c r="L293" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.5">
@@ -14093,15 +14093,15 @@
       <c r="I294" t="s">
         <v>316</v>
       </c>
-      <c r="J294" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K294">
+      <c r="J294">
         <v>324</v>
       </c>
-      <c r="L294" t="str">
-        <f>TEXT(DATE(1976,1,K294),"mmm")</f>
+      <c r="K294" t="str">
+        <f t="shared" si="4"/>
         <v>Nov</v>
+      </c>
+      <c r="L294" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.5">
@@ -14132,15 +14132,15 @@
       <c r="I295" t="s">
         <v>73</v>
       </c>
-      <c r="J295" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K295">
+      <c r="J295">
         <v>325</v>
       </c>
-      <c r="L295" t="str">
-        <f>TEXT(DATE(1976,1,K295),"mmm")</f>
+      <c r="K295" t="str">
+        <f t="shared" si="4"/>
         <v>Nov</v>
+      </c>
+      <c r="L295" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.5">
@@ -14171,15 +14171,15 @@
       <c r="I296" t="s">
         <v>155</v>
       </c>
-      <c r="J296" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K296">
+      <c r="J296">
         <v>326</v>
       </c>
-      <c r="L296" t="str">
-        <f>TEXT(DATE(1976,1,K296),"mmm")</f>
+      <c r="K296" t="str">
+        <f t="shared" si="4"/>
         <v>Nov</v>
+      </c>
+      <c r="L296" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.5">
@@ -14210,15 +14210,15 @@
       <c r="I297" t="s">
         <v>155</v>
       </c>
-      <c r="J297" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K297">
+      <c r="J297">
         <v>327</v>
       </c>
-      <c r="L297" t="str">
-        <f>TEXT(DATE(1976,1,K297),"mmm")</f>
+      <c r="K297" t="str">
+        <f t="shared" si="4"/>
         <v>Nov</v>
+      </c>
+      <c r="L297" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.5">
@@ -14249,15 +14249,15 @@
       <c r="I298" t="s">
         <v>163</v>
       </c>
-      <c r="J298" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K298">
+      <c r="J298">
         <v>328</v>
       </c>
-      <c r="L298" t="str">
-        <f>TEXT(DATE(1976,1,K298),"mmm")</f>
+      <c r="K298" t="str">
+        <f t="shared" si="4"/>
         <v>Nov</v>
+      </c>
+      <c r="L298" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.5">
@@ -14288,15 +14288,15 @@
       <c r="I299" t="s">
         <v>173</v>
       </c>
-      <c r="J299" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K299">
+      <c r="J299">
         <v>329</v>
       </c>
-      <c r="L299" t="str">
-        <f>TEXT(DATE(1976,1,K299),"mmm")</f>
+      <c r="K299" t="str">
+        <f t="shared" si="4"/>
         <v>Nov</v>
+      </c>
+      <c r="L299" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.5">
@@ -14327,15 +14327,15 @@
       <c r="I300" t="s">
         <v>155</v>
       </c>
-      <c r="J300" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K300">
+      <c r="J300">
         <v>330</v>
       </c>
-      <c r="L300" t="str">
-        <f>TEXT(DATE(1976,1,K300),"mmm")</f>
+      <c r="K300" t="str">
+        <f t="shared" si="4"/>
         <v>Nov</v>
+      </c>
+      <c r="L300" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.5">
@@ -14366,15 +14366,15 @@
       <c r="I301" t="s">
         <v>25</v>
       </c>
-      <c r="J301" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K301">
+      <c r="J301">
         <v>331</v>
       </c>
-      <c r="L301" t="str">
-        <f>TEXT(DATE(1976,1,K301),"mmm")</f>
+      <c r="K301" t="str">
+        <f t="shared" si="4"/>
         <v>Nov</v>
+      </c>
+      <c r="L301" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.5">
@@ -14405,15 +14405,15 @@
       <c r="I302" t="s">
         <v>68</v>
       </c>
-      <c r="J302" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K302">
+      <c r="J302">
         <v>332</v>
       </c>
-      <c r="L302" t="str">
-        <f>TEXT(DATE(1976,1,K302),"mmm")</f>
+      <c r="K302" t="str">
+        <f t="shared" si="4"/>
         <v>Nov</v>
+      </c>
+      <c r="L302" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.5">
@@ -14444,15 +14444,15 @@
       <c r="I303" t="s">
         <v>18</v>
       </c>
-      <c r="J303" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K303">
+      <c r="J303">
         <v>333</v>
       </c>
-      <c r="L303" t="str">
-        <f>TEXT(DATE(1976,1,K303),"mmm")</f>
+      <c r="K303" t="str">
+        <f t="shared" si="4"/>
         <v>Nov</v>
+      </c>
+      <c r="L303" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.5">
@@ -14483,15 +14483,15 @@
       <c r="I304" t="s">
         <v>9</v>
       </c>
-      <c r="J304" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K304">
+      <c r="J304">
         <v>334</v>
       </c>
-      <c r="L304" t="str">
-        <f>TEXT(DATE(1976,1,K304),"mmm")</f>
+      <c r="K304" t="str">
+        <f t="shared" si="4"/>
         <v>Nov</v>
+      </c>
+      <c r="L304" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.5">
@@ -14522,15 +14522,15 @@
       <c r="I305" t="s">
         <v>68</v>
       </c>
-      <c r="J305" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K305">
+      <c r="J305">
         <v>335</v>
       </c>
-      <c r="L305" t="str">
-        <f>TEXT(DATE(1976,1,K305),"mmm")</f>
+      <c r="K305" t="str">
+        <f t="shared" si="4"/>
         <v>Nov</v>
+      </c>
+      <c r="L305" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.5">
@@ -14561,15 +14561,15 @@
       <c r="I306" t="s">
         <v>76</v>
       </c>
-      <c r="J306" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K306">
+      <c r="J306">
         <v>336</v>
       </c>
-      <c r="L306" t="str">
-        <f>TEXT(DATE(1976,1,K306),"mmm")</f>
+      <c r="K306" t="str">
+        <f t="shared" si="4"/>
         <v>Dec</v>
+      </c>
+      <c r="L306" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.5">
@@ -14600,15 +14600,15 @@
       <c r="I307" t="s">
         <v>76</v>
       </c>
-      <c r="J307" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K307">
+      <c r="J307">
         <v>337</v>
       </c>
-      <c r="L307" t="str">
-        <f>TEXT(DATE(1976,1,K307),"mmm")</f>
+      <c r="K307" t="str">
+        <f t="shared" si="4"/>
         <v>Dec</v>
+      </c>
+      <c r="L307" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.5">
@@ -14639,15 +14639,15 @@
       <c r="I308" t="s">
         <v>76</v>
       </c>
-      <c r="J308" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K308">
+      <c r="J308">
         <v>338</v>
       </c>
-      <c r="L308" t="str">
-        <f>TEXT(DATE(1976,1,K308),"mmm")</f>
+      <c r="K308" t="str">
+        <f t="shared" si="4"/>
         <v>Dec</v>
+      </c>
+      <c r="L308" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.5">
@@ -14678,15 +14678,15 @@
       <c r="I309" t="s">
         <v>240</v>
       </c>
-      <c r="J309" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K309">
+      <c r="J309">
         <v>339</v>
       </c>
-      <c r="L309" t="str">
-        <f>TEXT(DATE(1976,1,K309),"mmm")</f>
+      <c r="K309" t="str">
+        <f t="shared" si="4"/>
         <v>Dec</v>
+      </c>
+      <c r="L309" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.5">
@@ -14717,15 +14717,15 @@
       <c r="I310" t="s">
         <v>25</v>
       </c>
-      <c r="J310" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K310">
+      <c r="J310">
         <v>340</v>
       </c>
-      <c r="L310" t="str">
-        <f>TEXT(DATE(1976,1,K310),"mmm")</f>
+      <c r="K310" t="str">
+        <f t="shared" si="4"/>
         <v>Dec</v>
+      </c>
+      <c r="L310" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.5">
@@ -14756,15 +14756,15 @@
       <c r="I311" t="s">
         <v>189</v>
       </c>
-      <c r="J311" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K311">
+      <c r="J311">
         <v>341</v>
       </c>
-      <c r="L311" t="str">
-        <f>TEXT(DATE(1976,1,K311),"mmm")</f>
+      <c r="K311" t="str">
+        <f t="shared" si="4"/>
         <v>Dec</v>
+      </c>
+      <c r="L311" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.5">
@@ -14795,15 +14795,15 @@
       <c r="I312" t="s">
         <v>76</v>
       </c>
-      <c r="J312" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K312">
+      <c r="J312">
         <v>342</v>
       </c>
-      <c r="L312" t="str">
-        <f>TEXT(DATE(1976,1,K312),"mmm")</f>
+      <c r="K312" t="str">
+        <f t="shared" si="4"/>
         <v>Dec</v>
+      </c>
+      <c r="L312" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.5">
@@ -14834,15 +14834,15 @@
       <c r="I313" t="s">
         <v>189</v>
       </c>
-      <c r="J313" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K313">
+      <c r="J313">
         <v>343</v>
       </c>
-      <c r="L313" t="str">
-        <f>TEXT(DATE(1976,1,K313),"mmm")</f>
+      <c r="K313" t="str">
+        <f t="shared" si="4"/>
         <v>Dec</v>
+      </c>
+      <c r="L313" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.5">
@@ -14873,15 +14873,15 @@
       <c r="I314" t="s">
         <v>122</v>
       </c>
-      <c r="J314" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K314">
+      <c r="J314">
         <v>344</v>
       </c>
-      <c r="L314" t="str">
-        <f>TEXT(DATE(1976,1,K314),"mmm")</f>
+      <c r="K314" t="str">
+        <f t="shared" si="4"/>
         <v>Dec</v>
+      </c>
+      <c r="L314" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.5">
@@ -14912,15 +14912,15 @@
       <c r="I315" t="s">
         <v>73</v>
       </c>
-      <c r="J315" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K315">
+      <c r="J315">
         <v>345</v>
       </c>
-      <c r="L315" t="str">
-        <f>TEXT(DATE(1976,1,K315),"mmm")</f>
+      <c r="K315" t="str">
+        <f t="shared" si="4"/>
         <v>Dec</v>
+      </c>
+      <c r="L315" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.5">
@@ -14951,15 +14951,15 @@
       <c r="I316" t="s">
         <v>128</v>
       </c>
-      <c r="J316" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K316">
+      <c r="J316">
         <v>346</v>
       </c>
-      <c r="L316" t="str">
-        <f>TEXT(DATE(1976,1,K316),"mmm")</f>
+      <c r="K316" t="str">
+        <f t="shared" si="4"/>
         <v>Dec</v>
+      </c>
+      <c r="L316" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.5">
@@ -14990,15 +14990,15 @@
       <c r="I317" t="s">
         <v>68</v>
       </c>
-      <c r="J317" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K317">
+      <c r="J317">
         <v>347</v>
       </c>
-      <c r="L317" t="str">
-        <f>TEXT(DATE(1976,1,K317),"mmm")</f>
+      <c r="K317" t="str">
+        <f t="shared" si="4"/>
         <v>Dec</v>
+      </c>
+      <c r="L317" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.5">
@@ -15029,15 +15029,15 @@
       <c r="I318" t="s">
         <v>68</v>
       </c>
-      <c r="J318" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K318">
+      <c r="J318">
         <v>348</v>
       </c>
-      <c r="L318" t="str">
-        <f>TEXT(DATE(1976,1,K318),"mmm")</f>
+      <c r="K318" t="str">
+        <f t="shared" si="4"/>
         <v>Dec</v>
+      </c>
+      <c r="L318" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.5">
@@ -15068,15 +15068,15 @@
       <c r="I319" t="s">
         <v>128</v>
       </c>
-      <c r="J319" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K319">
+      <c r="J319">
         <v>349</v>
       </c>
-      <c r="L319" t="str">
-        <f>TEXT(DATE(1976,1,K319),"mmm")</f>
+      <c r="K319" t="str">
+        <f t="shared" si="4"/>
         <v>Dec</v>
+      </c>
+      <c r="L319" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.5">
@@ -15107,15 +15107,15 @@
       <c r="I320" t="s">
         <v>76</v>
       </c>
-      <c r="J320" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K320">
+      <c r="J320">
         <v>350</v>
       </c>
-      <c r="L320" t="str">
-        <f>TEXT(DATE(1976,1,K320),"mmm")</f>
+      <c r="K320" t="str">
+        <f t="shared" si="4"/>
         <v>Dec</v>
+      </c>
+      <c r="L320" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.5">
@@ -15146,15 +15146,15 @@
       <c r="I321" t="s">
         <v>50</v>
       </c>
-      <c r="J321" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K321">
+      <c r="J321">
         <v>351</v>
       </c>
-      <c r="L321" t="str">
-        <f>TEXT(DATE(1976,1,K321),"mmm")</f>
+      <c r="K321" t="str">
+        <f t="shared" si="4"/>
         <v>Dec</v>
+      </c>
+      <c r="L321" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.5">
@@ -15185,15 +15185,15 @@
       <c r="I322" t="s">
         <v>68</v>
       </c>
-      <c r="J322" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K322">
+      <c r="J322">
         <v>352</v>
       </c>
-      <c r="L322" t="str">
-        <f>TEXT(DATE(1976,1,K322),"mmm")</f>
+      <c r="K322" t="str">
+        <f t="shared" si="4"/>
         <v>Dec</v>
+      </c>
+      <c r="L322" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.5">
@@ -15224,15 +15224,15 @@
       <c r="I323" t="s">
         <v>68</v>
       </c>
-      <c r="J323" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K323">
+      <c r="J323">
         <v>353</v>
       </c>
-      <c r="L323" t="str">
-        <f>TEXT(DATE(1976,1,K323),"mmm")</f>
+      <c r="K323" t="str">
+        <f t="shared" si="4"/>
         <v>Dec</v>
+      </c>
+      <c r="L323" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.5">
@@ -15263,15 +15263,15 @@
       <c r="I324" t="s">
         <v>25</v>
       </c>
-      <c r="J324" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K324">
+      <c r="J324">
         <v>354</v>
       </c>
-      <c r="L324" t="str">
-        <f>TEXT(DATE(1976,1,K324),"mmm")</f>
+      <c r="K324" t="str">
+        <f t="shared" ref="K324:K333" si="5">TEXT(DATE(1976,1,J324),"mmm")</f>
         <v>Dec</v>
+      </c>
+      <c r="L324" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.5">
@@ -15302,15 +15302,15 @@
       <c r="I325" t="s">
         <v>128</v>
       </c>
-      <c r="J325" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K325">
+      <c r="J325">
         <v>355</v>
       </c>
-      <c r="L325" t="str">
-        <f>TEXT(DATE(1976,1,K325),"mmm")</f>
+      <c r="K325" t="str">
+        <f t="shared" si="5"/>
         <v>Dec</v>
+      </c>
+      <c r="L325" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.5">
@@ -15341,15 +15341,15 @@
       <c r="I326" t="s">
         <v>68</v>
       </c>
-      <c r="J326" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K326">
+      <c r="J326">
         <v>356</v>
       </c>
-      <c r="L326" t="str">
-        <f>TEXT(DATE(1976,1,K326),"mmm")</f>
+      <c r="K326" t="str">
+        <f t="shared" si="5"/>
         <v>Dec</v>
+      </c>
+      <c r="L326" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.5">
@@ -15380,15 +15380,15 @@
       <c r="I327" t="s">
         <v>189</v>
       </c>
-      <c r="J327" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K327">
+      <c r="J327">
         <v>357</v>
       </c>
-      <c r="L327" t="str">
-        <f>TEXT(DATE(1976,1,K327),"mmm")</f>
+      <c r="K327" t="str">
+        <f t="shared" si="5"/>
         <v>Dec</v>
+      </c>
+      <c r="L327" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.5">
@@ -15419,15 +15419,15 @@
       <c r="I328" t="s">
         <v>18</v>
       </c>
-      <c r="J328" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K328">
+      <c r="J328">
         <v>358</v>
       </c>
-      <c r="L328" t="str">
-        <f>TEXT(DATE(1976,1,K328),"mmm")</f>
+      <c r="K328" t="str">
+        <f t="shared" si="5"/>
         <v>Dec</v>
+      </c>
+      <c r="L328" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.5">
@@ -15458,15 +15458,15 @@
       <c r="I329" t="s">
         <v>128</v>
       </c>
-      <c r="J329" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K329">
+      <c r="J329">
         <v>359</v>
       </c>
-      <c r="L329" t="str">
-        <f>TEXT(DATE(1976,1,K329),"mmm")</f>
+      <c r="K329" t="str">
+        <f t="shared" si="5"/>
         <v>Dec</v>
+      </c>
+      <c r="L329" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.5">
@@ -15497,15 +15497,15 @@
       <c r="I330" t="s">
         <v>76</v>
       </c>
-      <c r="J330" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K330">
+      <c r="J330">
         <v>362</v>
       </c>
-      <c r="L330" t="str">
-        <f>TEXT(DATE(1976,1,K330),"mmm")</f>
+      <c r="K330" t="str">
+        <f t="shared" si="5"/>
         <v>Dec</v>
+      </c>
+      <c r="L330" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.5">
@@ -15536,15 +15536,15 @@
       <c r="I331" t="s">
         <v>128</v>
       </c>
-      <c r="J331" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K331">
+      <c r="J331">
         <v>363</v>
       </c>
-      <c r="L331" t="str">
-        <f>TEXT(DATE(1976,1,K331),"mmm")</f>
+      <c r="K331" t="str">
+        <f t="shared" si="5"/>
         <v>Dec</v>
+      </c>
+      <c r="L331" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.5">
@@ -15575,15 +15575,15 @@
       <c r="I332" t="s">
         <v>73</v>
       </c>
-      <c r="J332" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K332">
+      <c r="J332">
         <v>364</v>
       </c>
-      <c r="L332" t="str">
-        <f>TEXT(DATE(1976,1,K332),"mmm")</f>
+      <c r="K332" t="str">
+        <f t="shared" si="5"/>
         <v>Dec</v>
+      </c>
+      <c r="L332" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.5">
@@ -15614,15 +15614,15 @@
       <c r="I333" t="s">
         <v>18</v>
       </c>
-      <c r="J333" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="K333">
+      <c r="J333">
         <v>365</v>
       </c>
-      <c r="L333" t="str">
-        <f>TEXT(DATE(1976,1,K333),"mmm")</f>
+      <c r="K333" t="str">
+        <f t="shared" si="5"/>
         <v>Dec</v>
+      </c>
+      <c r="L333" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustav Surface\Google Drive\DTU\02450 Introduktion til Machine Learning og Data Mining F20\02450Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09526B49-464B-4524-A8F6-2DC05252F0CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEAAD5E-CCD8-4E7B-B45A-A746717A5DA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="18426" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2621,8 +2621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D309" workbookViewId="0">
-      <selection activeCell="H316" sqref="H316"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -2636,9 +2636,9 @@
     <col min="7" max="7" width="21.17578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.9375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.29296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.29296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.5">
@@ -2669,14 +2669,14 @@
       <c r="I1" t="s">
         <v>732</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="K1" t="s">
         <v>723</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>724</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.5">
@@ -2708,13 +2708,13 @@
         <v>721</v>
       </c>
       <c r="J2" t="s">
+        <v>740</v>
+      </c>
+      <c r="K2" t="s">
         <v>0</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>722</v>
-      </c>
-      <c r="L2" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.5">
@@ -2746,13 +2746,13 @@
         <v>726</v>
       </c>
       <c r="J3" t="s">
+        <v>741</v>
+      </c>
+      <c r="K3" t="s">
         <v>727</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>736</v>
-      </c>
-      <c r="L3" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.5">
@@ -2783,15 +2783,15 @@
       <c r="I4" t="s">
         <v>9</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K4">
         <v>3</v>
       </c>
-      <c r="K4" t="str">
-        <f t="shared" ref="K4:K67" si="0">TEXT(DATE(1976,1,J4),"mmm")</f>
+      <c r="L4" t="str">
+        <f>TEXT(DATE(1976,1,K4),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.5">
@@ -2822,15 +2822,15 @@
       <c r="I5" t="s">
         <v>18</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K5">
         <v>4</v>
       </c>
-      <c r="K5" t="str">
-        <f t="shared" si="0"/>
+      <c r="L5" t="str">
+        <f>TEXT(DATE(1976,1,K5),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.5">
@@ -2861,15 +2861,15 @@
       <c r="I6" t="s">
         <v>25</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K6">
         <v>5</v>
       </c>
-      <c r="K6" t="str">
-        <f t="shared" si="0"/>
+      <c r="L6" t="str">
+        <f>TEXT(DATE(1976,1,K6),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.5">
@@ -2900,15 +2900,15 @@
       <c r="I7" t="s">
         <v>25</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K7">
         <v>6</v>
       </c>
-      <c r="K7" t="str">
-        <f t="shared" si="0"/>
+      <c r="L7" t="str">
+        <f>TEXT(DATE(1976,1,K7),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.5">
@@ -2939,15 +2939,15 @@
       <c r="I8" t="s">
         <v>18</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K8">
         <v>7</v>
       </c>
-      <c r="K8" t="str">
-        <f t="shared" si="0"/>
+      <c r="L8" t="str">
+        <f>TEXT(DATE(1976,1,K8),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.5">
@@ -2978,15 +2978,15 @@
       <c r="I9" t="s">
         <v>9</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K9">
         <v>8</v>
       </c>
-      <c r="K9" t="str">
-        <f t="shared" si="0"/>
+      <c r="L9" t="str">
+        <f>TEXT(DATE(1976,1,K9),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.5">
@@ -3017,15 +3017,15 @@
       <c r="I10" t="s">
         <v>50</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K10">
         <v>9</v>
       </c>
-      <c r="K10" t="str">
-        <f t="shared" si="0"/>
+      <c r="L10" t="str">
+        <f>TEXT(DATE(1976,1,K10),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.5">
@@ -3056,15 +3056,15 @@
       <c r="I11" t="s">
         <v>50</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K11">
         <v>10</v>
       </c>
-      <c r="K11" t="str">
-        <f t="shared" si="0"/>
+      <c r="L11" t="str">
+        <f>TEXT(DATE(1976,1,K11),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.5">
@@ -3095,15 +3095,15 @@
       <c r="I12" t="s">
         <v>50</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K12">
         <v>11</v>
       </c>
-      <c r="K12" t="str">
-        <f t="shared" si="0"/>
+      <c r="L12" t="str">
+        <f>TEXT(DATE(1976,1,K12),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.5">
@@ -3134,15 +3134,15 @@
       <c r="I13" t="s">
         <v>68</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K13">
         <v>12</v>
       </c>
-      <c r="K13" t="str">
-        <f t="shared" si="0"/>
+      <c r="L13" t="str">
+        <f>TEXT(DATE(1976,1,K13),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.5">
@@ -3173,15 +3173,15 @@
       <c r="I14" t="s">
         <v>73</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K14">
         <v>13</v>
       </c>
-      <c r="K14" t="str">
-        <f t="shared" si="0"/>
+      <c r="L14" t="str">
+        <f>TEXT(DATE(1976,1,K14),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.5">
@@ -3212,15 +3212,15 @@
       <c r="I15" t="s">
         <v>76</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K15">
         <v>14</v>
       </c>
-      <c r="K15" t="str">
-        <f t="shared" si="0"/>
+      <c r="L15" t="str">
+        <f>TEXT(DATE(1976,1,K15),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.5">
@@ -3251,15 +3251,15 @@
       <c r="I16" t="s">
         <v>9</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K16">
         <v>15</v>
       </c>
-      <c r="K16" t="str">
-        <f t="shared" si="0"/>
+      <c r="L16" t="str">
+        <f>TEXT(DATE(1976,1,K16),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.5">
@@ -3290,15 +3290,15 @@
       <c r="I17" t="s">
         <v>76</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K17">
         <v>16</v>
       </c>
-      <c r="K17" t="str">
-        <f t="shared" si="0"/>
+      <c r="L17" t="str">
+        <f>TEXT(DATE(1976,1,K17),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.5">
@@ -3329,15 +3329,15 @@
       <c r="I18" t="s">
         <v>76</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K18">
         <v>17</v>
       </c>
-      <c r="K18" t="str">
-        <f t="shared" si="0"/>
+      <c r="L18" t="str">
+        <f>TEXT(DATE(1976,1,K18),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.5">
@@ -3368,15 +3368,15 @@
       <c r="I19" t="s">
         <v>68</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K19">
         <v>18</v>
       </c>
-      <c r="K19" t="str">
-        <f t="shared" si="0"/>
+      <c r="L19" t="str">
+        <f>TEXT(DATE(1976,1,K19),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.5">
@@ -3407,15 +3407,15 @@
       <c r="I20" t="s">
         <v>102</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K20">
         <v>19</v>
       </c>
-      <c r="K20" t="str">
-        <f t="shared" si="0"/>
+      <c r="L20" t="str">
+        <f>TEXT(DATE(1976,1,K20),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.5">
@@ -3446,15 +3446,15 @@
       <c r="I21" t="s">
         <v>105</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K21">
         <v>20</v>
       </c>
-      <c r="K21" t="str">
-        <f t="shared" si="0"/>
+      <c r="L21" t="str">
+        <f>TEXT(DATE(1976,1,K21),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.5">
@@ -3485,15 +3485,15 @@
       <c r="I22" t="s">
         <v>9</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K22">
         <v>21</v>
       </c>
-      <c r="K22" t="str">
-        <f t="shared" si="0"/>
+      <c r="L22" t="str">
+        <f>TEXT(DATE(1976,1,K22),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.5">
@@ -3524,15 +3524,15 @@
       <c r="I23" t="s">
         <v>76</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K23">
         <v>22</v>
       </c>
-      <c r="K23" t="str">
-        <f t="shared" si="0"/>
+      <c r="L23" t="str">
+        <f>TEXT(DATE(1976,1,K23),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.5">
@@ -3563,15 +3563,15 @@
       <c r="I24" t="s">
         <v>68</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K24">
         <v>23</v>
       </c>
-      <c r="K24" t="str">
-        <f t="shared" si="0"/>
+      <c r="L24" t="str">
+        <f>TEXT(DATE(1976,1,K24),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.5">
@@ -3602,15 +3602,15 @@
       <c r="I25" t="s">
         <v>105</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K25">
         <v>24</v>
       </c>
-      <c r="K25" t="str">
-        <f t="shared" si="0"/>
+      <c r="L25" t="str">
+        <f>TEXT(DATE(1976,1,K25),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.5">
@@ -3641,15 +3641,15 @@
       <c r="I26" t="s">
         <v>122</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K26">
         <v>25</v>
       </c>
-      <c r="K26" t="str">
-        <f t="shared" si="0"/>
+      <c r="L26" t="str">
+        <f>TEXT(DATE(1976,1,K26),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.5">
@@ -3680,15 +3680,15 @@
       <c r="I27" t="s">
         <v>128</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K27">
         <v>27</v>
       </c>
-      <c r="K27" t="str">
-        <f t="shared" si="0"/>
+      <c r="L27" t="str">
+        <f>TEXT(DATE(1976,1,K27),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.5">
@@ -3719,15 +3719,15 @@
       <c r="I28" t="s">
         <v>68</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K28">
         <v>29</v>
       </c>
-      <c r="K28" t="str">
-        <f t="shared" si="0"/>
+      <c r="L28" t="str">
+        <f>TEXT(DATE(1976,1,K28),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.5">
@@ -3758,15 +3758,15 @@
       <c r="I29" t="s">
         <v>50</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K29">
         <v>30</v>
       </c>
-      <c r="K29" t="str">
-        <f t="shared" si="0"/>
+      <c r="L29" t="str">
+        <f>TEXT(DATE(1976,1,K29),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.5">
@@ -3797,15 +3797,15 @@
       <c r="I30" t="s">
         <v>73</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K30">
         <v>31</v>
       </c>
-      <c r="K30" t="str">
-        <f t="shared" si="0"/>
+      <c r="L30" t="str">
+        <f>TEXT(DATE(1976,1,K30),"mmm")</f>
         <v>Jan</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.5">
@@ -3836,15 +3836,15 @@
       <c r="I31" t="s">
         <v>50</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K31">
         <v>32</v>
       </c>
-      <c r="K31" t="str">
-        <f t="shared" si="0"/>
+      <c r="L31" t="str">
+        <f>TEXT(DATE(1976,1,K31),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.5">
@@ -3875,15 +3875,15 @@
       <c r="I32" t="s">
         <v>150</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K32">
         <v>33</v>
       </c>
-      <c r="K32" t="str">
-        <f t="shared" si="0"/>
+      <c r="L32" t="str">
+        <f>TEXT(DATE(1976,1,K32),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.5">
@@ -3914,15 +3914,15 @@
       <c r="I33" t="s">
         <v>155</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K33">
         <v>34</v>
       </c>
-      <c r="K33" t="str">
-        <f t="shared" si="0"/>
+      <c r="L33" t="str">
+        <f>TEXT(DATE(1976,1,K33),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.5">
@@ -3953,15 +3953,15 @@
       <c r="I34" t="s">
         <v>18</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K34">
         <v>35</v>
       </c>
-      <c r="K34" t="str">
-        <f t="shared" si="0"/>
+      <c r="L34" t="str">
+        <f>TEXT(DATE(1976,1,K34),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.5">
@@ -3992,15 +3992,15 @@
       <c r="I35" t="s">
         <v>76</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K35">
         <v>36</v>
       </c>
-      <c r="K35" t="str">
-        <f t="shared" si="0"/>
+      <c r="L35" t="str">
+        <f>TEXT(DATE(1976,1,K35),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.5">
@@ -4031,15 +4031,15 @@
       <c r="I36" t="s">
         <v>25</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K36">
         <v>37</v>
       </c>
-      <c r="K36" t="str">
-        <f t="shared" si="0"/>
+      <c r="L36" t="str">
+        <f>TEXT(DATE(1976,1,K36),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.5">
@@ -4070,15 +4070,15 @@
       <c r="I37" t="s">
         <v>175</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K37">
         <v>38</v>
       </c>
-      <c r="K37" t="str">
-        <f t="shared" si="0"/>
+      <c r="L37" t="str">
+        <f>TEXT(DATE(1976,1,K37),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.5">
@@ -4109,15 +4109,15 @@
       <c r="I38" t="s">
         <v>9</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K38">
         <v>39</v>
       </c>
-      <c r="K38" t="str">
-        <f t="shared" si="0"/>
+      <c r="L38" t="str">
+        <f>TEXT(DATE(1976,1,K38),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.5">
@@ -4148,15 +4148,15 @@
       <c r="I39" t="s">
         <v>175</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K39">
         <v>40</v>
       </c>
-      <c r="K39" t="str">
-        <f t="shared" si="0"/>
+      <c r="L39" t="str">
+        <f>TEXT(DATE(1976,1,K39),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.5">
@@ -4187,15 +4187,15 @@
       <c r="I40" t="s">
         <v>189</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K40">
         <v>41</v>
       </c>
-      <c r="K40" t="str">
-        <f t="shared" si="0"/>
+      <c r="L40" t="str">
+        <f>TEXT(DATE(1976,1,K40),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.5">
@@ -4226,15 +4226,15 @@
       <c r="I41" t="s">
         <v>189</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K41">
         <v>42</v>
       </c>
-      <c r="K41" t="str">
-        <f t="shared" si="0"/>
+      <c r="L41" t="str">
+        <f>TEXT(DATE(1976,1,K41),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.5">
@@ -4265,15 +4265,15 @@
       <c r="I42" t="s">
         <v>189</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K42">
         <v>43</v>
       </c>
-      <c r="K42" t="str">
-        <f t="shared" si="0"/>
+      <c r="L42" t="str">
+        <f>TEXT(DATE(1976,1,K42),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.5">
@@ -4304,15 +4304,15 @@
       <c r="I43" t="s">
         <v>76</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K43">
         <v>44</v>
       </c>
-      <c r="K43" t="str">
-        <f t="shared" si="0"/>
+      <c r="L43" t="str">
+        <f>TEXT(DATE(1976,1,K43),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.5">
@@ -4343,15 +4343,15 @@
       <c r="I44" t="s">
         <v>18</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K44">
         <v>45</v>
       </c>
-      <c r="K44" t="str">
-        <f t="shared" si="0"/>
+      <c r="L44" t="str">
+        <f>TEXT(DATE(1976,1,K44),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.5">
@@ -4382,15 +4382,15 @@
       <c r="I45" t="s">
         <v>9</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K45">
         <v>46</v>
       </c>
-      <c r="K45" t="str">
-        <f t="shared" si="0"/>
+      <c r="L45" t="str">
+        <f>TEXT(DATE(1976,1,K45),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.5">
@@ -4421,15 +4421,15 @@
       <c r="I46" t="s">
         <v>76</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K46">
         <v>47</v>
       </c>
-      <c r="K46" t="str">
-        <f t="shared" si="0"/>
+      <c r="L46" t="str">
+        <f>TEXT(DATE(1976,1,K46),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.5">
@@ -4460,15 +4460,15 @@
       <c r="I47" t="s">
         <v>76</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K47">
         <v>48</v>
       </c>
-      <c r="K47" t="str">
-        <f t="shared" si="0"/>
+      <c r="L47" t="str">
+        <f>TEXT(DATE(1976,1,K47),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.5">
@@ -4499,15 +4499,15 @@
       <c r="I48" t="s">
         <v>73</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K48">
         <v>49</v>
       </c>
-      <c r="K48" t="str">
-        <f t="shared" si="0"/>
+      <c r="L48" t="str">
+        <f>TEXT(DATE(1976,1,K48),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.5">
@@ -4538,15 +4538,15 @@
       <c r="I49" t="s">
         <v>189</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K49">
         <v>51</v>
       </c>
-      <c r="K49" t="str">
-        <f t="shared" si="0"/>
+      <c r="L49" t="str">
+        <f>TEXT(DATE(1976,1,K49),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.5">
@@ -4577,15 +4577,15 @@
       <c r="I50" t="s">
         <v>189</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K50">
         <v>52</v>
       </c>
-      <c r="K50" t="str">
-        <f t="shared" si="0"/>
+      <c r="L50" t="str">
+        <f>TEXT(DATE(1976,1,K50),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.5">
@@ -4616,15 +4616,15 @@
       <c r="I51" t="s">
         <v>189</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K51">
         <v>53</v>
       </c>
-      <c r="K51" t="str">
-        <f t="shared" si="0"/>
+      <c r="L51" t="str">
+        <f>TEXT(DATE(1976,1,K51),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.5">
@@ -4655,15 +4655,15 @@
       <c r="I52" t="s">
         <v>189</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K52">
         <v>54</v>
       </c>
-      <c r="K52" t="str">
-        <f t="shared" si="0"/>
+      <c r="L52" t="str">
+        <f>TEXT(DATE(1976,1,K52),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.5">
@@ -4694,15 +4694,15 @@
       <c r="I53" t="s">
         <v>189</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K53">
         <v>55</v>
       </c>
-      <c r="K53" t="str">
-        <f t="shared" si="0"/>
+      <c r="L53" t="str">
+        <f>TEXT(DATE(1976,1,K53),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.5">
@@ -4733,15 +4733,15 @@
       <c r="I54" t="s">
         <v>68</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K54">
         <v>56</v>
       </c>
-      <c r="K54" t="str">
-        <f t="shared" si="0"/>
+      <c r="L54" t="str">
+        <f>TEXT(DATE(1976,1,K54),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.5">
@@ -4772,15 +4772,15 @@
       <c r="I55" t="s">
         <v>68</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K55">
         <v>57</v>
       </c>
-      <c r="K55" t="str">
-        <f t="shared" si="0"/>
+      <c r="L55" t="str">
+        <f>TEXT(DATE(1976,1,K55),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.5">
@@ -4811,15 +4811,15 @@
       <c r="I56" t="s">
         <v>240</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K56">
         <v>58</v>
       </c>
-      <c r="K56" t="str">
-        <f t="shared" si="0"/>
+      <c r="L56" t="str">
+        <f>TEXT(DATE(1976,1,K56),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.5">
@@ -4850,15 +4850,15 @@
       <c r="I57" t="s">
         <v>73</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K57">
         <v>59</v>
       </c>
-      <c r="K57" t="str">
-        <f t="shared" si="0"/>
+      <c r="L57" t="str">
+        <f>TEXT(DATE(1976,1,K57),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.5">
@@ -4889,15 +4889,15 @@
       <c r="I58" t="s">
         <v>73</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K58">
         <v>60</v>
       </c>
-      <c r="K58" t="str">
-        <f t="shared" si="0"/>
+      <c r="L58" t="str">
+        <f>TEXT(DATE(1976,1,K58),"mmm")</f>
         <v>Feb</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.5">
@@ -4928,15 +4928,15 @@
       <c r="I59" t="s">
         <v>240</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K59">
         <v>61</v>
       </c>
-      <c r="K59" t="str">
-        <f t="shared" si="0"/>
+      <c r="L59" t="str">
+        <f>TEXT(DATE(1976,1,K59),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.5">
@@ -4967,15 +4967,15 @@
       <c r="I60" t="s">
         <v>189</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K60">
         <v>62</v>
       </c>
-      <c r="K60" t="str">
-        <f t="shared" si="0"/>
+      <c r="L60" t="str">
+        <f>TEXT(DATE(1976,1,K60),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.5">
@@ -5006,15 +5006,15 @@
       <c r="I61" t="s">
         <v>76</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K61">
         <v>63</v>
       </c>
-      <c r="K61" t="str">
-        <f t="shared" si="0"/>
+      <c r="L61" t="str">
+        <f>TEXT(DATE(1976,1,K61),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.5">
@@ -5045,15 +5045,15 @@
       <c r="I62" t="s">
         <v>105</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K62">
         <v>65</v>
       </c>
-      <c r="K62" t="str">
-        <f t="shared" si="0"/>
+      <c r="L62" t="str">
+        <f>TEXT(DATE(1976,1,K62),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.5">
@@ -5084,15 +5084,15 @@
       <c r="I63" t="s">
         <v>105</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K63">
         <v>66</v>
       </c>
-      <c r="K63" t="str">
-        <f t="shared" si="0"/>
+      <c r="L63" t="str">
+        <f>TEXT(DATE(1976,1,K63),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.5">
@@ -5123,15 +5123,15 @@
       <c r="I64" t="s">
         <v>105</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K64">
         <v>67</v>
       </c>
-      <c r="K64" t="str">
-        <f t="shared" si="0"/>
+      <c r="L64" t="str">
+        <f>TEXT(DATE(1976,1,K64),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.5">
@@ -5162,15 +5162,15 @@
       <c r="I65" t="s">
         <v>18</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K65">
         <v>68</v>
       </c>
-      <c r="K65" t="str">
-        <f t="shared" si="0"/>
+      <c r="L65" t="str">
+        <f>TEXT(DATE(1976,1,K65),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.5">
@@ -5201,15 +5201,15 @@
       <c r="I66" t="s">
         <v>105</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K66">
         <v>69</v>
       </c>
-      <c r="K66" t="str">
-        <f t="shared" si="0"/>
+      <c r="L66" t="str">
+        <f>TEXT(DATE(1976,1,K66),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.5">
@@ -5240,15 +5240,15 @@
       <c r="I67" t="s">
         <v>76</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K67">
         <v>70</v>
       </c>
-      <c r="K67" t="str">
-        <f t="shared" si="0"/>
+      <c r="L67" t="str">
+        <f>TEXT(DATE(1976,1,K67),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L67" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.5">
@@ -5279,15 +5279,15 @@
       <c r="I68" t="s">
         <v>50</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K68">
         <v>71</v>
       </c>
-      <c r="K68" t="str">
-        <f t="shared" ref="K68:K131" si="1">TEXT(DATE(1976,1,J68),"mmm")</f>
+      <c r="L68" t="str">
+        <f>TEXT(DATE(1976,1,K68),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L68" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.5">
@@ -5318,15 +5318,15 @@
       <c r="I69" t="s">
         <v>189</v>
       </c>
-      <c r="J69">
+      <c r="J69" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K69">
         <v>72</v>
       </c>
-      <c r="K69" t="str">
-        <f t="shared" si="1"/>
+      <c r="L69" t="str">
+        <f>TEXT(DATE(1976,1,K69),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L69" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.5">
@@ -5357,15 +5357,15 @@
       <c r="I70" t="s">
         <v>189</v>
       </c>
-      <c r="J70">
+      <c r="J70" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K70">
         <v>73</v>
       </c>
-      <c r="K70" t="str">
-        <f t="shared" si="1"/>
+      <c r="L70" t="str">
+        <f>TEXT(DATE(1976,1,K70),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L70" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.5">
@@ -5396,15 +5396,15 @@
       <c r="I71" t="s">
         <v>68</v>
       </c>
-      <c r="J71">
+      <c r="J71" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K71">
         <v>74</v>
       </c>
-      <c r="K71" t="str">
-        <f t="shared" si="1"/>
+      <c r="L71" t="str">
+        <f>TEXT(DATE(1976,1,K71),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L71" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.5">
@@ -5435,15 +5435,15 @@
       <c r="I72" t="s">
         <v>163</v>
       </c>
-      <c r="J72">
+      <c r="J72" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K72">
         <v>75</v>
       </c>
-      <c r="K72" t="str">
-        <f t="shared" si="1"/>
+      <c r="L72" t="str">
+        <f>TEXT(DATE(1976,1,K72),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L72" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.5">
@@ -5474,15 +5474,15 @@
       <c r="I73" t="s">
         <v>122</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K73">
         <v>76</v>
       </c>
-      <c r="K73" t="str">
-        <f t="shared" si="1"/>
+      <c r="L73" t="str">
+        <f>TEXT(DATE(1976,1,K73),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.5">
@@ -5513,15 +5513,15 @@
       <c r="I74" t="s">
         <v>128</v>
       </c>
-      <c r="J74">
+      <c r="J74" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K74">
         <v>77</v>
       </c>
-      <c r="K74" t="str">
-        <f t="shared" si="1"/>
+      <c r="L74" t="str">
+        <f>TEXT(DATE(1976,1,K74),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L74" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.5">
@@ -5552,15 +5552,15 @@
       <c r="I75" t="s">
         <v>301</v>
       </c>
-      <c r="J75">
+      <c r="J75" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K75">
         <v>78</v>
       </c>
-      <c r="K75" t="str">
-        <f t="shared" si="1"/>
+      <c r="L75" t="str">
+        <f>TEXT(DATE(1976,1,K75),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L75" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.5">
@@ -5591,15 +5591,15 @@
       <c r="I76" t="s">
         <v>105</v>
       </c>
-      <c r="J76">
+      <c r="J76" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K76">
         <v>79</v>
       </c>
-      <c r="K76" t="str">
-        <f t="shared" si="1"/>
+      <c r="L76" t="str">
+        <f>TEXT(DATE(1976,1,K76),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L76" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.5">
@@ -5630,15 +5630,15 @@
       <c r="I77" t="s">
         <v>105</v>
       </c>
-      <c r="J77">
+      <c r="J77" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K77">
         <v>80</v>
       </c>
-      <c r="K77" t="str">
-        <f t="shared" si="1"/>
+      <c r="L77" t="str">
+        <f>TEXT(DATE(1976,1,K77),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.5">
@@ -5669,15 +5669,15 @@
       <c r="I78" t="s">
         <v>189</v>
       </c>
-      <c r="J78">
+      <c r="J78" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K78">
         <v>81</v>
       </c>
-      <c r="K78" t="str">
-        <f t="shared" si="1"/>
+      <c r="L78" t="str">
+        <f>TEXT(DATE(1976,1,K78),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L78" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.5">
@@ -5708,15 +5708,15 @@
       <c r="I79" t="s">
         <v>76</v>
       </c>
-      <c r="J79">
+      <c r="J79" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K79">
         <v>82</v>
       </c>
-      <c r="K79" t="str">
-        <f t="shared" si="1"/>
+      <c r="L79" t="str">
+        <f>TEXT(DATE(1976,1,K79),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L79" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.5">
@@ -5747,15 +5747,15 @@
       <c r="I80" t="s">
         <v>9</v>
       </c>
-      <c r="J80">
+      <c r="J80" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K80">
         <v>83</v>
       </c>
-      <c r="K80" t="str">
-        <f t="shared" si="1"/>
+      <c r="L80" t="str">
+        <f>TEXT(DATE(1976,1,K80),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L80" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.5">
@@ -5786,15 +5786,15 @@
       <c r="I81" t="s">
         <v>25</v>
       </c>
-      <c r="J81">
+      <c r="J81" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K81">
         <v>85</v>
       </c>
-      <c r="K81" t="str">
-        <f t="shared" si="1"/>
+      <c r="L81" t="str">
+        <f>TEXT(DATE(1976,1,K81),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.5">
@@ -5825,15 +5825,15 @@
       <c r="I82" t="s">
         <v>18</v>
       </c>
-      <c r="J82">
+      <c r="J82" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K82">
         <v>86</v>
       </c>
-      <c r="K82" t="str">
-        <f t="shared" si="1"/>
+      <c r="L82" t="str">
+        <f>TEXT(DATE(1976,1,K82),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L82" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.5">
@@ -5864,15 +5864,15 @@
       <c r="I83" t="s">
         <v>68</v>
       </c>
-      <c r="J83">
+      <c r="J83" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K83">
         <v>87</v>
       </c>
-      <c r="K83" t="str">
-        <f t="shared" si="1"/>
+      <c r="L83" t="str">
+        <f>TEXT(DATE(1976,1,K83),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L83" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.5">
@@ -5903,15 +5903,15 @@
       <c r="I84" t="s">
         <v>68</v>
       </c>
-      <c r="J84">
+      <c r="J84" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K84">
         <v>88</v>
       </c>
-      <c r="K84" t="str">
-        <f t="shared" si="1"/>
+      <c r="L84" t="str">
+        <f>TEXT(DATE(1976,1,K84),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L84" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.5">
@@ -5942,15 +5942,15 @@
       <c r="I85" t="s">
         <v>76</v>
       </c>
-      <c r="J85">
+      <c r="J85" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K85">
         <v>89</v>
       </c>
-      <c r="K85" t="str">
-        <f t="shared" si="1"/>
+      <c r="L85" t="str">
+        <f>TEXT(DATE(1976,1,K85),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L85" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.5">
@@ -5981,15 +5981,15 @@
       <c r="I86" t="s">
         <v>18</v>
       </c>
-      <c r="J86">
+      <c r="J86" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K86">
         <v>90</v>
       </c>
-      <c r="K86" t="str">
-        <f t="shared" si="1"/>
+      <c r="L86" t="str">
+        <f>TEXT(DATE(1976,1,K86),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.5">
@@ -6020,15 +6020,15 @@
       <c r="I87" t="s">
         <v>189</v>
       </c>
-      <c r="J87">
+      <c r="J87" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K87">
         <v>91</v>
       </c>
-      <c r="K87" t="str">
-        <f t="shared" si="1"/>
+      <c r="L87" t="str">
+        <f>TEXT(DATE(1976,1,K87),"mmm")</f>
         <v>Mar</v>
-      </c>
-      <c r="L87" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.5">
@@ -6059,15 +6059,15 @@
       <c r="I88" t="s">
         <v>50</v>
       </c>
-      <c r="J88">
+      <c r="J88" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K88">
         <v>92</v>
       </c>
-      <c r="K88" t="str">
-        <f t="shared" si="1"/>
+      <c r="L88" t="str">
+        <f>TEXT(DATE(1976,1,K88),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L88" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.5">
@@ -6098,15 +6098,15 @@
       <c r="I89" t="s">
         <v>18</v>
       </c>
-      <c r="J89">
+      <c r="J89" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K89">
         <v>93</v>
       </c>
-      <c r="K89" t="str">
-        <f t="shared" si="1"/>
+      <c r="L89" t="str">
+        <f>TEXT(DATE(1976,1,K89),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L89" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.5">
@@ -6137,15 +6137,15 @@
       <c r="I90" t="s">
         <v>76</v>
       </c>
-      <c r="J90">
+      <c r="J90" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K90">
         <v>94</v>
       </c>
-      <c r="K90" t="str">
-        <f t="shared" si="1"/>
+      <c r="L90" t="str">
+        <f>TEXT(DATE(1976,1,K90),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L90" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.5">
@@ -6176,15 +6176,15 @@
       <c r="I91" t="s">
         <v>76</v>
       </c>
-      <c r="J91">
+      <c r="J91" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K91">
         <v>95</v>
       </c>
-      <c r="K91" t="str">
-        <f t="shared" si="1"/>
+      <c r="L91" t="str">
+        <f>TEXT(DATE(1976,1,K91),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L91" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.5">
@@ -6215,15 +6215,15 @@
       <c r="I92" t="s">
         <v>76</v>
       </c>
-      <c r="J92">
+      <c r="J92" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K92">
         <v>96</v>
       </c>
-      <c r="K92" t="str">
-        <f t="shared" si="1"/>
+      <c r="L92" t="str">
+        <f>TEXT(DATE(1976,1,K92),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L92" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.5">
@@ -6254,15 +6254,15 @@
       <c r="I93" t="s">
         <v>189</v>
       </c>
-      <c r="J93">
+      <c r="J93" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K93">
         <v>97</v>
       </c>
-      <c r="K93" t="str">
-        <f t="shared" si="1"/>
+      <c r="L93" t="str">
+        <f>TEXT(DATE(1976,1,K93),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L93" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.5">
@@ -6293,15 +6293,15 @@
       <c r="I94" t="s">
         <v>189</v>
       </c>
-      <c r="J94">
+      <c r="J94" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K94">
         <v>98</v>
       </c>
-      <c r="K94" t="str">
-        <f t="shared" si="1"/>
+      <c r="L94" t="str">
+        <f>TEXT(DATE(1976,1,K94),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L94" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.5">
@@ -6332,15 +6332,15 @@
       <c r="I95" t="s">
         <v>9</v>
       </c>
-      <c r="J95">
+      <c r="J95" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K95">
         <v>99</v>
       </c>
-      <c r="K95" t="str">
-        <f t="shared" si="1"/>
+      <c r="L95" t="str">
+        <f>TEXT(DATE(1976,1,K95),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L95" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.5">
@@ -6371,15 +6371,15 @@
       <c r="I96" t="s">
         <v>50</v>
       </c>
-      <c r="J96">
+      <c r="J96" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K96">
         <v>100</v>
       </c>
-      <c r="K96" t="str">
-        <f t="shared" si="1"/>
+      <c r="L96" t="str">
+        <f>TEXT(DATE(1976,1,K96),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L96" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.5">
@@ -6410,15 +6410,15 @@
       <c r="I97" t="s">
         <v>105</v>
       </c>
-      <c r="J97">
+      <c r="J97" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K97">
         <v>101</v>
       </c>
-      <c r="K97" t="str">
-        <f t="shared" si="1"/>
+      <c r="L97" t="str">
+        <f>TEXT(DATE(1976,1,K97),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L97" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.5">
@@ -6449,15 +6449,15 @@
       <c r="I98" t="s">
         <v>76</v>
       </c>
-      <c r="J98">
+      <c r="J98" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K98">
         <v>102</v>
       </c>
-      <c r="K98" t="str">
-        <f t="shared" si="1"/>
+      <c r="L98" t="str">
+        <f>TEXT(DATE(1976,1,K98),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L98" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.5">
@@ -6488,15 +6488,15 @@
       <c r="I99" t="s">
         <v>105</v>
       </c>
-      <c r="J99">
+      <c r="J99" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K99">
         <v>103</v>
       </c>
-      <c r="K99" t="str">
-        <f t="shared" si="1"/>
+      <c r="L99" t="str">
+        <f>TEXT(DATE(1976,1,K99),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L99" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.5">
@@ -6527,15 +6527,15 @@
       <c r="I100" t="s">
         <v>240</v>
       </c>
-      <c r="J100">
+      <c r="J100" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K100">
         <v>104</v>
       </c>
-      <c r="K100" t="str">
-        <f t="shared" si="1"/>
+      <c r="L100" t="str">
+        <f>TEXT(DATE(1976,1,K100),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L100" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.5">
@@ -6566,15 +6566,15 @@
       <c r="I101" t="s">
         <v>189</v>
       </c>
-      <c r="J101">
+      <c r="J101" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K101">
         <v>105</v>
       </c>
-      <c r="K101" t="str">
-        <f t="shared" si="1"/>
+      <c r="L101" t="str">
+        <f>TEXT(DATE(1976,1,K101),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L101" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.5">
@@ -6605,15 +6605,15 @@
       <c r="I102" t="s">
         <v>18</v>
       </c>
-      <c r="J102">
+      <c r="J102" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K102">
         <v>106</v>
       </c>
-      <c r="K102" t="str">
-        <f t="shared" si="1"/>
+      <c r="L102" t="str">
+        <f>TEXT(DATE(1976,1,K102),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L102" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.5">
@@ -6644,15 +6644,15 @@
       <c r="I103" t="s">
         <v>189</v>
       </c>
-      <c r="J103">
+      <c r="J103" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K103">
         <v>107</v>
       </c>
-      <c r="K103" t="str">
-        <f t="shared" si="1"/>
+      <c r="L103" t="str">
+        <f>TEXT(DATE(1976,1,K103),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L103" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.5">
@@ -6683,15 +6683,15 @@
       <c r="I104" t="s">
         <v>76</v>
       </c>
-      <c r="J104">
+      <c r="J104" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K104">
         <v>108</v>
       </c>
-      <c r="K104" t="str">
-        <f t="shared" si="1"/>
+      <c r="L104" t="str">
+        <f>TEXT(DATE(1976,1,K104),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L104" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.5">
@@ -6722,15 +6722,15 @@
       <c r="I105" t="s">
         <v>50</v>
       </c>
-      <c r="J105">
+      <c r="J105" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K105">
         <v>109</v>
       </c>
-      <c r="K105" t="str">
-        <f t="shared" si="1"/>
+      <c r="L105" t="str">
+        <f>TEXT(DATE(1976,1,K105),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L105" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.5">
@@ -6761,15 +6761,15 @@
       <c r="I106" t="s">
         <v>18</v>
       </c>
-      <c r="J106">
+      <c r="J106" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K106">
         <v>110</v>
       </c>
-      <c r="K106" t="str">
-        <f t="shared" si="1"/>
+      <c r="L106" t="str">
+        <f>TEXT(DATE(1976,1,K106),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L106" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.5">
@@ -6800,15 +6800,15 @@
       <c r="I107" t="s">
         <v>50</v>
       </c>
-      <c r="J107">
+      <c r="J107" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K107">
         <v>111</v>
       </c>
-      <c r="K107" t="str">
-        <f t="shared" si="1"/>
+      <c r="L107" t="str">
+        <f>TEXT(DATE(1976,1,K107),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L107" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.5">
@@ -6839,15 +6839,15 @@
       <c r="I108" t="s">
         <v>25</v>
       </c>
-      <c r="J108">
+      <c r="J108" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K108">
         <v>112</v>
       </c>
-      <c r="K108" t="str">
-        <f t="shared" si="1"/>
+      <c r="L108" t="str">
+        <f>TEXT(DATE(1976,1,K108),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L108" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.5">
@@ -6878,15 +6878,15 @@
       <c r="I109" t="s">
         <v>50</v>
       </c>
-      <c r="J109">
+      <c r="J109" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K109">
         <v>113</v>
       </c>
-      <c r="K109" t="str">
-        <f t="shared" si="1"/>
+      <c r="L109" t="str">
+        <f>TEXT(DATE(1976,1,K109),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L109" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.5">
@@ -6917,15 +6917,15 @@
       <c r="I110" t="s">
         <v>18</v>
       </c>
-      <c r="J110">
+      <c r="J110" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K110">
         <v>114</v>
       </c>
-      <c r="K110" t="str">
-        <f t="shared" si="1"/>
+      <c r="L110" t="str">
+        <f>TEXT(DATE(1976,1,K110),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L110" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.5">
@@ -6956,15 +6956,15 @@
       <c r="I111" t="s">
         <v>18</v>
       </c>
-      <c r="J111">
+      <c r="J111" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K111">
         <v>115</v>
       </c>
-      <c r="K111" t="str">
-        <f t="shared" si="1"/>
+      <c r="L111" t="str">
+        <f>TEXT(DATE(1976,1,K111),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L111" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.5">
@@ -6995,15 +6995,15 @@
       <c r="I112" t="s">
         <v>209</v>
       </c>
-      <c r="J112">
+      <c r="J112" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K112">
         <v>116</v>
       </c>
-      <c r="K112" t="str">
-        <f t="shared" si="1"/>
+      <c r="L112" t="str">
+        <f>TEXT(DATE(1976,1,K112),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L112" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.5">
@@ -7034,15 +7034,15 @@
       <c r="I113" t="s">
         <v>73</v>
       </c>
-      <c r="J113">
+      <c r="J113" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K113">
         <v>117</v>
       </c>
-      <c r="K113" t="str">
-        <f t="shared" si="1"/>
+      <c r="L113" t="str">
+        <f>TEXT(DATE(1976,1,K113),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L113" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.5">
@@ -7073,15 +7073,15 @@
       <c r="I114" t="s">
         <v>105</v>
       </c>
-      <c r="J114">
+      <c r="J114" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K114">
         <v>118</v>
       </c>
-      <c r="K114" t="str">
-        <f t="shared" si="1"/>
+      <c r="L114" t="str">
+        <f>TEXT(DATE(1976,1,K114),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L114" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.5">
@@ -7112,15 +7112,15 @@
       <c r="I115" t="s">
         <v>68</v>
       </c>
-      <c r="J115">
+      <c r="J115" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K115">
         <v>119</v>
       </c>
-      <c r="K115" t="str">
-        <f t="shared" si="1"/>
+      <c r="L115" t="str">
+        <f>TEXT(DATE(1976,1,K115),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L115" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.5">
@@ -7151,15 +7151,15 @@
       <c r="I116" t="s">
         <v>18</v>
       </c>
-      <c r="J116">
+      <c r="J116" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K116">
         <v>120</v>
       </c>
-      <c r="K116" t="str">
-        <f t="shared" si="1"/>
+      <c r="L116" t="str">
+        <f>TEXT(DATE(1976,1,K116),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L116" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.5">
@@ -7190,15 +7190,15 @@
       <c r="I117" t="s">
         <v>18</v>
       </c>
-      <c r="J117">
+      <c r="J117" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K117">
         <v>121</v>
       </c>
-      <c r="K117" t="str">
-        <f t="shared" si="1"/>
+      <c r="L117" t="str">
+        <f>TEXT(DATE(1976,1,K117),"mmm")</f>
         <v>Apr</v>
-      </c>
-      <c r="L117" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.5">
@@ -7229,15 +7229,15 @@
       <c r="I118" t="s">
         <v>50</v>
       </c>
-      <c r="J118">
+      <c r="J118" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K118">
         <v>122</v>
       </c>
-      <c r="K118" t="str">
-        <f t="shared" si="1"/>
+      <c r="L118" t="str">
+        <f>TEXT(DATE(1976,1,K118),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L118" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.5">
@@ -7268,15 +7268,15 @@
       <c r="I119" t="s">
         <v>68</v>
       </c>
-      <c r="J119">
+      <c r="J119" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K119">
         <v>123</v>
       </c>
-      <c r="K119" t="str">
-        <f t="shared" si="1"/>
+      <c r="L119" t="str">
+        <f>TEXT(DATE(1976,1,K119),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L119" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.5">
@@ -7307,15 +7307,15 @@
       <c r="I120" t="s">
         <v>50</v>
       </c>
-      <c r="J120">
+      <c r="J120" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K120">
         <v>125</v>
       </c>
-      <c r="K120" t="str">
-        <f t="shared" si="1"/>
+      <c r="L120" t="str">
+        <f>TEXT(DATE(1976,1,K120),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L120" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.5">
@@ -7346,15 +7346,15 @@
       <c r="I121" t="s">
         <v>50</v>
       </c>
-      <c r="J121">
+      <c r="J121" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K121">
         <v>127</v>
       </c>
-      <c r="K121" t="str">
-        <f t="shared" si="1"/>
+      <c r="L121" t="str">
+        <f>TEXT(DATE(1976,1,K121),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L121" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.5">
@@ -7385,15 +7385,15 @@
       <c r="I122" t="s">
         <v>105</v>
       </c>
-      <c r="J122">
+      <c r="J122" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K122">
         <v>128</v>
       </c>
-      <c r="K122" t="str">
-        <f t="shared" si="1"/>
+      <c r="L122" t="str">
+        <f>TEXT(DATE(1976,1,K122),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L122" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.5">
@@ -7424,15 +7424,15 @@
       <c r="I123" t="s">
         <v>50</v>
       </c>
-      <c r="J123">
+      <c r="J123" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K123">
         <v>129</v>
       </c>
-      <c r="K123" t="str">
-        <f t="shared" si="1"/>
+      <c r="L123" t="str">
+        <f>TEXT(DATE(1976,1,K123),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L123" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.5">
@@ -7463,15 +7463,15 @@
       <c r="I124" t="s">
         <v>128</v>
       </c>
-      <c r="J124">
+      <c r="J124" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K124">
         <v>130</v>
       </c>
-      <c r="K124" t="str">
-        <f t="shared" si="1"/>
+      <c r="L124" t="str">
+        <f>TEXT(DATE(1976,1,K124),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L124" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.5">
@@ -7502,15 +7502,15 @@
       <c r="I125" t="s">
         <v>240</v>
       </c>
-      <c r="J125">
+      <c r="J125" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K125">
         <v>131</v>
       </c>
-      <c r="K125" t="str">
-        <f t="shared" si="1"/>
+      <c r="L125" t="str">
+        <f>TEXT(DATE(1976,1,K125),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L125" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.5">
@@ -7541,15 +7541,15 @@
       <c r="I126" t="s">
         <v>128</v>
       </c>
-      <c r="J126">
+      <c r="J126" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K126">
         <v>132</v>
       </c>
-      <c r="K126" t="str">
-        <f t="shared" si="1"/>
+      <c r="L126" t="str">
+        <f>TEXT(DATE(1976,1,K126),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L126" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.5">
@@ -7580,15 +7580,15 @@
       <c r="I127" t="s">
         <v>73</v>
       </c>
-      <c r="J127">
+      <c r="J127" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K127">
         <v>133</v>
       </c>
-      <c r="K127" t="str">
-        <f t="shared" si="1"/>
+      <c r="L127" t="str">
+        <f>TEXT(DATE(1976,1,K127),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L127" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.5">
@@ -7619,15 +7619,15 @@
       <c r="I128" t="s">
         <v>272</v>
       </c>
-      <c r="J128">
+      <c r="J128" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K128">
         <v>134</v>
       </c>
-      <c r="K128" t="str">
-        <f t="shared" si="1"/>
+      <c r="L128" t="str">
+        <f>TEXT(DATE(1976,1,K128),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L128" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.5">
@@ -7658,15 +7658,15 @@
       <c r="I129" t="s">
         <v>301</v>
       </c>
-      <c r="J129">
+      <c r="J129" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K129">
         <v>135</v>
       </c>
-      <c r="K129" t="str">
-        <f t="shared" si="1"/>
+      <c r="L129" t="str">
+        <f>TEXT(DATE(1976,1,K129),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L129" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.5">
@@ -7697,15 +7697,15 @@
       <c r="I130" t="s">
         <v>73</v>
       </c>
-      <c r="J130">
+      <c r="J130" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K130">
         <v>136</v>
       </c>
-      <c r="K130" t="str">
-        <f t="shared" si="1"/>
+      <c r="L130" t="str">
+        <f>TEXT(DATE(1976,1,K130),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L130" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.5">
@@ -7736,15 +7736,15 @@
       <c r="I131" t="s">
         <v>122</v>
       </c>
-      <c r="J131">
+      <c r="J131" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K131">
         <v>138</v>
       </c>
-      <c r="K131" t="str">
-        <f t="shared" si="1"/>
+      <c r="L131" t="str">
+        <f>TEXT(DATE(1976,1,K131),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L131" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.5">
@@ -7775,15 +7775,15 @@
       <c r="I132" t="s">
         <v>128</v>
       </c>
-      <c r="J132">
+      <c r="J132" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K132">
         <v>139</v>
       </c>
-      <c r="K132" t="str">
-        <f t="shared" ref="K132:K195" si="2">TEXT(DATE(1976,1,J132),"mmm")</f>
+      <c r="L132" t="str">
+        <f>TEXT(DATE(1976,1,K132),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L132" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.5">
@@ -7814,15 +7814,15 @@
       <c r="I133" t="s">
         <v>240</v>
       </c>
-      <c r="J133">
+      <c r="J133" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K133">
         <v>140</v>
       </c>
-      <c r="K133" t="str">
-        <f t="shared" si="2"/>
+      <c r="L133" t="str">
+        <f>TEXT(DATE(1976,1,K133),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L133" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.5">
@@ -7853,15 +7853,15 @@
       <c r="I134" t="s">
         <v>50</v>
       </c>
-      <c r="J134">
+      <c r="J134" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K134">
         <v>141</v>
       </c>
-      <c r="K134" t="str">
-        <f t="shared" si="2"/>
+      <c r="L134" t="str">
+        <f>TEXT(DATE(1976,1,K134),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L134" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.5">
@@ -7892,15 +7892,15 @@
       <c r="I135" t="s">
         <v>18</v>
       </c>
-      <c r="J135">
+      <c r="J135" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K135">
         <v>143</v>
       </c>
-      <c r="K135" t="str">
-        <f t="shared" si="2"/>
+      <c r="L135" t="str">
+        <f>TEXT(DATE(1976,1,K135),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L135" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.5">
@@ -7931,15 +7931,15 @@
       <c r="I136" t="s">
         <v>50</v>
       </c>
-      <c r="J136">
+      <c r="J136" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K136">
         <v>145</v>
       </c>
-      <c r="K136" t="str">
-        <f t="shared" si="2"/>
+      <c r="L136" t="str">
+        <f>TEXT(DATE(1976,1,K136),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L136" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.5">
@@ -7970,15 +7970,15 @@
       <c r="I137" t="s">
         <v>76</v>
       </c>
-      <c r="J137">
+      <c r="J137" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K137">
         <v>146</v>
       </c>
-      <c r="K137" t="str">
-        <f t="shared" si="2"/>
+      <c r="L137" t="str">
+        <f>TEXT(DATE(1976,1,K137),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L137" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.5">
@@ -8009,15 +8009,15 @@
       <c r="I138" t="s">
         <v>50</v>
       </c>
-      <c r="J138">
+      <c r="J138" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K138">
         <v>147</v>
       </c>
-      <c r="K138" t="str">
-        <f t="shared" si="2"/>
+      <c r="L138" t="str">
+        <f>TEXT(DATE(1976,1,K138),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L138" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.5">
@@ -8048,15 +8048,15 @@
       <c r="I139" t="s">
         <v>73</v>
       </c>
-      <c r="J139">
+      <c r="J139" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K139">
         <v>148</v>
       </c>
-      <c r="K139" t="str">
-        <f t="shared" si="2"/>
+      <c r="L139" t="str">
+        <f>TEXT(DATE(1976,1,K139),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L139" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.5">
@@ -8087,15 +8087,15 @@
       <c r="I140" t="s">
         <v>128</v>
       </c>
-      <c r="J140">
+      <c r="J140" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K140">
         <v>149</v>
       </c>
-      <c r="K140" t="str">
-        <f t="shared" si="2"/>
+      <c r="L140" t="str">
+        <f>TEXT(DATE(1976,1,K140),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L140" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.5">
@@ -8126,15 +8126,15 @@
       <c r="I141" t="s">
         <v>18</v>
       </c>
-      <c r="J141">
+      <c r="J141" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K141">
         <v>150</v>
       </c>
-      <c r="K141" t="str">
-        <f t="shared" si="2"/>
+      <c r="L141" t="str">
+        <f>TEXT(DATE(1976,1,K141),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L141" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.5">
@@ -8165,15 +8165,15 @@
       <c r="I142" t="s">
         <v>50</v>
       </c>
-      <c r="J142">
+      <c r="J142" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K142">
         <v>151</v>
       </c>
-      <c r="K142" t="str">
-        <f t="shared" si="2"/>
+      <c r="L142" t="str">
+        <f>TEXT(DATE(1976,1,K142),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L142" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.5">
@@ -8204,15 +8204,15 @@
       <c r="I143" t="s">
         <v>18</v>
       </c>
-      <c r="J143">
+      <c r="J143" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K143">
         <v>152</v>
       </c>
-      <c r="K143" t="str">
-        <f t="shared" si="2"/>
+      <c r="L143" t="str">
+        <f>TEXT(DATE(1976,1,K143),"mmm")</f>
         <v>May</v>
-      </c>
-      <c r="L143" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.5">
@@ -8243,15 +8243,15 @@
       <c r="I144" t="s">
         <v>50</v>
       </c>
-      <c r="J144">
+      <c r="J144" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K144">
         <v>153</v>
       </c>
-      <c r="K144" t="str">
-        <f t="shared" si="2"/>
+      <c r="L144" t="str">
+        <f>TEXT(DATE(1976,1,K144),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L144" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.5">
@@ -8282,15 +8282,15 @@
       <c r="I145" t="s">
         <v>128</v>
       </c>
-      <c r="J145">
+      <c r="J145" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K145">
         <v>154</v>
       </c>
-      <c r="K145" t="str">
-        <f t="shared" si="2"/>
+      <c r="L145" t="str">
+        <f>TEXT(DATE(1976,1,K145),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L145" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.5">
@@ -8321,15 +8321,15 @@
       <c r="I146" t="s">
         <v>240</v>
       </c>
-      <c r="J146">
+      <c r="J146" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K146">
         <v>155</v>
       </c>
-      <c r="K146" t="str">
-        <f t="shared" si="2"/>
+      <c r="L146" t="str">
+        <f>TEXT(DATE(1976,1,K146),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L146" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.5">
@@ -8360,15 +8360,15 @@
       <c r="I147" t="s">
         <v>18</v>
       </c>
-      <c r="J147">
+      <c r="J147" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K147">
         <v>156</v>
       </c>
-      <c r="K147" t="str">
-        <f t="shared" si="2"/>
+      <c r="L147" t="str">
+        <f>TEXT(DATE(1976,1,K147),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L147" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.5">
@@ -8399,15 +8399,15 @@
       <c r="I148" t="s">
         <v>18</v>
       </c>
-      <c r="J148">
+      <c r="J148" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K148">
         <v>157</v>
       </c>
-      <c r="K148" t="str">
-        <f t="shared" si="2"/>
+      <c r="L148" t="str">
+        <f>TEXT(DATE(1976,1,K148),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L148" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.5">
@@ -8438,15 +8438,15 @@
       <c r="I149" t="s">
         <v>50</v>
       </c>
-      <c r="J149">
+      <c r="J149" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K149">
         <v>158</v>
       </c>
-      <c r="K149" t="str">
-        <f t="shared" si="2"/>
+      <c r="L149" t="str">
+        <f>TEXT(DATE(1976,1,K149),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L149" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.5">
@@ -8477,15 +8477,15 @@
       <c r="I150" t="s">
         <v>50</v>
       </c>
-      <c r="J150">
+      <c r="J150" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K150">
         <v>159</v>
       </c>
-      <c r="K150" t="str">
-        <f t="shared" si="2"/>
+      <c r="L150" t="str">
+        <f>TEXT(DATE(1976,1,K150),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L150" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.5">
@@ -8516,15 +8516,15 @@
       <c r="I151" t="s">
         <v>50</v>
       </c>
-      <c r="J151">
+      <c r="J151" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K151">
         <v>160</v>
       </c>
-      <c r="K151" t="str">
-        <f t="shared" si="2"/>
+      <c r="L151" t="str">
+        <f>TEXT(DATE(1976,1,K151),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L151" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.5">
@@ -8555,15 +8555,15 @@
       <c r="I152" t="s">
         <v>68</v>
       </c>
-      <c r="J152">
+      <c r="J152" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K152">
         <v>161</v>
       </c>
-      <c r="K152" t="str">
-        <f t="shared" si="2"/>
+      <c r="L152" t="str">
+        <f>TEXT(DATE(1976,1,K152),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L152" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.5">
@@ -8594,15 +8594,15 @@
       <c r="I153" t="s">
         <v>105</v>
       </c>
-      <c r="J153">
+      <c r="J153" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K153">
         <v>162</v>
       </c>
-      <c r="K153" t="str">
-        <f t="shared" si="2"/>
+      <c r="L153" t="str">
+        <f>TEXT(DATE(1976,1,K153),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L153" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.5">
@@ -8633,15 +8633,15 @@
       <c r="I154" t="s">
         <v>105</v>
       </c>
-      <c r="J154">
+      <c r="J154" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K154">
         <v>163</v>
       </c>
-      <c r="K154" t="str">
-        <f t="shared" si="2"/>
+      <c r="L154" t="str">
+        <f>TEXT(DATE(1976,1,K154),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L154" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.5">
@@ -8672,15 +8672,15 @@
       <c r="I155" t="s">
         <v>105</v>
       </c>
-      <c r="J155">
+      <c r="J155" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K155">
         <v>164</v>
       </c>
-      <c r="K155" t="str">
-        <f t="shared" si="2"/>
+      <c r="L155" t="str">
+        <f>TEXT(DATE(1976,1,K155),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L155" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.5">
@@ -8711,15 +8711,15 @@
       <c r="I156" t="s">
         <v>105</v>
       </c>
-      <c r="J156">
+      <c r="J156" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K156">
         <v>165</v>
       </c>
-      <c r="K156" t="str">
-        <f t="shared" si="2"/>
+      <c r="L156" t="str">
+        <f>TEXT(DATE(1976,1,K156),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L156" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.5">
@@ -8750,15 +8750,15 @@
       <c r="I157" t="s">
         <v>25</v>
       </c>
-      <c r="J157">
+      <c r="J157" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K157">
         <v>166</v>
       </c>
-      <c r="K157" t="str">
-        <f t="shared" si="2"/>
+      <c r="L157" t="str">
+        <f>TEXT(DATE(1976,1,K157),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L157" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.5">
@@ -8789,15 +8789,15 @@
       <c r="I158" t="s">
         <v>155</v>
       </c>
-      <c r="J158">
+      <c r="J158" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K158">
         <v>167</v>
       </c>
-      <c r="K158" t="str">
-        <f t="shared" si="2"/>
+      <c r="L158" t="str">
+        <f>TEXT(DATE(1976,1,K158),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L158" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.5">
@@ -8828,15 +8828,15 @@
       <c r="I159" t="s">
         <v>301</v>
       </c>
-      <c r="J159">
+      <c r="J159" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K159">
         <v>168</v>
       </c>
-      <c r="K159" t="str">
-        <f t="shared" si="2"/>
+      <c r="L159" t="str">
+        <f>TEXT(DATE(1976,1,K159),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L159" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.5">
@@ -8867,15 +8867,15 @@
       <c r="I160" t="s">
         <v>240</v>
       </c>
-      <c r="J160">
+      <c r="J160" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K160">
         <v>169</v>
       </c>
-      <c r="K160" t="str">
-        <f t="shared" si="2"/>
+      <c r="L160" t="str">
+        <f>TEXT(DATE(1976,1,K160),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L160" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.5">
@@ -8906,15 +8906,15 @@
       <c r="I161" t="s">
         <v>25</v>
       </c>
-      <c r="J161">
+      <c r="J161" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K161">
         <v>170</v>
       </c>
-      <c r="K161" t="str">
-        <f t="shared" si="2"/>
+      <c r="L161" t="str">
+        <f>TEXT(DATE(1976,1,K161),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L161" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.5">
@@ -8945,15 +8945,15 @@
       <c r="I162" t="s">
         <v>18</v>
       </c>
-      <c r="J162">
+      <c r="J162" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K162">
         <v>171</v>
       </c>
-      <c r="K162" t="str">
-        <f t="shared" si="2"/>
+      <c r="L162" t="str">
+        <f>TEXT(DATE(1976,1,K162),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L162" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.5">
@@ -8984,15 +8984,15 @@
       <c r="I163" t="s">
         <v>50</v>
       </c>
-      <c r="J163">
+      <c r="J163" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K163">
         <v>172</v>
       </c>
-      <c r="K163" t="str">
-        <f t="shared" si="2"/>
+      <c r="L163" t="str">
+        <f>TEXT(DATE(1976,1,K163),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L163" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.5">
@@ -9023,15 +9023,15 @@
       <c r="I164" t="s">
         <v>68</v>
       </c>
-      <c r="J164">
+      <c r="J164" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K164">
         <v>173</v>
       </c>
-      <c r="K164" t="str">
-        <f t="shared" si="2"/>
+      <c r="L164" t="str">
+        <f>TEXT(DATE(1976,1,K164),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L164" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.5">
@@ -9062,15 +9062,15 @@
       <c r="I165" t="s">
         <v>50</v>
       </c>
-      <c r="J165">
+      <c r="J165" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K165">
         <v>174</v>
       </c>
-      <c r="K165" t="str">
-        <f t="shared" si="2"/>
+      <c r="L165" t="str">
+        <f>TEXT(DATE(1976,1,K165),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L165" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.5">
@@ -9101,15 +9101,15 @@
       <c r="I166" t="s">
         <v>105</v>
       </c>
-      <c r="J166">
+      <c r="J166" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K166">
         <v>175</v>
       </c>
-      <c r="K166" t="str">
-        <f t="shared" si="2"/>
+      <c r="L166" t="str">
+        <f>TEXT(DATE(1976,1,K166),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L166" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.5">
@@ -9140,15 +9140,15 @@
       <c r="I167" t="s">
         <v>105</v>
       </c>
-      <c r="J167">
+      <c r="J167" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K167">
         <v>176</v>
       </c>
-      <c r="K167" t="str">
-        <f t="shared" si="2"/>
+      <c r="L167" t="str">
+        <f>TEXT(DATE(1976,1,K167),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L167" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.5">
@@ -9179,15 +9179,15 @@
       <c r="I168" t="s">
         <v>50</v>
       </c>
-      <c r="J168">
+      <c r="J168" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K168">
         <v>177</v>
       </c>
-      <c r="K168" t="str">
-        <f t="shared" si="2"/>
+      <c r="L168" t="str">
+        <f>TEXT(DATE(1976,1,K168),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L168" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.5">
@@ -9218,15 +9218,15 @@
       <c r="I169" t="s">
         <v>50</v>
       </c>
-      <c r="J169">
+      <c r="J169" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K169">
         <v>178</v>
       </c>
-      <c r="K169" t="str">
-        <f t="shared" si="2"/>
+      <c r="L169" t="str">
+        <f>TEXT(DATE(1976,1,K169),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L169" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.5">
@@ -9257,15 +9257,15 @@
       <c r="I170" t="s">
         <v>240</v>
       </c>
-      <c r="J170">
+      <c r="J170" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K170">
         <v>179</v>
       </c>
-      <c r="K170" t="str">
-        <f t="shared" si="2"/>
+      <c r="L170" t="str">
+        <f>TEXT(DATE(1976,1,K170),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L170" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.5">
@@ -9296,15 +9296,15 @@
       <c r="I171" t="s">
         <v>105</v>
       </c>
-      <c r="J171">
+      <c r="J171" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K171">
         <v>180</v>
       </c>
-      <c r="K171" t="str">
-        <f t="shared" si="2"/>
+      <c r="L171" t="str">
+        <f>TEXT(DATE(1976,1,K171),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L171" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.5">
@@ -9335,15 +9335,15 @@
       <c r="I172" t="s">
         <v>105</v>
       </c>
-      <c r="J172">
+      <c r="J172" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K172">
         <v>181</v>
       </c>
-      <c r="K172" t="str">
-        <f t="shared" si="2"/>
+      <c r="L172" t="str">
+        <f>TEXT(DATE(1976,1,K172),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L172" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.5">
@@ -9374,15 +9374,15 @@
       <c r="I173" t="s">
         <v>68</v>
       </c>
-      <c r="J173">
+      <c r="J173" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K173">
         <v>182</v>
       </c>
-      <c r="K173" t="str">
-        <f t="shared" si="2"/>
+      <c r="L173" t="str">
+        <f>TEXT(DATE(1976,1,K173),"mmm")</f>
         <v>Jun</v>
-      </c>
-      <c r="L173" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.5">
@@ -9413,15 +9413,15 @@
       <c r="I174" t="s">
         <v>50</v>
       </c>
-      <c r="J174">
+      <c r="J174" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K174">
         <v>183</v>
       </c>
-      <c r="K174" t="str">
-        <f t="shared" si="2"/>
+      <c r="L174" t="str">
+        <f>TEXT(DATE(1976,1,K174),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L174" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.5">
@@ -9452,15 +9452,15 @@
       <c r="I175" t="s">
         <v>50</v>
       </c>
-      <c r="J175">
+      <c r="J175" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K175">
         <v>184</v>
       </c>
-      <c r="K175" t="str">
-        <f t="shared" si="2"/>
+      <c r="L175" t="str">
+        <f>TEXT(DATE(1976,1,K175),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L175" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.5">
@@ -9491,15 +9491,15 @@
       <c r="I176" t="s">
         <v>105</v>
       </c>
-      <c r="J176">
+      <c r="J176" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K176">
         <v>185</v>
       </c>
-      <c r="K176" t="str">
-        <f t="shared" si="2"/>
+      <c r="L176" t="str">
+        <f>TEXT(DATE(1976,1,K176),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L176" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.5">
@@ -9530,15 +9530,15 @@
       <c r="I177" t="s">
         <v>18</v>
       </c>
-      <c r="J177">
+      <c r="J177" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K177">
         <v>186</v>
       </c>
-      <c r="K177" t="str">
-        <f t="shared" si="2"/>
+      <c r="L177" t="str">
+        <f>TEXT(DATE(1976,1,K177),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L177" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.5">
@@ -9569,15 +9569,15 @@
       <c r="I178" t="s">
         <v>122</v>
       </c>
-      <c r="J178">
+      <c r="J178" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K178">
         <v>187</v>
       </c>
-      <c r="K178" t="str">
-        <f t="shared" si="2"/>
+      <c r="L178" t="str">
+        <f>TEXT(DATE(1976,1,K178),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L178" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.5">
@@ -9608,15 +9608,15 @@
       <c r="I179" t="s">
         <v>73</v>
       </c>
-      <c r="J179">
+      <c r="J179" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K179">
         <v>188</v>
       </c>
-      <c r="K179" t="str">
-        <f t="shared" si="2"/>
+      <c r="L179" t="str">
+        <f>TEXT(DATE(1976,1,K179),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L179" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.5">
@@ -9647,15 +9647,15 @@
       <c r="I180" t="s">
         <v>18</v>
       </c>
-      <c r="J180">
+      <c r="J180" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K180">
         <v>189</v>
       </c>
-      <c r="K180" t="str">
-        <f t="shared" si="2"/>
+      <c r="L180" t="str">
+        <f>TEXT(DATE(1976,1,K180),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L180" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.5">
@@ -9686,15 +9686,15 @@
       <c r="I181" t="s">
         <v>18</v>
       </c>
-      <c r="J181">
+      <c r="J181" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K181">
         <v>191</v>
       </c>
-      <c r="K181" t="str">
-        <f t="shared" si="2"/>
+      <c r="L181" t="str">
+        <f>TEXT(DATE(1976,1,K181),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L181" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.5">
@@ -9725,15 +9725,15 @@
       <c r="I182" t="s">
         <v>25</v>
       </c>
-      <c r="J182">
+      <c r="J182" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K182">
         <v>192</v>
       </c>
-      <c r="K182" t="str">
-        <f t="shared" si="2"/>
+      <c r="L182" t="str">
+        <f>TEXT(DATE(1976,1,K182),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L182" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.5">
@@ -9764,15 +9764,15 @@
       <c r="I183" t="s">
         <v>122</v>
       </c>
-      <c r="J183">
+      <c r="J183" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K183">
         <v>193</v>
       </c>
-      <c r="K183" t="str">
-        <f t="shared" si="2"/>
+      <c r="L183" t="str">
+        <f>TEXT(DATE(1976,1,K183),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L183" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.5">
@@ -9803,15 +9803,15 @@
       <c r="I184" t="s">
         <v>128</v>
       </c>
-      <c r="J184">
+      <c r="J184" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K184">
         <v>194</v>
       </c>
-      <c r="K184" t="str">
-        <f t="shared" si="2"/>
+      <c r="L184" t="str">
+        <f>TEXT(DATE(1976,1,K184),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L184" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.5">
@@ -9842,15 +9842,15 @@
       <c r="I185" t="s">
         <v>240</v>
       </c>
-      <c r="J185">
+      <c r="J185" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K185">
         <v>195</v>
       </c>
-      <c r="K185" t="str">
-        <f t="shared" si="2"/>
+      <c r="L185" t="str">
+        <f>TEXT(DATE(1976,1,K185),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L185" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.5">
@@ -9881,15 +9881,15 @@
       <c r="I186" t="s">
         <v>240</v>
       </c>
-      <c r="J186">
+      <c r="J186" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K186">
         <v>196</v>
       </c>
-      <c r="K186" t="str">
-        <f t="shared" si="2"/>
+      <c r="L186" t="str">
+        <f>TEXT(DATE(1976,1,K186),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L186" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.5">
@@ -9920,15 +9920,15 @@
       <c r="I187" t="s">
         <v>538</v>
       </c>
-      <c r="J187">
+      <c r="J187" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K187">
         <v>198</v>
       </c>
-      <c r="K187" t="str">
-        <f t="shared" si="2"/>
+      <c r="L187" t="str">
+        <f>TEXT(DATE(1976,1,K187),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L187" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.5">
@@ -9959,15 +9959,15 @@
       <c r="I188" t="s">
         <v>50</v>
       </c>
-      <c r="J188">
+      <c r="J188" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K188">
         <v>199</v>
       </c>
-      <c r="K188" t="str">
-        <f t="shared" si="2"/>
+      <c r="L188" t="str">
+        <f>TEXT(DATE(1976,1,K188),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L188" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.5">
@@ -9998,15 +9998,15 @@
       <c r="I189" t="s">
         <v>50</v>
       </c>
-      <c r="J189">
+      <c r="J189" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K189">
         <v>200</v>
       </c>
-      <c r="K189" t="str">
-        <f t="shared" si="2"/>
+      <c r="L189" t="str">
+        <f>TEXT(DATE(1976,1,K189),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L189" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.5">
@@ -10037,15 +10037,15 @@
       <c r="I190" t="s">
         <v>18</v>
       </c>
-      <c r="J190">
+      <c r="J190" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K190">
         <v>201</v>
       </c>
-      <c r="K190" t="str">
-        <f t="shared" si="2"/>
+      <c r="L190" t="str">
+        <f>TEXT(DATE(1976,1,K190),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L190" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.5">
@@ -10076,15 +10076,15 @@
       <c r="I191" t="s">
         <v>25</v>
       </c>
-      <c r="J191">
+      <c r="J191" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K191">
         <v>202</v>
       </c>
-      <c r="K191" t="str">
-        <f t="shared" si="2"/>
+      <c r="L191" t="str">
+        <f>TEXT(DATE(1976,1,K191),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L191" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.5">
@@ -10115,15 +10115,15 @@
       <c r="I192" t="s">
         <v>73</v>
       </c>
-      <c r="J192">
+      <c r="J192" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K192">
         <v>203</v>
       </c>
-      <c r="K192" t="str">
-        <f t="shared" si="2"/>
+      <c r="L192" t="str">
+        <f>TEXT(DATE(1976,1,K192),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L192" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.5">
@@ -10154,15 +10154,15 @@
       <c r="I193" t="s">
         <v>73</v>
       </c>
-      <c r="J193">
+      <c r="J193" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K193">
         <v>205</v>
       </c>
-      <c r="K193" t="str">
-        <f t="shared" si="2"/>
+      <c r="L193" t="str">
+        <f>TEXT(DATE(1976,1,K193),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L193" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.5">
@@ -10193,15 +10193,15 @@
       <c r="I194" t="s">
         <v>128</v>
       </c>
-      <c r="J194">
+      <c r="J194" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K194">
         <v>206</v>
       </c>
-      <c r="K194" t="str">
-        <f t="shared" si="2"/>
+      <c r="L194" t="str">
+        <f>TEXT(DATE(1976,1,K194),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L194" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.5">
@@ -10232,15 +10232,15 @@
       <c r="I195" t="s">
         <v>240</v>
       </c>
-      <c r="J195">
+      <c r="J195" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K195">
         <v>207</v>
       </c>
-      <c r="K195" t="str">
-        <f t="shared" si="2"/>
+      <c r="L195" t="str">
+        <f>TEXT(DATE(1976,1,K195),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L195" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.5">
@@ -10271,15 +10271,15 @@
       <c r="I196" t="s">
         <v>240</v>
       </c>
-      <c r="J196">
+      <c r="J196" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K196">
         <v>208</v>
       </c>
-      <c r="K196" t="str">
-        <f t="shared" ref="K196:K259" si="3">TEXT(DATE(1976,1,J196),"mmm")</f>
+      <c r="L196" t="str">
+        <f>TEXT(DATE(1976,1,K196),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L196" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.5">
@@ -10310,15 +10310,15 @@
       <c r="I197" t="s">
         <v>240</v>
       </c>
-      <c r="J197">
+      <c r="J197" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K197">
         <v>209</v>
       </c>
-      <c r="K197" t="str">
-        <f t="shared" si="3"/>
+      <c r="L197" t="str">
+        <f>TEXT(DATE(1976,1,K197),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L197" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.5">
@@ -10349,15 +10349,15 @@
       <c r="I198" t="s">
         <v>240</v>
       </c>
-      <c r="J198">
+      <c r="J198" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K198">
         <v>210</v>
       </c>
-      <c r="K198" t="str">
-        <f t="shared" si="3"/>
+      <c r="L198" t="str">
+        <f>TEXT(DATE(1976,1,K198),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L198" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.5">
@@ -10388,15 +10388,15 @@
       <c r="I199" t="s">
         <v>50</v>
       </c>
-      <c r="J199">
+      <c r="J199" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K199">
         <v>213</v>
       </c>
-      <c r="K199" t="str">
-        <f t="shared" si="3"/>
+      <c r="L199" t="str">
+        <f>TEXT(DATE(1976,1,K199),"mmm")</f>
         <v>Jul</v>
-      </c>
-      <c r="L199" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.5">
@@ -10427,15 +10427,15 @@
       <c r="I200" t="s">
         <v>68</v>
       </c>
-      <c r="J200">
+      <c r="J200" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K200">
         <v>214</v>
       </c>
-      <c r="K200" t="str">
-        <f t="shared" si="3"/>
+      <c r="L200" t="str">
+        <f>TEXT(DATE(1976,1,K200),"mmm")</f>
         <v>Aug</v>
-      </c>
-      <c r="L200" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.5">
@@ -10466,15 +10466,15 @@
       <c r="I201" t="s">
         <v>76</v>
       </c>
-      <c r="J201">
+      <c r="J201" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K201">
         <v>215</v>
       </c>
-      <c r="K201" t="str">
-        <f t="shared" si="3"/>
+      <c r="L201" t="str">
+        <f>TEXT(DATE(1976,1,K201),"mmm")</f>
         <v>Aug</v>
-      </c>
-      <c r="L201" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.5">
@@ -10505,15 +10505,15 @@
       <c r="I202" t="s">
         <v>68</v>
       </c>
-      <c r="J202">
+      <c r="J202" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K202">
         <v>216</v>
       </c>
-      <c r="K202" t="str">
-        <f t="shared" si="3"/>
+      <c r="L202" t="str">
+        <f>TEXT(DATE(1976,1,K202),"mmm")</f>
         <v>Aug</v>
-      </c>
-      <c r="L202" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.5">
@@ -10544,15 +10544,15 @@
       <c r="I203" t="s">
         <v>18</v>
       </c>
-      <c r="J203">
+      <c r="J203" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K203">
         <v>222</v>
       </c>
-      <c r="K203" t="str">
-        <f t="shared" si="3"/>
+      <c r="L203" t="str">
+        <f>TEXT(DATE(1976,1,K203),"mmm")</f>
         <v>Aug</v>
-      </c>
-      <c r="L203" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.5">
@@ -10583,15 +10583,15 @@
       <c r="I204" t="s">
         <v>240</v>
       </c>
-      <c r="J204">
+      <c r="J204" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K204">
         <v>224</v>
       </c>
-      <c r="K204" t="str">
-        <f t="shared" si="3"/>
+      <c r="L204" t="str">
+        <f>TEXT(DATE(1976,1,K204),"mmm")</f>
         <v>Aug</v>
-      </c>
-      <c r="L204" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.5">
@@ -10622,15 +10622,15 @@
       <c r="I205" t="s">
         <v>128</v>
       </c>
-      <c r="J205">
+      <c r="J205" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K205">
         <v>225</v>
       </c>
-      <c r="K205" t="str">
-        <f t="shared" si="3"/>
+      <c r="L205" t="str">
+        <f>TEXT(DATE(1976,1,K205),"mmm")</f>
         <v>Aug</v>
-      </c>
-      <c r="L205" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.5">
@@ -10661,15 +10661,15 @@
       <c r="I206" t="s">
         <v>25</v>
       </c>
-      <c r="J206">
+      <c r="J206" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K206">
         <v>226</v>
       </c>
-      <c r="K206" t="str">
-        <f t="shared" si="3"/>
+      <c r="L206" t="str">
+        <f>TEXT(DATE(1976,1,K206),"mmm")</f>
         <v>Aug</v>
-      </c>
-      <c r="L206" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.5">
@@ -10700,15 +10700,15 @@
       <c r="I207" t="s">
         <v>68</v>
       </c>
-      <c r="J207">
+      <c r="J207" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K207">
         <v>227</v>
       </c>
-      <c r="K207" t="str">
-        <f t="shared" si="3"/>
+      <c r="L207" t="str">
+        <f>TEXT(DATE(1976,1,K207),"mmm")</f>
         <v>Aug</v>
-      </c>
-      <c r="L207" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.5">
@@ -10739,15 +10739,15 @@
       <c r="I208" t="s">
         <v>76</v>
       </c>
-      <c r="J208">
+      <c r="J208" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K208">
         <v>228</v>
       </c>
-      <c r="K208" t="str">
-        <f t="shared" si="3"/>
+      <c r="L208" t="str">
+        <f>TEXT(DATE(1976,1,K208),"mmm")</f>
         <v>Aug</v>
-      </c>
-      <c r="L208" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.5">
@@ -10778,15 +10778,15 @@
       <c r="I209" t="s">
         <v>76</v>
       </c>
-      <c r="J209">
+      <c r="J209" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K209">
         <v>229</v>
       </c>
-      <c r="K209" t="str">
-        <f t="shared" si="3"/>
+      <c r="L209" t="str">
+        <f>TEXT(DATE(1976,1,K209),"mmm")</f>
         <v>Aug</v>
-      </c>
-      <c r="L209" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.5">
@@ -10817,15 +10817,15 @@
       <c r="I210" t="s">
         <v>76</v>
       </c>
-      <c r="J210">
+      <c r="J210" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K210">
         <v>230</v>
       </c>
-      <c r="K210" t="str">
-        <f t="shared" si="3"/>
+      <c r="L210" t="str">
+        <f>TEXT(DATE(1976,1,K210),"mmm")</f>
         <v>Aug</v>
-      </c>
-      <c r="L210" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.5">
@@ -10856,15 +10856,15 @@
       <c r="I211" t="s">
         <v>9</v>
       </c>
-      <c r="J211">
+      <c r="J211" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K211">
         <v>231</v>
       </c>
-      <c r="K211" t="str">
-        <f t="shared" si="3"/>
+      <c r="L211" t="str">
+        <f>TEXT(DATE(1976,1,K211),"mmm")</f>
         <v>Aug</v>
-      </c>
-      <c r="L211" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.5">
@@ -10895,15 +10895,15 @@
       <c r="I212" t="s">
         <v>189</v>
       </c>
-      <c r="J212">
+      <c r="J212" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K212">
         <v>232</v>
       </c>
-      <c r="K212" t="str">
-        <f t="shared" si="3"/>
+      <c r="L212" t="str">
+        <f>TEXT(DATE(1976,1,K212),"mmm")</f>
         <v>Aug</v>
-      </c>
-      <c r="L212" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.5">
@@ -10934,15 +10934,15 @@
       <c r="I213" t="s">
         <v>128</v>
       </c>
-      <c r="J213">
+      <c r="J213" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K213">
         <v>233</v>
       </c>
-      <c r="K213" t="str">
-        <f t="shared" si="3"/>
+      <c r="L213" t="str">
+        <f>TEXT(DATE(1976,1,K213),"mmm")</f>
         <v>Aug</v>
-      </c>
-      <c r="L213" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.5">
@@ -10973,15 +10973,15 @@
       <c r="I214" t="s">
         <v>189</v>
       </c>
-      <c r="J214">
+      <c r="J214" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K214">
         <v>234</v>
       </c>
-      <c r="K214" t="str">
-        <f t="shared" si="3"/>
+      <c r="L214" t="str">
+        <f>TEXT(DATE(1976,1,K214),"mmm")</f>
         <v>Aug</v>
-      </c>
-      <c r="L214" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.5">
@@ -11012,15 +11012,15 @@
       <c r="I215" t="s">
         <v>68</v>
       </c>
-      <c r="J215">
+      <c r="J215" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K215">
         <v>235</v>
       </c>
-      <c r="K215" t="str">
-        <f t="shared" si="3"/>
+      <c r="L215" t="str">
+        <f>TEXT(DATE(1976,1,K215),"mmm")</f>
         <v>Aug</v>
-      </c>
-      <c r="L215" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.5">
@@ -11051,15 +11051,15 @@
       <c r="I216" t="s">
         <v>189</v>
       </c>
-      <c r="J216">
+      <c r="J216" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K216">
         <v>236</v>
       </c>
-      <c r="K216" t="str">
-        <f t="shared" si="3"/>
+      <c r="L216" t="str">
+        <f>TEXT(DATE(1976,1,K216),"mmm")</f>
         <v>Aug</v>
-      </c>
-      <c r="L216" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.5">
@@ -11090,15 +11090,15 @@
       <c r="I217" t="s">
         <v>155</v>
       </c>
-      <c r="J217">
+      <c r="J217" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K217">
         <v>237</v>
       </c>
-      <c r="K217" t="str">
-        <f t="shared" si="3"/>
+      <c r="L217" t="str">
+        <f>TEXT(DATE(1976,1,K217),"mmm")</f>
         <v>Aug</v>
-      </c>
-      <c r="L217" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.5">
@@ -11129,15 +11129,15 @@
       <c r="I218" t="s">
         <v>18</v>
       </c>
-      <c r="J218">
+      <c r="J218" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K218">
         <v>238</v>
       </c>
-      <c r="K218" t="str">
-        <f t="shared" si="3"/>
+      <c r="L218" t="str">
+        <f>TEXT(DATE(1976,1,K218),"mmm")</f>
         <v>Aug</v>
-      </c>
-      <c r="L218" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.5">
@@ -11168,15 +11168,15 @@
       <c r="I219" t="s">
         <v>18</v>
       </c>
-      <c r="J219">
+      <c r="J219" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K219">
         <v>239</v>
       </c>
-      <c r="K219" t="str">
-        <f t="shared" si="3"/>
+      <c r="L219" t="str">
+        <f>TEXT(DATE(1976,1,K219),"mmm")</f>
         <v>Aug</v>
-      </c>
-      <c r="L219" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.5">
@@ -11207,15 +11207,15 @@
       <c r="I220" t="s">
         <v>301</v>
       </c>
-      <c r="J220">
+      <c r="J220" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K220">
         <v>240</v>
       </c>
-      <c r="K220" t="str">
-        <f t="shared" si="3"/>
+      <c r="L220" t="str">
+        <f>TEXT(DATE(1976,1,K220),"mmm")</f>
         <v>Aug</v>
-      </c>
-      <c r="L220" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.5">
@@ -11246,15 +11246,15 @@
       <c r="I221" t="s">
         <v>272</v>
       </c>
-      <c r="J221">
+      <c r="J221" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K221">
         <v>241</v>
       </c>
-      <c r="K221" t="str">
-        <f t="shared" si="3"/>
+      <c r="L221" t="str">
+        <f>TEXT(DATE(1976,1,K221),"mmm")</f>
         <v>Aug</v>
-      </c>
-      <c r="L221" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.5">
@@ -11285,15 +11285,15 @@
       <c r="I222" t="s">
         <v>316</v>
       </c>
-      <c r="J222">
+      <c r="J222" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K222">
         <v>242</v>
       </c>
-      <c r="K222" t="str">
-        <f t="shared" si="3"/>
+      <c r="L222" t="str">
+        <f>TEXT(DATE(1976,1,K222),"mmm")</f>
         <v>Aug</v>
-      </c>
-      <c r="L222" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.5">
@@ -11324,15 +11324,15 @@
       <c r="I223" t="s">
         <v>128</v>
       </c>
-      <c r="J223">
+      <c r="J223" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K223">
         <v>243</v>
       </c>
-      <c r="K223" t="str">
-        <f t="shared" si="3"/>
+      <c r="L223" t="str">
+        <f>TEXT(DATE(1976,1,K223),"mmm")</f>
         <v>Aug</v>
-      </c>
-      <c r="L223" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.5">
@@ -11363,15 +11363,15 @@
       <c r="I224" t="s">
         <v>155</v>
       </c>
-      <c r="J224">
+      <c r="J224" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K224">
         <v>244</v>
       </c>
-      <c r="K224" t="str">
-        <f t="shared" si="3"/>
+      <c r="L224" t="str">
+        <f>TEXT(DATE(1976,1,K224),"mmm")</f>
         <v>Aug</v>
-      </c>
-      <c r="L224" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.5">
@@ -11402,15 +11402,15 @@
       <c r="I225" t="s">
         <v>128</v>
       </c>
-      <c r="J225">
+      <c r="J225" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K225">
         <v>245</v>
       </c>
-      <c r="K225" t="str">
-        <f t="shared" si="3"/>
+      <c r="L225" t="str">
+        <f>TEXT(DATE(1976,1,K225),"mmm")</f>
         <v>Sep</v>
-      </c>
-      <c r="L225" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.5">
@@ -11441,15 +11441,15 @@
       <c r="I226" t="s">
         <v>25</v>
       </c>
-      <c r="J226">
+      <c r="J226" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K226">
         <v>246</v>
       </c>
-      <c r="K226" t="str">
-        <f t="shared" si="3"/>
+      <c r="L226" t="str">
+        <f>TEXT(DATE(1976,1,K226),"mmm")</f>
         <v>Sep</v>
-      </c>
-      <c r="L226" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.5">
@@ -11480,15 +11480,15 @@
       <c r="I227" t="s">
         <v>73</v>
       </c>
-      <c r="J227">
+      <c r="J227" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K227">
         <v>247</v>
       </c>
-      <c r="K227" t="str">
-        <f t="shared" si="3"/>
+      <c r="L227" t="str">
+        <f>TEXT(DATE(1976,1,K227),"mmm")</f>
         <v>Sep</v>
-      </c>
-      <c r="L227" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.5">
@@ -11519,15 +11519,15 @@
       <c r="I228" t="s">
         <v>122</v>
       </c>
-      <c r="J228">
+      <c r="J228" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K228">
         <v>248</v>
       </c>
-      <c r="K228" t="str">
-        <f t="shared" si="3"/>
+      <c r="L228" t="str">
+        <f>TEXT(DATE(1976,1,K228),"mmm")</f>
         <v>Sep</v>
-      </c>
-      <c r="L228" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.5">
@@ -11558,15 +11558,15 @@
       <c r="I229" t="s">
         <v>128</v>
       </c>
-      <c r="J229">
+      <c r="J229" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K229">
         <v>249</v>
       </c>
-      <c r="K229" t="str">
-        <f t="shared" si="3"/>
+      <c r="L229" t="str">
+        <f>TEXT(DATE(1976,1,K229),"mmm")</f>
         <v>Sep</v>
-      </c>
-      <c r="L229" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.5">
@@ -11597,15 +11597,15 @@
       <c r="I230" t="s">
         <v>105</v>
       </c>
-      <c r="J230">
+      <c r="J230" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K230">
         <v>250</v>
       </c>
-      <c r="K230" t="str">
-        <f t="shared" si="3"/>
+      <c r="L230" t="str">
+        <f>TEXT(DATE(1976,1,K230),"mmm")</f>
         <v>Sep</v>
-      </c>
-      <c r="L230" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.5">
@@ -11636,15 +11636,15 @@
       <c r="I231" t="s">
         <v>18</v>
       </c>
-      <c r="J231">
+      <c r="J231" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K231">
         <v>251</v>
       </c>
-      <c r="K231" t="str">
-        <f t="shared" si="3"/>
+      <c r="L231" t="str">
+        <f>TEXT(DATE(1976,1,K231),"mmm")</f>
         <v>Sep</v>
-      </c>
-      <c r="L231" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.5">
@@ -11675,15 +11675,15 @@
       <c r="I232" t="s">
         <v>50</v>
       </c>
-      <c r="J232">
+      <c r="J232" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K232">
         <v>252</v>
       </c>
-      <c r="K232" t="str">
-        <f t="shared" si="3"/>
+      <c r="L232" t="str">
+        <f>TEXT(DATE(1976,1,K232),"mmm")</f>
         <v>Sep</v>
-      </c>
-      <c r="L232" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.5">
@@ -11714,15 +11714,15 @@
       <c r="I233" t="s">
         <v>68</v>
       </c>
-      <c r="J233">
+      <c r="J233" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K233">
         <v>255</v>
       </c>
-      <c r="K233" t="str">
-        <f t="shared" si="3"/>
+      <c r="L233" t="str">
+        <f>TEXT(DATE(1976,1,K233),"mmm")</f>
         <v>Sep</v>
-      </c>
-      <c r="L233" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.5">
@@ -11753,15 +11753,15 @@
       <c r="I234" t="s">
         <v>122</v>
       </c>
-      <c r="J234">
+      <c r="J234" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K234">
         <v>256</v>
       </c>
-      <c r="K234" t="str">
-        <f t="shared" si="3"/>
+      <c r="L234" t="str">
+        <f>TEXT(DATE(1976,1,K234),"mmm")</f>
         <v>Sep</v>
-      </c>
-      <c r="L234" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.5">
@@ -11792,15 +11792,15 @@
       <c r="I235" t="s">
         <v>128</v>
       </c>
-      <c r="J235">
+      <c r="J235" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K235">
         <v>257</v>
       </c>
-      <c r="K235" t="str">
-        <f t="shared" si="3"/>
+      <c r="L235" t="str">
+        <f>TEXT(DATE(1976,1,K235),"mmm")</f>
         <v>Sep</v>
-      </c>
-      <c r="L235" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.5">
@@ -11831,15 +11831,15 @@
       <c r="I236" t="s">
         <v>73</v>
       </c>
-      <c r="J236">
+      <c r="J236" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K236">
         <v>258</v>
       </c>
-      <c r="K236" t="str">
-        <f t="shared" si="3"/>
+      <c r="L236" t="str">
+        <f>TEXT(DATE(1976,1,K236),"mmm")</f>
         <v>Sep</v>
-      </c>
-      <c r="L236" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.5">
@@ -11870,15 +11870,15 @@
       <c r="I237" t="s">
         <v>128</v>
       </c>
-      <c r="J237">
+      <c r="J237" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K237">
         <v>259</v>
       </c>
-      <c r="K237" t="str">
-        <f t="shared" si="3"/>
+      <c r="L237" t="str">
+        <f>TEXT(DATE(1976,1,K237),"mmm")</f>
         <v>Sep</v>
-      </c>
-      <c r="L237" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.5">
@@ -11909,15 +11909,15 @@
       <c r="I238" t="s">
         <v>105</v>
       </c>
-      <c r="J238">
+      <c r="J238" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K238">
         <v>261</v>
       </c>
-      <c r="K238" t="str">
-        <f t="shared" si="3"/>
+      <c r="L238" t="str">
+        <f>TEXT(DATE(1976,1,K238),"mmm")</f>
         <v>Sep</v>
-      </c>
-      <c r="L238" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.5">
@@ -11948,15 +11948,15 @@
       <c r="I239" t="s">
         <v>105</v>
       </c>
-      <c r="J239">
+      <c r="J239" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K239">
         <v>262</v>
       </c>
-      <c r="K239" t="str">
-        <f t="shared" si="3"/>
+      <c r="L239" t="str">
+        <f>TEXT(DATE(1976,1,K239),"mmm")</f>
         <v>Sep</v>
-      </c>
-      <c r="L239" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.5">
@@ -11987,15 +11987,15 @@
       <c r="I240" t="s">
         <v>18</v>
       </c>
-      <c r="J240">
+      <c r="J240" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K240">
         <v>263</v>
       </c>
-      <c r="K240" t="str">
-        <f t="shared" si="3"/>
+      <c r="L240" t="str">
+        <f>TEXT(DATE(1976,1,K240),"mmm")</f>
         <v>Sep</v>
-      </c>
-      <c r="L240" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.5">
@@ -12026,15 +12026,15 @@
       <c r="I241" t="s">
         <v>128</v>
       </c>
-      <c r="J241">
+      <c r="J241" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K241">
         <v>265</v>
       </c>
-      <c r="K241" t="str">
-        <f t="shared" si="3"/>
+      <c r="L241" t="str">
+        <f>TEXT(DATE(1976,1,K241),"mmm")</f>
         <v>Sep</v>
-      </c>
-      <c r="L241" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.5">
@@ -12065,15 +12065,15 @@
       <c r="I242" t="s">
         <v>73</v>
       </c>
-      <c r="J242">
+      <c r="J242" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K242">
         <v>266</v>
       </c>
-      <c r="K242" t="str">
-        <f t="shared" si="3"/>
+      <c r="L242" t="str">
+        <f>TEXT(DATE(1976,1,K242),"mmm")</f>
         <v>Sep</v>
-      </c>
-      <c r="L242" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.5">
@@ -12104,15 +12104,15 @@
       <c r="I243" t="s">
         <v>18</v>
       </c>
-      <c r="J243">
+      <c r="J243" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K243">
         <v>268</v>
       </c>
-      <c r="K243" t="str">
-        <f t="shared" si="3"/>
+      <c r="L243" t="str">
+        <f>TEXT(DATE(1976,1,K243),"mmm")</f>
         <v>Sep</v>
-      </c>
-      <c r="L243" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.5">
@@ -12143,15 +12143,15 @@
       <c r="I244" t="s">
         <v>50</v>
       </c>
-      <c r="J244">
+      <c r="J244" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K244">
         <v>269</v>
       </c>
-      <c r="K244" t="str">
-        <f t="shared" si="3"/>
+      <c r="L244" t="str">
+        <f>TEXT(DATE(1976,1,K244),"mmm")</f>
         <v>Sep</v>
-      </c>
-      <c r="L244" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.5">
@@ -12182,15 +12182,15 @@
       <c r="I245" t="s">
         <v>50</v>
       </c>
-      <c r="J245">
+      <c r="J245" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K245">
         <v>270</v>
       </c>
-      <c r="K245" t="str">
-        <f t="shared" si="3"/>
+      <c r="L245" t="str">
+        <f>TEXT(DATE(1976,1,K245),"mmm")</f>
         <v>Sep</v>
-      </c>
-      <c r="L245" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.5">
@@ -12221,15 +12221,15 @@
       <c r="I246" t="s">
         <v>105</v>
       </c>
-      <c r="J246">
+      <c r="J246" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K246">
         <v>271</v>
       </c>
-      <c r="K246" t="str">
-        <f t="shared" si="3"/>
+      <c r="L246" t="str">
+        <f>TEXT(DATE(1976,1,K246),"mmm")</f>
         <v>Sep</v>
-      </c>
-      <c r="L246" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.5">
@@ -12260,15 +12260,15 @@
       <c r="I247" t="s">
         <v>50</v>
       </c>
-      <c r="J247">
+      <c r="J247" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K247">
         <v>272</v>
       </c>
-      <c r="K247" t="str">
-        <f t="shared" si="3"/>
+      <c r="L247" t="str">
+        <f>TEXT(DATE(1976,1,K247),"mmm")</f>
         <v>Sep</v>
-      </c>
-      <c r="L247" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.5">
@@ -12299,15 +12299,15 @@
       <c r="I248" t="s">
         <v>128</v>
       </c>
-      <c r="J248">
+      <c r="J248" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K248">
         <v>273</v>
       </c>
-      <c r="K248" t="str">
-        <f t="shared" si="3"/>
+      <c r="L248" t="str">
+        <f>TEXT(DATE(1976,1,K248),"mmm")</f>
         <v>Sep</v>
-      </c>
-      <c r="L248" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.5">
@@ -12338,15 +12338,15 @@
       <c r="I249" t="s">
         <v>68</v>
       </c>
-      <c r="J249">
+      <c r="J249" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K249">
         <v>274</v>
       </c>
-      <c r="K249" t="str">
-        <f t="shared" si="3"/>
+      <c r="L249" t="str">
+        <f>TEXT(DATE(1976,1,K249),"mmm")</f>
         <v>Sep</v>
-      </c>
-      <c r="L249" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.5">
@@ -12377,15 +12377,15 @@
       <c r="I250" t="s">
         <v>76</v>
       </c>
-      <c r="J250">
+      <c r="J250" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K250">
         <v>275</v>
       </c>
-      <c r="K250" t="str">
-        <f t="shared" si="3"/>
+      <c r="L250" t="str">
+        <f>TEXT(DATE(1976,1,K250),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L250" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.5">
@@ -12416,15 +12416,15 @@
       <c r="I251" t="s">
         <v>76</v>
       </c>
-      <c r="J251">
+      <c r="J251" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K251">
         <v>276</v>
       </c>
-      <c r="K251" t="str">
-        <f t="shared" si="3"/>
+      <c r="L251" t="str">
+        <f>TEXT(DATE(1976,1,K251),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L251" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.5">
@@ -12455,15 +12455,15 @@
       <c r="I252" t="s">
         <v>76</v>
       </c>
-      <c r="J252">
+      <c r="J252" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K252">
         <v>277</v>
       </c>
-      <c r="K252" t="str">
-        <f t="shared" si="3"/>
+      <c r="L252" t="str">
+        <f>TEXT(DATE(1976,1,K252),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L252" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.5">
@@ -12494,15 +12494,15 @@
       <c r="I253" t="s">
         <v>128</v>
       </c>
-      <c r="J253">
+      <c r="J253" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K253">
         <v>278</v>
       </c>
-      <c r="K253" t="str">
-        <f t="shared" si="3"/>
+      <c r="L253" t="str">
+        <f>TEXT(DATE(1976,1,K253),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L253" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.5">
@@ -12533,15 +12533,15 @@
       <c r="I254" t="s">
         <v>73</v>
       </c>
-      <c r="J254">
+      <c r="J254" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K254">
         <v>279</v>
       </c>
-      <c r="K254" t="str">
-        <f t="shared" si="3"/>
+      <c r="L254" t="str">
+        <f>TEXT(DATE(1976,1,K254),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L254" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.5">
@@ -12572,15 +12572,15 @@
       <c r="I255" t="s">
         <v>122</v>
       </c>
-      <c r="J255">
+      <c r="J255" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K255">
         <v>280</v>
       </c>
-      <c r="K255" t="str">
-        <f t="shared" si="3"/>
+      <c r="L255" t="str">
+        <f>TEXT(DATE(1976,1,K255),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L255" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.5">
@@ -12611,15 +12611,15 @@
       <c r="I256" t="s">
         <v>301</v>
       </c>
-      <c r="J256">
+      <c r="J256" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K256">
         <v>281</v>
       </c>
-      <c r="K256" t="str">
-        <f t="shared" si="3"/>
+      <c r="L256" t="str">
+        <f>TEXT(DATE(1976,1,K256),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L256" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.5">
@@ -12650,15 +12650,15 @@
       <c r="I257" t="s">
         <v>240</v>
       </c>
-      <c r="J257">
+      <c r="J257" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K257">
         <v>282</v>
       </c>
-      <c r="K257" t="str">
-        <f t="shared" si="3"/>
+      <c r="L257" t="str">
+        <f>TEXT(DATE(1976,1,K257),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L257" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.5">
@@ -12689,15 +12689,15 @@
       <c r="I258" t="s">
         <v>9</v>
       </c>
-      <c r="J258">
+      <c r="J258" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K258">
         <v>283</v>
       </c>
-      <c r="K258" t="str">
-        <f t="shared" si="3"/>
+      <c r="L258" t="str">
+        <f>TEXT(DATE(1976,1,K258),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L258" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.5">
@@ -12728,15 +12728,15 @@
       <c r="I259" t="s">
         <v>76</v>
       </c>
-      <c r="J259">
+      <c r="J259" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K259">
         <v>284</v>
       </c>
-      <c r="K259" t="str">
-        <f t="shared" si="3"/>
+      <c r="L259" t="str">
+        <f>TEXT(DATE(1976,1,K259),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L259" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.5">
@@ -12767,15 +12767,15 @@
       <c r="I260" t="s">
         <v>163</v>
       </c>
-      <c r="J260">
+      <c r="J260" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K260">
         <v>285</v>
       </c>
-      <c r="K260" t="str">
-        <f t="shared" ref="K260:K323" si="4">TEXT(DATE(1976,1,J260),"mmm")</f>
+      <c r="L260" t="str">
+        <f>TEXT(DATE(1976,1,K260),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L260" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.5">
@@ -12806,15 +12806,15 @@
       <c r="I261" t="s">
         <v>272</v>
       </c>
-      <c r="J261">
+      <c r="J261" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K261">
         <v>286</v>
       </c>
-      <c r="K261" t="str">
-        <f t="shared" si="4"/>
+      <c r="L261" t="str">
+        <f>TEXT(DATE(1976,1,K261),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L261" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.5">
@@ -12845,15 +12845,15 @@
       <c r="I262" t="s">
         <v>223</v>
       </c>
-      <c r="J262">
+      <c r="J262" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K262">
         <v>287</v>
       </c>
-      <c r="K262" t="str">
-        <f t="shared" si="4"/>
+      <c r="L262" t="str">
+        <f>TEXT(DATE(1976,1,K262),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L262" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.5">
@@ -12884,15 +12884,15 @@
       <c r="I263" t="s">
         <v>155</v>
       </c>
-      <c r="J263">
+      <c r="J263" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K263">
         <v>288</v>
       </c>
-      <c r="K263" t="str">
-        <f t="shared" si="4"/>
+      <c r="L263" t="str">
+        <f>TEXT(DATE(1976,1,K263),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L263" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.5">
@@ -12923,15 +12923,15 @@
       <c r="I264" t="s">
         <v>122</v>
       </c>
-      <c r="J264">
+      <c r="J264" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K264">
         <v>289</v>
       </c>
-      <c r="K264" t="str">
-        <f t="shared" si="4"/>
+      <c r="L264" t="str">
+        <f>TEXT(DATE(1976,1,K264),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L264" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.5">
@@ -12962,15 +12962,15 @@
       <c r="I265" t="s">
         <v>128</v>
       </c>
-      <c r="J265">
+      <c r="J265" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K265">
         <v>290</v>
       </c>
-      <c r="K265" t="str">
-        <f t="shared" si="4"/>
+      <c r="L265" t="str">
+        <f>TEXT(DATE(1976,1,K265),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L265" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.5">
@@ -13001,15 +13001,15 @@
       <c r="I266" t="s">
         <v>301</v>
       </c>
-      <c r="J266">
+      <c r="J266" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K266">
         <v>291</v>
       </c>
-      <c r="K266" t="str">
-        <f t="shared" si="4"/>
+      <c r="L266" t="str">
+        <f>TEXT(DATE(1976,1,K266),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L266" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.5">
@@ -13040,15 +13040,15 @@
       <c r="I267" t="s">
         <v>240</v>
       </c>
-      <c r="J267">
+      <c r="J267" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K267">
         <v>292</v>
       </c>
-      <c r="K267" t="str">
-        <f t="shared" si="4"/>
+      <c r="L267" t="str">
+        <f>TEXT(DATE(1976,1,K267),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L267" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.5">
@@ -13079,15 +13079,15 @@
       <c r="I268" t="s">
         <v>122</v>
       </c>
-      <c r="J268">
+      <c r="J268" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K268">
         <v>293</v>
       </c>
-      <c r="K268" t="str">
-        <f t="shared" si="4"/>
+      <c r="L268" t="str">
+        <f>TEXT(DATE(1976,1,K268),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L268" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.5">
@@ -13118,15 +13118,15 @@
       <c r="I269" t="s">
         <v>25</v>
       </c>
-      <c r="J269">
+      <c r="J269" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K269">
         <v>294</v>
       </c>
-      <c r="K269" t="str">
-        <f t="shared" si="4"/>
+      <c r="L269" t="str">
+        <f>TEXT(DATE(1976,1,K269),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L269" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.5">
@@ -13157,15 +13157,15 @@
       <c r="I270" t="s">
         <v>25</v>
       </c>
-      <c r="J270">
+      <c r="J270" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K270">
         <v>295</v>
       </c>
-      <c r="K270" t="str">
-        <f t="shared" si="4"/>
+      <c r="L270" t="str">
+        <f>TEXT(DATE(1976,1,K270),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L270" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.5">
@@ -13196,15 +13196,15 @@
       <c r="I271" t="s">
         <v>240</v>
       </c>
-      <c r="J271">
+      <c r="J271" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K271">
         <v>296</v>
       </c>
-      <c r="K271" t="str">
-        <f t="shared" si="4"/>
+      <c r="L271" t="str">
+        <f>TEXT(DATE(1976,1,K271),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L271" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.5">
@@ -13235,15 +13235,15 @@
       <c r="I272" t="s">
         <v>122</v>
       </c>
-      <c r="J272">
+      <c r="J272" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K272">
         <v>297</v>
       </c>
-      <c r="K272" t="str">
-        <f t="shared" si="4"/>
+      <c r="L272" t="str">
+        <f>TEXT(DATE(1976,1,K272),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L272" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.5">
@@ -13274,15 +13274,15 @@
       <c r="I273" t="s">
         <v>122</v>
       </c>
-      <c r="J273">
+      <c r="J273" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K273">
         <v>298</v>
       </c>
-      <c r="K273" t="str">
-        <f t="shared" si="4"/>
+      <c r="L273" t="str">
+        <f>TEXT(DATE(1976,1,K273),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L273" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.5">
@@ -13313,15 +13313,15 @@
       <c r="I274" t="s">
         <v>73</v>
       </c>
-      <c r="J274">
+      <c r="J274" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K274">
         <v>299</v>
       </c>
-      <c r="K274" t="str">
-        <f t="shared" si="4"/>
+      <c r="L274" t="str">
+        <f>TEXT(DATE(1976,1,K274),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L274" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.5">
@@ -13352,15 +13352,15 @@
       <c r="I275" t="s">
         <v>73</v>
       </c>
-      <c r="J275">
+      <c r="J275" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K275">
         <v>300</v>
       </c>
-      <c r="K275" t="str">
-        <f t="shared" si="4"/>
+      <c r="L275" t="str">
+        <f>TEXT(DATE(1976,1,K275),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L275" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.5">
@@ -13391,15 +13391,15 @@
       <c r="I276" t="s">
         <v>189</v>
       </c>
-      <c r="J276">
+      <c r="J276" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K276">
         <v>301</v>
       </c>
-      <c r="K276" t="str">
-        <f t="shared" si="4"/>
+      <c r="L276" t="str">
+        <f>TEXT(DATE(1976,1,K276),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L276" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.5">
@@ -13430,15 +13430,15 @@
       <c r="I277" t="s">
         <v>76</v>
       </c>
-      <c r="J277">
+      <c r="J277" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K277">
         <v>302</v>
       </c>
-      <c r="K277" t="str">
-        <f t="shared" si="4"/>
+      <c r="L277" t="str">
+        <f>TEXT(DATE(1976,1,K277),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L277" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.5">
@@ -13469,15 +13469,15 @@
       <c r="I278" t="s">
         <v>68</v>
       </c>
-      <c r="J278">
+      <c r="J278" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K278">
         <v>303</v>
       </c>
-      <c r="K278" t="str">
-        <f t="shared" si="4"/>
+      <c r="L278" t="str">
+        <f>TEXT(DATE(1976,1,K278),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L278" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.5">
@@ -13508,15 +13508,15 @@
       <c r="I279" t="s">
         <v>18</v>
       </c>
-      <c r="J279">
+      <c r="J279" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K279">
         <v>304</v>
       </c>
-      <c r="K279" t="str">
-        <f t="shared" si="4"/>
+      <c r="L279" t="str">
+        <f>TEXT(DATE(1976,1,K279),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L279" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.5">
@@ -13547,15 +13547,15 @@
       <c r="I280" t="s">
         <v>18</v>
       </c>
-      <c r="J280">
+      <c r="J280" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K280">
         <v>305</v>
       </c>
-      <c r="K280" t="str">
-        <f t="shared" si="4"/>
+      <c r="L280" t="str">
+        <f>TEXT(DATE(1976,1,K280),"mmm")</f>
         <v>Oct</v>
-      </c>
-      <c r="L280" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.5">
@@ -13586,15 +13586,15 @@
       <c r="I281" t="s">
         <v>68</v>
       </c>
-      <c r="J281">
+      <c r="J281" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K281">
         <v>308</v>
       </c>
-      <c r="K281" t="str">
-        <f t="shared" si="4"/>
+      <c r="L281" t="str">
+        <f>TEXT(DATE(1976,1,K281),"mmm")</f>
         <v>Nov</v>
-      </c>
-      <c r="L281" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.5">
@@ -13625,15 +13625,15 @@
       <c r="I282" t="s">
         <v>189</v>
       </c>
-      <c r="J282">
+      <c r="J282" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K282">
         <v>310</v>
       </c>
-      <c r="K282" t="str">
-        <f t="shared" si="4"/>
+      <c r="L282" t="str">
+        <f>TEXT(DATE(1976,1,K282),"mmm")</f>
         <v>Nov</v>
-      </c>
-      <c r="L282" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.5">
@@ -13664,15 +13664,15 @@
       <c r="I283" t="s">
         <v>155</v>
       </c>
-      <c r="J283">
+      <c r="J283" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K283">
         <v>312</v>
       </c>
-      <c r="K283" t="str">
-        <f t="shared" si="4"/>
+      <c r="L283" t="str">
+        <f>TEXT(DATE(1976,1,K283),"mmm")</f>
         <v>Nov</v>
-      </c>
-      <c r="L283" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.5">
@@ -13703,15 +13703,15 @@
       <c r="I284" t="s">
         <v>122</v>
       </c>
-      <c r="J284">
+      <c r="J284" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K284">
         <v>314</v>
       </c>
-      <c r="K284" t="str">
-        <f t="shared" si="4"/>
+      <c r="L284" t="str">
+        <f>TEXT(DATE(1976,1,K284),"mmm")</f>
         <v>Nov</v>
-      </c>
-      <c r="L284" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.5">
@@ -13742,15 +13742,15 @@
       <c r="I285" t="s">
         <v>272</v>
       </c>
-      <c r="J285">
+      <c r="J285" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K285">
         <v>315</v>
       </c>
-      <c r="K285" t="str">
-        <f t="shared" si="4"/>
+      <c r="L285" t="str">
+        <f>TEXT(DATE(1976,1,K285),"mmm")</f>
         <v>Nov</v>
-      </c>
-      <c r="L285" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.5">
@@ -13781,15 +13781,15 @@
       <c r="I286" t="s">
         <v>76</v>
       </c>
-      <c r="J286">
+      <c r="J286" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K286">
         <v>316</v>
       </c>
-      <c r="K286" t="str">
-        <f t="shared" si="4"/>
+      <c r="L286" t="str">
+        <f>TEXT(DATE(1976,1,K286),"mmm")</f>
         <v>Nov</v>
-      </c>
-      <c r="L286" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.5">
@@ -13820,15 +13820,15 @@
       <c r="I287" t="s">
         <v>50</v>
       </c>
-      <c r="J287">
+      <c r="J287" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K287">
         <v>317</v>
       </c>
-      <c r="K287" t="str">
-        <f t="shared" si="4"/>
+      <c r="L287" t="str">
+        <f>TEXT(DATE(1976,1,K287),"mmm")</f>
         <v>Nov</v>
-      </c>
-      <c r="L287" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.5">
@@ -13859,15 +13859,15 @@
       <c r="I288" t="s">
         <v>189</v>
       </c>
-      <c r="J288">
+      <c r="J288" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K288">
         <v>318</v>
       </c>
-      <c r="K288" t="str">
-        <f t="shared" si="4"/>
+      <c r="L288" t="str">
+        <f>TEXT(DATE(1976,1,K288),"mmm")</f>
         <v>Nov</v>
-      </c>
-      <c r="L288" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.5">
@@ -13898,15 +13898,15 @@
       <c r="I289" t="s">
         <v>76</v>
       </c>
-      <c r="J289">
+      <c r="J289" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K289">
         <v>319</v>
       </c>
-      <c r="K289" t="str">
-        <f t="shared" si="4"/>
+      <c r="L289" t="str">
+        <f>TEXT(DATE(1976,1,K289),"mmm")</f>
         <v>Nov</v>
-      </c>
-      <c r="L289" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.5">
@@ -13937,15 +13937,15 @@
       <c r="I290" t="s">
         <v>128</v>
       </c>
-      <c r="J290">
+      <c r="J290" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K290">
         <v>320</v>
       </c>
-      <c r="K290" t="str">
-        <f t="shared" si="4"/>
+      <c r="L290" t="str">
+        <f>TEXT(DATE(1976,1,K290),"mmm")</f>
         <v>Nov</v>
-      </c>
-      <c r="L290" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.5">
@@ -13976,15 +13976,15 @@
       <c r="I291" t="s">
         <v>105</v>
       </c>
-      <c r="J291">
+      <c r="J291" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K291">
         <v>321</v>
       </c>
-      <c r="K291" t="str">
-        <f t="shared" si="4"/>
+      <c r="L291" t="str">
+        <f>TEXT(DATE(1976,1,K291),"mmm")</f>
         <v>Nov</v>
-      </c>
-      <c r="L291" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.5">
@@ -14015,15 +14015,15 @@
       <c r="I292" t="s">
         <v>68</v>
       </c>
-      <c r="J292">
+      <c r="J292" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K292">
         <v>322</v>
       </c>
-      <c r="K292" t="str">
-        <f t="shared" si="4"/>
+      <c r="L292" t="str">
+        <f>TEXT(DATE(1976,1,K292),"mmm")</f>
         <v>Nov</v>
-      </c>
-      <c r="L292" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.5">
@@ -14054,15 +14054,15 @@
       <c r="I293" t="s">
         <v>76</v>
       </c>
-      <c r="J293">
+      <c r="J293" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K293">
         <v>323</v>
       </c>
-      <c r="K293" t="str">
-        <f t="shared" si="4"/>
+      <c r="L293" t="str">
+        <f>TEXT(DATE(1976,1,K293),"mmm")</f>
         <v>Nov</v>
-      </c>
-      <c r="L293" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.5">
@@ -14093,15 +14093,15 @@
       <c r="I294" t="s">
         <v>316</v>
       </c>
-      <c r="J294">
+      <c r="J294" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K294">
         <v>324</v>
       </c>
-      <c r="K294" t="str">
-        <f t="shared" si="4"/>
+      <c r="L294" t="str">
+        <f>TEXT(DATE(1976,1,K294),"mmm")</f>
         <v>Nov</v>
-      </c>
-      <c r="L294" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.5">
@@ -14132,15 +14132,15 @@
       <c r="I295" t="s">
         <v>73</v>
       </c>
-      <c r="J295">
+      <c r="J295" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K295">
         <v>325</v>
       </c>
-      <c r="K295" t="str">
-        <f t="shared" si="4"/>
+      <c r="L295" t="str">
+        <f>TEXT(DATE(1976,1,K295),"mmm")</f>
         <v>Nov</v>
-      </c>
-      <c r="L295" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.5">
@@ -14171,15 +14171,15 @@
       <c r="I296" t="s">
         <v>155</v>
       </c>
-      <c r="J296">
+      <c r="J296" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K296">
         <v>326</v>
       </c>
-      <c r="K296" t="str">
-        <f t="shared" si="4"/>
+      <c r="L296" t="str">
+        <f>TEXT(DATE(1976,1,K296),"mmm")</f>
         <v>Nov</v>
-      </c>
-      <c r="L296" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.5">
@@ -14210,15 +14210,15 @@
       <c r="I297" t="s">
         <v>155</v>
       </c>
-      <c r="J297">
+      <c r="J297" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K297">
         <v>327</v>
       </c>
-      <c r="K297" t="str">
-        <f t="shared" si="4"/>
+      <c r="L297" t="str">
+        <f>TEXT(DATE(1976,1,K297),"mmm")</f>
         <v>Nov</v>
-      </c>
-      <c r="L297" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.5">
@@ -14249,15 +14249,15 @@
       <c r="I298" t="s">
         <v>163</v>
       </c>
-      <c r="J298">
+      <c r="J298" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K298">
         <v>328</v>
       </c>
-      <c r="K298" t="str">
-        <f t="shared" si="4"/>
+      <c r="L298" t="str">
+        <f>TEXT(DATE(1976,1,K298),"mmm")</f>
         <v>Nov</v>
-      </c>
-      <c r="L298" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.5">
@@ -14288,15 +14288,15 @@
       <c r="I299" t="s">
         <v>173</v>
       </c>
-      <c r="J299">
+      <c r="J299" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K299">
         <v>329</v>
       </c>
-      <c r="K299" t="str">
-        <f t="shared" si="4"/>
+      <c r="L299" t="str">
+        <f>TEXT(DATE(1976,1,K299),"mmm")</f>
         <v>Nov</v>
-      </c>
-      <c r="L299" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.5">
@@ -14327,15 +14327,15 @@
       <c r="I300" t="s">
         <v>155</v>
       </c>
-      <c r="J300">
+      <c r="J300" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K300">
         <v>330</v>
       </c>
-      <c r="K300" t="str">
-        <f t="shared" si="4"/>
+      <c r="L300" t="str">
+        <f>TEXT(DATE(1976,1,K300),"mmm")</f>
         <v>Nov</v>
-      </c>
-      <c r="L300" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.5">
@@ -14366,15 +14366,15 @@
       <c r="I301" t="s">
         <v>25</v>
       </c>
-      <c r="J301">
+      <c r="J301" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K301">
         <v>331</v>
       </c>
-      <c r="K301" t="str">
-        <f t="shared" si="4"/>
+      <c r="L301" t="str">
+        <f>TEXT(DATE(1976,1,K301),"mmm")</f>
         <v>Nov</v>
-      </c>
-      <c r="L301" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.5">
@@ -14405,15 +14405,15 @@
       <c r="I302" t="s">
         <v>68</v>
       </c>
-      <c r="J302">
+      <c r="J302" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K302">
         <v>332</v>
       </c>
-      <c r="K302" t="str">
-        <f t="shared" si="4"/>
+      <c r="L302" t="str">
+        <f>TEXT(DATE(1976,1,K302),"mmm")</f>
         <v>Nov</v>
-      </c>
-      <c r="L302" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.5">
@@ -14444,15 +14444,15 @@
       <c r="I303" t="s">
         <v>18</v>
       </c>
-      <c r="J303">
+      <c r="J303" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K303">
         <v>333</v>
       </c>
-      <c r="K303" t="str">
-        <f t="shared" si="4"/>
+      <c r="L303" t="str">
+        <f>TEXT(DATE(1976,1,K303),"mmm")</f>
         <v>Nov</v>
-      </c>
-      <c r="L303" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.5">
@@ -14483,15 +14483,15 @@
       <c r="I304" t="s">
         <v>9</v>
       </c>
-      <c r="J304">
+      <c r="J304" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K304">
         <v>334</v>
       </c>
-      <c r="K304" t="str">
-        <f t="shared" si="4"/>
+      <c r="L304" t="str">
+        <f>TEXT(DATE(1976,1,K304),"mmm")</f>
         <v>Nov</v>
-      </c>
-      <c r="L304" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.5">
@@ -14522,15 +14522,15 @@
       <c r="I305" t="s">
         <v>68</v>
       </c>
-      <c r="J305">
+      <c r="J305" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K305">
         <v>335</v>
       </c>
-      <c r="K305" t="str">
-        <f t="shared" si="4"/>
+      <c r="L305" t="str">
+        <f>TEXT(DATE(1976,1,K305),"mmm")</f>
         <v>Nov</v>
-      </c>
-      <c r="L305" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.5">
@@ -14561,15 +14561,15 @@
       <c r="I306" t="s">
         <v>76</v>
       </c>
-      <c r="J306">
+      <c r="J306" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K306">
         <v>336</v>
       </c>
-      <c r="K306" t="str">
-        <f t="shared" si="4"/>
+      <c r="L306" t="str">
+        <f>TEXT(DATE(1976,1,K306),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L306" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.5">
@@ -14600,15 +14600,15 @@
       <c r="I307" t="s">
         <v>76</v>
       </c>
-      <c r="J307">
+      <c r="J307" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K307">
         <v>337</v>
       </c>
-      <c r="K307" t="str">
-        <f t="shared" si="4"/>
+      <c r="L307" t="str">
+        <f>TEXT(DATE(1976,1,K307),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L307" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.5">
@@ -14639,15 +14639,15 @@
       <c r="I308" t="s">
         <v>76</v>
       </c>
-      <c r="J308">
+      <c r="J308" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K308">
         <v>338</v>
       </c>
-      <c r="K308" t="str">
-        <f t="shared" si="4"/>
+      <c r="L308" t="str">
+        <f>TEXT(DATE(1976,1,K308),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L308" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.5">
@@ -14678,15 +14678,15 @@
       <c r="I309" t="s">
         <v>240</v>
       </c>
-      <c r="J309">
+      <c r="J309" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K309">
         <v>339</v>
       </c>
-      <c r="K309" t="str">
-        <f t="shared" si="4"/>
+      <c r="L309" t="str">
+        <f>TEXT(DATE(1976,1,K309),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L309" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.5">
@@ -14717,15 +14717,15 @@
       <c r="I310" t="s">
         <v>25</v>
       </c>
-      <c r="J310">
+      <c r="J310" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K310">
         <v>340</v>
       </c>
-      <c r="K310" t="str">
-        <f t="shared" si="4"/>
+      <c r="L310" t="str">
+        <f>TEXT(DATE(1976,1,K310),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L310" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.5">
@@ -14756,15 +14756,15 @@
       <c r="I311" t="s">
         <v>189</v>
       </c>
-      <c r="J311">
+      <c r="J311" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K311">
         <v>341</v>
       </c>
-      <c r="K311" t="str">
-        <f t="shared" si="4"/>
+      <c r="L311" t="str">
+        <f>TEXT(DATE(1976,1,K311),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L311" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.5">
@@ -14795,15 +14795,15 @@
       <c r="I312" t="s">
         <v>76</v>
       </c>
-      <c r="J312">
+      <c r="J312" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K312">
         <v>342</v>
       </c>
-      <c r="K312" t="str">
-        <f t="shared" si="4"/>
+      <c r="L312" t="str">
+        <f>TEXT(DATE(1976,1,K312),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L312" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.5">
@@ -14834,15 +14834,15 @@
       <c r="I313" t="s">
         <v>189</v>
       </c>
-      <c r="J313">
+      <c r="J313" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K313">
         <v>343</v>
       </c>
-      <c r="K313" t="str">
-        <f t="shared" si="4"/>
+      <c r="L313" t="str">
+        <f>TEXT(DATE(1976,1,K313),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L313" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.5">
@@ -14873,15 +14873,15 @@
       <c r="I314" t="s">
         <v>122</v>
       </c>
-      <c r="J314">
+      <c r="J314" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K314">
         <v>344</v>
       </c>
-      <c r="K314" t="str">
-        <f t="shared" si="4"/>
+      <c r="L314" t="str">
+        <f>TEXT(DATE(1976,1,K314),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L314" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.5">
@@ -14912,15 +14912,15 @@
       <c r="I315" t="s">
         <v>73</v>
       </c>
-      <c r="J315">
+      <c r="J315" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K315">
         <v>345</v>
       </c>
-      <c r="K315" t="str">
-        <f t="shared" si="4"/>
+      <c r="L315" t="str">
+        <f>TEXT(DATE(1976,1,K315),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L315" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.5">
@@ -14951,15 +14951,15 @@
       <c r="I316" t="s">
         <v>128</v>
       </c>
-      <c r="J316">
+      <c r="J316" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K316">
         <v>346</v>
       </c>
-      <c r="K316" t="str">
-        <f t="shared" si="4"/>
+      <c r="L316" t="str">
+        <f>TEXT(DATE(1976,1,K316),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L316" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.5">
@@ -14990,15 +14990,15 @@
       <c r="I317" t="s">
         <v>68</v>
       </c>
-      <c r="J317">
+      <c r="J317" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K317">
         <v>347</v>
       </c>
-      <c r="K317" t="str">
-        <f t="shared" si="4"/>
+      <c r="L317" t="str">
+        <f>TEXT(DATE(1976,1,K317),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L317" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.5">
@@ -15029,15 +15029,15 @@
       <c r="I318" t="s">
         <v>68</v>
       </c>
-      <c r="J318">
+      <c r="J318" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K318">
         <v>348</v>
       </c>
-      <c r="K318" t="str">
-        <f t="shared" si="4"/>
+      <c r="L318" t="str">
+        <f>TEXT(DATE(1976,1,K318),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L318" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.5">
@@ -15068,15 +15068,15 @@
       <c r="I319" t="s">
         <v>128</v>
       </c>
-      <c r="J319">
+      <c r="J319" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K319">
         <v>349</v>
       </c>
-      <c r="K319" t="str">
-        <f t="shared" si="4"/>
+      <c r="L319" t="str">
+        <f>TEXT(DATE(1976,1,K319),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L319" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.5">
@@ -15107,15 +15107,15 @@
       <c r="I320" t="s">
         <v>76</v>
       </c>
-      <c r="J320">
+      <c r="J320" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K320">
         <v>350</v>
       </c>
-      <c r="K320" t="str">
-        <f t="shared" si="4"/>
+      <c r="L320" t="str">
+        <f>TEXT(DATE(1976,1,K320),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L320" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.5">
@@ -15146,15 +15146,15 @@
       <c r="I321" t="s">
         <v>50</v>
       </c>
-      <c r="J321">
+      <c r="J321" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K321">
         <v>351</v>
       </c>
-      <c r="K321" t="str">
-        <f t="shared" si="4"/>
+      <c r="L321" t="str">
+        <f>TEXT(DATE(1976,1,K321),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L321" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.5">
@@ -15185,15 +15185,15 @@
       <c r="I322" t="s">
         <v>68</v>
       </c>
-      <c r="J322">
+      <c r="J322" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K322">
         <v>352</v>
       </c>
-      <c r="K322" t="str">
-        <f t="shared" si="4"/>
+      <c r="L322" t="str">
+        <f>TEXT(DATE(1976,1,K322),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L322" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.5">
@@ -15224,15 +15224,15 @@
       <c r="I323" t="s">
         <v>68</v>
       </c>
-      <c r="J323">
+      <c r="J323" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K323">
         <v>353</v>
       </c>
-      <c r="K323" t="str">
-        <f t="shared" si="4"/>
+      <c r="L323" t="str">
+        <f>TEXT(DATE(1976,1,K323),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L323" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.5">
@@ -15263,15 +15263,15 @@
       <c r="I324" t="s">
         <v>25</v>
       </c>
-      <c r="J324">
+      <c r="J324" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K324">
         <v>354</v>
       </c>
-      <c r="K324" t="str">
-        <f t="shared" ref="K324:K333" si="5">TEXT(DATE(1976,1,J324),"mmm")</f>
+      <c r="L324" t="str">
+        <f>TEXT(DATE(1976,1,K324),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L324" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.5">
@@ -15302,15 +15302,15 @@
       <c r="I325" t="s">
         <v>128</v>
       </c>
-      <c r="J325">
+      <c r="J325" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K325">
         <v>355</v>
       </c>
-      <c r="K325" t="str">
-        <f t="shared" si="5"/>
+      <c r="L325" t="str">
+        <f>TEXT(DATE(1976,1,K325),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L325" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.5">
@@ -15341,15 +15341,15 @@
       <c r="I326" t="s">
         <v>68</v>
       </c>
-      <c r="J326">
+      <c r="J326" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K326">
         <v>356</v>
       </c>
-      <c r="K326" t="str">
-        <f t="shared" si="5"/>
+      <c r="L326" t="str">
+        <f>TEXT(DATE(1976,1,K326),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L326" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.5">
@@ -15380,15 +15380,15 @@
       <c r="I327" t="s">
         <v>189</v>
       </c>
-      <c r="J327">
+      <c r="J327" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K327">
         <v>357</v>
       </c>
-      <c r="K327" t="str">
-        <f t="shared" si="5"/>
+      <c r="L327" t="str">
+        <f>TEXT(DATE(1976,1,K327),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L327" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.5">
@@ -15419,15 +15419,15 @@
       <c r="I328" t="s">
         <v>18</v>
       </c>
-      <c r="J328">
+      <c r="J328" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K328">
         <v>358</v>
       </c>
-      <c r="K328" t="str">
-        <f t="shared" si="5"/>
+      <c r="L328" t="str">
+        <f>TEXT(DATE(1976,1,K328),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L328" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.5">
@@ -15458,15 +15458,15 @@
       <c r="I329" t="s">
         <v>128</v>
       </c>
-      <c r="J329">
+      <c r="J329" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K329">
         <v>359</v>
       </c>
-      <c r="K329" t="str">
-        <f t="shared" si="5"/>
+      <c r="L329" t="str">
+        <f>TEXT(DATE(1976,1,K329),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L329" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.5">
@@ -15497,15 +15497,15 @@
       <c r="I330" t="s">
         <v>76</v>
       </c>
-      <c r="J330">
+      <c r="J330" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K330">
         <v>362</v>
       </c>
-      <c r="K330" t="str">
-        <f t="shared" si="5"/>
+      <c r="L330" t="str">
+        <f>TEXT(DATE(1976,1,K330),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L330" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.5">
@@ -15536,15 +15536,15 @@
       <c r="I331" t="s">
         <v>128</v>
       </c>
-      <c r="J331">
+      <c r="J331" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K331">
         <v>363</v>
       </c>
-      <c r="K331" t="str">
-        <f t="shared" si="5"/>
+      <c r="L331" t="str">
+        <f>TEXT(DATE(1976,1,K331),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L331" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.5">
@@ -15575,15 +15575,15 @@
       <c r="I332" t="s">
         <v>73</v>
       </c>
-      <c r="J332">
+      <c r="J332" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K332">
         <v>364</v>
       </c>
-      <c r="K332" t="str">
-        <f t="shared" si="5"/>
+      <c r="L332" t="str">
+        <f>TEXT(DATE(1976,1,K332),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L332" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.5">
@@ -15614,15 +15614,15 @@
       <c r="I333" t="s">
         <v>18</v>
       </c>
-      <c r="J333">
+      <c r="J333" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K333">
         <v>365</v>
       </c>
-      <c r="K333" t="str">
-        <f t="shared" si="5"/>
+      <c r="L333" t="str">
+        <f>TEXT(DATE(1976,1,K333),"mmm")</f>
         <v>Dec</v>
-      </c>
-      <c r="L333" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
   </sheetData>
